--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -10458,10 +10458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -10501,17 +10501,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10523,64 +10553,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10598,9 +10574,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10616,22 +10632,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10671,109 +10671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10791,25 +10689,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10833,25 +10779,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10917,41 +10917,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10989,6 +10959,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -11005,15 +11014,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,133 +11034,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13194,9 +13194,9 @@
   <dimension ref="A1:P754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41304,9 +41304,9 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6555"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -10458,10 +10458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -10501,7 +10501,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10515,15 +10582,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10531,6 +10591,37 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10547,98 +10638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10671,7 +10671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10683,13 +10683,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10701,73 +10809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10779,79 +10851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10917,15 +10917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -10952,15 +10943,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11006,6 +10988,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,133 +11034,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13194,9 +13194,9 @@
   <dimension ref="A1:P754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41303,10 +41303,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43792,7 +43792,7 @@
         <v>1807</v>
       </c>
       <c r="I165" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:9">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -10458,10 +10458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -10501,16 +10501,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10522,7 +10554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10536,7 +10568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10545,6 +10577,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10560,22 +10600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10590,24 +10615,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10621,24 +10630,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10671,7 +10671,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10683,13 +10737,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10701,157 +10845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10917,6 +10917,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -10943,6 +10952,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10988,24 +11006,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,133 +11034,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13194,9 +13194,9 @@
   <dimension ref="A1:P754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="C682" sqref="C682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41304,9 +41304,9 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -10677,6 +10677,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10684,6 +10696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10713,6 +10731,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10725,19 +10755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10767,7 +10791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10791,7 +10815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10803,37 +10827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10845,13 +10839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,16 +11034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11058,7 +11058,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11079,7 +11079,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -11088,19 +11088,19 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -11109,55 +11109,55 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13193,10 +13193,10 @@
   <sheetPr/>
   <dimension ref="A1:P754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C682" sqref="C682"/>
+      <selection pane="bottomLeft" activeCell="C683" sqref="C683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41303,10 +41303,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
+      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -10459,8 +10459,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -10500,23 +10500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10598,6 +10583,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -10671,24 +10671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10696,12 +10678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10731,18 +10707,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10755,13 +10719,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10791,7 +10767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10815,6 +10791,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10827,7 +10809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10839,19 +10845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10927,21 +10927,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -10961,6 +10946,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,73 +11034,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -11109,58 +11109,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13193,10 +13193,10 @@
   <sheetPr/>
   <dimension ref="A1:P754"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C683" sqref="C683"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41303,10 +41303,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -10459,8 +10459,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -10500,8 +10500,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10513,13 +10550,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10552,24 +10582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10580,21 +10595,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10671,6 +10671,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10683,7 +10707,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10707,37 +10797,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10767,91 +10851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10927,6 +10927,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -10946,21 +10961,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11022,10 +11022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11034,73 +11034,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -11109,58 +11109,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13196,7 +13196,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41304,9 +41304,9 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
+      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -10505,6 +10505,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -10512,14 +10558,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10533,6 +10579,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -10541,31 +10595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10580,24 +10612,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10611,26 +10627,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10674,6 +10674,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10686,13 +10728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10704,19 +10740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10728,25 +10770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10758,13 +10788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10776,67 +10812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10849,6 +10831,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10929,6 +10929,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -10940,6 +10949,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10985,29 +11003,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11019,10 +11019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11031,133 +11031,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13191,9 +13191,9 @@
   <dimension ref="A1:P754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41300,10 +41300,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+      <selection pane="bottomLeft" activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43831,7 +43831,7 @@
         <v>1854</v>
       </c>
       <c r="I167" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:9">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -10459,10 +10459,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -10538,6 +10538,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -10577,22 +10600,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10617,21 +10632,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10677,6 +10677,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10684,6 +10696,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10707,7 +10755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10725,25 +10785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10767,7 +10809,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10779,37 +10839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10827,37 +10857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10923,6 +10923,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10934,15 +10958,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10977,17 +10992,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11011,15 +11020,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11028,10 +11028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11040,19 +11040,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11061,112 +11061,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11288,9 +11288,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -11346,6 +11343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -13203,9 +13203,9 @@
   <dimension ref="A1:Q754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I650" sqref="I650"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17820,39 +17820,39 @@
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
     </row>
-    <row r="161" spans="1:17">
-      <c r="A161" s="9" t="s">
+    <row r="161" s="28" customFormat="1" spans="1:17">
+      <c r="A161" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="E161" s="39" t="str">
+      <c r="E161" s="38" t="str">
         <f>VLOOKUP(MID(D161,1,2),字库代码!B:I,8,TRUE)</f>
         <v>医院</v>
       </c>
       <c r="F161" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="11" t="s">
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
-      <c r="P161" s="11"/>
-      <c r="Q161" s="11"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
     </row>
     <row r="162" s="28" customFormat="1" spans="1:17">
       <c r="A162" s="35" t="s">
@@ -19720,7 +19720,7 @@
       <c r="C231" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="D231" s="40" t="s">
+      <c r="D231" s="39" t="s">
         <v>760</v>
       </c>
       <c r="F231" s="35" t="s">
@@ -19774,175 +19774,175 @@
       <c r="P232" s="20"/>
       <c r="Q232" s="20"/>
     </row>
-    <row r="233" spans="1:17">
-      <c r="A233" s="9" t="s">
+    <row r="233" s="28" customFormat="1" spans="1:17">
+      <c r="A233" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="E233" s="39" t="str">
+      <c r="E233" s="38" t="str">
         <f>VLOOKUP(MID(D233,1,2),字库代码!B:I,8,TRUE)</f>
         <v>空袭</v>
       </c>
       <c r="F233" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="11" t="s">
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J233" s="11"/>
-      <c r="K233" s="11"/>
-      <c r="L233" s="11"/>
-      <c r="M233" s="11"/>
-      <c r="N233" s="11"/>
-      <c r="O233" s="11"/>
-      <c r="P233" s="11"/>
-      <c r="Q233" s="11"/>
-    </row>
-    <row r="234" spans="1:17">
-      <c r="A234" s="9" t="s">
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="20"/>
+      <c r="O233" s="20"/>
+      <c r="P233" s="20"/>
+      <c r="Q233" s="20"/>
+    </row>
+    <row r="234" s="28" customFormat="1" spans="1:17">
+      <c r="A234" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="35" t="s">
         <v>771</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C234" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="35" t="s">
         <v>773</v>
       </c>
-      <c r="E234" s="39" t="str">
+      <c r="E234" s="38" t="str">
         <f>VLOOKUP(MID(D234,1,2),字库代码!B:I,8,TRUE)</f>
         <v>霸王龙</v>
       </c>
       <c r="F234" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="11" t="s">
+      <c r="G234" s="35"/>
+      <c r="H234" s="35"/>
+      <c r="I234" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11"/>
-    </row>
-    <row r="235" spans="1:17">
-      <c r="A235" s="9" t="s">
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="20"/>
+      <c r="N234" s="20"/>
+      <c r="O234" s="20"/>
+      <c r="P234" s="20"/>
+      <c r="Q234" s="20"/>
+    </row>
+    <row r="235" s="28" customFormat="1" spans="1:17">
+      <c r="A235" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C235" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="35" t="s">
         <v>777</v>
       </c>
-      <c r="E235" s="39" t="str">
+      <c r="E235" s="38" t="str">
         <f>VLOOKUP(MID(D235,1,2),字库代码!B:I,8,TRUE)</f>
         <v>三角龙</v>
       </c>
       <c r="F235" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="11" t="s">
+      <c r="G235" s="35"/>
+      <c r="H235" s="35"/>
+      <c r="I235" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J235" s="11"/>
-      <c r="K235" s="11"/>
-      <c r="L235" s="11"/>
-      <c r="M235" s="11"/>
-      <c r="N235" s="11"/>
-      <c r="O235" s="11"/>
-      <c r="P235" s="11"/>
-      <c r="Q235" s="11"/>
-    </row>
-    <row r="236" spans="1:17">
-      <c r="A236" s="9" t="s">
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="20"/>
+      <c r="N235" s="20"/>
+      <c r="O235" s="20"/>
+      <c r="P235" s="20"/>
+      <c r="Q235" s="20"/>
+    </row>
+    <row r="236" s="28" customFormat="1" spans="1:17">
+      <c r="A236" s="35" t="s">
         <v>778</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="35" t="s">
         <v>779</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="35" t="s">
         <v>781</v>
       </c>
-      <c r="E236" s="39" t="str">
+      <c r="E236" s="38" t="str">
         <f>VLOOKUP(MID(D236,1,2),字库代码!B:I,8,TRUE)</f>
         <v>迅猛龙</v>
       </c>
       <c r="F236" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="11" t="s">
+      <c r="G236" s="35"/>
+      <c r="H236" s="35"/>
+      <c r="I236" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J236" s="11"/>
-      <c r="K236" s="11"/>
-      <c r="L236" s="11"/>
-      <c r="M236" s="11"/>
-      <c r="N236" s="11"/>
-      <c r="O236" s="11"/>
-      <c r="P236" s="11"/>
-      <c r="Q236" s="11"/>
-    </row>
-    <row r="237" spans="1:17">
-      <c r="A237" s="9" t="s">
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="20"/>
+      <c r="N236" s="20"/>
+      <c r="O236" s="20"/>
+      <c r="P236" s="20"/>
+      <c r="Q236" s="20"/>
+    </row>
+    <row r="237" s="28" customFormat="1" spans="1:17">
+      <c r="A237" s="35" t="s">
         <v>782</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="35" t="s">
         <v>783</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C237" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D237" s="35" t="s">
         <v>785</v>
       </c>
-      <c r="E237" s="39" t="str">
+      <c r="E237" s="38" t="str">
         <f>VLOOKUP(MID(D237,1,2),字库代码!B:I,8,TRUE)</f>
         <v>剑龙</v>
       </c>
       <c r="F237" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="11" t="s">
+      <c r="G237" s="35"/>
+      <c r="H237" s="35"/>
+      <c r="I237" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J237" s="11"/>
-      <c r="K237" s="11"/>
-      <c r="L237" s="11"/>
-      <c r="M237" s="11"/>
-      <c r="N237" s="11"/>
-      <c r="O237" s="11"/>
-      <c r="P237" s="11"/>
-      <c r="Q237" s="11"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="20"/>
+      <c r="M237" s="20"/>
+      <c r="N237" s="20"/>
+      <c r="O237" s="20"/>
+      <c r="P237" s="20"/>
+      <c r="Q237" s="20"/>
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="9" t="s">
@@ -20273,32 +20273,32 @@
       <c r="Q249" s="20"/>
     </row>
     <row r="250" s="30" customFormat="1" spans="1:17">
-      <c r="A250" s="41" t="s">
+      <c r="A250" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="B250" s="41" t="s">
+      <c r="B250" s="40" t="s">
         <v>825</v>
       </c>
       <c r="C250" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="D250" s="41"/>
-      <c r="F250" s="41"/>
-      <c r="G250" s="41"/>
-      <c r="H250" s="41"/>
-      <c r="I250" s="42"/>
-      <c r="J250" s="43" t="s">
+      <c r="D250" s="40"/>
+      <c r="F250" s="40"/>
+      <c r="G250" s="40"/>
+      <c r="H250" s="40"/>
+      <c r="I250" s="41"/>
+      <c r="J250" s="42" t="s">
         <v>827</v>
       </c>
-      <c r="K250" s="43" t="s">
+      <c r="K250" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L250" s="43"/>
-      <c r="M250" s="43"/>
-      <c r="N250" s="43"/>
-      <c r="O250" s="43"/>
-      <c r="P250" s="43"/>
-      <c r="Q250" s="43"/>
+      <c r="L250" s="42"/>
+      <c r="M250" s="42"/>
+      <c r="N250" s="42"/>
+      <c r="O250" s="42"/>
+      <c r="P250" s="42"/>
+      <c r="Q250" s="42"/>
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="9" t="s">
@@ -20660,29 +20660,29 @@
       <c r="Q262" s="20"/>
     </row>
     <row r="263" s="30" customFormat="1" spans="1:17">
-      <c r="A263" s="41" t="s">
+      <c r="A263" s="40" t="s">
         <v>875</v>
       </c>
-      <c r="B263" s="41" t="s">
+      <c r="B263" s="40" t="s">
         <v>876</v>
       </c>
-      <c r="D263" s="41"/>
-      <c r="F263" s="41"/>
-      <c r="G263" s="41"/>
-      <c r="H263" s="41"/>
-      <c r="I263" s="42"/>
-      <c r="J263" s="43" t="s">
+      <c r="D263" s="40"/>
+      <c r="F263" s="40"/>
+      <c r="G263" s="40"/>
+      <c r="H263" s="40"/>
+      <c r="I263" s="41"/>
+      <c r="J263" s="42" t="s">
         <v>877</v>
       </c>
-      <c r="K263" s="43" t="s">
+      <c r="K263" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L263" s="43"/>
-      <c r="M263" s="43"/>
-      <c r="N263" s="43"/>
-      <c r="O263" s="43"/>
-      <c r="P263" s="43"/>
-      <c r="Q263" s="43"/>
+      <c r="L263" s="42"/>
+      <c r="M263" s="42"/>
+      <c r="N263" s="42"/>
+      <c r="O263" s="42"/>
+      <c r="P263" s="42"/>
+      <c r="Q263" s="42"/>
     </row>
     <row r="264" spans="1:17">
       <c r="A264" s="9" t="s">
@@ -24087,7 +24087,7 @@
       <c r="G391" s="35" t="s">
         <v>1133</v>
       </c>
-      <c r="H391" s="44" t="s">
+      <c r="H391" s="43" t="s">
         <v>1243</v>
       </c>
       <c r="I391" s="35" t="s">
@@ -24125,7 +24125,7 @@
       <c r="G392" s="35" t="s">
         <v>1136</v>
       </c>
-      <c r="H392" s="44"/>
+      <c r="H392" s="43"/>
       <c r="I392" s="35" t="s">
         <v>693</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>618</v>
       </c>
       <c r="G393" s="35"/>
-      <c r="H393" s="44"/>
+      <c r="H393" s="43"/>
       <c r="I393" s="35" t="s">
         <v>693</v>
       </c>
@@ -24195,7 +24195,7 @@
       <c r="G394" s="35" t="s">
         <v>1136</v>
       </c>
-      <c r="H394" s="44"/>
+      <c r="H394" s="43"/>
       <c r="I394" s="35" t="s">
         <v>693</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>618</v>
       </c>
       <c r="G395" s="35"/>
-      <c r="H395" s="44"/>
+      <c r="H395" s="43"/>
       <c r="I395" s="35" t="s">
         <v>693</v>
       </c>
@@ -24265,7 +24265,7 @@
       <c r="G396" s="35" t="s">
         <v>1261</v>
       </c>
-      <c r="H396" s="44"/>
+      <c r="H396" s="43"/>
       <c r="I396" s="35" t="s">
         <v>693</v>
       </c>
@@ -24301,7 +24301,7 @@
       <c r="G397" s="35" t="s">
         <v>1265</v>
       </c>
-      <c r="H397" s="44"/>
+      <c r="H397" s="43"/>
       <c r="I397" s="35" t="s">
         <v>693</v>
       </c>
@@ -24337,7 +24337,7 @@
       <c r="G398" s="35" t="s">
         <v>1269</v>
       </c>
-      <c r="H398" s="44"/>
+      <c r="H398" s="43"/>
       <c r="I398" s="35" t="s">
         <v>693</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>618</v>
       </c>
       <c r="G399" s="35"/>
-      <c r="H399" s="44"/>
+      <c r="H399" s="43"/>
       <c r="I399" s="35" t="s">
         <v>693</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>618</v>
       </c>
       <c r="G400" s="35"/>
-      <c r="H400" s="44"/>
+      <c r="H400" s="43"/>
       <c r="I400" s="35" t="s">
         <v>693</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>618</v>
       </c>
       <c r="G401" s="35"/>
-      <c r="H401" s="44"/>
+      <c r="H401" s="43"/>
       <c r="I401" s="35" t="s">
         <v>693</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>618</v>
       </c>
       <c r="G402" s="35"/>
-      <c r="H402" s="44"/>
+      <c r="H402" s="43"/>
       <c r="I402" s="35" t="s">
         <v>693</v>
       </c>
@@ -24507,7 +24507,7 @@
         <v>618</v>
       </c>
       <c r="G403" s="35"/>
-      <c r="H403" s="44"/>
+      <c r="H403" s="43"/>
       <c r="I403" s="35" t="s">
         <v>693</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>618</v>
       </c>
       <c r="G404" s="35"/>
-      <c r="H404" s="44"/>
+      <c r="H404" s="43"/>
       <c r="I404" s="20" t="s">
         <v>14</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>618</v>
       </c>
       <c r="G405" s="35"/>
-      <c r="H405" s="44"/>
+      <c r="H405" s="43"/>
       <c r="I405" s="35" t="s">
         <v>693</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>618</v>
       </c>
       <c r="G406" s="35"/>
-      <c r="H406" s="44"/>
+      <c r="H406" s="43"/>
       <c r="I406" s="35" t="s">
         <v>693</v>
       </c>
@@ -24645,7 +24645,7 @@
       <c r="G407" s="35" t="s">
         <v>1305</v>
       </c>
-      <c r="H407" s="44"/>
+      <c r="H407" s="43"/>
       <c r="I407" s="20" t="s">
         <v>23</v>
       </c>
@@ -24671,7 +24671,7 @@
       <c r="D408" s="9"/>
       <c r="F408" s="9"/>
       <c r="G408" s="9"/>
-      <c r="H408" s="44"/>
+      <c r="H408" s="43"/>
       <c r="I408" s="9" t="s">
         <v>693</v>
       </c>
@@ -24689,23 +24689,23 @@
       <c r="Q408" s="11"/>
     </row>
     <row r="409" s="14" customFormat="1" spans="1:17">
-      <c r="A409" s="45" t="s">
+      <c r="A409" s="44" t="s">
         <v>1310</v>
       </c>
-      <c r="B409" s="45" t="s">
+      <c r="B409" s="44" t="s">
         <v>1311</v>
       </c>
-      <c r="C409" s="45" t="s">
+      <c r="C409" s="44" t="s">
         <v>1312</v>
       </c>
-      <c r="D409" s="45" t="s">
+      <c r="D409" s="44" t="s">
         <v>1313</v>
       </c>
-      <c r="F409" s="45" t="s">
+      <c r="F409" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G409" s="45"/>
-      <c r="H409" s="46"/>
+      <c r="G409" s="44"/>
+      <c r="H409" s="45"/>
       <c r="I409" s="21" t="s">
         <v>14</v>
       </c>
@@ -24719,23 +24719,23 @@
       <c r="Q409" s="21"/>
     </row>
     <row r="410" s="14" customFormat="1" spans="1:17">
-      <c r="A410" s="45" t="s">
+      <c r="A410" s="44" t="s">
         <v>1315</v>
       </c>
-      <c r="B410" s="45" t="s">
+      <c r="B410" s="44" t="s">
         <v>1316</v>
       </c>
-      <c r="C410" s="45" t="s">
+      <c r="C410" s="44" t="s">
         <v>1317</v>
       </c>
-      <c r="D410" s="45" t="s">
+      <c r="D410" s="44" t="s">
         <v>1318</v>
       </c>
-      <c r="F410" s="45" t="s">
+      <c r="F410" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G410" s="45"/>
-      <c r="H410" s="46"/>
+      <c r="G410" s="44"/>
+      <c r="H410" s="45"/>
       <c r="I410" s="21" t="s">
         <v>14</v>
       </c>
@@ -24749,23 +24749,23 @@
       <c r="Q410" s="21"/>
     </row>
     <row r="411" s="14" customFormat="1" spans="1:17">
-      <c r="A411" s="45" t="s">
+      <c r="A411" s="44" t="s">
         <v>1319</v>
       </c>
-      <c r="B411" s="45" t="s">
+      <c r="B411" s="44" t="s">
         <v>1320</v>
       </c>
-      <c r="C411" s="45" t="s">
+      <c r="C411" s="44" t="s">
         <v>1321</v>
       </c>
-      <c r="D411" s="45" t="s">
+      <c r="D411" s="44" t="s">
         <v>1322</v>
       </c>
-      <c r="F411" s="45" t="s">
+      <c r="F411" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G411" s="45"/>
-      <c r="H411" s="46"/>
+      <c r="G411" s="44"/>
+      <c r="H411" s="45"/>
       <c r="I411" s="21" t="s">
         <v>14</v>
       </c>
@@ -24779,23 +24779,23 @@
       <c r="Q411" s="21"/>
     </row>
     <row r="412" s="14" customFormat="1" spans="1:17">
-      <c r="A412" s="45" t="s">
+      <c r="A412" s="44" t="s">
         <v>1323</v>
       </c>
-      <c r="B412" s="45" t="s">
+      <c r="B412" s="44" t="s">
         <v>1324</v>
       </c>
-      <c r="C412" s="45" t="s">
+      <c r="C412" s="44" t="s">
         <v>1325</v>
       </c>
-      <c r="D412" s="45" t="s">
+      <c r="D412" s="44" t="s">
         <v>1326</v>
       </c>
-      <c r="F412" s="45" t="s">
+      <c r="F412" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G412" s="45"/>
-      <c r="H412" s="46"/>
+      <c r="G412" s="44"/>
+      <c r="H412" s="45"/>
       <c r="I412" s="21" t="s">
         <v>14</v>
       </c>
@@ -24809,23 +24809,23 @@
       <c r="Q412" s="21"/>
     </row>
     <row r="413" s="14" customFormat="1" spans="1:17">
-      <c r="A413" s="45" t="s">
+      <c r="A413" s="44" t="s">
         <v>1327</v>
       </c>
-      <c r="B413" s="45" t="s">
+      <c r="B413" s="44" t="s">
         <v>1328</v>
       </c>
-      <c r="C413" s="45" t="s">
+      <c r="C413" s="44" t="s">
         <v>1329</v>
       </c>
-      <c r="D413" s="45" t="s">
+      <c r="D413" s="44" t="s">
         <v>870</v>
       </c>
-      <c r="F413" s="45" t="s">
+      <c r="F413" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G413" s="45"/>
-      <c r="H413" s="46"/>
+      <c r="G413" s="44"/>
+      <c r="H413" s="45"/>
       <c r="I413" s="21" t="s">
         <v>14</v>
       </c>
@@ -24839,23 +24839,23 @@
       <c r="Q413" s="21"/>
     </row>
     <row r="414" s="14" customFormat="1" spans="1:17">
-      <c r="A414" s="45" t="s">
+      <c r="A414" s="44" t="s">
         <v>1330</v>
       </c>
-      <c r="B414" s="45" t="s">
+      <c r="B414" s="44" t="s">
         <v>1331</v>
       </c>
-      <c r="C414" s="45" t="s">
+      <c r="C414" s="44" t="s">
         <v>1332</v>
       </c>
-      <c r="D414" s="45" t="s">
+      <c r="D414" s="44" t="s">
         <v>1333</v>
       </c>
-      <c r="F414" s="45" t="s">
+      <c r="F414" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G414" s="45"/>
-      <c r="H414" s="46"/>
+      <c r="G414" s="44"/>
+      <c r="H414" s="45"/>
       <c r="I414" s="21" t="s">
         <v>14</v>
       </c>
@@ -24869,23 +24869,23 @@
       <c r="Q414" s="21"/>
     </row>
     <row r="415" s="14" customFormat="1" spans="1:17">
-      <c r="A415" s="45" t="s">
+      <c r="A415" s="44" t="s">
         <v>1334</v>
       </c>
-      <c r="B415" s="45" t="s">
+      <c r="B415" s="44" t="s">
         <v>1335</v>
       </c>
-      <c r="C415" s="45" t="s">
+      <c r="C415" s="44" t="s">
         <v>1336</v>
       </c>
-      <c r="D415" s="45" t="s">
+      <c r="D415" s="44" t="s">
         <v>1337</v>
       </c>
-      <c r="F415" s="45" t="s">
+      <c r="F415" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G415" s="45"/>
-      <c r="H415" s="46"/>
+      <c r="G415" s="44"/>
+      <c r="H415" s="45"/>
       <c r="I415" s="21" t="s">
         <v>14</v>
       </c>
@@ -24899,23 +24899,23 @@
       <c r="Q415" s="21"/>
     </row>
     <row r="416" s="14" customFormat="1" spans="1:17">
-      <c r="A416" s="45" t="s">
+      <c r="A416" s="44" t="s">
         <v>1338</v>
       </c>
-      <c r="B416" s="45" t="s">
+      <c r="B416" s="44" t="s">
         <v>1339</v>
       </c>
-      <c r="C416" s="45" t="s">
+      <c r="C416" s="44" t="s">
         <v>1340</v>
       </c>
-      <c r="D416" s="45" t="s">
+      <c r="D416" s="44" t="s">
         <v>1341</v>
       </c>
-      <c r="F416" s="45" t="s">
+      <c r="F416" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G416" s="45"/>
-      <c r="H416" s="46"/>
+      <c r="G416" s="44"/>
+      <c r="H416" s="45"/>
       <c r="I416" s="21" t="s">
         <v>14</v>
       </c>
@@ -24929,23 +24929,23 @@
       <c r="Q416" s="21"/>
     </row>
     <row r="417" s="14" customFormat="1" spans="1:17">
-      <c r="A417" s="45" t="s">
+      <c r="A417" s="44" t="s">
         <v>1342</v>
       </c>
-      <c r="B417" s="45" t="s">
+      <c r="B417" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="C417" s="45" t="s">
+      <c r="C417" s="44" t="s">
         <v>1344</v>
       </c>
-      <c r="D417" s="45" t="s">
+      <c r="D417" s="44" t="s">
         <v>1345</v>
       </c>
-      <c r="F417" s="45" t="s">
+      <c r="F417" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G417" s="45"/>
-      <c r="H417" s="46"/>
+      <c r="G417" s="44"/>
+      <c r="H417" s="45"/>
       <c r="I417" s="21" t="s">
         <v>14</v>
       </c>
@@ -24959,23 +24959,23 @@
       <c r="Q417" s="21"/>
     </row>
     <row r="418" s="14" customFormat="1" spans="1:17">
-      <c r="A418" s="45" t="s">
+      <c r="A418" s="44" t="s">
         <v>1346</v>
       </c>
-      <c r="B418" s="45" t="s">
+      <c r="B418" s="44" t="s">
         <v>1347</v>
       </c>
-      <c r="C418" s="45" t="s">
+      <c r="C418" s="44" t="s">
         <v>1348</v>
       </c>
-      <c r="D418" s="45" t="s">
+      <c r="D418" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F418" s="45" t="s">
+      <c r="F418" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G418" s="45"/>
-      <c r="H418" s="46"/>
+      <c r="G418" s="44"/>
+      <c r="H418" s="45"/>
       <c r="I418" s="21" t="s">
         <v>14</v>
       </c>
@@ -24989,23 +24989,23 @@
       <c r="Q418" s="21"/>
     </row>
     <row r="419" s="14" customFormat="1" spans="1:17">
-      <c r="A419" s="45" t="s">
+      <c r="A419" s="44" t="s">
         <v>1349</v>
       </c>
-      <c r="B419" s="45" t="s">
+      <c r="B419" s="44" t="s">
         <v>1350</v>
       </c>
-      <c r="C419" s="45" t="s">
+      <c r="C419" s="44" t="s">
         <v>1351</v>
       </c>
-      <c r="D419" s="45" t="s">
+      <c r="D419" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F419" s="45" t="s">
+      <c r="F419" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G419" s="45"/>
-      <c r="H419" s="46"/>
+      <c r="G419" s="44"/>
+      <c r="H419" s="45"/>
       <c r="I419" s="21" t="s">
         <v>14</v>
       </c>
@@ -25019,23 +25019,23 @@
       <c r="Q419" s="21"/>
     </row>
     <row r="420" s="14" customFormat="1" spans="1:17">
-      <c r="A420" s="45" t="s">
+      <c r="A420" s="44" t="s">
         <v>1352</v>
       </c>
-      <c r="B420" s="45" t="s">
+      <c r="B420" s="44" t="s">
         <v>1311</v>
       </c>
-      <c r="C420" s="45" t="s">
+      <c r="C420" s="44" t="s">
         <v>1312</v>
       </c>
-      <c r="D420" s="45" t="s">
+      <c r="D420" s="44" t="s">
         <v>1313</v>
       </c>
-      <c r="F420" s="45" t="s">
+      <c r="F420" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G420" s="45"/>
-      <c r="H420" s="46"/>
+      <c r="G420" s="44"/>
+      <c r="H420" s="45"/>
       <c r="I420" s="21" t="s">
         <v>14</v>
       </c>
@@ -25049,23 +25049,23 @@
       <c r="Q420" s="21"/>
     </row>
     <row r="421" s="14" customFormat="1" spans="1:17">
-      <c r="A421" s="45" t="s">
+      <c r="A421" s="44" t="s">
         <v>1353</v>
       </c>
-      <c r="B421" s="45" t="s">
+      <c r="B421" s="44" t="s">
         <v>1354</v>
       </c>
-      <c r="C421" s="45" t="s">
+      <c r="C421" s="44" t="s">
         <v>1355</v>
       </c>
-      <c r="D421" s="45" t="s">
+      <c r="D421" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F421" s="45" t="s">
+      <c r="F421" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G421" s="45"/>
-      <c r="H421" s="46"/>
+      <c r="G421" s="44"/>
+      <c r="H421" s="45"/>
       <c r="I421" s="21" t="s">
         <v>14</v>
       </c>
@@ -25079,23 +25079,23 @@
       <c r="Q421" s="21"/>
     </row>
     <row r="422" s="14" customFormat="1" spans="1:17">
-      <c r="A422" s="45" t="s">
+      <c r="A422" s="44" t="s">
         <v>1356</v>
       </c>
-      <c r="B422" s="45" t="s">
+      <c r="B422" s="44" t="s">
         <v>1357</v>
       </c>
-      <c r="C422" s="45" t="s">
+      <c r="C422" s="44" t="s">
         <v>1358</v>
       </c>
-      <c r="D422" s="45" t="s">
+      <c r="D422" s="44" t="s">
         <v>1359</v>
       </c>
-      <c r="F422" s="45" t="s">
+      <c r="F422" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G422" s="45"/>
-      <c r="H422" s="46"/>
+      <c r="G422" s="44"/>
+      <c r="H422" s="45"/>
       <c r="I422" s="21" t="s">
         <v>14</v>
       </c>
@@ -25109,23 +25109,23 @@
       <c r="Q422" s="21"/>
     </row>
     <row r="423" s="14" customFormat="1" spans="1:17">
-      <c r="A423" s="45" t="s">
+      <c r="A423" s="44" t="s">
         <v>1360</v>
       </c>
-      <c r="B423" s="45" t="s">
+      <c r="B423" s="44" t="s">
         <v>1361</v>
       </c>
-      <c r="C423" s="45" t="s">
+      <c r="C423" s="44" t="s">
         <v>1362</v>
       </c>
-      <c r="D423" s="45" t="s">
+      <c r="D423" s="44" t="s">
         <v>1363</v>
       </c>
-      <c r="F423" s="45" t="s">
+      <c r="F423" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G423" s="45"/>
-      <c r="H423" s="46"/>
+      <c r="G423" s="44"/>
+      <c r="H423" s="45"/>
       <c r="I423" s="21" t="s">
         <v>14</v>
       </c>
@@ -25139,23 +25139,23 @@
       <c r="Q423" s="21"/>
     </row>
     <row r="424" s="14" customFormat="1" spans="1:17">
-      <c r="A424" s="45" t="s">
+      <c r="A424" s="44" t="s">
         <v>1364</v>
       </c>
-      <c r="B424" s="45" t="s">
+      <c r="B424" s="44" t="s">
         <v>1365</v>
       </c>
-      <c r="C424" s="45" t="s">
+      <c r="C424" s="44" t="s">
         <v>1366</v>
       </c>
-      <c r="D424" s="45" t="s">
+      <c r="D424" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="F424" s="45" t="s">
+      <c r="F424" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G424" s="45"/>
-      <c r="H424" s="46"/>
+      <c r="G424" s="44"/>
+      <c r="H424" s="45"/>
       <c r="I424" s="21" t="s">
         <v>14</v>
       </c>
@@ -25169,23 +25169,23 @@
       <c r="Q424" s="21"/>
     </row>
     <row r="425" s="14" customFormat="1" spans="1:17">
-      <c r="A425" s="45" t="s">
+      <c r="A425" s="44" t="s">
         <v>1367</v>
       </c>
-      <c r="B425" s="45" t="s">
+      <c r="B425" s="44" t="s">
         <v>1368</v>
       </c>
-      <c r="C425" s="45" t="s">
+      <c r="C425" s="44" t="s">
         <v>1369</v>
       </c>
-      <c r="D425" s="45" t="s">
+      <c r="D425" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="F425" s="45" t="s">
+      <c r="F425" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G425" s="45"/>
-      <c r="H425" s="46"/>
+      <c r="G425" s="44"/>
+      <c r="H425" s="45"/>
       <c r="I425" s="21" t="s">
         <v>14</v>
       </c>
@@ -25199,23 +25199,23 @@
       <c r="Q425" s="21"/>
     </row>
     <row r="426" s="14" customFormat="1" spans="1:17">
-      <c r="A426" s="45" t="s">
+      <c r="A426" s="44" t="s">
         <v>1370</v>
       </c>
-      <c r="B426" s="45" t="s">
+      <c r="B426" s="44" t="s">
         <v>1371</v>
       </c>
-      <c r="C426" s="45" t="s">
+      <c r="C426" s="44" t="s">
         <v>1372</v>
       </c>
-      <c r="D426" s="45" t="s">
+      <c r="D426" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="F426" s="45" t="s">
+      <c r="F426" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G426" s="45"/>
-      <c r="H426" s="46"/>
+      <c r="G426" s="44"/>
+      <c r="H426" s="45"/>
       <c r="I426" s="21" t="s">
         <v>14</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>618</v>
       </c>
       <c r="G427" s="35"/>
-      <c r="H427" s="44"/>
+      <c r="H427" s="43"/>
       <c r="I427" s="20" t="s">
         <v>23</v>
       </c>
@@ -25977,7 +25977,7 @@
       <c r="G457" s="35" t="s">
         <v>1440</v>
       </c>
-      <c r="H457" s="44" t="s">
+      <c r="H457" s="43" t="s">
         <v>1441</v>
       </c>
       <c r="I457" s="35" t="s">
@@ -26011,7 +26011,7 @@
       <c r="G458" s="35" t="s">
         <v>1446</v>
       </c>
-      <c r="H458" s="44"/>
+      <c r="H458" s="43"/>
       <c r="I458" s="35" t="s">
         <v>693</v>
       </c>
@@ -26043,7 +26043,7 @@
       <c r="G459" s="35" t="s">
         <v>1451</v>
       </c>
-      <c r="H459" s="44"/>
+      <c r="H459" s="43"/>
       <c r="I459" s="20" t="s">
         <v>23</v>
       </c>
@@ -26075,7 +26075,7 @@
       <c r="G460" s="35" t="s">
         <v>1456</v>
       </c>
-      <c r="H460" s="44"/>
+      <c r="H460" s="43"/>
       <c r="I460" s="20" t="s">
         <v>23</v>
       </c>
@@ -26107,7 +26107,7 @@
       <c r="G461" s="35" t="s">
         <v>1461</v>
       </c>
-      <c r="H461" s="44"/>
+      <c r="H461" s="43"/>
       <c r="I461" s="35" t="s">
         <v>693</v>
       </c>
@@ -26139,7 +26139,7 @@
       <c r="G462" s="35" t="s">
         <v>1466</v>
       </c>
-      <c r="H462" s="44"/>
+      <c r="H462" s="43"/>
       <c r="I462" s="35" t="s">
         <v>693</v>
       </c>
@@ -26171,7 +26171,7 @@
       <c r="G463" s="35" t="s">
         <v>1466</v>
       </c>
-      <c r="H463" s="44"/>
+      <c r="H463" s="43"/>
       <c r="I463" s="35" t="s">
         <v>693</v>
       </c>
@@ -26203,7 +26203,7 @@
       <c r="G464" s="35" t="s">
         <v>1466</v>
       </c>
-      <c r="H464" s="44"/>
+      <c r="H464" s="43"/>
       <c r="I464" s="35" t="s">
         <v>693</v>
       </c>
@@ -26235,7 +26235,7 @@
       <c r="G465" s="35" t="s">
         <v>1477</v>
       </c>
-      <c r="H465" s="44"/>
+      <c r="H465" s="43"/>
       <c r="I465" s="35" t="s">
         <v>693</v>
       </c>
@@ -26261,7 +26261,7 @@
       <c r="D466" s="9"/>
       <c r="F466" s="9"/>
       <c r="G466" s="9"/>
-      <c r="H466" s="44"/>
+      <c r="H466" s="43"/>
       <c r="I466" s="9" t="s">
         <v>693</v>
       </c>
@@ -26297,7 +26297,7 @@
       <c r="G467" s="35" t="s">
         <v>1484</v>
       </c>
-      <c r="H467" s="44"/>
+      <c r="H467" s="43"/>
       <c r="I467" s="35" t="s">
         <v>693</v>
       </c>
@@ -26329,7 +26329,7 @@
       <c r="G468" s="35" t="s">
         <v>1489</v>
       </c>
-      <c r="H468" s="44"/>
+      <c r="H468" s="43"/>
       <c r="I468" s="35" t="s">
         <v>693</v>
       </c>
@@ -26361,7 +26361,7 @@
       <c r="G469" s="35" t="s">
         <v>1494</v>
       </c>
-      <c r="H469" s="44"/>
+      <c r="H469" s="43"/>
       <c r="I469" s="35" t="s">
         <v>693</v>
       </c>
@@ -26393,7 +26393,7 @@
       <c r="G470" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="H470" s="44"/>
+      <c r="H470" s="43"/>
       <c r="I470" s="35" t="s">
         <v>693</v>
       </c>
@@ -26425,7 +26425,7 @@
       <c r="G471" s="35" t="s">
         <v>1504</v>
       </c>
-      <c r="H471" s="44"/>
+      <c r="H471" s="43"/>
       <c r="I471" s="35" t="s">
         <v>693</v>
       </c>
@@ -26457,7 +26457,7 @@
       <c r="G472" s="35" t="s">
         <v>1507</v>
       </c>
-      <c r="H472" s="44"/>
+      <c r="H472" s="43"/>
       <c r="I472" s="20" t="s">
         <v>14</v>
       </c>
@@ -26489,7 +26489,7 @@
       <c r="G473" s="35" t="s">
         <v>1512</v>
       </c>
-      <c r="H473" s="44"/>
+      <c r="H473" s="43"/>
       <c r="I473" s="35" t="s">
         <v>532</v>
       </c>
@@ -26521,7 +26521,7 @@
       <c r="G474" s="35" t="s">
         <v>1515</v>
       </c>
-      <c r="H474" s="44"/>
+      <c r="H474" s="43"/>
       <c r="I474" s="35" t="s">
         <v>693</v>
       </c>
@@ -26551,7 +26551,7 @@
       <c r="G475" s="35" t="s">
         <v>1519</v>
       </c>
-      <c r="H475" s="44"/>
+      <c r="H475" s="43"/>
       <c r="I475" s="20"/>
       <c r="J475" s="20"/>
       <c r="K475" s="20"/>
@@ -26581,7 +26581,7 @@
       <c r="G476" s="35" t="s">
         <v>1305</v>
       </c>
-      <c r="H476" s="44"/>
+      <c r="H476" s="43"/>
       <c r="I476" s="20" t="s">
         <v>23</v>
       </c>
@@ -26623,26 +26623,26 @@
       <c r="Q477" s="11"/>
     </row>
     <row r="478" s="14" customFormat="1" spans="1:17">
-      <c r="A478" s="45" t="s">
+      <c r="A478" s="44" t="s">
         <v>1527</v>
       </c>
-      <c r="B478" s="45" t="s">
+      <c r="B478" s="44" t="s">
         <v>1528</v>
       </c>
       <c r="C478" s="15" t="s">
         <v>1529</v>
       </c>
-      <c r="D478" s="45" t="s">
+      <c r="D478" s="44" t="s">
         <v>1530</v>
       </c>
-      <c r="F478" s="45" t="s">
+      <c r="F478" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G478" s="45" t="s">
+      <c r="G478" s="44" t="s">
         <v>1531</v>
       </c>
-      <c r="H478" s="45"/>
-      <c r="I478" s="45"/>
+      <c r="H478" s="44"/>
+      <c r="I478" s="44"/>
       <c r="J478" s="21" t="s">
         <v>1532</v>
       </c>
@@ -26657,10 +26657,10 @@
       <c r="Q478" s="21"/>
     </row>
     <row r="479" s="14" customFormat="1" spans="1:17">
-      <c r="A479" s="45" t="s">
+      <c r="A479" s="44" t="s">
         <v>1533</v>
       </c>
-      <c r="B479" s="45" t="s">
+      <c r="B479" s="44" t="s">
         <v>1534</v>
       </c>
       <c r="C479" s="21" t="s">
@@ -26669,11 +26669,11 @@
       <c r="D479" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="F479" s="45" t="s">
+      <c r="F479" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G479" s="45"/>
-      <c r="H479" s="45"/>
+      <c r="G479" s="44"/>
+      <c r="H479" s="44"/>
       <c r="I479" s="21" t="s">
         <v>14</v>
       </c>
@@ -26687,10 +26687,10 @@
       <c r="Q479" s="21"/>
     </row>
     <row r="480" s="14" customFormat="1" spans="1:17">
-      <c r="A480" s="45" t="s">
+      <c r="A480" s="44" t="s">
         <v>1537</v>
       </c>
-      <c r="B480" s="45" t="s">
+      <c r="B480" s="44" t="s">
         <v>1538</v>
       </c>
       <c r="C480" s="21" t="s">
@@ -26699,11 +26699,11 @@
       <c r="D480" s="14" t="s">
         <v>1540</v>
       </c>
-      <c r="F480" s="45" t="s">
+      <c r="F480" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G480" s="45"/>
-      <c r="H480" s="45"/>
+      <c r="G480" s="44"/>
+      <c r="H480" s="44"/>
       <c r="I480" s="21" t="s">
         <v>14</v>
       </c>
@@ -26717,10 +26717,10 @@
       <c r="Q480" s="21"/>
     </row>
     <row r="481" s="14" customFormat="1" spans="1:17">
-      <c r="A481" s="45" t="s">
+      <c r="A481" s="44" t="s">
         <v>1541</v>
       </c>
-      <c r="B481" s="45" t="s">
+      <c r="B481" s="44" t="s">
         <v>1542</v>
       </c>
       <c r="C481" s="21" t="s">
@@ -26729,11 +26729,11 @@
       <c r="D481" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="F481" s="45" t="s">
+      <c r="F481" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G481" s="45"/>
-      <c r="H481" s="45"/>
+      <c r="G481" s="44"/>
+      <c r="H481" s="44"/>
       <c r="I481" s="21" t="s">
         <v>14</v>
       </c>
@@ -26747,10 +26747,10 @@
       <c r="Q481" s="21"/>
     </row>
     <row r="482" s="14" customFormat="1" spans="1:17">
-      <c r="A482" s="45" t="s">
+      <c r="A482" s="44" t="s">
         <v>1545</v>
       </c>
-      <c r="B482" s="45" t="s">
+      <c r="B482" s="44" t="s">
         <v>1546</v>
       </c>
       <c r="C482" s="21" t="s">
@@ -26759,11 +26759,11 @@
       <c r="D482" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="F482" s="45" t="s">
+      <c r="F482" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G482" s="45"/>
-      <c r="H482" s="45"/>
+      <c r="G482" s="44"/>
+      <c r="H482" s="44"/>
       <c r="I482" s="21" t="s">
         <v>14</v>
       </c>
@@ -26777,10 +26777,10 @@
       <c r="Q482" s="21"/>
     </row>
     <row r="483" s="14" customFormat="1" spans="1:17">
-      <c r="A483" s="45" t="s">
+      <c r="A483" s="44" t="s">
         <v>1549</v>
       </c>
-      <c r="B483" s="45" t="s">
+      <c r="B483" s="44" t="s">
         <v>1550</v>
       </c>
       <c r="C483" s="21" t="s">
@@ -26789,11 +26789,11 @@
       <c r="D483" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="F483" s="45" t="s">
+      <c r="F483" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G483" s="45"/>
-      <c r="H483" s="45"/>
+      <c r="G483" s="44"/>
+      <c r="H483" s="44"/>
       <c r="I483" s="21" t="s">
         <v>23</v>
       </c>
@@ -26807,10 +26807,10 @@
       <c r="Q483" s="21"/>
     </row>
     <row r="484" s="14" customFormat="1" spans="1:17">
-      <c r="A484" s="45" t="s">
+      <c r="A484" s="44" t="s">
         <v>1553</v>
       </c>
-      <c r="B484" s="45" t="s">
+      <c r="B484" s="44" t="s">
         <v>1554</v>
       </c>
       <c r="C484" s="21" t="s">
@@ -26819,11 +26819,11 @@
       <c r="D484" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="F484" s="45" t="s">
+      <c r="F484" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G484" s="45"/>
-      <c r="H484" s="45"/>
+      <c r="G484" s="44"/>
+      <c r="H484" s="44"/>
       <c r="I484" s="21" t="s">
         <v>14</v>
       </c>
@@ -26837,10 +26837,10 @@
       <c r="Q484" s="21"/>
     </row>
     <row r="485" s="14" customFormat="1" spans="1:17">
-      <c r="A485" s="45" t="s">
+      <c r="A485" s="44" t="s">
         <v>1557</v>
       </c>
-      <c r="B485" s="45" t="s">
+      <c r="B485" s="44" t="s">
         <v>1558</v>
       </c>
       <c r="C485" s="21" t="s">
@@ -26849,11 +26849,11 @@
       <c r="D485" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="F485" s="45" t="s">
+      <c r="F485" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G485" s="45"/>
-      <c r="H485" s="45"/>
+      <c r="G485" s="44"/>
+      <c r="H485" s="44"/>
       <c r="I485" s="21" t="s">
         <v>14</v>
       </c>
@@ -26867,23 +26867,23 @@
       <c r="Q485" s="21"/>
     </row>
     <row r="486" s="14" customFormat="1" spans="1:17">
-      <c r="A486" s="45" t="s">
+      <c r="A486" s="44" t="s">
         <v>1561</v>
       </c>
-      <c r="B486" s="45" t="s">
+      <c r="B486" s="44" t="s">
         <v>1331</v>
       </c>
-      <c r="C486" s="45" t="s">
+      <c r="C486" s="44" t="s">
         <v>1332</v>
       </c>
-      <c r="D486" s="45" t="s">
+      <c r="D486" s="44" t="s">
         <v>1333</v>
       </c>
-      <c r="F486" s="45" t="s">
+      <c r="F486" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G486" s="45"/>
-      <c r="H486" s="45"/>
+      <c r="G486" s="44"/>
+      <c r="H486" s="44"/>
       <c r="I486" s="21" t="s">
         <v>14</v>
       </c>
@@ -26897,10 +26897,10 @@
       <c r="Q486" s="21"/>
     </row>
     <row r="487" s="14" customFormat="1" spans="1:17">
-      <c r="A487" s="45" t="s">
+      <c r="A487" s="44" t="s">
         <v>1562</v>
       </c>
-      <c r="B487" s="45" t="s">
+      <c r="B487" s="44" t="s">
         <v>1335</v>
       </c>
       <c r="C487" s="21" t="s">
@@ -26909,11 +26909,11 @@
       <c r="D487" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="F487" s="45" t="s">
+      <c r="F487" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G487" s="45"/>
-      <c r="H487" s="45"/>
+      <c r="G487" s="44"/>
+      <c r="H487" s="44"/>
       <c r="I487" s="21" t="s">
         <v>14</v>
       </c>
@@ -26927,10 +26927,10 @@
       <c r="Q487" s="21"/>
     </row>
     <row r="488" s="14" customFormat="1" spans="1:17">
-      <c r="A488" s="45" t="s">
+      <c r="A488" s="44" t="s">
         <v>1563</v>
       </c>
-      <c r="B488" s="45" t="s">
+      <c r="B488" s="44" t="s">
         <v>1564</v>
       </c>
       <c r="C488" s="21" t="s">
@@ -26939,11 +26939,11 @@
       <c r="D488" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F488" s="45" t="s">
+      <c r="F488" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G488" s="45"/>
-      <c r="H488" s="45"/>
+      <c r="G488" s="44"/>
+      <c r="H488" s="44"/>
       <c r="I488" s="21" t="s">
         <v>14</v>
       </c>
@@ -26957,10 +26957,10 @@
       <c r="Q488" s="21"/>
     </row>
     <row r="489" s="14" customFormat="1" spans="1:17">
-      <c r="A489" s="45" t="s">
+      <c r="A489" s="44" t="s">
         <v>1566</v>
       </c>
-      <c r="B489" s="45" t="s">
+      <c r="B489" s="44" t="s">
         <v>1567</v>
       </c>
       <c r="C489" s="21" t="s">
@@ -26969,11 +26969,11 @@
       <c r="D489" s="14" t="s">
         <v>1569</v>
       </c>
-      <c r="F489" s="45" t="s">
+      <c r="F489" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G489" s="45"/>
-      <c r="H489" s="45"/>
+      <c r="G489" s="44"/>
+      <c r="H489" s="44"/>
       <c r="I489" s="21" t="s">
         <v>14</v>
       </c>
@@ -26987,10 +26987,10 @@
       <c r="Q489" s="21"/>
     </row>
     <row r="490" s="14" customFormat="1" spans="1:17">
-      <c r="A490" s="45" t="s">
+      <c r="A490" s="44" t="s">
         <v>1570</v>
       </c>
-      <c r="B490" s="45" t="s">
+      <c r="B490" s="44" t="s">
         <v>1571</v>
       </c>
       <c r="C490" s="15" t="s">
@@ -26999,11 +26999,11 @@
       <c r="D490" s="14" t="s">
         <v>1573</v>
       </c>
-      <c r="F490" s="45" t="s">
+      <c r="F490" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G490" s="45"/>
-      <c r="H490" s="45"/>
+      <c r="G490" s="44"/>
+      <c r="H490" s="44"/>
       <c r="I490" s="20" t="s">
         <v>23</v>
       </c>
@@ -27021,10 +27021,10 @@
       <c r="Q490" s="21"/>
     </row>
     <row r="491" s="14" customFormat="1" spans="1:17">
-      <c r="A491" s="45" t="s">
+      <c r="A491" s="44" t="s">
         <v>1575</v>
       </c>
-      <c r="B491" s="45" t="s">
+      <c r="B491" s="44" t="s">
         <v>1576</v>
       </c>
       <c r="C491" s="21" t="s">
@@ -27033,11 +27033,11 @@
       <c r="D491" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F491" s="45" t="s">
+      <c r="F491" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G491" s="45"/>
-      <c r="H491" s="45"/>
+      <c r="G491" s="44"/>
+      <c r="H491" s="44"/>
       <c r="I491" s="21" t="s">
         <v>14</v>
       </c>
@@ -27051,10 +27051,10 @@
       <c r="Q491" s="21"/>
     </row>
     <row r="492" s="14" customFormat="1" spans="1:17">
-      <c r="A492" s="45" t="s">
+      <c r="A492" s="44" t="s">
         <v>1578</v>
       </c>
-      <c r="B492" s="45" t="s">
+      <c r="B492" s="44" t="s">
         <v>1350</v>
       </c>
       <c r="C492" s="21" t="s">
@@ -27063,11 +27063,11 @@
       <c r="D492" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F492" s="45" t="s">
+      <c r="F492" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G492" s="45"/>
-      <c r="H492" s="45"/>
+      <c r="G492" s="44"/>
+      <c r="H492" s="44"/>
       <c r="I492" s="21" t="s">
         <v>14</v>
       </c>
@@ -27081,10 +27081,10 @@
       <c r="Q492" s="21"/>
     </row>
     <row r="493" s="14" customFormat="1" spans="1:17">
-      <c r="A493" s="45" t="s">
+      <c r="A493" s="44" t="s">
         <v>1579</v>
       </c>
-      <c r="B493" s="45" t="s">
+      <c r="B493" s="44" t="s">
         <v>1580</v>
       </c>
       <c r="C493" s="21" t="s">
@@ -27093,11 +27093,11 @@
       <c r="D493" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F493" s="45" t="s">
+      <c r="F493" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G493" s="45"/>
-      <c r="H493" s="45"/>
+      <c r="G493" s="44"/>
+      <c r="H493" s="44"/>
       <c r="I493" s="21" t="s">
         <v>14</v>
       </c>
@@ -27111,10 +27111,10 @@
       <c r="Q493" s="21"/>
     </row>
     <row r="494" s="14" customFormat="1" spans="1:17">
-      <c r="A494" s="45" t="s">
+      <c r="A494" s="44" t="s">
         <v>1582</v>
       </c>
-      <c r="B494" s="45" t="s">
+      <c r="B494" s="44" t="s">
         <v>1583</v>
       </c>
       <c r="C494" s="21" t="s">
@@ -27123,11 +27123,11 @@
       <c r="D494" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F494" s="45" t="s">
+      <c r="F494" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G494" s="45"/>
-      <c r="H494" s="45"/>
+      <c r="G494" s="44"/>
+      <c r="H494" s="44"/>
       <c r="I494" s="21" t="s">
         <v>14</v>
       </c>
@@ -27141,10 +27141,10 @@
       <c r="Q494" s="21"/>
     </row>
     <row r="495" s="14" customFormat="1" spans="1:17">
-      <c r="A495" s="45" t="s">
+      <c r="A495" s="44" t="s">
         <v>1585</v>
       </c>
-      <c r="B495" s="45" t="s">
+      <c r="B495" s="44" t="s">
         <v>1586</v>
       </c>
       <c r="C495" s="21" t="s">
@@ -27153,11 +27153,11 @@
       <c r="D495" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="F495" s="45" t="s">
+      <c r="F495" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G495" s="45"/>
-      <c r="H495" s="45"/>
+      <c r="G495" s="44"/>
+      <c r="H495" s="44"/>
       <c r="I495" s="21" t="s">
         <v>14</v>
       </c>
@@ -27171,10 +27171,10 @@
       <c r="Q495" s="21"/>
     </row>
     <row r="496" s="14" customFormat="1" spans="1:17">
-      <c r="A496" s="45" t="s">
+      <c r="A496" s="44" t="s">
         <v>1589</v>
       </c>
-      <c r="B496" s="45" t="s">
+      <c r="B496" s="44" t="s">
         <v>1590</v>
       </c>
       <c r="C496" s="21" t="s">
@@ -27183,11 +27183,11 @@
       <c r="D496" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="F496" s="45" t="s">
+      <c r="F496" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G496" s="45"/>
-      <c r="H496" s="45"/>
+      <c r="G496" s="44"/>
+      <c r="H496" s="44"/>
       <c r="I496" s="21" t="s">
         <v>14</v>
       </c>
@@ -27201,10 +27201,10 @@
       <c r="Q496" s="21"/>
     </row>
     <row r="497" s="14" customFormat="1" spans="1:17">
-      <c r="A497" s="45" t="s">
+      <c r="A497" s="44" t="s">
         <v>1593</v>
       </c>
-      <c r="B497" s="45" t="s">
+      <c r="B497" s="44" t="s">
         <v>1594</v>
       </c>
       <c r="C497" s="21" t="s">
@@ -27213,11 +27213,11 @@
       <c r="D497" s="14" t="s">
         <v>1596</v>
       </c>
-      <c r="F497" s="45" t="s">
+      <c r="F497" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G497" s="45"/>
-      <c r="H497" s="45"/>
+      <c r="G497" s="44"/>
+      <c r="H497" s="44"/>
       <c r="I497" s="21" t="s">
         <v>14</v>
       </c>
@@ -27231,10 +27231,10 @@
       <c r="Q497" s="21"/>
     </row>
     <row r="498" s="14" customFormat="1" spans="1:17">
-      <c r="A498" s="45" t="s">
+      <c r="A498" s="44" t="s">
         <v>1597</v>
       </c>
-      <c r="B498" s="45" t="s">
+      <c r="B498" s="44" t="s">
         <v>1598</v>
       </c>
       <c r="C498" s="21" t="s">
@@ -27243,11 +27243,11 @@
       <c r="D498" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="F498" s="45" t="s">
+      <c r="F498" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G498" s="45"/>
-      <c r="H498" s="45"/>
+      <c r="G498" s="44"/>
+      <c r="H498" s="44"/>
       <c r="I498" s="21" t="s">
         <v>14</v>
       </c>
@@ -27261,10 +27261,10 @@
       <c r="Q498" s="21"/>
     </row>
     <row r="499" s="14" customFormat="1" spans="1:17">
-      <c r="A499" s="45" t="s">
+      <c r="A499" s="44" t="s">
         <v>1600</v>
       </c>
-      <c r="B499" s="45" t="s">
+      <c r="B499" s="44" t="s">
         <v>1371</v>
       </c>
       <c r="C499" s="21" t="s">
@@ -27273,11 +27273,11 @@
       <c r="D499" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="F499" s="45" t="s">
+      <c r="F499" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G499" s="45"/>
-      <c r="H499" s="45"/>
+      <c r="G499" s="44"/>
+      <c r="H499" s="44"/>
       <c r="I499" s="21" t="s">
         <v>14</v>
       </c>
@@ -27467,23 +27467,23 @@
       <c r="Q505" s="20"/>
     </row>
     <row r="506" s="31" customFormat="1" spans="1:17">
-      <c r="A506" s="47" t="s">
+      <c r="A506" s="46" t="s">
         <v>1622</v>
       </c>
-      <c r="B506" s="47" t="s">
+      <c r="B506" s="46" t="s">
         <v>1623</v>
       </c>
-      <c r="C506" s="47" t="s">
+      <c r="C506" s="46" t="s">
         <v>1624</v>
       </c>
-      <c r="D506" s="47" t="s">
+      <c r="D506" s="46" t="s">
         <v>1625</v>
       </c>
-      <c r="F506" s="47" t="s">
+      <c r="F506" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G506" s="47"/>
-      <c r="H506" s="47"/>
+      <c r="G506" s="46"/>
+      <c r="H506" s="46"/>
       <c r="I506" s="25" t="s">
         <v>23</v>
       </c>
@@ -27497,23 +27497,23 @@
       <c r="Q506" s="25"/>
     </row>
     <row r="507" s="31" customFormat="1" spans="1:17">
-      <c r="A507" s="47" t="s">
+      <c r="A507" s="46" t="s">
         <v>1626</v>
       </c>
-      <c r="B507" s="47" t="s">
+      <c r="B507" s="46" t="s">
         <v>1627</v>
       </c>
-      <c r="C507" s="47" t="s">
+      <c r="C507" s="46" t="s">
         <v>1628</v>
       </c>
-      <c r="D507" s="47" t="s">
+      <c r="D507" s="46" t="s">
         <v>1629</v>
       </c>
-      <c r="F507" s="47" t="s">
+      <c r="F507" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G507" s="47"/>
-      <c r="H507" s="47"/>
+      <c r="G507" s="46"/>
+      <c r="H507" s="46"/>
       <c r="I507" s="25" t="s">
         <v>23</v>
       </c>
@@ -27527,23 +27527,23 @@
       <c r="Q507" s="25"/>
     </row>
     <row r="508" s="31" customFormat="1" spans="1:17">
-      <c r="A508" s="47" t="s">
+      <c r="A508" s="46" t="s">
         <v>1630</v>
       </c>
-      <c r="B508" s="47" t="s">
+      <c r="B508" s="46" t="s">
         <v>1631</v>
       </c>
-      <c r="C508" s="47" t="s">
+      <c r="C508" s="46" t="s">
         <v>1632</v>
       </c>
-      <c r="D508" s="47" t="s">
+      <c r="D508" s="46" t="s">
         <v>1633</v>
       </c>
-      <c r="F508" s="47" t="s">
+      <c r="F508" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G508" s="47"/>
-      <c r="H508" s="47"/>
+      <c r="G508" s="46"/>
+      <c r="H508" s="46"/>
       <c r="I508" s="25" t="s">
         <v>23</v>
       </c>
@@ -27557,23 +27557,23 @@
       <c r="Q508" s="25"/>
     </row>
     <row r="509" s="31" customFormat="1" spans="1:17">
-      <c r="A509" s="47" t="s">
+      <c r="A509" s="46" t="s">
         <v>1634</v>
       </c>
-      <c r="B509" s="47" t="s">
+      <c r="B509" s="46" t="s">
         <v>1635</v>
       </c>
-      <c r="C509" s="47" t="s">
+      <c r="C509" s="46" t="s">
         <v>1636</v>
       </c>
-      <c r="D509" s="47" t="s">
+      <c r="D509" s="46" t="s">
         <v>1637</v>
       </c>
-      <c r="F509" s="47" t="s">
+      <c r="F509" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G509" s="47"/>
-      <c r="H509" s="47"/>
+      <c r="G509" s="46"/>
+      <c r="H509" s="46"/>
       <c r="I509" s="25" t="s">
         <v>23</v>
       </c>
@@ -27587,23 +27587,23 @@
       <c r="Q509" s="25"/>
     </row>
     <row r="510" s="31" customFormat="1" spans="1:17">
-      <c r="A510" s="47" t="s">
+      <c r="A510" s="46" t="s">
         <v>1638</v>
       </c>
-      <c r="B510" s="47" t="s">
+      <c r="B510" s="46" t="s">
         <v>1639</v>
       </c>
-      <c r="C510" s="47" t="s">
+      <c r="C510" s="46" t="s">
         <v>1640</v>
       </c>
-      <c r="D510" s="47" t="s">
+      <c r="D510" s="46" t="s">
         <v>1641</v>
       </c>
-      <c r="F510" s="47" t="s">
+      <c r="F510" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G510" s="47"/>
-      <c r="H510" s="47"/>
+      <c r="G510" s="46"/>
+      <c r="H510" s="46"/>
       <c r="I510" s="25" t="s">
         <v>23</v>
       </c>
@@ -27617,23 +27617,23 @@
       <c r="Q510" s="25"/>
     </row>
     <row r="511" s="31" customFormat="1" spans="1:17">
-      <c r="A511" s="47" t="s">
+      <c r="A511" s="46" t="s">
         <v>1642</v>
       </c>
-      <c r="B511" s="47" t="s">
+      <c r="B511" s="46" t="s">
         <v>1643</v>
       </c>
-      <c r="C511" s="47" t="s">
+      <c r="C511" s="46" t="s">
         <v>1644</v>
       </c>
-      <c r="D511" s="47" t="s">
+      <c r="D511" s="46" t="s">
         <v>1645</v>
       </c>
-      <c r="F511" s="47" t="s">
+      <c r="F511" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G511" s="47"/>
-      <c r="H511" s="47"/>
+      <c r="G511" s="46"/>
+      <c r="H511" s="46"/>
       <c r="I511" s="25" t="s">
         <v>23</v>
       </c>
@@ -27647,23 +27647,23 @@
       <c r="Q511" s="25"/>
     </row>
     <row r="512" s="31" customFormat="1" spans="1:17">
-      <c r="A512" s="47" t="s">
+      <c r="A512" s="46" t="s">
         <v>1646</v>
       </c>
-      <c r="B512" s="47" t="s">
+      <c r="B512" s="46" t="s">
         <v>1647</v>
       </c>
-      <c r="C512" s="47" t="s">
+      <c r="C512" s="46" t="s">
         <v>1648</v>
       </c>
-      <c r="D512" s="47" t="s">
+      <c r="D512" s="46" t="s">
         <v>1649</v>
       </c>
-      <c r="F512" s="47" t="s">
+      <c r="F512" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G512" s="47"/>
-      <c r="H512" s="47"/>
+      <c r="G512" s="46"/>
+      <c r="H512" s="46"/>
       <c r="I512" s="25" t="s">
         <v>23</v>
       </c>
@@ -27677,30 +27677,30 @@
       <c r="Q512" s="25"/>
     </row>
     <row r="513" s="14" customFormat="1" spans="1:17">
-      <c r="A513" s="45" t="s">
+      <c r="A513" s="44" t="s">
         <v>1650</v>
       </c>
-      <c r="B513" s="45" t="s">
+      <c r="B513" s="44" t="s">
         <v>1651</v>
       </c>
-      <c r="C513" s="45" t="s">
+      <c r="C513" s="44" t="s">
         <v>1652</v>
       </c>
-      <c r="D513" s="45" t="s">
+      <c r="D513" s="44" t="s">
         <v>1653</v>
       </c>
-      <c r="F513" s="45" t="s">
+      <c r="F513" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G513" s="45"/>
-      <c r="H513" s="45"/>
+      <c r="G513" s="44"/>
+      <c r="H513" s="44"/>
       <c r="I513" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J513" s="21" t="s">
         <v>1654</v>
       </c>
-      <c r="K513" s="45" t="s">
+      <c r="K513" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L513" s="21"/>
@@ -27711,30 +27711,30 @@
       <c r="Q513" s="21"/>
     </row>
     <row r="514" s="14" customFormat="1" spans="1:17">
-      <c r="A514" s="45" t="s">
+      <c r="A514" s="44" t="s">
         <v>1655</v>
       </c>
-      <c r="B514" s="45" t="s">
+      <c r="B514" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="C514" s="45" t="s">
+      <c r="C514" s="44" t="s">
         <v>1657</v>
       </c>
       <c r="D514" s="14" t="s">
         <v>1658</v>
       </c>
-      <c r="F514" s="45" t="s">
+      <c r="F514" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G514" s="45"/>
-      <c r="H514" s="45"/>
-      <c r="I514" s="45" t="s">
+      <c r="G514" s="44"/>
+      <c r="H514" s="44"/>
+      <c r="I514" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="J514" s="45" t="s">
+      <c r="J514" s="44" t="s">
         <v>1659</v>
       </c>
-      <c r="K514" s="45" t="s">
+      <c r="K514" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L514" s="21"/>
@@ -27745,30 +27745,30 @@
       <c r="Q514" s="21"/>
     </row>
     <row r="515" s="14" customFormat="1" spans="1:17">
-      <c r="A515" s="45" t="s">
+      <c r="A515" s="44" t="s">
         <v>1660</v>
       </c>
-      <c r="B515" s="45" t="s">
+      <c r="B515" s="44" t="s">
         <v>1661</v>
       </c>
-      <c r="C515" s="45" t="s">
+      <c r="C515" s="44" t="s">
         <v>1662</v>
       </c>
-      <c r="D515" s="45" t="s">
+      <c r="D515" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="F515" s="45" t="s">
+      <c r="F515" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G515" s="45"/>
-      <c r="H515" s="45"/>
-      <c r="I515" s="45" t="s">
+      <c r="G515" s="44"/>
+      <c r="H515" s="44"/>
+      <c r="I515" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="J515" s="45" t="s">
+      <c r="J515" s="44" t="s">
         <v>1664</v>
       </c>
-      <c r="K515" s="45" t="s">
+      <c r="K515" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L515" s="21"/>
@@ -27779,24 +27779,24 @@
       <c r="Q515" s="21"/>
     </row>
     <row r="516" s="14" customFormat="1" spans="1:17">
-      <c r="A516" s="45" t="s">
+      <c r="A516" s="44" t="s">
         <v>1665</v>
       </c>
-      <c r="B516" s="45" t="s">
+      <c r="B516" s="44" t="s">
         <v>1666</v>
       </c>
-      <c r="C516" s="45" t="s">
+      <c r="C516" s="44" t="s">
         <v>1667</v>
       </c>
-      <c r="D516" s="45" t="s">
+      <c r="D516" s="44" t="s">
         <v>1668</v>
       </c>
-      <c r="F516" s="45" t="s">
+      <c r="F516" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G516" s="45"/>
-      <c r="H516" s="45"/>
-      <c r="I516" s="45" t="s">
+      <c r="G516" s="44"/>
+      <c r="H516" s="44"/>
+      <c r="I516" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J516" s="21"/>
@@ -27809,30 +27809,30 @@
       <c r="Q516" s="21"/>
     </row>
     <row r="517" s="14" customFormat="1" spans="1:17">
-      <c r="A517" s="45" t="s">
+      <c r="A517" s="44" t="s">
         <v>1669</v>
       </c>
-      <c r="B517" s="45" t="s">
+      <c r="B517" s="44" t="s">
         <v>1670</v>
       </c>
-      <c r="C517" s="45" t="s">
+      <c r="C517" s="44" t="s">
         <v>1671</v>
       </c>
-      <c r="D517" s="45" t="s">
+      <c r="D517" s="44" t="s">
         <v>1672</v>
       </c>
-      <c r="F517" s="45" t="s">
+      <c r="F517" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G517" s="45"/>
-      <c r="H517" s="45"/>
-      <c r="I517" s="45" t="s">
+      <c r="G517" s="44"/>
+      <c r="H517" s="44"/>
+      <c r="I517" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="J517" s="45" t="s">
+      <c r="J517" s="44" t="s">
         <v>1673</v>
       </c>
-      <c r="K517" s="45" t="s">
+      <c r="K517" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L517" s="21"/>
@@ -27843,514 +27843,514 @@
       <c r="Q517" s="21"/>
     </row>
     <row r="518" s="32" customFormat="1" spans="1:17">
-      <c r="A518" s="48" t="s">
+      <c r="A518" s="47" t="s">
         <v>1674</v>
       </c>
-      <c r="B518" s="48" t="s">
+      <c r="B518" s="47" t="s">
         <v>1675</v>
       </c>
-      <c r="C518" s="48" t="s">
+      <c r="C518" s="47" t="s">
         <v>1676</v>
       </c>
-      <c r="D518" s="48" t="s">
+      <c r="D518" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="F518" s="48" t="s">
+      <c r="F518" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G518" s="49" t="s">
+      <c r="G518" s="48" t="s">
         <v>1677</v>
       </c>
-      <c r="H518" s="48" t="s">
+      <c r="H518" s="47" t="s">
         <v>1678</v>
       </c>
-      <c r="I518" s="48" t="s">
+      <c r="I518" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J518" s="48"/>
-      <c r="K518" s="51"/>
-      <c r="L518" s="51"/>
-      <c r="M518" s="51"/>
-      <c r="N518" s="51"/>
-      <c r="O518" s="51"/>
-      <c r="P518" s="51"/>
-      <c r="Q518" s="51"/>
+      <c r="J518" s="47"/>
+      <c r="K518" s="50"/>
+      <c r="L518" s="50"/>
+      <c r="M518" s="50"/>
+      <c r="N518" s="50"/>
+      <c r="O518" s="50"/>
+      <c r="P518" s="50"/>
+      <c r="Q518" s="50"/>
     </row>
     <row r="519" s="32" customFormat="1" spans="1:17">
-      <c r="A519" s="48" t="s">
+      <c r="A519" s="47" t="s">
         <v>1679</v>
       </c>
-      <c r="B519" s="48" t="s">
+      <c r="B519" s="47" t="s">
         <v>1680</v>
       </c>
-      <c r="C519" s="48" t="s">
+      <c r="C519" s="47" t="s">
         <v>1681</v>
       </c>
-      <c r="D519" s="48" t="s">
+      <c r="D519" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="F519" s="48" t="s">
+      <c r="F519" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G519" s="49"/>
-      <c r="H519" s="48" t="s">
+      <c r="G519" s="48"/>
+      <c r="H519" s="47" t="s">
         <v>1682</v>
       </c>
-      <c r="I519" s="48" t="s">
+      <c r="I519" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J519" s="48"/>
-      <c r="K519" s="51"/>
-      <c r="L519" s="51"/>
-      <c r="M519" s="51"/>
-      <c r="N519" s="51"/>
-      <c r="O519" s="51"/>
-      <c r="P519" s="51"/>
-      <c r="Q519" s="51"/>
+      <c r="J519" s="47"/>
+      <c r="K519" s="50"/>
+      <c r="L519" s="50"/>
+      <c r="M519" s="50"/>
+      <c r="N519" s="50"/>
+      <c r="O519" s="50"/>
+      <c r="P519" s="50"/>
+      <c r="Q519" s="50"/>
     </row>
     <row r="520" s="32" customFormat="1" spans="1:17">
-      <c r="A520" s="48" t="s">
+      <c r="A520" s="47" t="s">
         <v>1683</v>
       </c>
-      <c r="B520" s="48" t="s">
+      <c r="B520" s="47" t="s">
         <v>1684</v>
       </c>
-      <c r="C520" s="48" t="s">
+      <c r="C520" s="47" t="s">
         <v>1685</v>
       </c>
-      <c r="D520" s="48" t="s">
+      <c r="D520" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="F520" s="48" t="s">
+      <c r="F520" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G520" s="49"/>
-      <c r="H520" s="48" t="s">
+      <c r="G520" s="48"/>
+      <c r="H520" s="47" t="s">
         <v>1686</v>
       </c>
-      <c r="I520" s="48" t="s">
+      <c r="I520" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J520" s="48"/>
-      <c r="K520" s="51"/>
-      <c r="L520" s="51"/>
-      <c r="M520" s="51"/>
-      <c r="N520" s="51"/>
-      <c r="O520" s="51"/>
-      <c r="P520" s="51"/>
-      <c r="Q520" s="51"/>
+      <c r="J520" s="47"/>
+      <c r="K520" s="50"/>
+      <c r="L520" s="50"/>
+      <c r="M520" s="50"/>
+      <c r="N520" s="50"/>
+      <c r="O520" s="50"/>
+      <c r="P520" s="50"/>
+      <c r="Q520" s="50"/>
     </row>
     <row r="521" s="32" customFormat="1" spans="1:17">
-      <c r="A521" s="48" t="s">
+      <c r="A521" s="47" t="s">
         <v>1687</v>
       </c>
-      <c r="B521" s="48" t="s">
+      <c r="B521" s="47" t="s">
         <v>1688</v>
       </c>
-      <c r="C521" s="48" t="s">
+      <c r="C521" s="47" t="s">
         <v>1689</v>
       </c>
-      <c r="D521" s="48" t="s">
+      <c r="D521" s="47" t="s">
         <v>600</v>
       </c>
-      <c r="F521" s="48" t="s">
+      <c r="F521" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G521" s="49"/>
-      <c r="H521" s="48" t="s">
+      <c r="G521" s="48"/>
+      <c r="H521" s="47" t="s">
         <v>1690</v>
       </c>
-      <c r="I521" s="48" t="s">
+      <c r="I521" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J521" s="48"/>
-      <c r="K521" s="51"/>
-      <c r="L521" s="51"/>
-      <c r="M521" s="51"/>
-      <c r="N521" s="51"/>
-      <c r="O521" s="51"/>
-      <c r="P521" s="51"/>
-      <c r="Q521" s="51"/>
+      <c r="J521" s="47"/>
+      <c r="K521" s="50"/>
+      <c r="L521" s="50"/>
+      <c r="M521" s="50"/>
+      <c r="N521" s="50"/>
+      <c r="O521" s="50"/>
+      <c r="P521" s="50"/>
+      <c r="Q521" s="50"/>
     </row>
     <row r="522" s="32" customFormat="1" spans="1:17">
-      <c r="A522" s="48" t="s">
+      <c r="A522" s="47" t="s">
         <v>1691</v>
       </c>
-      <c r="B522" s="48" t="s">
+      <c r="B522" s="47" t="s">
         <v>1692</v>
       </c>
-      <c r="C522" s="48" t="s">
+      <c r="C522" s="47" t="s">
         <v>1693</v>
       </c>
-      <c r="D522" s="48" t="s">
+      <c r="D522" s="47" t="s">
         <v>746</v>
       </c>
-      <c r="F522" s="48" t="s">
+      <c r="F522" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G522" s="49"/>
-      <c r="H522" s="48" t="s">
+      <c r="G522" s="48"/>
+      <c r="H522" s="47" t="s">
         <v>1694</v>
       </c>
-      <c r="I522" s="48" t="s">
+      <c r="I522" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J522" s="48"/>
-      <c r="K522" s="51"/>
-      <c r="L522" s="51"/>
-      <c r="M522" s="51"/>
-      <c r="N522" s="51"/>
-      <c r="O522" s="51"/>
-      <c r="P522" s="51"/>
-      <c r="Q522" s="51"/>
+      <c r="J522" s="47"/>
+      <c r="K522" s="50"/>
+      <c r="L522" s="50"/>
+      <c r="M522" s="50"/>
+      <c r="N522" s="50"/>
+      <c r="O522" s="50"/>
+      <c r="P522" s="50"/>
+      <c r="Q522" s="50"/>
     </row>
     <row r="523" s="32" customFormat="1" spans="1:17">
-      <c r="A523" s="48" t="s">
+      <c r="A523" s="47" t="s">
         <v>1695</v>
       </c>
-      <c r="B523" s="48" t="s">
+      <c r="B523" s="47" t="s">
         <v>1696</v>
       </c>
-      <c r="C523" s="48" t="s">
+      <c r="C523" s="47" t="s">
         <v>1697</v>
       </c>
-      <c r="D523" s="48" t="s">
+      <c r="D523" s="47" t="s">
         <v>1698</v>
       </c>
-      <c r="F523" s="48" t="s">
+      <c r="F523" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G523" s="49"/>
-      <c r="H523" s="48" t="s">
+      <c r="G523" s="48"/>
+      <c r="H523" s="47" t="s">
         <v>1261</v>
       </c>
-      <c r="I523" s="48" t="s">
+      <c r="I523" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J523" s="48"/>
-      <c r="K523" s="51"/>
-      <c r="L523" s="51"/>
-      <c r="M523" s="51"/>
-      <c r="N523" s="51"/>
-      <c r="O523" s="51"/>
-      <c r="P523" s="51"/>
-      <c r="Q523" s="51"/>
+      <c r="J523" s="47"/>
+      <c r="K523" s="50"/>
+      <c r="L523" s="50"/>
+      <c r="M523" s="50"/>
+      <c r="N523" s="50"/>
+      <c r="O523" s="50"/>
+      <c r="P523" s="50"/>
+      <c r="Q523" s="50"/>
     </row>
     <row r="524" s="32" customFormat="1" spans="1:17">
-      <c r="A524" s="48" t="s">
+      <c r="A524" s="47" t="s">
         <v>1699</v>
       </c>
-      <c r="B524" s="48" t="s">
+      <c r="B524" s="47" t="s">
         <v>1700</v>
       </c>
-      <c r="C524" s="48" t="s">
+      <c r="C524" s="47" t="s">
         <v>1701</v>
       </c>
-      <c r="D524" s="48" t="s">
+      <c r="D524" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F524" s="48" t="s">
+      <c r="F524" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G524" s="49"/>
-      <c r="H524" s="48" t="s">
+      <c r="G524" s="48"/>
+      <c r="H524" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="I524" s="48" t="s">
+      <c r="I524" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J524" s="48"/>
-      <c r="K524" s="51"/>
-      <c r="L524" s="51"/>
-      <c r="M524" s="51"/>
-      <c r="N524" s="51"/>
-      <c r="O524" s="51"/>
-      <c r="P524" s="51"/>
-      <c r="Q524" s="51"/>
+      <c r="J524" s="47"/>
+      <c r="K524" s="50"/>
+      <c r="L524" s="50"/>
+      <c r="M524" s="50"/>
+      <c r="N524" s="50"/>
+      <c r="O524" s="50"/>
+      <c r="P524" s="50"/>
+      <c r="Q524" s="50"/>
     </row>
     <row r="525" s="32" customFormat="1" spans="1:17">
-      <c r="A525" s="48" t="s">
+      <c r="A525" s="47" t="s">
         <v>1702</v>
       </c>
-      <c r="B525" s="48" t="s">
+      <c r="B525" s="47" t="s">
         <v>1703</v>
       </c>
-      <c r="C525" s="48" t="s">
+      <c r="C525" s="47" t="s">
         <v>1704</v>
       </c>
-      <c r="D525" s="48" t="s">
+      <c r="D525" s="47" t="s">
         <v>777</v>
       </c>
-      <c r="F525" s="48" t="s">
+      <c r="F525" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G525" s="49"/>
-      <c r="H525" s="48" t="s">
+      <c r="G525" s="48"/>
+      <c r="H525" s="47" t="s">
         <v>1269</v>
       </c>
-      <c r="I525" s="48" t="s">
+      <c r="I525" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J525" s="48"/>
-      <c r="K525" s="51"/>
-      <c r="L525" s="51"/>
-      <c r="M525" s="51"/>
-      <c r="N525" s="51"/>
-      <c r="O525" s="51"/>
-      <c r="P525" s="51"/>
-      <c r="Q525" s="51"/>
+      <c r="J525" s="47"/>
+      <c r="K525" s="50"/>
+      <c r="L525" s="50"/>
+      <c r="M525" s="50"/>
+      <c r="N525" s="50"/>
+      <c r="O525" s="50"/>
+      <c r="P525" s="50"/>
+      <c r="Q525" s="50"/>
     </row>
     <row r="526" s="32" customFormat="1" spans="1:17">
-      <c r="A526" s="48" t="s">
+      <c r="A526" s="47" t="s">
         <v>1705</v>
       </c>
-      <c r="B526" s="48" t="s">
+      <c r="B526" s="47" t="s">
         <v>1706</v>
       </c>
-      <c r="C526" s="48" t="s">
+      <c r="C526" s="47" t="s">
         <v>1707</v>
       </c>
-      <c r="D526" s="48" t="s">
+      <c r="D526" s="47" t="s">
         <v>785</v>
       </c>
-      <c r="F526" s="48" t="s">
+      <c r="F526" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G526" s="49"/>
-      <c r="H526" s="48" t="s">
+      <c r="G526" s="48"/>
+      <c r="H526" s="47" t="s">
         <v>1708</v>
       </c>
-      <c r="I526" s="48" t="s">
+      <c r="I526" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J526" s="48"/>
-      <c r="K526" s="51"/>
-      <c r="L526" s="51"/>
-      <c r="M526" s="51"/>
-      <c r="N526" s="51"/>
-      <c r="O526" s="51"/>
-      <c r="P526" s="51"/>
-      <c r="Q526" s="51"/>
+      <c r="J526" s="47"/>
+      <c r="K526" s="50"/>
+      <c r="L526" s="50"/>
+      <c r="M526" s="50"/>
+      <c r="N526" s="50"/>
+      <c r="O526" s="50"/>
+      <c r="P526" s="50"/>
+      <c r="Q526" s="50"/>
     </row>
     <row r="527" s="32" customFormat="1" spans="1:17">
-      <c r="A527" s="48" t="s">
+      <c r="A527" s="47" t="s">
         <v>1709</v>
       </c>
-      <c r="B527" s="48" t="s">
+      <c r="B527" s="47" t="s">
         <v>1710</v>
       </c>
-      <c r="C527" s="48" t="s">
+      <c r="C527" s="47" t="s">
         <v>1711</v>
       </c>
-      <c r="D527" s="48" t="s">
+      <c r="D527" s="47" t="s">
         <v>546</v>
       </c>
-      <c r="F527" s="48" t="s">
+      <c r="F527" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G527" s="49"/>
-      <c r="H527" s="48" t="s">
+      <c r="G527" s="48"/>
+      <c r="H527" s="47" t="s">
         <v>1489</v>
       </c>
-      <c r="I527" s="48" t="s">
+      <c r="I527" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J527" s="48"/>
-      <c r="K527" s="51"/>
-      <c r="L527" s="51"/>
-      <c r="M527" s="51"/>
-      <c r="N527" s="51"/>
-      <c r="O527" s="51"/>
-      <c r="P527" s="51"/>
-      <c r="Q527" s="51"/>
+      <c r="J527" s="47"/>
+      <c r="K527" s="50"/>
+      <c r="L527" s="50"/>
+      <c r="M527" s="50"/>
+      <c r="N527" s="50"/>
+      <c r="O527" s="50"/>
+      <c r="P527" s="50"/>
+      <c r="Q527" s="50"/>
     </row>
     <row r="528" s="32" customFormat="1" spans="1:17">
-      <c r="A528" s="48" t="s">
+      <c r="A528" s="47" t="s">
         <v>1712</v>
       </c>
-      <c r="B528" s="48" t="s">
+      <c r="B528" s="47" t="s">
         <v>1713</v>
       </c>
-      <c r="C528" s="48" t="s">
+      <c r="C528" s="47" t="s">
         <v>1714</v>
       </c>
-      <c r="D528" s="48" t="s">
+      <c r="D528" s="47" t="s">
         <v>1715</v>
       </c>
-      <c r="F528" s="48" t="s">
+      <c r="F528" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G528" s="49"/>
-      <c r="H528" s="48"/>
-      <c r="I528" s="48" t="s">
+      <c r="G528" s="48"/>
+      <c r="H528" s="47"/>
+      <c r="I528" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J528" s="48"/>
-      <c r="K528" s="51"/>
-      <c r="L528" s="51"/>
-      <c r="M528" s="51"/>
-      <c r="N528" s="51"/>
-      <c r="O528" s="51"/>
-      <c r="P528" s="51"/>
-      <c r="Q528" s="51"/>
+      <c r="J528" s="47"/>
+      <c r="K528" s="50"/>
+      <c r="L528" s="50"/>
+      <c r="M528" s="50"/>
+      <c r="N528" s="50"/>
+      <c r="O528" s="50"/>
+      <c r="P528" s="50"/>
+      <c r="Q528" s="50"/>
     </row>
     <row r="529" s="32" customFormat="1" spans="1:17">
-      <c r="A529" s="48" t="s">
+      <c r="A529" s="47" t="s">
         <v>1716</v>
       </c>
-      <c r="B529" s="48" t="s">
+      <c r="B529" s="47" t="s">
         <v>1717</v>
       </c>
-      <c r="C529" s="48" t="s">
+      <c r="C529" s="47" t="s">
         <v>1718</v>
       </c>
-      <c r="D529" s="48" t="s">
+      <c r="D529" s="47" t="s">
         <v>1719</v>
       </c>
-      <c r="F529" s="48" t="s">
+      <c r="F529" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G529" s="49"/>
-      <c r="H529" s="48"/>
-      <c r="I529" s="48" t="s">
+      <c r="G529" s="48"/>
+      <c r="H529" s="47"/>
+      <c r="I529" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J529" s="48"/>
-      <c r="K529" s="51"/>
-      <c r="L529" s="51"/>
-      <c r="M529" s="51"/>
-      <c r="N529" s="51"/>
-      <c r="O529" s="51"/>
-      <c r="P529" s="51"/>
-      <c r="Q529" s="51"/>
+      <c r="J529" s="47"/>
+      <c r="K529" s="50"/>
+      <c r="L529" s="50"/>
+      <c r="M529" s="50"/>
+      <c r="N529" s="50"/>
+      <c r="O529" s="50"/>
+      <c r="P529" s="50"/>
+      <c r="Q529" s="50"/>
     </row>
     <row r="530" s="32" customFormat="1" spans="1:17">
-      <c r="A530" s="48" t="s">
+      <c r="A530" s="47" t="s">
         <v>1720</v>
       </c>
-      <c r="B530" s="48" t="s">
+      <c r="B530" s="47" t="s">
         <v>1721</v>
       </c>
-      <c r="C530" s="48" t="s">
+      <c r="C530" s="47" t="s">
         <v>1722</v>
       </c>
-      <c r="D530" s="48" t="s">
+      <c r="D530" s="47" t="s">
         <v>1723</v>
       </c>
-      <c r="F530" s="48" t="s">
+      <c r="F530" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G530" s="49"/>
-      <c r="H530" s="48" t="s">
+      <c r="G530" s="48"/>
+      <c r="H530" s="47" t="s">
         <v>1504</v>
       </c>
-      <c r="I530" s="48" t="s">
+      <c r="I530" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J530" s="48"/>
-      <c r="K530" s="51"/>
-      <c r="L530" s="51"/>
-      <c r="M530" s="51"/>
-      <c r="N530" s="51"/>
-      <c r="O530" s="51"/>
-      <c r="P530" s="51"/>
-      <c r="Q530" s="51"/>
+      <c r="J530" s="47"/>
+      <c r="K530" s="50"/>
+      <c r="L530" s="50"/>
+      <c r="M530" s="50"/>
+      <c r="N530" s="50"/>
+      <c r="O530" s="50"/>
+      <c r="P530" s="50"/>
+      <c r="Q530" s="50"/>
     </row>
     <row r="531" s="32" customFormat="1" spans="1:17">
-      <c r="A531" s="48" t="s">
+      <c r="A531" s="47" t="s">
         <v>1724</v>
       </c>
-      <c r="B531" s="48" t="s">
+      <c r="B531" s="47" t="s">
         <v>1725</v>
       </c>
-      <c r="C531" s="48" t="s">
+      <c r="C531" s="47" t="s">
         <v>1726</v>
       </c>
-      <c r="D531" s="48" t="s">
+      <c r="D531" s="47" t="s">
         <v>1727</v>
       </c>
-      <c r="F531" s="48" t="s">
+      <c r="F531" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G531" s="49"/>
-      <c r="H531" s="48" t="s">
+      <c r="G531" s="48"/>
+      <c r="H531" s="47" t="s">
         <v>1507</v>
       </c>
-      <c r="I531" s="48" t="s">
+      <c r="I531" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J531" s="48"/>
-      <c r="K531" s="51"/>
-      <c r="L531" s="51"/>
-      <c r="M531" s="51"/>
-      <c r="N531" s="51"/>
-      <c r="O531" s="51"/>
-      <c r="P531" s="51"/>
-      <c r="Q531" s="51"/>
+      <c r="J531" s="47"/>
+      <c r="K531" s="50"/>
+      <c r="L531" s="50"/>
+      <c r="M531" s="50"/>
+      <c r="N531" s="50"/>
+      <c r="O531" s="50"/>
+      <c r="P531" s="50"/>
+      <c r="Q531" s="50"/>
     </row>
     <row r="532" s="32" customFormat="1" spans="1:17">
-      <c r="A532" s="48" t="s">
+      <c r="A532" s="47" t="s">
         <v>1728</v>
       </c>
-      <c r="B532" s="48" t="s">
+      <c r="B532" s="47" t="s">
         <v>1729</v>
       </c>
-      <c r="C532" s="48" t="s">
+      <c r="C532" s="47" t="s">
         <v>1730</v>
       </c>
-      <c r="D532" s="48" t="s">
+      <c r="D532" s="47" t="s">
         <v>1731</v>
       </c>
-      <c r="F532" s="48" t="s">
+      <c r="F532" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G532" s="49"/>
-      <c r="H532" s="48"/>
-      <c r="I532" s="48" t="s">
+      <c r="G532" s="48"/>
+      <c r="H532" s="47"/>
+      <c r="I532" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="J532" s="48"/>
-      <c r="K532" s="51"/>
-      <c r="L532" s="51"/>
-      <c r="M532" s="51"/>
-      <c r="N532" s="51"/>
-      <c r="O532" s="51"/>
-      <c r="P532" s="51"/>
-      <c r="Q532" s="51"/>
+      <c r="J532" s="47"/>
+      <c r="K532" s="50"/>
+      <c r="L532" s="50"/>
+      <c r="M532" s="50"/>
+      <c r="N532" s="50"/>
+      <c r="O532" s="50"/>
+      <c r="P532" s="50"/>
+      <c r="Q532" s="50"/>
     </row>
     <row r="533" s="32" customFormat="1" spans="1:17">
-      <c r="A533" s="48" t="s">
+      <c r="A533" s="47" t="s">
         <v>1732</v>
       </c>
-      <c r="B533" s="48" t="s">
+      <c r="B533" s="47" t="s">
         <v>1733</v>
       </c>
-      <c r="C533" s="48" t="s">
+      <c r="C533" s="47" t="s">
         <v>1734</v>
       </c>
-      <c r="D533" s="48" t="s">
+      <c r="D533" s="47" t="s">
         <v>1735</v>
       </c>
-      <c r="F533" s="48" t="s">
+      <c r="F533" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G533" s="49"/>
-      <c r="H533" s="48"/>
-      <c r="I533" s="51" t="s">
+      <c r="G533" s="48"/>
+      <c r="H533" s="47"/>
+      <c r="I533" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J533" s="48" t="s">
+      <c r="J533" s="47" t="s">
         <v>1736</v>
       </c>
-      <c r="K533" s="48" t="s">
+      <c r="K533" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="L533" s="51"/>
-      <c r="M533" s="51"/>
-      <c r="N533" s="51"/>
-      <c r="O533" s="51"/>
-      <c r="P533" s="51"/>
-      <c r="Q533" s="51"/>
+      <c r="L533" s="50"/>
+      <c r="M533" s="50"/>
+      <c r="N533" s="50"/>
+      <c r="O533" s="50"/>
+      <c r="P533" s="50"/>
+      <c r="Q533" s="50"/>
     </row>
     <row r="534" spans="1:17">
       <c r="A534" s="9" t="s">
@@ -28366,7 +28366,7 @@
         <v>693</v>
       </c>
       <c r="F534" s="9"/>
-      <c r="G534" s="44"/>
+      <c r="G534" s="43"/>
       <c r="H534" s="9"/>
       <c r="I534" s="9" t="s">
         <v>693</v>
@@ -28381,24 +28381,24 @@
       <c r="Q534" s="11"/>
     </row>
     <row r="535" s="14" customFormat="1" spans="1:17">
-      <c r="A535" s="45" t="s">
+      <c r="A535" s="44" t="s">
         <v>1740</v>
       </c>
-      <c r="B535" s="45" t="s">
+      <c r="B535" s="44" t="s">
         <v>1741</v>
       </c>
-      <c r="C535" s="45" t="s">
+      <c r="C535" s="44" t="s">
         <v>1742</v>
       </c>
-      <c r="D535" s="45" t="s">
+      <c r="D535" s="44" t="s">
         <v>1743</v>
       </c>
-      <c r="F535" s="45" t="s">
+      <c r="F535" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G535" s="46"/>
-      <c r="H535" s="45"/>
-      <c r="I535" s="45" t="s">
+      <c r="G535" s="45"/>
+      <c r="H535" s="44"/>
+      <c r="I535" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J535" s="21"/>
@@ -28411,24 +28411,24 @@
       <c r="Q535" s="21"/>
     </row>
     <row r="536" s="14" customFormat="1" spans="1:17">
-      <c r="A536" s="45" t="s">
+      <c r="A536" s="44" t="s">
         <v>1744</v>
       </c>
-      <c r="B536" s="45" t="s">
+      <c r="B536" s="44" t="s">
         <v>1745</v>
       </c>
-      <c r="C536" s="45" t="s">
+      <c r="C536" s="44" t="s">
         <v>1746</v>
       </c>
-      <c r="D536" s="45" t="s">
+      <c r="D536" s="44" t="s">
         <v>1747</v>
       </c>
-      <c r="F536" s="45" t="s">
+      <c r="F536" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G536" s="46"/>
-      <c r="H536" s="45"/>
-      <c r="I536" s="45" t="s">
+      <c r="G536" s="45"/>
+      <c r="H536" s="44"/>
+      <c r="I536" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J536" s="21"/>
@@ -28441,24 +28441,24 @@
       <c r="Q536" s="21"/>
     </row>
     <row r="537" s="14" customFormat="1" spans="1:17">
-      <c r="A537" s="45" t="s">
+      <c r="A537" s="44" t="s">
         <v>1748</v>
       </c>
-      <c r="B537" s="45" t="s">
+      <c r="B537" s="44" t="s">
         <v>1749</v>
       </c>
-      <c r="C537" s="45" t="s">
+      <c r="C537" s="44" t="s">
         <v>1750</v>
       </c>
-      <c r="D537" s="45" t="s">
+      <c r="D537" s="44" t="s">
         <v>1751</v>
       </c>
-      <c r="F537" s="45" t="s">
+      <c r="F537" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G537" s="46"/>
-      <c r="H537" s="45"/>
-      <c r="I537" s="45" t="s">
+      <c r="G537" s="45"/>
+      <c r="H537" s="44"/>
+      <c r="I537" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J537" s="21"/>
@@ -28471,24 +28471,24 @@
       <c r="Q537" s="21"/>
     </row>
     <row r="538" s="14" customFormat="1" spans="1:17">
-      <c r="A538" s="45" t="s">
+      <c r="A538" s="44" t="s">
         <v>1752</v>
       </c>
-      <c r="B538" s="45" t="s">
+      <c r="B538" s="44" t="s">
         <v>1753</v>
       </c>
-      <c r="C538" s="45" t="s">
+      <c r="C538" s="44" t="s">
         <v>1754</v>
       </c>
-      <c r="D538" s="45" t="s">
+      <c r="D538" s="44" t="s">
         <v>1755</v>
       </c>
-      <c r="F538" s="45" t="s">
+      <c r="F538" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G538" s="46"/>
-      <c r="H538" s="45"/>
-      <c r="I538" s="45" t="s">
+      <c r="G538" s="45"/>
+      <c r="H538" s="44"/>
+      <c r="I538" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J538" s="21"/>
@@ -28501,30 +28501,30 @@
       <c r="Q538" s="21"/>
     </row>
     <row r="539" s="14" customFormat="1" spans="1:17">
-      <c r="A539" s="45" t="s">
+      <c r="A539" s="44" t="s">
         <v>1756</v>
       </c>
-      <c r="B539" s="45" t="s">
+      <c r="B539" s="44" t="s">
         <v>1757</v>
       </c>
-      <c r="C539" s="45" t="s">
+      <c r="C539" s="44" t="s">
         <v>1758</v>
       </c>
-      <c r="D539" s="45" t="s">
+      <c r="D539" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F539" s="45" t="s">
+      <c r="F539" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G539" s="46"/>
-      <c r="H539" s="45"/>
-      <c r="I539" s="45" t="s">
+      <c r="G539" s="45"/>
+      <c r="H539" s="44"/>
+      <c r="I539" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="J539" s="45" t="s">
+      <c r="J539" s="44" t="s">
         <v>1759</v>
       </c>
-      <c r="K539" s="45" t="s">
+      <c r="K539" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L539" s="21"/>
@@ -28535,24 +28535,24 @@
       <c r="Q539" s="21"/>
     </row>
     <row r="540" s="14" customFormat="1" spans="1:17">
-      <c r="A540" s="45" t="s">
+      <c r="A540" s="44" t="s">
         <v>1760</v>
       </c>
-      <c r="B540" s="45" t="s">
+      <c r="B540" s="44" t="s">
         <v>1761</v>
       </c>
-      <c r="C540" s="45" t="s">
+      <c r="C540" s="44" t="s">
         <v>1762</v>
       </c>
-      <c r="D540" s="45" t="s">
+      <c r="D540" s="44" t="s">
         <v>1763</v>
       </c>
-      <c r="F540" s="45" t="s">
+      <c r="F540" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G540" s="46"/>
-      <c r="H540" s="45"/>
-      <c r="I540" s="45" t="s">
+      <c r="G540" s="45"/>
+      <c r="H540" s="44"/>
+      <c r="I540" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J540" s="21"/>
@@ -28565,24 +28565,24 @@
       <c r="Q540" s="21"/>
     </row>
     <row r="541" s="14" customFormat="1" spans="1:17">
-      <c r="A541" s="45" t="s">
+      <c r="A541" s="44" t="s">
         <v>1764</v>
       </c>
-      <c r="B541" s="45" t="s">
+      <c r="B541" s="44" t="s">
         <v>1765</v>
       </c>
-      <c r="C541" s="45" t="s">
+      <c r="C541" s="44" t="s">
         <v>1766</v>
       </c>
-      <c r="D541" s="45" t="s">
+      <c r="D541" s="44" t="s">
         <v>1767</v>
       </c>
-      <c r="F541" s="45" t="s">
+      <c r="F541" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G541" s="46"/>
-      <c r="H541" s="45"/>
-      <c r="I541" s="45" t="s">
+      <c r="G541" s="45"/>
+      <c r="H541" s="44"/>
+      <c r="I541" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J541" s="21"/>
@@ -28595,24 +28595,24 @@
       <c r="Q541" s="21"/>
     </row>
     <row r="542" s="14" customFormat="1" spans="1:17">
-      <c r="A542" s="45" t="s">
+      <c r="A542" s="44" t="s">
         <v>1768</v>
       </c>
-      <c r="B542" s="45" t="s">
+      <c r="B542" s="44" t="s">
         <v>1769</v>
       </c>
-      <c r="C542" s="45" t="s">
+      <c r="C542" s="44" t="s">
         <v>1770</v>
       </c>
-      <c r="D542" s="45" t="s">
+      <c r="D542" s="44" t="s">
         <v>1771</v>
       </c>
-      <c r="F542" s="45" t="s">
+      <c r="F542" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G542" s="46"/>
-      <c r="H542" s="45"/>
-      <c r="I542" s="45" t="s">
+      <c r="G542" s="45"/>
+      <c r="H542" s="44"/>
+      <c r="I542" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J542" s="21"/>
@@ -28625,24 +28625,24 @@
       <c r="Q542" s="21"/>
     </row>
     <row r="543" s="14" customFormat="1" spans="1:17">
-      <c r="A543" s="45" t="s">
+      <c r="A543" s="44" t="s">
         <v>1772</v>
       </c>
-      <c r="B543" s="45" t="s">
+      <c r="B543" s="44" t="s">
         <v>1773</v>
       </c>
-      <c r="C543" s="45" t="s">
+      <c r="C543" s="44" t="s">
         <v>1774</v>
       </c>
-      <c r="D543" s="45" t="s">
+      <c r="D543" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F543" s="45" t="s">
+      <c r="F543" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G543" s="46"/>
-      <c r="H543" s="45"/>
-      <c r="I543" s="45" t="s">
+      <c r="G543" s="45"/>
+      <c r="H543" s="44"/>
+      <c r="I543" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J543" s="21"/>
@@ -28655,30 +28655,30 @@
       <c r="Q543" s="21"/>
     </row>
     <row r="544" s="14" customFormat="1" spans="1:17">
-      <c r="A544" s="45" t="s">
+      <c r="A544" s="44" t="s">
         <v>1775</v>
       </c>
-      <c r="B544" s="45" t="s">
+      <c r="B544" s="44" t="s">
         <v>1776</v>
       </c>
-      <c r="C544" s="45" t="s">
+      <c r="C544" s="44" t="s">
         <v>1777</v>
       </c>
-      <c r="D544" s="45" t="s">
+      <c r="D544" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F544" s="45" t="s">
+      <c r="F544" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G544" s="46"/>
-      <c r="H544" s="45"/>
+      <c r="G544" s="45"/>
+      <c r="H544" s="44"/>
       <c r="I544" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J544" s="21" t="s">
         <v>1778</v>
       </c>
-      <c r="K544" s="45" t="s">
+      <c r="K544" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L544" s="21"/>
@@ -28689,30 +28689,30 @@
       <c r="Q544" s="21"/>
     </row>
     <row r="545" s="14" customFormat="1" spans="1:17">
-      <c r="A545" s="45" t="s">
+      <c r="A545" s="44" t="s">
         <v>1779</v>
       </c>
-      <c r="B545" s="45" t="s">
+      <c r="B545" s="44" t="s">
         <v>1780</v>
       </c>
-      <c r="C545" s="45" t="s">
+      <c r="C545" s="44" t="s">
         <v>1781</v>
       </c>
-      <c r="D545" s="45" t="s">
+      <c r="D545" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F545" s="45" t="s">
+      <c r="F545" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G545" s="46"/>
-      <c r="H545" s="45"/>
+      <c r="G545" s="45"/>
+      <c r="H545" s="44"/>
       <c r="I545" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J545" s="45" t="s">
+      <c r="J545" s="44" t="s">
         <v>1782</v>
       </c>
-      <c r="K545" s="45" t="s">
+      <c r="K545" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L545" s="21"/>
@@ -28723,24 +28723,24 @@
       <c r="Q545" s="21"/>
     </row>
     <row r="546" s="14" customFormat="1" spans="1:17">
-      <c r="A546" s="45" t="s">
+      <c r="A546" s="44" t="s">
         <v>1783</v>
       </c>
-      <c r="B546" s="45" t="s">
+      <c r="B546" s="44" t="s">
         <v>1784</v>
       </c>
-      <c r="C546" s="45" t="s">
+      <c r="C546" s="44" t="s">
         <v>1785</v>
       </c>
-      <c r="D546" s="45" t="s">
+      <c r="D546" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F546" s="45" t="s">
+      <c r="F546" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G546" s="46"/>
-      <c r="H546" s="45"/>
-      <c r="I546" s="45" t="s">
+      <c r="G546" s="45"/>
+      <c r="H546" s="44"/>
+      <c r="I546" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J546" s="15"/>
@@ -28753,24 +28753,24 @@
       <c r="Q546" s="21"/>
     </row>
     <row r="547" s="14" customFormat="1" spans="1:17">
-      <c r="A547" s="45" t="s">
+      <c r="A547" s="44" t="s">
         <v>1786</v>
       </c>
-      <c r="B547" s="45" t="s">
+      <c r="B547" s="44" t="s">
         <v>1787</v>
       </c>
-      <c r="C547" s="45" t="s">
+      <c r="C547" s="44" t="s">
         <v>1788</v>
       </c>
-      <c r="D547" s="45" t="s">
+      <c r="D547" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F547" s="45" t="s">
+      <c r="F547" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G547" s="46"/>
-      <c r="H547" s="45"/>
-      <c r="I547" s="45" t="s">
+      <c r="G547" s="45"/>
+      <c r="H547" s="44"/>
+      <c r="I547" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J547" s="21"/>
@@ -28783,24 +28783,24 @@
       <c r="Q547" s="21"/>
     </row>
     <row r="548" s="14" customFormat="1" spans="1:17">
-      <c r="A548" s="45" t="s">
+      <c r="A548" s="44" t="s">
         <v>1789</v>
       </c>
-      <c r="B548" s="45" t="s">
+      <c r="B548" s="44" t="s">
         <v>1790</v>
       </c>
-      <c r="C548" s="45" t="s">
+      <c r="C548" s="44" t="s">
         <v>1791</v>
       </c>
-      <c r="D548" s="45" t="s">
+      <c r="D548" s="44" t="s">
         <v>1792</v>
       </c>
-      <c r="F548" s="45" t="s">
+      <c r="F548" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G548" s="46"/>
-      <c r="H548" s="45"/>
-      <c r="I548" s="45" t="s">
+      <c r="G548" s="45"/>
+      <c r="H548" s="44"/>
+      <c r="I548" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J548" s="21"/>
@@ -28813,24 +28813,24 @@
       <c r="Q548" s="21"/>
     </row>
     <row r="549" s="14" customFormat="1" spans="1:17">
-      <c r="A549" s="45" t="s">
+      <c r="A549" s="44" t="s">
         <v>1793</v>
       </c>
-      <c r="B549" s="45" t="s">
+      <c r="B549" s="44" t="s">
         <v>1794</v>
       </c>
-      <c r="C549" s="45" t="s">
+      <c r="C549" s="44" t="s">
         <v>1795</v>
       </c>
-      <c r="D549" s="45" t="s">
+      <c r="D549" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="F549" s="45" t="s">
+      <c r="F549" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G549" s="46"/>
-      <c r="H549" s="45"/>
-      <c r="I549" s="45" t="s">
+      <c r="G549" s="45"/>
+      <c r="H549" s="44"/>
+      <c r="I549" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J549" s="21"/>
@@ -28843,24 +28843,24 @@
       <c r="Q549" s="21"/>
     </row>
     <row r="550" s="14" customFormat="1" spans="1:17">
-      <c r="A550" s="45" t="s">
+      <c r="A550" s="44" t="s">
         <v>1796</v>
       </c>
-      <c r="B550" s="45" t="s">
+      <c r="B550" s="44" t="s">
         <v>1797</v>
       </c>
-      <c r="C550" s="45" t="s">
+      <c r="C550" s="44" t="s">
         <v>1798</v>
       </c>
-      <c r="D550" s="45" t="s">
+      <c r="D550" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="F550" s="45" t="s">
+      <c r="F550" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G550" s="46"/>
-      <c r="H550" s="45"/>
-      <c r="I550" s="45" t="s">
+      <c r="G550" s="45"/>
+      <c r="H550" s="44"/>
+      <c r="I550" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J550" s="21"/>
@@ -28873,24 +28873,24 @@
       <c r="Q550" s="21"/>
     </row>
     <row r="551" s="14" customFormat="1" spans="1:17">
-      <c r="A551" s="45" t="s">
+      <c r="A551" s="44" t="s">
         <v>1799</v>
       </c>
-      <c r="B551" s="45" t="s">
+      <c r="B551" s="44" t="s">
         <v>1800</v>
       </c>
-      <c r="C551" s="45" t="s">
+      <c r="C551" s="44" t="s">
         <v>1801</v>
       </c>
-      <c r="D551" s="45" t="s">
+      <c r="D551" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="F551" s="45" t="s">
+      <c r="F551" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G551" s="46"/>
-      <c r="H551" s="45"/>
-      <c r="I551" s="45" t="s">
+      <c r="G551" s="45"/>
+      <c r="H551" s="44"/>
+      <c r="I551" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J551" s="21"/>
@@ -28918,7 +28918,7 @@
       <c r="F552" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G552" s="44"/>
+      <c r="G552" s="43"/>
       <c r="H552" s="35" t="s">
         <v>1305</v>
       </c>
@@ -29227,30 +29227,30 @@
       <c r="Q561" s="11"/>
     </row>
     <row r="562" s="14" customFormat="1" spans="1:17">
-      <c r="A562" s="45" t="s">
+      <c r="A562" s="44" t="s">
         <v>1840</v>
       </c>
-      <c r="B562" s="45" t="s">
+      <c r="B562" s="44" t="s">
         <v>1841</v>
       </c>
       <c r="C562" s="15" t="s">
         <v>1842</v>
       </c>
-      <c r="D562" s="50" t="s">
+      <c r="D562" s="49" t="s">
         <v>1843</v>
       </c>
-      <c r="F562" s="45" t="s">
+      <c r="F562" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G562" s="45"/>
-      <c r="H562" s="45"/>
+      <c r="G562" s="44"/>
+      <c r="H562" s="44"/>
       <c r="I562" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J562" s="45" t="s">
+      <c r="J562" s="44" t="s">
         <v>1844</v>
       </c>
-      <c r="K562" s="45" t="s">
+      <c r="K562" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L562" s="21"/>
@@ -29261,24 +29261,24 @@
       <c r="Q562" s="21"/>
     </row>
     <row r="563" s="14" customFormat="1" spans="1:17">
-      <c r="A563" s="45" t="s">
+      <c r="A563" s="44" t="s">
         <v>1845</v>
       </c>
-      <c r="B563" s="45" t="s">
+      <c r="B563" s="44" t="s">
         <v>1846</v>
       </c>
-      <c r="C563" s="45" t="s">
+      <c r="C563" s="44" t="s">
         <v>1847</v>
       </c>
-      <c r="D563" s="45" t="s">
+      <c r="D563" s="44" t="s">
         <v>1848</v>
       </c>
-      <c r="F563" s="45" t="s">
+      <c r="F563" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G563" s="45"/>
-      <c r="H563" s="45"/>
-      <c r="I563" s="45" t="s">
+      <c r="G563" s="44"/>
+      <c r="H563" s="44"/>
+      <c r="I563" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J563" s="21"/>
@@ -29291,30 +29291,30 @@
       <c r="Q563" s="21"/>
     </row>
     <row r="564" s="14" customFormat="1" spans="1:17">
-      <c r="A564" s="45" t="s">
+      <c r="A564" s="44" t="s">
         <v>1849</v>
       </c>
-      <c r="B564" s="45" t="s">
+      <c r="B564" s="44" t="s">
         <v>1850</v>
       </c>
-      <c r="C564" s="45" t="s">
+      <c r="C564" s="44" t="s">
         <v>1819</v>
       </c>
-      <c r="D564" s="45" t="s">
+      <c r="D564" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="F564" s="45" t="s">
+      <c r="F564" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G564" s="45"/>
-      <c r="H564" s="45"/>
+      <c r="G564" s="44"/>
+      <c r="H564" s="44"/>
       <c r="I564" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J564" s="21" t="s">
         <v>1851</v>
       </c>
-      <c r="K564" s="45" t="s">
+      <c r="K564" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L564" s="21"/>
@@ -29513,24 +29513,24 @@
       <c r="Q570" s="20"/>
     </row>
     <row r="571" s="14" customFormat="1" spans="1:17">
-      <c r="A571" s="45" t="s">
+      <c r="A571" s="44" t="s">
         <v>1871</v>
       </c>
-      <c r="B571" s="45" t="s">
+      <c r="B571" s="44" t="s">
         <v>1872</v>
       </c>
-      <c r="C571" s="45" t="s">
+      <c r="C571" s="44" t="s">
         <v>1873</v>
       </c>
-      <c r="D571" s="45" t="s">
+      <c r="D571" s="44" t="s">
         <v>1874</v>
       </c>
-      <c r="F571" s="45" t="s">
+      <c r="F571" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G571" s="45"/>
-      <c r="H571" s="45"/>
-      <c r="I571" s="45" t="s">
+      <c r="G571" s="44"/>
+      <c r="H571" s="44"/>
+      <c r="I571" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J571" s="21"/>
@@ -29543,24 +29543,24 @@
       <c r="Q571" s="21"/>
     </row>
     <row r="572" s="14" customFormat="1" spans="1:17">
-      <c r="A572" s="45" t="s">
+      <c r="A572" s="44" t="s">
         <v>1875</v>
       </c>
-      <c r="B572" s="45" t="s">
+      <c r="B572" s="44" t="s">
         <v>1876</v>
       </c>
-      <c r="C572" s="45" t="s">
+      <c r="C572" s="44" t="s">
         <v>1877</v>
       </c>
-      <c r="D572" s="45" t="s">
+      <c r="D572" s="44" t="s">
         <v>1878</v>
       </c>
-      <c r="F572" s="45" t="s">
+      <c r="F572" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G572" s="45"/>
-      <c r="H572" s="45"/>
-      <c r="I572" s="45" t="s">
+      <c r="G572" s="44"/>
+      <c r="H572" s="44"/>
+      <c r="I572" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J572" s="21"/>
@@ -29573,24 +29573,24 @@
       <c r="Q572" s="21"/>
     </row>
     <row r="573" s="14" customFormat="1" spans="1:17">
-      <c r="A573" s="45" t="s">
+      <c r="A573" s="44" t="s">
         <v>1879</v>
       </c>
-      <c r="B573" s="45" t="s">
+      <c r="B573" s="44" t="s">
         <v>1880</v>
       </c>
-      <c r="C573" s="45" t="s">
+      <c r="C573" s="44" t="s">
         <v>1881</v>
       </c>
-      <c r="D573" s="45" t="s">
+      <c r="D573" s="44" t="s">
         <v>1882</v>
       </c>
-      <c r="F573" s="45" t="s">
+      <c r="F573" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G573" s="45"/>
-      <c r="H573" s="45"/>
-      <c r="I573" s="45" t="s">
+      <c r="G573" s="44"/>
+      <c r="H573" s="44"/>
+      <c r="I573" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J573" s="21"/>
@@ -29603,30 +29603,30 @@
       <c r="Q573" s="21"/>
     </row>
     <row r="574" s="14" customFormat="1" spans="1:17">
-      <c r="A574" s="45" t="s">
+      <c r="A574" s="44" t="s">
         <v>1883</v>
       </c>
-      <c r="B574" s="45" t="s">
+      <c r="B574" s="44" t="s">
         <v>1884</v>
       </c>
-      <c r="C574" s="45" t="s">
+      <c r="C574" s="44" t="s">
         <v>1885</v>
       </c>
-      <c r="D574" s="45" t="s">
+      <c r="D574" s="44" t="s">
         <v>1886</v>
       </c>
-      <c r="F574" s="45" t="s">
+      <c r="F574" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G574" s="45"/>
-      <c r="H574" s="45"/>
+      <c r="G574" s="44"/>
+      <c r="H574" s="44"/>
       <c r="I574" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J574" s="45" t="s">
+      <c r="J574" s="44" t="s">
         <v>1887</v>
       </c>
-      <c r="K574" s="45" t="s">
+      <c r="K574" s="44" t="s">
         <v>693</v>
       </c>
       <c r="L574" s="21"/>
@@ -29637,24 +29637,24 @@
       <c r="Q574" s="21"/>
     </row>
     <row r="575" s="14" customFormat="1" spans="1:17">
-      <c r="A575" s="45" t="s">
+      <c r="A575" s="44" t="s">
         <v>1888</v>
       </c>
-      <c r="B575" s="45" t="s">
+      <c r="B575" s="44" t="s">
         <v>1889</v>
       </c>
-      <c r="C575" s="45" t="s">
+      <c r="C575" s="44" t="s">
         <v>1890</v>
       </c>
-      <c r="D575" s="45" t="s">
+      <c r="D575" s="44" t="s">
         <v>1891</v>
       </c>
-      <c r="F575" s="45" t="s">
+      <c r="F575" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G575" s="45"/>
-      <c r="H575" s="45"/>
-      <c r="I575" s="45" t="s">
+      <c r="G575" s="44"/>
+      <c r="H575" s="44"/>
+      <c r="I575" s="44" t="s">
         <v>693</v>
       </c>
       <c r="J575" s="21"/>
@@ -29784,7 +29784,7 @@
       <c r="F580" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G580" s="52" t="s">
+      <c r="G580" s="51" t="s">
         <v>1905</v>
       </c>
       <c r="H580" s="9"/>
@@ -29816,7 +29816,7 @@
       <c r="F581" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G581" s="53"/>
+      <c r="G581" s="52"/>
       <c r="H581" s="9"/>
       <c r="I581" s="20" t="s">
         <v>23</v>
@@ -29846,7 +29846,7 @@
       <c r="F582" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G582" s="53"/>
+      <c r="G582" s="52"/>
       <c r="H582" s="9"/>
       <c r="I582" s="20" t="s">
         <v>23</v>
@@ -29876,7 +29876,7 @@
       <c r="F583" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G583" s="53"/>
+      <c r="G583" s="52"/>
       <c r="H583" s="9"/>
       <c r="I583" s="20" t="s">
         <v>23</v>
@@ -29906,7 +29906,7 @@
       <c r="F584" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G584" s="53"/>
+      <c r="G584" s="52"/>
       <c r="H584" s="9"/>
       <c r="I584" s="20" t="s">
         <v>23</v>
@@ -29921,34 +29921,34 @@
       <c r="Q584" s="20"/>
     </row>
     <row r="585" s="33" customFormat="1" spans="1:17">
-      <c r="A585" s="54" t="s">
+      <c r="A585" s="53" t="s">
         <v>1922</v>
       </c>
-      <c r="B585" s="54" t="s">
+      <c r="B585" s="53" t="s">
         <v>1923</v>
       </c>
-      <c r="C585" s="54" t="s">
+      <c r="C585" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D585" s="54" t="s">
+      <c r="D585" s="53" t="s">
         <v>1924</v>
       </c>
-      <c r="F585" s="54" t="s">
+      <c r="F585" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="G585" s="53"/>
+      <c r="G585" s="52"/>
       <c r="H585" s="9"/>
-      <c r="I585" s="57" t="s">
+      <c r="I585" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J585" s="57"/>
-      <c r="K585" s="57"/>
-      <c r="L585" s="57"/>
-      <c r="M585" s="57"/>
-      <c r="N585" s="57"/>
-      <c r="O585" s="57"/>
-      <c r="P585" s="57"/>
-      <c r="Q585" s="57"/>
+      <c r="J585" s="56"/>
+      <c r="K585" s="56"/>
+      <c r="L585" s="56"/>
+      <c r="M585" s="56"/>
+      <c r="N585" s="56"/>
+      <c r="O585" s="56"/>
+      <c r="P585" s="56"/>
+      <c r="Q585" s="56"/>
     </row>
     <row r="586" spans="1:17">
       <c r="A586" s="9" t="s">
@@ -29960,7 +29960,7 @@
       <c r="C586" s="9"/>
       <c r="D586" s="9"/>
       <c r="F586" s="9"/>
-      <c r="G586" s="53"/>
+      <c r="G586" s="52"/>
       <c r="H586" s="9"/>
       <c r="I586" s="11"/>
       <c r="J586" s="11"/>
@@ -29988,7 +29988,7 @@
       <c r="F587" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G587" s="53"/>
+      <c r="G587" s="52"/>
       <c r="H587" s="9"/>
       <c r="I587" s="20" t="s">
         <v>23</v>
@@ -30003,58 +30003,58 @@
       <c r="Q587" s="20"/>
     </row>
     <row r="588" s="33" customFormat="1" spans="1:17">
-      <c r="A588" s="54" t="s">
+      <c r="A588" s="53" t="s">
         <v>1931</v>
       </c>
-      <c r="B588" s="54" t="s">
+      <c r="B588" s="53" t="s">
         <v>1932</v>
       </c>
-      <c r="C588" s="54" t="s">
+      <c r="C588" s="53" t="s">
         <v>1929</v>
       </c>
-      <c r="D588" s="54" t="s">
+      <c r="D588" s="53" t="s">
         <v>1930</v>
       </c>
-      <c r="F588" s="54" t="s">
+      <c r="F588" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="G588" s="53"/>
+      <c r="G588" s="52"/>
       <c r="H588" s="9"/>
-      <c r="I588" s="57" t="s">
+      <c r="I588" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J588" s="57"/>
-      <c r="K588" s="57"/>
-      <c r="L588" s="57"/>
-      <c r="M588" s="57"/>
-      <c r="N588" s="57"/>
-      <c r="O588" s="57"/>
-      <c r="P588" s="57"/>
-      <c r="Q588" s="57"/>
+      <c r="J588" s="56"/>
+      <c r="K588" s="56"/>
+      <c r="L588" s="56"/>
+      <c r="M588" s="56"/>
+      <c r="N588" s="56"/>
+      <c r="O588" s="56"/>
+      <c r="P588" s="56"/>
+      <c r="Q588" s="56"/>
     </row>
     <row r="589" s="33" customFormat="1" spans="1:17">
-      <c r="A589" s="54" t="s">
+      <c r="A589" s="53" t="s">
         <v>1933</v>
       </c>
-      <c r="B589" s="54" t="s">
+      <c r="B589" s="53" t="s">
         <v>1934</v>
       </c>
-      <c r="C589" s="54"/>
-      <c r="D589" s="54"/>
-      <c r="F589" s="54"/>
-      <c r="G589" s="53"/>
+      <c r="C589" s="53"/>
+      <c r="D589" s="53"/>
+      <c r="F589" s="53"/>
+      <c r="G589" s="52"/>
       <c r="H589" s="9"/>
-      <c r="I589" s="57"/>
-      <c r="J589" s="57" t="s">
+      <c r="I589" s="56"/>
+      <c r="J589" s="56" t="s">
         <v>1935</v>
       </c>
-      <c r="K589" s="57"/>
-      <c r="L589" s="57"/>
-      <c r="M589" s="57"/>
-      <c r="N589" s="57"/>
-      <c r="O589" s="57"/>
-      <c r="P589" s="57"/>
-      <c r="Q589" s="57"/>
+      <c r="K589" s="56"/>
+      <c r="L589" s="56"/>
+      <c r="M589" s="56"/>
+      <c r="N589" s="56"/>
+      <c r="O589" s="56"/>
+      <c r="P589" s="56"/>
+      <c r="Q589" s="56"/>
     </row>
     <row r="590" s="28" customFormat="1" spans="1:17">
       <c r="A590" s="35" t="s">
@@ -30072,7 +30072,7 @@
       <c r="F590" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G590" s="53"/>
+      <c r="G590" s="52"/>
       <c r="H590" s="9"/>
       <c r="I590" s="20" t="s">
         <v>23</v>
@@ -30102,7 +30102,7 @@
       <c r="F591" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="G591" s="53"/>
+      <c r="G591" s="52"/>
       <c r="H591" s="9"/>
       <c r="I591" s="20" t="s">
         <v>23</v>
@@ -30126,7 +30126,7 @@
       <c r="C592" s="9"/>
       <c r="D592" s="9"/>
       <c r="F592" s="9"/>
-      <c r="G592" s="53"/>
+      <c r="G592" s="52"/>
       <c r="H592" s="9"/>
       <c r="I592" s="11"/>
       <c r="J592" s="11"/>
@@ -30148,7 +30148,7 @@
       <c r="C593" s="9"/>
       <c r="D593" s="9"/>
       <c r="F593" s="9"/>
-      <c r="G593" s="53"/>
+      <c r="G593" s="52"/>
       <c r="H593" s="9"/>
       <c r="I593" s="11"/>
       <c r="J593" s="11"/>
@@ -30170,7 +30170,7 @@
       <c r="C594" s="9"/>
       <c r="D594" s="9"/>
       <c r="F594" s="9"/>
-      <c r="G594" s="55"/>
+      <c r="G594" s="54"/>
       <c r="H594" s="9"/>
       <c r="I594" s="11"/>
       <c r="J594" s="11"/>
@@ -30317,30 +30317,30 @@
       <c r="Q599" s="20"/>
     </row>
     <row r="600" s="30" customFormat="1" spans="1:17">
-      <c r="A600" s="41" t="s">
+      <c r="A600" s="40" t="s">
         <v>1963</v>
       </c>
-      <c r="B600" s="41" t="s">
+      <c r="B600" s="40" t="s">
         <v>1964</v>
       </c>
-      <c r="C600" s="41" t="s">
+      <c r="C600" s="40" t="s">
         <v>1965</v>
       </c>
-      <c r="D600" s="41"/>
-      <c r="F600" s="41"/>
-      <c r="G600" s="41"/>
-      <c r="H600" s="41"/>
-      <c r="I600" s="41" t="s">
+      <c r="D600" s="40"/>
+      <c r="F600" s="40"/>
+      <c r="G600" s="40"/>
+      <c r="H600" s="40"/>
+      <c r="I600" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="J600" s="43"/>
-      <c r="K600" s="43"/>
-      <c r="L600" s="43"/>
-      <c r="M600" s="43"/>
-      <c r="N600" s="43"/>
-      <c r="O600" s="43"/>
-      <c r="P600" s="43"/>
-      <c r="Q600" s="43"/>
+      <c r="J600" s="42"/>
+      <c r="K600" s="42"/>
+      <c r="L600" s="42"/>
+      <c r="M600" s="42"/>
+      <c r="N600" s="42"/>
+      <c r="O600" s="42"/>
+      <c r="P600" s="42"/>
+      <c r="Q600" s="42"/>
     </row>
     <row r="601" spans="1:17">
       <c r="A601" s="9" t="s">
@@ -31227,7 +31227,7 @@
       <c r="D635" s="35" t="s">
         <v>2065</v>
       </c>
-      <c r="F635" s="56" t="s">
+      <c r="F635" s="55" t="s">
         <v>104</v>
       </c>
       <c r="G635" s="35"/>
@@ -31449,23 +31449,23 @@
       <c r="Q642" s="20"/>
     </row>
     <row r="643" s="34" customFormat="1" spans="1:17">
-      <c r="A643" s="56" t="s">
+      <c r="A643" s="55" t="s">
         <v>2091</v>
       </c>
-      <c r="B643" s="56" t="s">
+      <c r="B643" s="55" t="s">
         <v>2092</v>
       </c>
-      <c r="C643" s="58" t="s">
+      <c r="C643" s="57" t="s">
         <v>2093</v>
       </c>
-      <c r="D643" s="56" t="s">
+      <c r="D643" s="55" t="s">
         <v>1698</v>
       </c>
-      <c r="F643" s="56" t="s">
+      <c r="F643" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G643" s="56"/>
-      <c r="H643" s="56"/>
+      <c r="G643" s="55"/>
+      <c r="H643" s="55"/>
       <c r="I643" s="59"/>
       <c r="J643" s="59"/>
       <c r="K643" s="59"/>
@@ -31661,7 +31661,7 @@
       <c r="D650" s="9" t="s">
         <v>1276</v>
       </c>
-      <c r="E650" s="39" t="str">
+      <c r="E650" s="58" t="str">
         <f>VLOOKUP(MID(D650,1,2),字库代码!B:I,8,TRUE)</f>
         <v>技术人员</v>
       </c>
@@ -32032,7 +32032,7 @@
       <c r="F663" s="9"/>
       <c r="G663" s="9"/>
       <c r="H663" s="9"/>
-      <c r="I663" s="43" t="s">
+      <c r="I663" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J663" s="11"/>
@@ -32058,7 +32058,7 @@
       <c r="F664" s="9"/>
       <c r="G664" s="9"/>
       <c r="H664" s="9"/>
-      <c r="I664" s="43" t="s">
+      <c r="I664" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J664" s="11"/>
@@ -32084,7 +32084,7 @@
       <c r="F665" s="9"/>
       <c r="G665" s="9"/>
       <c r="H665" s="9"/>
-      <c r="I665" s="43" t="s">
+      <c r="I665" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J665" s="11"/>
@@ -32110,7 +32110,7 @@
       <c r="F666" s="9"/>
       <c r="G666" s="9"/>
       <c r="H666" s="9"/>
-      <c r="I666" s="43" t="s">
+      <c r="I666" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J666" s="11"/>
@@ -32136,7 +32136,7 @@
       <c r="F667" s="9"/>
       <c r="G667" s="9"/>
       <c r="H667" s="9"/>
-      <c r="I667" s="43" t="s">
+      <c r="I667" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J667" s="11"/>
@@ -32162,7 +32162,7 @@
       <c r="F668" s="9"/>
       <c r="G668" s="9"/>
       <c r="H668" s="9"/>
-      <c r="I668" s="43" t="s">
+      <c r="I668" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J668" s="11"/>
@@ -32188,7 +32188,7 @@
       <c r="F669" s="9"/>
       <c r="G669" s="9"/>
       <c r="H669" s="9"/>
-      <c r="I669" s="43" t="s">
+      <c r="I669" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J669" s="11"/>
@@ -32214,7 +32214,7 @@
       <c r="F670" s="9"/>
       <c r="G670" s="9"/>
       <c r="H670" s="9"/>
-      <c r="I670" s="43" t="s">
+      <c r="I670" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J670" s="11"/>
@@ -32240,7 +32240,7 @@
       <c r="F671" s="9"/>
       <c r="G671" s="9"/>
       <c r="H671" s="9"/>
-      <c r="I671" s="43" t="s">
+      <c r="I671" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J671" s="11"/>
@@ -32288,7 +32288,7 @@
       <c r="F673" s="9"/>
       <c r="G673" s="9"/>
       <c r="H673" s="9"/>
-      <c r="I673" s="43" t="s">
+      <c r="I673" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J673" s="11"/>
@@ -32314,7 +32314,7 @@
       <c r="F674" s="9"/>
       <c r="G674" s="9"/>
       <c r="H674" s="9"/>
-      <c r="I674" s="43" t="s">
+      <c r="I674" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J674" s="11"/>
@@ -32327,25 +32327,25 @@
       <c r="Q674" s="11"/>
     </row>
     <row r="675" s="14" customFormat="1" spans="1:17">
-      <c r="A675" s="45" t="s">
+      <c r="A675" s="44" t="s">
         <v>2190</v>
       </c>
-      <c r="B675" s="45" t="s">
+      <c r="B675" s="44" t="s">
         <v>2191</v>
       </c>
-      <c r="C675" s="45" t="s">
+      <c r="C675" s="44" t="s">
         <v>2192</v>
       </c>
-      <c r="D675" s="45" t="s">
+      <c r="D675" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="F675" s="45" t="s">
+      <c r="F675" s="44" t="s">
         <v>1314</v>
       </c>
-      <c r="G675" s="45" t="s">
+      <c r="G675" s="44" t="s">
         <v>2193</v>
       </c>
-      <c r="H675" s="45"/>
+      <c r="H675" s="44"/>
       <c r="I675" s="21" t="s">
         <v>693</v>
       </c>
@@ -32420,7 +32420,7 @@
       <c r="F678" s="9"/>
       <c r="G678" s="9"/>
       <c r="H678" s="9"/>
-      <c r="I678" s="43" t="s">
+      <c r="I678" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J678" s="11"/>
@@ -32470,7 +32470,7 @@
       <c r="F680" s="9"/>
       <c r="G680" s="9"/>
       <c r="H680" s="9"/>
-      <c r="I680" s="43" t="s">
+      <c r="I680" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J680" s="11"/>
@@ -32496,7 +32496,7 @@
       <c r="F681" s="9"/>
       <c r="G681" s="9"/>
       <c r="H681" s="9"/>
-      <c r="I681" s="43" t="s">
+      <c r="I681" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J681" s="11"/>
@@ -32522,7 +32522,7 @@
       <c r="F682" s="9"/>
       <c r="G682" s="9"/>
       <c r="H682" s="9"/>
-      <c r="I682" s="43" t="s">
+      <c r="I682" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J682" s="11"/>
@@ -32548,7 +32548,7 @@
       <c r="F683" s="9"/>
       <c r="G683" s="9"/>
       <c r="H683" s="9"/>
-      <c r="I683" s="43" t="s">
+      <c r="I683" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J683" s="11"/>
@@ -34327,7 +34327,7 @@
       <c r="F751" s="9"/>
       <c r="G751" s="9"/>
       <c r="H751" s="9"/>
-      <c r="I751" s="43" t="s">
+      <c r="I751" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J751" s="11"/>
@@ -34381,7 +34381,7 @@
       <c r="F753" s="9"/>
       <c r="G753" s="9"/>
       <c r="H753" s="9"/>
-      <c r="I753" s="43" t="s">
+      <c r="I753" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J753" s="11"/>
@@ -34407,7 +34407,7 @@
       <c r="F754" s="9"/>
       <c r="G754" s="9"/>
       <c r="H754" s="9"/>
-      <c r="I754" s="43" t="s">
+      <c r="I754" s="42" t="s">
         <v>693</v>
       </c>
       <c r="J754" s="11"/>
@@ -41371,7 +41371,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I205" sqref="I205"/>
+      <selection pane="bottomLeft" activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44682,7 +44682,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:9">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -44695,6 +44695,9 @@
       </c>
       <c r="F206" s="2" t="s">
         <v>1714</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="207" spans="1:6">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482">
   <si>
     <t>编号</t>
   </si>
@@ -10269,6 +10269,9 @@
     <t>这个文件?</t>
   </si>
   <si>
+    <t>泰矿储存仓</t>
+  </si>
+  <si>
     <t>并用"</t>
   </si>
   <si>
@@ -10291,6 +10294,9 @@
   </si>
   <si>
     <t>串口</t>
+  </si>
+  <si>
+    <t>侦查摩托</t>
   </si>
   <si>
     <t>名字</t>
@@ -10464,10 +10470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -10513,29 +10519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -10567,48 +10550,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10640,6 +10606,46 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10677,19 +10683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10713,43 +10707,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10773,7 +10767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10791,19 +10803,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10827,37 +10863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10924,6 +10930,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -10952,50 +11002,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11007,7 +11013,7 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11016,137 +11022,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11279,19 +11285,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -11303,12 +11300,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11316,9 +11307,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -13175,10 +13163,10 @@
   <sheetPr/>
   <dimension ref="A1:Q754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16358,17 +16346,17 @@
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="45" t="s">
+      <c r="I95" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="45"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
     </row>
     <row r="96" s="28" customFormat="1" spans="1:17">
       <c r="A96" s="36" t="s">
@@ -16420,17 +16408,17 @@
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="45" t="s">
+      <c r="I97" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="45"/>
-      <c r="N97" s="45"/>
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
-      <c r="Q97" s="45"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
     </row>
     <row r="98" s="28" customFormat="1" spans="1:17">
       <c r="A98" s="36" t="s">
@@ -17369,7 +17357,7 @@
       <c r="B128" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="21" t="s">
         <v>549</v>
       </c>
       <c r="D128" s="38" t="s">
@@ -17745,7 +17733,7 @@
       <c r="B140" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="C140" s="44" t="s">
+      <c r="C140" s="21" t="s">
         <v>593</v>
       </c>
       <c r="D140" s="38" t="s">
@@ -18427,8 +18415,8 @@
       <c r="I161" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J161" s="44"/>
-      <c r="K161" s="44"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
@@ -18598,10 +18586,10 @@
       <c r="B167" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="C167" s="44" t="s">
+      <c r="C167" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D167" s="45" t="s">
         <v>698</v>
       </c>
       <c r="E167" s="38"/>
@@ -18897,7 +18885,7 @@
       <c r="D176" s="36">
         <v>93</v>
       </c>
-      <c r="E176" s="47" t="str">
+      <c r="E176" s="20" t="str">
         <f>VLOOKUP(MID(D176,1,2),字库代码!B:I,8,TRUE)</f>
         <v>导弹发射车</v>
       </c>
@@ -18933,13 +18921,13 @@
       <c r="B177" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="C177" s="48" t="s">
+      <c r="C177" s="36" t="s">
         <v>740</v>
       </c>
       <c r="D177" s="36">
         <v>94</v>
       </c>
-      <c r="E177" s="47" t="str">
+      <c r="E177" s="20" t="str">
         <f>VLOOKUP(MID(D177,1,2),字库代码!B:I,8,TRUE)</f>
         <v>机枪兵</v>
       </c>
@@ -18967,13 +18955,13 @@
       <c r="B178" s="36" t="s">
         <v>742</v>
       </c>
-      <c r="C178" s="47" t="s">
+      <c r="C178" s="20" t="s">
         <v>743</v>
       </c>
       <c r="D178" s="36">
         <v>95</v>
       </c>
-      <c r="E178" s="47" t="str">
+      <c r="E178" s="20" t="str">
         <f>VLOOKUP(MID(D178,1,2),字库代码!B:I,8,TRUE)</f>
         <v>手雷兵</v>
       </c>
@@ -19015,7 +19003,7 @@
       <c r="D179" s="36">
         <v>96</v>
       </c>
-      <c r="E179" s="47" t="str">
+      <c r="E179" s="20" t="str">
         <f>VLOOKUP(MID(D179,1,2),字库代码!B:I,8,TRUE)</f>
         <v>火箭兵</v>
       </c>
@@ -19053,7 +19041,7 @@
       <c r="D180" s="36">
         <v>97</v>
       </c>
-      <c r="E180" s="47" t="str">
+      <c r="E180" s="20" t="str">
         <f>VLOOKUP(MID(D180,1,2),字库代码!B:I,8,TRUE)</f>
         <v>火焰兵</v>
       </c>
@@ -19091,7 +19079,7 @@
       <c r="D181" s="36">
         <v>98</v>
       </c>
-      <c r="E181" s="47" t="str">
+      <c r="E181" s="20" t="str">
         <f>VLOOKUP(MID(D181,1,2),字库代码!B:I,8,TRUE)</f>
         <v>生化兵</v>
       </c>
@@ -19133,7 +19121,7 @@
       <c r="D182" s="36">
         <v>99</v>
       </c>
-      <c r="E182" s="47" t="str">
+      <c r="E182" s="20" t="str">
         <f>VLOOKUP(MID(D182,1,2),字库代码!B:I,8,TRUE)</f>
         <v>特种兵</v>
       </c>
@@ -19167,7 +19155,7 @@
       <c r="D183" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="E183" s="47" t="str">
+      <c r="E183" s="20" t="str">
         <f>VLOOKUP(MID(D183,1,2),字库代码!B:I,8,TRUE)</f>
         <v>气垫船</v>
       </c>
@@ -19201,7 +19189,7 @@
       <c r="D184" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="E184" s="47" t="str">
+      <c r="E184" s="20" t="str">
         <f>VLOOKUP(MID(D184,1,2),字库代码!B:I,8,TRUE)</f>
         <v>阿帕奇直升机</v>
       </c>
@@ -19239,7 +19227,7 @@
       <c r="D185" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="E185" s="47" t="str">
+      <c r="E185" s="20" t="str">
         <f>VLOOKUP(MID(D185,1,2),字库代码!B:I,8,TRUE)</f>
         <v>奥卡战机</v>
       </c>
@@ -19277,7 +19265,7 @@
       <c r="D186" s="36" t="s">
         <v>779</v>
       </c>
-      <c r="E186" s="47" t="str">
+      <c r="E186" s="20" t="str">
         <f>VLOOKUP(MID(D186,1,2),字库代码!B:I,8,TRUE)</f>
         <v>装甲运兵车(APC)</v>
       </c>
@@ -19319,7 +19307,7 @@
       <c r="D187" s="36" t="s">
         <v>785</v>
       </c>
-      <c r="E187" s="47" t="str">
+      <c r="E187" s="20" t="str">
         <f>VLOOKUP(MID(D187,1,2),字库代码!B:I,8,TRUE)</f>
         <v>警戒塔</v>
       </c>
@@ -19353,7 +19341,7 @@
       <c r="D188" s="36" t="s">
         <v>789</v>
       </c>
-      <c r="E188" s="47" t="str">
+      <c r="E188" s="20" t="str">
         <f>VLOOKUP(MID(D188,1,2),字库代码!B:I,8,TRUE)</f>
         <v>通讯中心</v>
       </c>
@@ -19387,7 +19375,7 @@
       <c r="D189" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="E189" s="47" t="str">
+      <c r="E189" s="20" t="str">
         <f>VLOOKUP(MID(D189,1,2),字库代码!B:I,8,TRUE)</f>
         <v>直升机坪</v>
       </c>
@@ -19425,7 +19413,7 @@
       <c r="D190" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E190" s="47" t="str">
+      <c r="E190" s="20" t="str">
         <f>VLOOKUP(MID(D190,1,2),字库代码!B:I,8,TRUE)</f>
         <v>卸载跑道</v>
       </c>
@@ -19463,9 +19451,9 @@
       <c r="D191" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E191" s="47" t="str">
+      <c r="E191" s="20" t="str">
         <f>VLOOKUP(MID(D191,1,2),字库代码!B:I,8,TRUE)</f>
-        <v>泰矿储藏井</v>
+        <v>泰矿储存仓</v>
       </c>
       <c r="F191" s="36" t="s">
         <v>734</v>
@@ -19501,7 +19489,7 @@
       <c r="D192" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="E192" s="47" t="str">
+      <c r="E192" s="20" t="str">
         <f>VLOOKUP(MID(D192,1,2),字库代码!B:I,8,TRUE)</f>
         <v>建设场地</v>
       </c>
@@ -19543,7 +19531,7 @@
       <c r="D193" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="E193" s="47" t="str">
+      <c r="E193" s="20" t="str">
         <f>VLOOKUP(MID(D193,1,2),字库代码!B:I,8,TRUE)</f>
         <v>泰矿精炼厂</v>
       </c>
@@ -19585,7 +19573,7 @@
       <c r="D194" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="E194" s="47" t="str">
+      <c r="E194" s="20" t="str">
         <f>VLOOKUP(MID(D194,1,2),字库代码!B:I,8,TRUE)</f>
         <v>科技中心</v>
       </c>
@@ -19623,7 +19611,7 @@
       <c r="D195" s="36" t="s">
         <v>687</v>
       </c>
-      <c r="E195" s="47" t="str">
+      <c r="E195" s="20" t="str">
         <f>VLOOKUP(MID(D195,1,2),字库代码!B:I,8,TRUE)</f>
         <v>炮台</v>
       </c>
@@ -19661,7 +19649,7 @@
       <c r="D196" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="E196" s="47" t="str">
+      <c r="E196" s="20" t="str">
         <f>VLOOKUP(MID(D196,1,2),字库代码!B:I,8,TRUE)</f>
         <v>炮艇</v>
       </c>
@@ -19695,7 +19683,7 @@
       <c r="D197" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="E197" s="47" t="str">
+      <c r="E197" s="20" t="str">
         <f>VLOOKUP(MID(D197,1,2),字库代码!B:I,8,TRUE)</f>
         <v>基地车(MCV)</v>
       </c>
@@ -19737,9 +19725,9 @@
       <c r="D198" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E198" s="47" t="str">
+      <c r="E198" s="20" t="str">
         <f>VLOOKUP(MID(D198,1,2),字库代码!B:I,8,TRUE)</f>
-        <v>武装摩托</v>
+        <v>侦查摩托</v>
       </c>
       <c r="F198" s="36" t="s">
         <v>734</v>
@@ -19779,7 +19767,7 @@
       <c r="D199" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="E199" s="47" t="str">
+      <c r="E199" s="20" t="str">
         <f>VLOOKUP(MID(D199,1,2),字库代码!B:I,8,TRUE)</f>
         <v>发电厂</v>
       </c>
@@ -19813,7 +19801,7 @@
       <c r="D200" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="E200" s="47" t="str">
+      <c r="E200" s="20" t="str">
         <f>VLOOKUP(MID(D200,1,2),字库代码!B:I,8,TRUE)</f>
         <v>高级发电厂</v>
       </c>
@@ -19847,7 +19835,7 @@
       <c r="D201" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="E201" s="47" t="str">
+      <c r="E201" s="20" t="str">
         <f>VLOOKUP(MID(D201,1,2),字库代码!B:I,8,TRUE)</f>
         <v>医院</v>
       </c>
@@ -19881,7 +19869,7 @@
       <c r="D202" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E202" s="47" t="str">
+      <c r="E202" s="20" t="str">
         <f>VLOOKUP(MID(D202,1,2),字库代码!B:I,8,TRUE)</f>
         <v>军营</v>
       </c>
@@ -19915,7 +19903,7 @@
       <c r="D203" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="E203" s="47" t="str">
+      <c r="E203" s="20" t="str">
         <f>VLOOKUP(MID(D203,1,2),字库代码!B:I,8,TRUE)</f>
         <v>沙袋墙</v>
       </c>
@@ -19949,7 +19937,7 @@
       <c r="D204" s="36" t="s">
         <v>694</v>
       </c>
-      <c r="E204" s="47" t="str">
+      <c r="E204" s="20" t="str">
         <f>VLOOKUP(MID(D204,1,2),字库代码!B:I,8,TRUE)</f>
         <v>铁丝网</v>
       </c>
@@ -19983,7 +19971,7 @@
       <c r="D205" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="E205" s="47" t="str">
+      <c r="E205" s="20" t="str">
         <f>VLOOKUP(MID(D205,1,2),字库代码!B:I,8,TRUE)</f>
         <v>水泥墙</v>
       </c>
@@ -20017,7 +20005,7 @@
       <c r="D206" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="E206" s="47" t="str">
+      <c r="E206" s="20" t="str">
         <f>VLOOKUP(MID(D206,1,2),字库代码!B:I,8,TRUE)</f>
         <v>带刺铁丝网</v>
       </c>
@@ -20051,7 +20039,7 @@
       <c r="D207" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="E207" s="47" t="str">
+      <c r="E207" s="20" t="str">
         <f>VLOOKUP(MID(D207,1,2),字库代码!B:I,8,TRUE)</f>
         <v>木栅栏</v>
       </c>
@@ -20089,7 +20077,7 @@
       <c r="D208" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E208" s="47" t="str">
+      <c r="E208" s="20" t="str">
         <f>VLOOKUP(MID(D208,1,2),字库代码!B:I,8,TRUE)</f>
         <v>武器工厂</v>
       </c>
@@ -20131,7 +20119,7 @@
       <c r="D209" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="E209" s="47" t="str">
+      <c r="E209" s="20" t="str">
         <f>VLOOKUP(MID(D209,1,2),字库代码!B:I,8,TRUE)</f>
         <v>高级警戒塔</v>
       </c>
@@ -20165,7 +20153,7 @@
       <c r="D210" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="E210" s="47" t="str">
+      <c r="E210" s="20" t="str">
         <f>VLOOKUP(MID(D210,1,2),字库代码!B:I,8,TRUE)</f>
         <v>光明方尖碑</v>
       </c>
@@ -20203,7 +20191,7 @@
       <c r="D211" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="E211" s="47" t="str">
+      <c r="E211" s="20" t="str">
         <f>VLOOKUP(MID(D211,1,2),字库代码!B:I,8,TRUE)</f>
         <v>生物研究所</v>
       </c>
@@ -20241,7 +20229,7 @@
       <c r="D212" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E212" s="47" t="str">
+      <c r="E212" s="20" t="str">
         <f>VLOOKUP(MID(D212,1,2),字库代码!B:I,8,TRUE)</f>
         <v>诺德之手</v>
       </c>
@@ -20275,7 +20263,7 @@
       <c r="D213" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="E213" s="47" t="str">
+      <c r="E213" s="20" t="str">
         <f>VLOOKUP(MID(D213,1,2),字库代码!B:I,8,TRUE)</f>
         <v>诺德圣殿</v>
       </c>
@@ -20313,7 +20301,7 @@
       <c r="D214" s="36" t="s">
         <v>889</v>
       </c>
-      <c r="E214" s="47" t="str">
+      <c r="E214" s="20" t="str">
         <f>VLOOKUP(MID(D214,1,2),字库代码!B:I,8,TRUE)</f>
         <v>修理平台</v>
       </c>
@@ -20347,7 +20335,7 @@
       <c r="D215" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E215" s="47" t="str">
+      <c r="E215" s="20" t="str">
         <f>VLOOKUP(MID(D215,1,2),字库代码!B:I,8,TRUE)</f>
         <v>未探索区域</v>
       </c>
@@ -20385,7 +20373,7 @@
       <c r="D216" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="E216" s="47" t="str">
+      <c r="E216" s="20" t="str">
         <f>VLOOKUP(MID(D216,1,2),字库代码!B:I,8,TRUE)</f>
         <v>莫博士</v>
       </c>
@@ -20416,10 +20404,10 @@
       <c r="C217" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="D217" s="49" t="s">
+      <c r="D217" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="E217" s="47" t="str">
+      <c r="E217" s="20" t="str">
         <f>VLOOKUP(MID(D217,1,2),字库代码!B:I,8,TRUE)</f>
         <v>离子炮</v>
       </c>
@@ -20453,7 +20441,7 @@
       <c r="D218" s="36" t="s">
         <v>904</v>
       </c>
-      <c r="E218" s="47" t="str">
+      <c r="E218" s="20" t="str">
         <f>VLOOKUP(MID(D218,1,2),字库代码!B:I,8,TRUE)</f>
         <v>核弹打击</v>
       </c>
@@ -20491,7 +20479,7 @@
       <c r="D219" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E219" s="47" t="str">
+      <c r="E219" s="20" t="str">
         <f>VLOOKUP(MID(D219,1,2),字库代码!B:I,8,TRUE)</f>
         <v>空袭</v>
       </c>
@@ -20525,7 +20513,7 @@
       <c r="D220" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E220" s="47" t="str">
+      <c r="E220" s="20" t="str">
         <f>VLOOKUP(MID(D220,1,2),字库代码!B:I,8,TRUE)</f>
         <v>霸王龙</v>
       </c>
@@ -20559,7 +20547,7 @@
       <c r="D221" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E221" s="47" t="str">
+      <c r="E221" s="20" t="str">
         <f>VLOOKUP(MID(D221,1,2),字库代码!B:I,8,TRUE)</f>
         <v>三角龙</v>
       </c>
@@ -20593,7 +20581,7 @@
       <c r="D222" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="E222" s="47" t="str">
+      <c r="E222" s="20" t="str">
         <f>VLOOKUP(MID(D222,1,2),字库代码!B:I,8,TRUE)</f>
         <v>迅猛龙</v>
       </c>
@@ -20627,7 +20615,7 @@
       <c r="D223" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="E223" s="47" t="str">
+      <c r="E223" s="20" t="str">
         <f>VLOOKUP(MID(D223,1,2),字库代码!B:I,8,TRUE)</f>
         <v>剑龙</v>
       </c>
@@ -20661,7 +20649,7 @@
       <c r="D224" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="E224" s="47" t="str">
+      <c r="E224" s="20" t="str">
         <f>VLOOKUP(MID(D224,1,2),字库代码!B:I,8,TRUE)</f>
         <v>平民</v>
       </c>
@@ -20695,7 +20683,7 @@
       <c r="D225" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="E225" s="47" t="str">
+      <c r="E225" s="20" t="str">
         <f>VLOOKUP(MID(D225,1,2),字库代码!B:I,8,TRUE)</f>
         <v>树</v>
       </c>
@@ -20729,7 +20717,7 @@
       <c r="D226" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="E226" s="47" t="str">
+      <c r="E226" s="20" t="str">
         <f>VLOOKUP(MID(D226,1,2),字库代码!B:I,8,TRUE)</f>
         <v>工程师</v>
       </c>
@@ -20763,16 +20751,16 @@
       <c r="D227" s="36" t="s">
         <v>932</v>
       </c>
-      <c r="E227" s="47" t="str">
+      <c r="E227" s="20" t="str">
         <f>VLOOKUP(MID(D227,1,2),字库代码!B:I,8,TRUE)</f>
         <v>孢子树</v>
       </c>
-      <c r="F227" s="50" t="s">
+      <c r="F227" s="47" t="s">
         <v>734</v>
       </c>
       <c r="G227" s="36"/>
       <c r="H227" s="36"/>
-      <c r="I227" s="47" t="s">
+      <c r="I227" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J227" s="36" t="s">
@@ -20789,36 +20777,36 @@
       <c r="Q227" s="20"/>
     </row>
     <row r="228" spans="1:17">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="47" t="s">
         <v>934</v>
       </c>
-      <c r="B228" s="50" t="s">
+      <c r="B228" s="47" t="s">
         <v>935</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="48" t="s">
         <v>936</v>
       </c>
-      <c r="D228" s="50" t="s">
+      <c r="D228" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="E228" s="47" t="str">
+      <c r="E228" s="20" t="str">
         <f>VLOOKUP(MID(D228,1,2),字库代码!B:I,8,TRUE)</f>
         <v>尼科通巴</v>
       </c>
-      <c r="F228" s="50" t="s">
+      <c r="F228" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="G228" s="50"/>
-      <c r="H228" s="50"/>
-      <c r="I228" s="52"/>
-      <c r="J228" s="52"/>
-      <c r="K228" s="52"/>
-      <c r="L228" s="52"/>
-      <c r="M228" s="52"/>
-      <c r="N228" s="52"/>
-      <c r="O228" s="52"/>
-      <c r="P228" s="52"/>
-      <c r="Q228" s="52"/>
+      <c r="G228" s="47"/>
+      <c r="H228" s="47"/>
+      <c r="I228" s="48"/>
+      <c r="J228" s="48"/>
+      <c r="K228" s="48"/>
+      <c r="L228" s="48"/>
+      <c r="M228" s="48"/>
+      <c r="N228" s="48"/>
+      <c r="O228" s="48"/>
+      <c r="P228" s="48"/>
+      <c r="Q228" s="48"/>
     </row>
     <row r="229" s="28" customFormat="1" spans="1:17">
       <c r="A229" s="36" t="s">
@@ -20833,7 +20821,7 @@
       <c r="D229" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="E229" s="47" t="str">
+      <c r="E229" s="20" t="str">
         <f>VLOOKUP(MID(D229,1,2),字库代码!B:I,8,TRUE)</f>
         <v>平民建筑</v>
       </c>
@@ -20871,7 +20859,7 @@
       <c r="D230" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E230" s="47" t="str">
+      <c r="E230" s="20" t="str">
         <f>VLOOKUP(MID(D230,1,2),字库代码!B:I,8,TRUE)</f>
         <v>技术人员</v>
       </c>
@@ -20905,7 +20893,7 @@
       <c r="D231" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E231" s="47" t="str">
+      <c r="E231" s="20" t="str">
         <f>VLOOKUP(MID(D231,1,2),字库代码!B:I,8,TRUE)</f>
         <v>德尔菲</v>
       </c>
@@ -20939,7 +20927,7 @@
       <c r="D232" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E232" s="47" t="str">
+      <c r="E232" s="20" t="str">
         <f>VLOOKUP(MID(D232,1,2),字库代码!B:I,8,TRUE)</f>
         <v>监狱</v>
       </c>
@@ -20973,7 +20961,7 @@
       <c r="D233" s="36">
         <v>80</v>
       </c>
-      <c r="E233" s="47" t="str">
+      <c r="E233" s="20" t="str">
         <f>VLOOKUP(MID(D233,1,2),字库代码!B:I,8,TRUE)</f>
         <v>敌军士兵</v>
       </c>
@@ -21007,7 +20995,7 @@
       <c r="D234" s="36">
         <v>81</v>
       </c>
-      <c r="E234" s="47" t="str">
+      <c r="E234" s="20" t="str">
         <f>VLOOKUP(MID(D234,1,2),字库代码!B:I,8,TRUE)</f>
         <v>敌军车辆</v>
       </c>
@@ -21041,7 +21029,7 @@
       <c r="D235" s="36">
         <v>82</v>
       </c>
-      <c r="E235" s="47" t="str">
+      <c r="E235" s="20" t="str">
         <f>VLOOKUP(MID(D235,1,2),字库代码!B:I,8,TRUE)</f>
         <v>敌军建筑</v>
       </c>
@@ -21075,7 +21063,7 @@
       <c r="D236" s="36">
         <v>83</v>
       </c>
-      <c r="E236" s="47" t="str">
+      <c r="E236" s="20" t="str">
         <f>VLOOKUP(MID(D236,1,2),字库代码!B:I,8,TRUE)</f>
         <v>火焰坦克</v>
       </c>
@@ -21109,7 +21097,7 @@
       <c r="D237" s="36">
         <v>84</v>
       </c>
-      <c r="E237" s="47" t="str">
+      <c r="E237" s="20" t="str">
         <f>VLOOKUP(MID(D237,1,2),字库代码!B:I,8,TRUE)</f>
         <v>隐形坦克</v>
       </c>
@@ -21143,7 +21131,7 @@
       <c r="D238" s="36">
         <v>85</v>
       </c>
-      <c r="E238" s="47" t="str">
+      <c r="E238" s="20" t="str">
         <f>VLOOKUP(MID(D238,1,2),字库代码!B:I,8,TRUE)</f>
         <v>轻型坦克</v>
       </c>
@@ -21177,7 +21165,7 @@
       <c r="D239" s="36">
         <v>86</v>
       </c>
-      <c r="E239" s="47" t="str">
+      <c r="E239" s="20" t="str">
         <f>VLOOKUP(MID(D239,1,2),字库代码!B:I,8,TRUE)</f>
         <v>中型坦克</v>
       </c>
@@ -21211,7 +21199,7 @@
       <c r="D240" s="36">
         <v>87</v>
       </c>
-      <c r="E240" s="47" t="str">
+      <c r="E240" s="20" t="str">
         <f>VLOOKUP(MID(D240,1,2),字库代码!B:I,8,TRUE)</f>
         <v>猛犸坦克</v>
       </c>
@@ -21245,7 +21233,7 @@
       <c r="D241" s="36">
         <v>88</v>
       </c>
-      <c r="E241" s="47" t="str">
+      <c r="E241" s="20" t="str">
         <f>VLOOKUP(MID(D241,1,2),字库代码!B:I,8,TRUE)</f>
         <v>武装巴吉车</v>
       </c>
@@ -21283,7 +21271,7 @@
       <c r="D242" s="36">
         <v>89</v>
       </c>
-      <c r="E242" s="47" t="str">
+      <c r="E242" s="20" t="str">
         <f>VLOOKUP(MID(D242,1,2),字库代码!B:I,8,TRUE)</f>
         <v>防空导弹</v>
       </c>
@@ -21325,7 +21313,7 @@
       <c r="D243" s="36" t="s">
         <v>980</v>
       </c>
-      <c r="E243" s="47" t="str">
+      <c r="E243" s="20" t="str">
         <f>VLOOKUP(MID(D243,1,2),字库代码!B:I,8,TRUE)</f>
         <v>高级通讯中心</v>
       </c>
@@ -21359,7 +21347,7 @@
       <c r="D244" s="36" t="s">
         <v>983</v>
       </c>
-      <c r="E244" s="47" t="str">
+      <c r="E244" s="20" t="str">
         <f>VLOOKUP(MID(D244,1,2),字库代码!B:I,8,TRUE)</f>
         <v>火箭炮</v>
       </c>
@@ -21401,7 +21389,7 @@
       <c r="D245" s="36" t="s">
         <v>988</v>
       </c>
-      <c r="E245" s="47" t="str">
+      <c r="E245" s="20" t="str">
         <f>VLOOKUP(MID(D245,1,2),字库代码!B:I,8,TRUE)</f>
         <v>可移动总部(MCV）</v>
       </c>
@@ -21443,7 +21431,7 @@
       <c r="D246" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="E246" s="47" t="str">
+      <c r="E246" s="20" t="str">
         <f>VLOOKUP(MID(D246,1,2),字库代码!B:I,8,TRUE)</f>
         <v>悍马</v>
       </c>
@@ -21489,7 +21477,7 @@
       <c r="D247" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="E247" s="47" t="str">
+      <c r="E247" s="20" t="str">
         <f>VLOOKUP(MID(D247,1,2),字库代码!B:I,8,TRUE)</f>
         <v>支奴干运输机</v>
       </c>
@@ -21527,7 +21515,7 @@
       <c r="D248" s="36" t="s">
         <v>1004</v>
       </c>
-      <c r="E248" s="47" t="str">
+      <c r="E248" s="20" t="str">
         <f>VLOOKUP(MID(D248,1,2),字库代码!B:I,8,TRUE)</f>
         <v>A10强击机</v>
       </c>
@@ -21565,7 +21553,7 @@
       <c r="D249" s="36">
         <v>90</v>
       </c>
-      <c r="E249" s="47" t="str">
+      <c r="E249" s="20" t="str">
         <f>VLOOKUP(MID(D249,1,2),字库代码!B:I,8,TRUE)</f>
         <v>C17运输机</v>
       </c>
@@ -21603,7 +21591,7 @@
       <c r="D250" s="36">
         <v>91</v>
       </c>
-      <c r="E250" s="47" t="str">
+      <c r="E250" s="20" t="str">
         <f>VLOOKUP(MID(D250,1,2),字库代码!B:I,8,TRUE)</f>
         <v>收割机</v>
       </c>
@@ -21641,7 +21629,7 @@
       <c r="D251" s="36">
         <v>92</v>
       </c>
-      <c r="E251" s="47" t="str">
+      <c r="E251" s="20" t="str">
         <f>VLOOKUP(MID(D251,1,2),字库代码!B:I,8,TRUE)</f>
         <v>自行火炮</v>
       </c>
@@ -22285,13 +22273,13 @@
       <c r="D270" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="E270" s="53"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="36" t="s">
         <v>1016</v>
       </c>
       <c r="G270" s="9"/>
       <c r="H270" s="9"/>
-      <c r="I270" s="53"/>
+      <c r="I270" s="11"/>
       <c r="J270" s="11" t="s">
         <v>1089</v>
       </c>
@@ -22324,7 +22312,7 @@
       </c>
       <c r="G271" s="36"/>
       <c r="H271" s="36"/>
-      <c r="I271" s="47"/>
+      <c r="I271" s="20"/>
       <c r="J271" s="20" t="s">
         <v>1093</v>
       </c>
@@ -22357,7 +22345,7 @@
       </c>
       <c r="G272" s="36"/>
       <c r="H272" s="36"/>
-      <c r="I272" s="47"/>
+      <c r="I272" s="20"/>
       <c r="J272" s="20" t="s">
         <v>1097</v>
       </c>
@@ -22390,7 +22378,7 @@
       </c>
       <c r="G273" s="36"/>
       <c r="H273" s="36"/>
-      <c r="I273" s="47"/>
+      <c r="I273" s="20"/>
       <c r="J273" s="20" t="s">
         <v>1101</v>
       </c>
@@ -22423,7 +22411,7 @@
       </c>
       <c r="G274" s="36"/>
       <c r="H274" s="36"/>
-      <c r="I274" s="47"/>
+      <c r="I274" s="20"/>
       <c r="J274" s="20" t="s">
         <v>1106</v>
       </c>
@@ -22584,7 +22572,7 @@
       </c>
       <c r="G279" s="36"/>
       <c r="H279" s="36"/>
-      <c r="I279" s="47"/>
+      <c r="I279" s="20"/>
       <c r="J279" s="20" t="s">
         <v>1125</v>
       </c>
@@ -22648,7 +22636,7 @@
       </c>
       <c r="G281" s="36"/>
       <c r="H281" s="36"/>
-      <c r="I281" s="47"/>
+      <c r="I281" s="20"/>
       <c r="J281" s="20" t="s">
         <v>1133</v>
       </c>
@@ -22737,7 +22725,7 @@
       <c r="D284" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="E284" s="53"/>
+      <c r="E284" s="11"/>
       <c r="F284" s="36" t="s">
         <v>1016</v>
       </c>
@@ -23203,13 +23191,13 @@
       <c r="D298" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="E298" s="53"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="36" t="s">
         <v>1016</v>
       </c>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
-      <c r="I298" s="53"/>
+      <c r="I298" s="11"/>
       <c r="J298" s="9" t="s">
         <v>1204</v>
       </c>
@@ -23236,13 +23224,13 @@
       <c r="D299" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E299" s="53"/>
+      <c r="E299" s="11"/>
       <c r="F299" s="36" t="s">
         <v>1016</v>
       </c>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
-      <c r="I299" s="53"/>
+      <c r="I299" s="11"/>
       <c r="J299" s="9" t="s">
         <v>1208</v>
       </c>
@@ -23383,26 +23371,26 @@
       <c r="Q303" s="20"/>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="54" t="s">
+      <c r="A304" s="49" t="s">
         <v>1222</v>
       </c>
-      <c r="B304" s="54" t="s">
+      <c r="B304" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C304" s="54" t="s">
+      <c r="C304" s="49" t="s">
         <v>1223</v>
       </c>
-      <c r="D304" s="54" t="s">
+      <c r="D304" s="49" t="s">
         <v>1224</v>
       </c>
-      <c r="E304" s="54"/>
+      <c r="E304" s="49"/>
       <c r="F304" s="36" t="s">
         <v>1016</v>
       </c>
-      <c r="G304" s="54" t="s">
+      <c r="G304" s="49" t="s">
         <v>1225</v>
       </c>
-      <c r="H304" s="54"/>
+      <c r="H304" s="49"/>
       <c r="I304" s="20" t="s">
         <v>17</v>
       </c>
@@ -23432,7 +23420,7 @@
       <c r="D305" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="E305" s="53"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="36" t="s">
         <v>1016</v>
       </c>
@@ -23465,7 +23453,7 @@
       <c r="D306" s="9" t="s">
         <v>1234</v>
       </c>
-      <c r="E306" s="53"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="36" t="s">
         <v>1016</v>
       </c>
@@ -23750,7 +23738,7 @@
       </c>
       <c r="G315" s="36"/>
       <c r="H315" s="36"/>
-      <c r="I315" s="47"/>
+      <c r="I315" s="20"/>
       <c r="J315" s="36" t="s">
         <v>1269</v>
       </c>
@@ -23777,13 +23765,13 @@
       <c r="D316" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E316" s="53"/>
+      <c r="E316" s="11"/>
       <c r="F316" s="36" t="s">
         <v>1016</v>
       </c>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
-      <c r="I316" s="53"/>
+      <c r="I316" s="11"/>
       <c r="J316" s="9" t="s">
         <v>1272</v>
       </c>
@@ -24147,23 +24135,23 @@
         <v>1315</v>
       </c>
       <c r="D328" s="9"/>
-      <c r="E328" s="53"/>
+      <c r="E328" s="11"/>
       <c r="F328" s="9"/>
       <c r="G328" s="9" t="s">
         <v>1316</v>
       </c>
       <c r="H328" s="9"/>
-      <c r="I328" s="55" t="s">
+      <c r="I328" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J328" s="55"/>
-      <c r="K328" s="55"/>
-      <c r="L328" s="55"/>
-      <c r="M328" s="55"/>
-      <c r="N328" s="55"/>
-      <c r="O328" s="55"/>
-      <c r="P328" s="55"/>
-      <c r="Q328" s="55" t="s">
+      <c r="J328" s="50"/>
+      <c r="K328" s="50"/>
+      <c r="L328" s="50"/>
+      <c r="M328" s="50"/>
+      <c r="N328" s="50"/>
+      <c r="O328" s="50"/>
+      <c r="P328" s="50"/>
+      <c r="Q328" s="50" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -24176,7 +24164,7 @@
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
-      <c r="E329" s="53"/>
+      <c r="E329" s="11"/>
       <c r="F329" s="9"/>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
@@ -24203,7 +24191,7 @@
         <v>1321</v>
       </c>
       <c r="D330" s="9"/>
-      <c r="E330" s="53"/>
+      <c r="E330" s="11"/>
       <c r="F330" s="9"/>
       <c r="G330" s="9"/>
       <c r="H330" s="9"/>
@@ -24230,7 +24218,7 @@
         <v>1324</v>
       </c>
       <c r="D331" s="9"/>
-      <c r="E331" s="53"/>
+      <c r="E331" s="11"/>
       <c r="F331" s="9"/>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
@@ -24255,7 +24243,7 @@
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
-      <c r="E332" s="53"/>
+      <c r="E332" s="11"/>
       <c r="F332" s="9"/>
       <c r="G332" s="9"/>
       <c r="H332" s="9"/>
@@ -24282,7 +24270,7 @@
         <v>1328</v>
       </c>
       <c r="D333" s="9"/>
-      <c r="E333" s="53"/>
+      <c r="E333" s="11"/>
       <c r="F333" s="9"/>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
@@ -24309,7 +24297,7 @@
         <v>1331</v>
       </c>
       <c r="D334" s="9"/>
-      <c r="E334" s="53"/>
+      <c r="E334" s="11"/>
       <c r="F334" s="9"/>
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
@@ -24336,7 +24324,7 @@
         <v>1334</v>
       </c>
       <c r="D335" s="9"/>
-      <c r="E335" s="53"/>
+      <c r="E335" s="11"/>
       <c r="F335" s="9"/>
       <c r="G335" s="9"/>
       <c r="H335" s="9"/>
@@ -24363,7 +24351,7 @@
         <v>1337</v>
       </c>
       <c r="D336" s="9"/>
-      <c r="E336" s="53"/>
+      <c r="E336" s="11"/>
       <c r="F336" s="9"/>
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
@@ -24390,7 +24378,7 @@
         <v>1340</v>
       </c>
       <c r="D337" s="9"/>
-      <c r="E337" s="53"/>
+      <c r="E337" s="11"/>
       <c r="F337" s="9"/>
       <c r="G337" s="9"/>
       <c r="H337" s="9"/>
@@ -24417,7 +24405,7 @@
         <v>1343</v>
       </c>
       <c r="D338" s="9"/>
-      <c r="E338" s="53"/>
+      <c r="E338" s="11"/>
       <c r="F338" s="9"/>
       <c r="G338" s="9"/>
       <c r="H338" s="9"/>
@@ -24444,7 +24432,7 @@
         <v>1346</v>
       </c>
       <c r="D339" s="9"/>
-      <c r="E339" s="53"/>
+      <c r="E339" s="11"/>
       <c r="F339" s="9"/>
       <c r="G339" s="9"/>
       <c r="H339" s="9"/>
@@ -24471,7 +24459,7 @@
         <v>1349</v>
       </c>
       <c r="D340" s="9"/>
-      <c r="E340" s="53"/>
+      <c r="E340" s="11"/>
       <c r="F340" s="9"/>
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
@@ -24498,7 +24486,7 @@
         <v>1352</v>
       </c>
       <c r="D341" s="9"/>
-      <c r="E341" s="53"/>
+      <c r="E341" s="11"/>
       <c r="F341" s="9"/>
       <c r="G341" s="9"/>
       <c r="H341" s="9"/>
@@ -24525,7 +24513,7 @@
         <v>1355</v>
       </c>
       <c r="D342" s="9"/>
-      <c r="E342" s="53"/>
+      <c r="E342" s="11"/>
       <c r="F342" s="9"/>
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
@@ -24550,7 +24538,7 @@
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
-      <c r="E343" s="53"/>
+      <c r="E343" s="11"/>
       <c r="F343" s="9"/>
       <c r="G343" s="9"/>
       <c r="H343" s="9"/>
@@ -24577,7 +24565,7 @@
         <v>1355</v>
       </c>
       <c r="D344" s="9"/>
-      <c r="E344" s="53"/>
+      <c r="E344" s="11"/>
       <c r="F344" s="9"/>
       <c r="G344" s="9"/>
       <c r="H344" s="9"/>
@@ -24604,7 +24592,7 @@
         <v>1361</v>
       </c>
       <c r="D345" s="9"/>
-      <c r="E345" s="53"/>
+      <c r="E345" s="11"/>
       <c r="F345" s="9"/>
       <c r="G345" s="9"/>
       <c r="H345" s="9"/>
@@ -24631,7 +24619,7 @@
         <v>1364</v>
       </c>
       <c r="D346" s="9"/>
-      <c r="E346" s="53"/>
+      <c r="E346" s="11"/>
       <c r="F346" s="9"/>
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
@@ -24658,7 +24646,7 @@
         <v>1367</v>
       </c>
       <c r="D347" s="9"/>
-      <c r="E347" s="53"/>
+      <c r="E347" s="11"/>
       <c r="F347" s="9"/>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
@@ -24685,7 +24673,7 @@
         <v>1370</v>
       </c>
       <c r="D348" s="9"/>
-      <c r="E348" s="53"/>
+      <c r="E348" s="11"/>
       <c r="F348" s="9"/>
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
@@ -24712,7 +24700,7 @@
         <v>1373</v>
       </c>
       <c r="D349" s="9"/>
-      <c r="E349" s="53"/>
+      <c r="E349" s="11"/>
       <c r="F349" s="9"/>
       <c r="G349" s="9"/>
       <c r="H349" s="9"/>
@@ -24739,7 +24727,7 @@
         <v>1376</v>
       </c>
       <c r="D350" s="9"/>
-      <c r="E350" s="53"/>
+      <c r="E350" s="11"/>
       <c r="F350" s="9"/>
       <c r="G350" s="9"/>
       <c r="H350" s="9"/>
@@ -24766,7 +24754,7 @@
         <v>1379</v>
       </c>
       <c r="D351" s="9"/>
-      <c r="E351" s="53"/>
+      <c r="E351" s="11"/>
       <c r="F351" s="9"/>
       <c r="G351" s="9"/>
       <c r="H351" s="9"/>
@@ -24793,7 +24781,7 @@
         <v>1382</v>
       </c>
       <c r="D352" s="9"/>
-      <c r="E352" s="53"/>
+      <c r="E352" s="11"/>
       <c r="F352" s="9"/>
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
@@ -24820,7 +24808,7 @@
         <v>1385</v>
       </c>
       <c r="D353" s="9"/>
-      <c r="E353" s="53"/>
+      <c r="E353" s="11"/>
       <c r="F353" s="9"/>
       <c r="G353" s="9"/>
       <c r="H353" s="9"/>
@@ -24845,7 +24833,7 @@
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-      <c r="E354" s="53"/>
+      <c r="E354" s="11"/>
       <c r="F354" s="9"/>
       <c r="G354" s="9"/>
       <c r="H354" s="9"/>
@@ -24872,7 +24860,7 @@
         <v>1389</v>
       </c>
       <c r="D355" s="9"/>
-      <c r="E355" s="53"/>
+      <c r="E355" s="11"/>
       <c r="F355" s="9"/>
       <c r="G355" s="9"/>
       <c r="H355" s="9"/>
@@ -24899,7 +24887,7 @@
         <v>1321</v>
       </c>
       <c r="D356" s="9"/>
-      <c r="E356" s="53"/>
+      <c r="E356" s="11"/>
       <c r="F356" s="9"/>
       <c r="G356" s="9"/>
       <c r="H356" s="9"/>
@@ -24926,7 +24914,7 @@
         <v>1393</v>
       </c>
       <c r="D357" s="9"/>
-      <c r="E357" s="53"/>
+      <c r="E357" s="11"/>
       <c r="F357" s="9"/>
       <c r="G357" s="9"/>
       <c r="H357" s="9"/>
@@ -24953,7 +24941,7 @@
         <v>1396</v>
       </c>
       <c r="D358" s="9"/>
-      <c r="E358" s="53"/>
+      <c r="E358" s="11"/>
       <c r="F358" s="9"/>
       <c r="G358" s="9"/>
       <c r="H358" s="9"/>
@@ -24980,7 +24968,7 @@
         <v>1399</v>
       </c>
       <c r="D359" s="9"/>
-      <c r="E359" s="53"/>
+      <c r="E359" s="11"/>
       <c r="F359" s="9"/>
       <c r="G359" s="9"/>
       <c r="H359" s="9"/>
@@ -25007,7 +24995,7 @@
         <v>1402</v>
       </c>
       <c r="D360" s="9"/>
-      <c r="E360" s="53"/>
+      <c r="E360" s="11"/>
       <c r="F360" s="9"/>
       <c r="G360" s="9"/>
       <c r="H360" s="9"/>
@@ -25034,7 +25022,7 @@
         <v>1385</v>
       </c>
       <c r="D361" s="9"/>
-      <c r="E361" s="53"/>
+      <c r="E361" s="11"/>
       <c r="F361" s="9"/>
       <c r="G361" s="9"/>
       <c r="H361" s="9"/>
@@ -25061,7 +25049,7 @@
         <v>1406</v>
       </c>
       <c r="D362" s="9"/>
-      <c r="E362" s="53"/>
+      <c r="E362" s="11"/>
       <c r="F362" s="9"/>
       <c r="G362" s="9"/>
       <c r="H362" s="9"/>
@@ -25088,7 +25076,7 @@
         <v>1409</v>
       </c>
       <c r="D363" s="9"/>
-      <c r="E363" s="53"/>
+      <c r="E363" s="11"/>
       <c r="F363" s="9"/>
       <c r="G363" s="9"/>
       <c r="H363" s="9"/>
@@ -25115,7 +25103,7 @@
         <v>1412</v>
       </c>
       <c r="D364" s="9"/>
-      <c r="E364" s="53"/>
+      <c r="E364" s="11"/>
       <c r="F364" s="9"/>
       <c r="G364" s="9"/>
       <c r="H364" s="9"/>
@@ -25140,7 +25128,7 @@
       </c>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
-      <c r="E365" s="53"/>
+      <c r="E365" s="11"/>
       <c r="F365" s="9"/>
       <c r="G365" s="9"/>
       <c r="H365" s="9"/>
@@ -25167,7 +25155,7 @@
         <v>1416</v>
       </c>
       <c r="D366" s="9"/>
-      <c r="E366" s="53"/>
+      <c r="E366" s="11"/>
       <c r="F366" s="9"/>
       <c r="G366" s="9"/>
       <c r="H366" s="9"/>
@@ -25194,7 +25182,7 @@
         <v>1419</v>
       </c>
       <c r="D367" s="9"/>
-      <c r="E367" s="53"/>
+      <c r="E367" s="11"/>
       <c r="F367" s="9"/>
       <c r="G367" s="9"/>
       <c r="H367" s="9"/>
@@ -25221,7 +25209,7 @@
         <v>1422</v>
       </c>
       <c r="D368" s="9"/>
-      <c r="E368" s="53"/>
+      <c r="E368" s="11"/>
       <c r="F368" s="9"/>
       <c r="G368" s="9"/>
       <c r="H368" s="9"/>
@@ -25248,7 +25236,7 @@
         <v>1425</v>
       </c>
       <c r="D369" s="9"/>
-      <c r="E369" s="53"/>
+      <c r="E369" s="11"/>
       <c r="F369" s="9"/>
       <c r="G369" s="9"/>
       <c r="H369" s="9"/>
@@ -25273,7 +25261,7 @@
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
-      <c r="E370" s="53"/>
+      <c r="E370" s="11"/>
       <c r="F370" s="9"/>
       <c r="G370" s="9"/>
       <c r="H370" s="9"/>
@@ -25300,7 +25288,7 @@
         <v>1429</v>
       </c>
       <c r="D371" s="9"/>
-      <c r="E371" s="53"/>
+      <c r="E371" s="11"/>
       <c r="F371" s="9"/>
       <c r="G371" s="9"/>
       <c r="H371" s="9"/>
@@ -25331,7 +25319,7 @@
         <v>1433</v>
       </c>
       <c r="D372" s="9"/>
-      <c r="E372" s="53"/>
+      <c r="E372" s="11"/>
       <c r="F372" s="9"/>
       <c r="G372" s="9"/>
       <c r="H372" s="9"/>
@@ -25358,7 +25346,7 @@
         <v>1436</v>
       </c>
       <c r="D373" s="9"/>
-      <c r="E373" s="53"/>
+      <c r="E373" s="11"/>
       <c r="F373" s="9"/>
       <c r="G373" s="9"/>
       <c r="H373" s="9"/>
@@ -25383,7 +25371,7 @@
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
-      <c r="E374" s="53"/>
+      <c r="E374" s="11"/>
       <c r="F374" s="9"/>
       <c r="G374" s="9"/>
       <c r="H374" s="9"/>
@@ -25410,7 +25398,7 @@
         <v>1440</v>
       </c>
       <c r="D375" s="9"/>
-      <c r="E375" s="53"/>
+      <c r="E375" s="11"/>
       <c r="F375" s="9"/>
       <c r="G375" s="9"/>
       <c r="H375" s="9"/>
@@ -25437,7 +25425,7 @@
         <v>1443</v>
       </c>
       <c r="D376" s="9"/>
-      <c r="E376" s="53"/>
+      <c r="E376" s="11"/>
       <c r="F376" s="9"/>
       <c r="G376" s="9"/>
       <c r="H376" s="9"/>
@@ -25464,7 +25452,7 @@
         <v>1446</v>
       </c>
       <c r="D377" s="9"/>
-      <c r="E377" s="53"/>
+      <c r="E377" s="11"/>
       <c r="F377" s="9"/>
       <c r="G377" s="9"/>
       <c r="H377" s="9"/>
@@ -25489,7 +25477,7 @@
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
-      <c r="E378" s="53"/>
+      <c r="E378" s="11"/>
       <c r="F378" s="9"/>
       <c r="G378" s="9"/>
       <c r="H378" s="9"/>
@@ -25512,7 +25500,7 @@
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
-      <c r="E379" s="53"/>
+      <c r="E379" s="11"/>
       <c r="F379" s="9"/>
       <c r="G379" s="9"/>
       <c r="H379" s="9"/>
@@ -25535,7 +25523,7 @@
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
-      <c r="E380" s="53"/>
+      <c r="E380" s="11"/>
       <c r="F380" s="9"/>
       <c r="G380" s="9"/>
       <c r="H380" s="9"/>
@@ -25558,7 +25546,7 @@
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
-      <c r="E381" s="53"/>
+      <c r="E381" s="11"/>
       <c r="F381" s="9"/>
       <c r="G381" s="9"/>
       <c r="H381" s="9"/>
@@ -25581,7 +25569,7 @@
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
-      <c r="E382" s="53"/>
+      <c r="E382" s="11"/>
       <c r="F382" s="9"/>
       <c r="G382" s="9"/>
       <c r="H382" s="9"/>
@@ -25604,7 +25592,7 @@
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
-      <c r="E383" s="53"/>
+      <c r="E383" s="11"/>
       <c r="F383" s="9"/>
       <c r="G383" s="9"/>
       <c r="H383" s="9"/>
@@ -25627,7 +25615,7 @@
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
-      <c r="E384" s="53"/>
+      <c r="E384" s="11"/>
       <c r="F384" s="9"/>
       <c r="G384" s="9"/>
       <c r="H384" s="9"/>
@@ -25650,7 +25638,7 @@
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
-      <c r="E385" s="53"/>
+      <c r="E385" s="11"/>
       <c r="F385" s="9"/>
       <c r="G385" s="9"/>
       <c r="H385" s="9"/>
@@ -25673,7 +25661,7 @@
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
-      <c r="E386" s="53"/>
+      <c r="E386" s="11"/>
       <c r="F386" s="9"/>
       <c r="G386" s="9"/>
       <c r="H386" s="9"/>
@@ -25698,7 +25686,7 @@
         <v>1467</v>
       </c>
       <c r="D387" s="9"/>
-      <c r="E387" s="53"/>
+      <c r="E387" s="11"/>
       <c r="F387" s="9"/>
       <c r="G387" s="9"/>
       <c r="H387" s="9"/>
@@ -25723,7 +25711,7 @@
       </c>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
-      <c r="E388" s="53"/>
+      <c r="E388" s="11"/>
       <c r="F388" s="9"/>
       <c r="G388" s="9"/>
       <c r="H388" s="9"/>
@@ -25748,7 +25736,7 @@
       </c>
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
-      <c r="E389" s="53"/>
+      <c r="E389" s="11"/>
       <c r="F389" s="9"/>
       <c r="G389" s="9"/>
       <c r="H389" s="9"/>
@@ -25771,7 +25759,7 @@
       </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
-      <c r="E390" s="53"/>
+      <c r="E390" s="11"/>
       <c r="F390" s="9"/>
       <c r="G390" s="9"/>
       <c r="H390" s="9"/>
@@ -25794,7 +25782,7 @@
       </c>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
-      <c r="E391" s="53"/>
+      <c r="E391" s="11"/>
       <c r="F391" s="9"/>
       <c r="G391" s="9"/>
       <c r="H391" s="9"/>
@@ -25817,7 +25805,7 @@
       </c>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
-      <c r="E392" s="53"/>
+      <c r="E392" s="11"/>
       <c r="F392" s="9"/>
       <c r="G392" s="9"/>
       <c r="H392" s="9"/>
@@ -25840,7 +25828,7 @@
       </c>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
-      <c r="E393" s="53"/>
+      <c r="E393" s="11"/>
       <c r="F393" s="9"/>
       <c r="G393" s="9"/>
       <c r="H393" s="9"/>
@@ -25863,7 +25851,7 @@
       </c>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
-      <c r="E394" s="53"/>
+      <c r="E394" s="11"/>
       <c r="F394" s="9"/>
       <c r="G394" s="9"/>
       <c r="H394" s="9"/>
@@ -25888,7 +25876,7 @@
       </c>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
-      <c r="E395" s="53"/>
+      <c r="E395" s="11"/>
       <c r="F395" s="9"/>
       <c r="G395" s="9"/>
       <c r="H395" s="9"/>
@@ -25913,7 +25901,7 @@
       </c>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
-      <c r="E396" s="53"/>
+      <c r="E396" s="11"/>
       <c r="F396" s="9"/>
       <c r="G396" s="9"/>
       <c r="H396" s="9"/>
@@ -25936,7 +25924,7 @@
       </c>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
-      <c r="E397" s="53"/>
+      <c r="E397" s="11"/>
       <c r="F397" s="9"/>
       <c r="G397" s="9"/>
       <c r="H397" s="9"/>
@@ -25959,7 +25947,7 @@
       </c>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
-      <c r="E398" s="53"/>
+      <c r="E398" s="11"/>
       <c r="F398" s="9"/>
       <c r="G398" s="9"/>
       <c r="H398" s="9"/>
@@ -25982,7 +25970,7 @@
       </c>
       <c r="C399" s="9"/>
       <c r="D399" s="9"/>
-      <c r="E399" s="53"/>
+      <c r="E399" s="11"/>
       <c r="F399" s="9"/>
       <c r="G399" s="9"/>
       <c r="H399" s="9"/>
@@ -26007,7 +25995,7 @@
       </c>
       <c r="C400" s="9"/>
       <c r="D400" s="9"/>
-      <c r="E400" s="53"/>
+      <c r="E400" s="11"/>
       <c r="F400" s="9"/>
       <c r="G400" s="9"/>
       <c r="H400" s="9"/>
@@ -26032,7 +26020,7 @@
       </c>
       <c r="C401" s="9"/>
       <c r="D401" s="9"/>
-      <c r="E401" s="53"/>
+      <c r="E401" s="11"/>
       <c r="F401" s="9"/>
       <c r="G401" s="9"/>
       <c r="H401" s="9"/>
@@ -26057,7 +26045,7 @@
       </c>
       <c r="C402" s="9"/>
       <c r="D402" s="9"/>
-      <c r="E402" s="53"/>
+      <c r="E402" s="11"/>
       <c r="F402" s="9"/>
       <c r="G402" s="9"/>
       <c r="H402" s="9"/>
@@ -26082,7 +26070,7 @@
       </c>
       <c r="C403" s="9"/>
       <c r="D403" s="9"/>
-      <c r="E403" s="53"/>
+      <c r="E403" s="11"/>
       <c r="F403" s="9"/>
       <c r="G403" s="9"/>
       <c r="H403" s="9"/>
@@ -26107,7 +26095,7 @@
       </c>
       <c r="C404" s="9"/>
       <c r="D404" s="9"/>
-      <c r="E404" s="53"/>
+      <c r="E404" s="11"/>
       <c r="F404" s="9"/>
       <c r="G404" s="9"/>
       <c r="H404" s="9"/>
@@ -26132,7 +26120,7 @@
       </c>
       <c r="C405" s="9"/>
       <c r="D405" s="9"/>
-      <c r="E405" s="53"/>
+      <c r="E405" s="11"/>
       <c r="F405" s="9"/>
       <c r="G405" s="9"/>
       <c r="H405" s="9"/>
@@ -26155,7 +26143,7 @@
       </c>
       <c r="C406" s="9"/>
       <c r="D406" s="9"/>
-      <c r="E406" s="53"/>
+      <c r="E406" s="11"/>
       <c r="F406" s="9"/>
       <c r="G406" s="9"/>
       <c r="H406" s="9"/>
@@ -26178,7 +26166,7 @@
       </c>
       <c r="C407" s="9"/>
       <c r="D407" s="9"/>
-      <c r="E407" s="53"/>
+      <c r="E407" s="11"/>
       <c r="F407" s="9"/>
       <c r="G407" s="9"/>
       <c r="H407" s="9"/>
@@ -26201,7 +26189,7 @@
       </c>
       <c r="C408" s="9"/>
       <c r="D408" s="9"/>
-      <c r="E408" s="53"/>
+      <c r="E408" s="11"/>
       <c r="F408" s="9"/>
       <c r="G408" s="9"/>
       <c r="H408" s="9"/>
@@ -26224,7 +26212,7 @@
       </c>
       <c r="C409" s="9"/>
       <c r="D409" s="9"/>
-      <c r="E409" s="53"/>
+      <c r="E409" s="11"/>
       <c r="F409" s="9"/>
       <c r="G409" s="9"/>
       <c r="H409" s="9"/>
@@ -26247,7 +26235,7 @@
       </c>
       <c r="C410" s="9"/>
       <c r="D410" s="9"/>
-      <c r="E410" s="53"/>
+      <c r="E410" s="11"/>
       <c r="F410" s="9"/>
       <c r="G410" s="9"/>
       <c r="H410" s="9"/>
@@ -26270,7 +26258,7 @@
       </c>
       <c r="C411" s="9"/>
       <c r="D411" s="9"/>
-      <c r="E411" s="53"/>
+      <c r="E411" s="11"/>
       <c r="F411" s="9"/>
       <c r="G411" s="9"/>
       <c r="H411" s="9"/>
@@ -26293,7 +26281,7 @@
       </c>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
-      <c r="E412" s="53"/>
+      <c r="E412" s="11"/>
       <c r="F412" s="9"/>
       <c r="G412" s="9"/>
       <c r="H412" s="9"/>
@@ -26316,7 +26304,7 @@
       </c>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
-      <c r="E413" s="53"/>
+      <c r="E413" s="11"/>
       <c r="F413" s="9"/>
       <c r="G413" s="9"/>
       <c r="H413" s="9"/>
@@ -26339,7 +26327,7 @@
       </c>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
-      <c r="E414" s="53"/>
+      <c r="E414" s="11"/>
       <c r="F414" s="9"/>
       <c r="G414" s="9"/>
       <c r="H414" s="9"/>
@@ -26366,7 +26354,7 @@
         <v>1524</v>
       </c>
       <c r="D415" s="9"/>
-      <c r="E415" s="53"/>
+      <c r="E415" s="11"/>
       <c r="F415" s="9"/>
       <c r="G415" s="9"/>
       <c r="H415" s="9"/>
@@ -26393,7 +26381,7 @@
         <v>1527</v>
       </c>
       <c r="D416" s="9"/>
-      <c r="E416" s="53"/>
+      <c r="E416" s="11"/>
       <c r="F416" s="9"/>
       <c r="G416" s="9"/>
       <c r="H416" s="9"/>
@@ -26418,7 +26406,7 @@
       </c>
       <c r="C417" s="9"/>
       <c r="D417" s="9"/>
-      <c r="E417" s="53"/>
+      <c r="E417" s="11"/>
       <c r="F417" s="9"/>
       <c r="G417" s="9"/>
       <c r="H417" s="9"/>
@@ -26445,7 +26433,7 @@
         <v>1532</v>
       </c>
       <c r="D418" s="9"/>
-      <c r="E418" s="53"/>
+      <c r="E418" s="11"/>
       <c r="F418" s="9"/>
       <c r="G418" s="9"/>
       <c r="H418" s="9"/>
@@ -26470,7 +26458,7 @@
       </c>
       <c r="C419" s="11"/>
       <c r="D419" s="9"/>
-      <c r="E419" s="53"/>
+      <c r="E419" s="11"/>
       <c r="F419" s="9"/>
       <c r="G419" s="9"/>
       <c r="H419" s="9"/>
@@ -26493,7 +26481,7 @@
       </c>
       <c r="C420" s="11"/>
       <c r="D420" s="9"/>
-      <c r="E420" s="53"/>
+      <c r="E420" s="11"/>
       <c r="F420" s="9"/>
       <c r="G420" s="9"/>
       <c r="H420" s="9"/>
@@ -26518,7 +26506,7 @@
         <v>1539</v>
       </c>
       <c r="D421" s="9"/>
-      <c r="E421" s="53"/>
+      <c r="E421" s="11"/>
       <c r="F421" s="9"/>
       <c r="G421" s="9"/>
       <c r="H421" s="9"/>
@@ -26545,7 +26533,7 @@
         <v>1542</v>
       </c>
       <c r="D422" s="9"/>
-      <c r="E422" s="53"/>
+      <c r="E422" s="11"/>
       <c r="F422" s="9"/>
       <c r="G422" s="9"/>
       <c r="H422" s="9"/>
@@ -26572,7 +26560,7 @@
         <v>1545</v>
       </c>
       <c r="D423" s="9"/>
-      <c r="E423" s="53"/>
+      <c r="E423" s="11"/>
       <c r="F423" s="9"/>
       <c r="G423" s="9"/>
       <c r="H423" s="9"/>
@@ -26599,7 +26587,7 @@
         <v>1548</v>
       </c>
       <c r="D424" s="9"/>
-      <c r="E424" s="53"/>
+      <c r="E424" s="11"/>
       <c r="F424" s="9"/>
       <c r="G424" s="9"/>
       <c r="H424" s="9"/>
@@ -26616,33 +26604,33 @@
       <c r="Q424" s="11"/>
     </row>
     <row r="425" s="14" customFormat="1" spans="1:17">
-      <c r="A425" s="56" t="s">
+      <c r="A425" s="51" t="s">
         <v>1549</v>
       </c>
-      <c r="B425" s="56" t="s">
+      <c r="B425" s="51" t="s">
         <v>1550</v>
       </c>
-      <c r="C425" s="56" t="s">
+      <c r="C425" s="51" t="s">
         <v>1551</v>
       </c>
-      <c r="D425" s="56"/>
-      <c r="E425" s="56"/>
-      <c r="F425" s="56"/>
-      <c r="G425" s="56"/>
-      <c r="H425" s="56"/>
-      <c r="I425" s="57"/>
-      <c r="J425" s="58" t="s">
+      <c r="D425" s="51"/>
+      <c r="E425" s="51"/>
+      <c r="F425" s="51"/>
+      <c r="G425" s="51"/>
+      <c r="H425" s="51"/>
+      <c r="I425" s="52"/>
+      <c r="J425" s="52" t="s">
         <v>1552</v>
       </c>
-      <c r="K425" s="58" t="s">
+      <c r="K425" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L425" s="58"/>
-      <c r="M425" s="58"/>
-      <c r="N425" s="58"/>
-      <c r="O425" s="58"/>
-      <c r="P425" s="58"/>
-      <c r="Q425" s="58"/>
+      <c r="L425" s="52"/>
+      <c r="M425" s="52"/>
+      <c r="N425" s="52"/>
+      <c r="O425" s="52"/>
+      <c r="P425" s="52"/>
+      <c r="Q425" s="52"/>
     </row>
     <row r="426" s="14" customFormat="1" spans="1:17">
       <c r="A426" s="9" t="s">
@@ -26655,7 +26643,7 @@
         <v>1555</v>
       </c>
       <c r="D426" s="9"/>
-      <c r="E426" s="53"/>
+      <c r="E426" s="11"/>
       <c r="F426" s="9"/>
       <c r="G426" s="9"/>
       <c r="H426" s="9"/>
@@ -26682,7 +26670,7 @@
         <v>1558</v>
       </c>
       <c r="D427" s="9"/>
-      <c r="E427" s="53"/>
+      <c r="E427" s="11"/>
       <c r="F427" s="9"/>
       <c r="G427" s="9"/>
       <c r="H427" s="9"/>
@@ -26709,7 +26697,7 @@
         <v>1561</v>
       </c>
       <c r="D428" s="9"/>
-      <c r="E428" s="53"/>
+      <c r="E428" s="11"/>
       <c r="F428" s="9"/>
       <c r="G428" s="9"/>
       <c r="H428" s="9"/>
@@ -26726,31 +26714,31 @@
       <c r="Q428" s="11"/>
     </row>
     <row r="429" s="28" customFormat="1" spans="1:17">
-      <c r="A429" s="56" t="s">
+      <c r="A429" s="51" t="s">
         <v>1562</v>
       </c>
-      <c r="B429" s="56" t="s">
+      <c r="B429" s="51" t="s">
         <v>1563</v>
       </c>
-      <c r="C429" s="56"/>
-      <c r="D429" s="56"/>
-      <c r="E429" s="56"/>
-      <c r="F429" s="56"/>
-      <c r="G429" s="56"/>
-      <c r="H429" s="56"/>
-      <c r="I429" s="57"/>
-      <c r="J429" s="58" t="s">
+      <c r="C429" s="51"/>
+      <c r="D429" s="51"/>
+      <c r="E429" s="51"/>
+      <c r="F429" s="51"/>
+      <c r="G429" s="51"/>
+      <c r="H429" s="51"/>
+      <c r="I429" s="52"/>
+      <c r="J429" s="52" t="s">
         <v>1564</v>
       </c>
-      <c r="K429" s="58" t="s">
+      <c r="K429" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L429" s="58"/>
-      <c r="M429" s="58"/>
-      <c r="N429" s="58"/>
-      <c r="O429" s="58"/>
-      <c r="P429" s="58"/>
-      <c r="Q429" s="58"/>
+      <c r="L429" s="52"/>
+      <c r="M429" s="52"/>
+      <c r="N429" s="52"/>
+      <c r="O429" s="52"/>
+      <c r="P429" s="52"/>
+      <c r="Q429" s="52"/>
     </row>
     <row r="430" s="28" customFormat="1" spans="1:17">
       <c r="A430" s="9" t="s">
@@ -26763,7 +26751,7 @@
         <v>1567</v>
       </c>
       <c r="D430" s="9"/>
-      <c r="E430" s="53"/>
+      <c r="E430" s="11"/>
       <c r="F430" s="9"/>
       <c r="G430" s="9"/>
       <c r="H430" s="9"/>
@@ -26792,7 +26780,7 @@
       <c r="D431" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="E431" s="53"/>
+      <c r="E431" s="11"/>
       <c r="F431" s="9"/>
       <c r="G431" s="9"/>
       <c r="H431" s="9"/>
@@ -26819,7 +26807,7 @@
         <v>1574</v>
       </c>
       <c r="D432" s="9"/>
-      <c r="E432" s="53"/>
+      <c r="E432" s="11"/>
       <c r="F432" s="9"/>
       <c r="G432" s="9"/>
       <c r="H432" s="9"/>
@@ -26846,7 +26834,7 @@
         <v>1577</v>
       </c>
       <c r="D433" s="9"/>
-      <c r="E433" s="53"/>
+      <c r="E433" s="11"/>
       <c r="F433" s="9"/>
       <c r="G433" s="9"/>
       <c r="H433" s="9"/>
@@ -26873,7 +26861,7 @@
         <v>1580</v>
       </c>
       <c r="D434" s="9"/>
-      <c r="E434" s="53"/>
+      <c r="E434" s="11"/>
       <c r="F434" s="9"/>
       <c r="G434" s="9"/>
       <c r="H434" s="9"/>
@@ -26900,7 +26888,7 @@
         <v>1583</v>
       </c>
       <c r="D435" s="9"/>
-      <c r="E435" s="53"/>
+      <c r="E435" s="11"/>
       <c r="F435" s="9"/>
       <c r="G435" s="9"/>
       <c r="H435" s="9"/>
@@ -26927,7 +26915,7 @@
         <v>1586</v>
       </c>
       <c r="D436" s="9"/>
-      <c r="E436" s="53"/>
+      <c r="E436" s="11"/>
       <c r="F436" s="9"/>
       <c r="G436" s="9"/>
       <c r="H436" s="9"/>
@@ -26954,7 +26942,7 @@
         <v>1589</v>
       </c>
       <c r="D437" s="9"/>
-      <c r="E437" s="53"/>
+      <c r="E437" s="11"/>
       <c r="F437" s="9"/>
       <c r="G437" s="9"/>
       <c r="H437" s="9"/>
@@ -26981,7 +26969,7 @@
         <v>1592</v>
       </c>
       <c r="D438" s="9"/>
-      <c r="E438" s="53"/>
+      <c r="E438" s="11"/>
       <c r="F438" s="9"/>
       <c r="G438" s="9"/>
       <c r="H438" s="9"/>
@@ -27008,7 +26996,7 @@
         <v>1595</v>
       </c>
       <c r="D439" s="9"/>
-      <c r="E439" s="53"/>
+      <c r="E439" s="11"/>
       <c r="F439" s="9"/>
       <c r="G439" s="9"/>
       <c r="H439" s="9"/>
@@ -27035,7 +27023,7 @@
         <v>1598</v>
       </c>
       <c r="D440" s="9"/>
-      <c r="E440" s="53"/>
+      <c r="E440" s="11"/>
       <c r="F440" s="9"/>
       <c r="G440" s="9"/>
       <c r="H440" s="9"/>
@@ -27062,7 +27050,7 @@
         <v>1601</v>
       </c>
       <c r="D441" s="9"/>
-      <c r="E441" s="53"/>
+      <c r="E441" s="11"/>
       <c r="F441" s="9"/>
       <c r="G441" s="9"/>
       <c r="H441" s="9"/>
@@ -27089,7 +27077,7 @@
         <v>1604</v>
       </c>
       <c r="D442" s="9"/>
-      <c r="E442" s="53"/>
+      <c r="E442" s="11"/>
       <c r="F442" s="9"/>
       <c r="G442" s="9"/>
       <c r="H442" s="9"/>
@@ -27116,7 +27104,7 @@
         <v>1607</v>
       </c>
       <c r="D443" s="9"/>
-      <c r="E443" s="53"/>
+      <c r="E443" s="11"/>
       <c r="F443" s="9"/>
       <c r="G443" s="9"/>
       <c r="H443" s="9"/>
@@ -27143,7 +27131,7 @@
         <v>1610</v>
       </c>
       <c r="D444" s="9"/>
-      <c r="E444" s="53"/>
+      <c r="E444" s="11"/>
       <c r="F444" s="9"/>
       <c r="G444" s="9"/>
       <c r="H444" s="9"/>
@@ -27168,7 +27156,7 @@
       </c>
       <c r="C445" s="9"/>
       <c r="D445" s="9"/>
-      <c r="E445" s="53"/>
+      <c r="E445" s="11"/>
       <c r="F445" s="9"/>
       <c r="G445" s="9"/>
       <c r="H445" s="9"/>
@@ -27195,7 +27183,7 @@
         <v>1615</v>
       </c>
       <c r="D446" s="9"/>
-      <c r="E446" s="53"/>
+      <c r="E446" s="11"/>
       <c r="F446" s="9"/>
       <c r="G446" s="9"/>
       <c r="H446" s="9"/>
@@ -27222,7 +27210,7 @@
         <v>1618</v>
       </c>
       <c r="D447" s="9"/>
-      <c r="E447" s="53"/>
+      <c r="E447" s="11"/>
       <c r="F447" s="9"/>
       <c r="G447" s="9"/>
       <c r="H447" s="9"/>
@@ -27371,7 +27359,7 @@
       <c r="F452" s="36"/>
       <c r="G452" s="36"/>
       <c r="H452" s="36"/>
-      <c r="I452" s="47"/>
+      <c r="I452" s="20"/>
       <c r="J452" s="20" t="s">
         <v>1639</v>
       </c>
@@ -27402,7 +27390,7 @@
       <c r="F453" s="36"/>
       <c r="G453" s="36"/>
       <c r="H453" s="36"/>
-      <c r="I453" s="47"/>
+      <c r="I453" s="20"/>
       <c r="J453" s="20" t="s">
         <v>1644</v>
       </c>
@@ -27425,7 +27413,7 @@
       </c>
       <c r="C454" s="9"/>
       <c r="D454" s="9"/>
-      <c r="E454" s="53"/>
+      <c r="E454" s="11"/>
       <c r="F454" s="9"/>
       <c r="G454" s="9"/>
       <c r="H454" s="9"/>
@@ -27452,7 +27440,7 @@
         <v>1649</v>
       </c>
       <c r="D455" s="9"/>
-      <c r="E455" s="53"/>
+      <c r="E455" s="11"/>
       <c r="F455" s="9"/>
       <c r="G455" s="9"/>
       <c r="H455" s="9"/>
@@ -27479,7 +27467,7 @@
         <v>1652</v>
       </c>
       <c r="D456" s="9"/>
-      <c r="E456" s="53"/>
+      <c r="E456" s="11"/>
       <c r="F456" s="9"/>
       <c r="G456" s="9"/>
       <c r="H456" s="9"/>
@@ -27506,7 +27494,7 @@
         <v>1655</v>
       </c>
       <c r="D457" s="9"/>
-      <c r="E457" s="53"/>
+      <c r="E457" s="11"/>
       <c r="F457" s="9"/>
       <c r="G457" s="9"/>
       <c r="H457" s="9"/>
@@ -27533,7 +27521,7 @@
         <v>1658</v>
       </c>
       <c r="D458" s="9"/>
-      <c r="E458" s="53"/>
+      <c r="E458" s="11"/>
       <c r="F458" s="9"/>
       <c r="G458" s="9"/>
       <c r="H458" s="9"/>
@@ -27560,7 +27548,7 @@
         <v>1661</v>
       </c>
       <c r="D459" s="9"/>
-      <c r="E459" s="53"/>
+      <c r="E459" s="11"/>
       <c r="F459" s="9"/>
       <c r="G459" s="9"/>
       <c r="H459" s="9"/>
@@ -27587,7 +27575,7 @@
         <v>1664</v>
       </c>
       <c r="D460" s="9"/>
-      <c r="E460" s="53"/>
+      <c r="E460" s="11"/>
       <c r="F460" s="9"/>
       <c r="G460" s="9"/>
       <c r="H460" s="9"/>
@@ -27614,7 +27602,7 @@
         <v>1667</v>
       </c>
       <c r="D461" s="9"/>
-      <c r="E461" s="53"/>
+      <c r="E461" s="11"/>
       <c r="F461" s="9"/>
       <c r="G461" s="9"/>
       <c r="H461" s="9"/>
@@ -27641,7 +27629,7 @@
         <v>1670</v>
       </c>
       <c r="D462" s="9"/>
-      <c r="E462" s="53"/>
+      <c r="E462" s="11"/>
       <c r="F462" s="9"/>
       <c r="G462" s="9"/>
       <c r="H462" s="9"/>
@@ -27668,7 +27656,7 @@
         <v>1673</v>
       </c>
       <c r="D463" s="9"/>
-      <c r="E463" s="53"/>
+      <c r="E463" s="11"/>
       <c r="F463" s="9"/>
       <c r="G463" s="9"/>
       <c r="H463" s="9"/>
@@ -27695,7 +27683,7 @@
         <v>1676</v>
       </c>
       <c r="D464" s="9"/>
-      <c r="E464" s="53"/>
+      <c r="E464" s="11"/>
       <c r="F464" s="9"/>
       <c r="G464" s="9"/>
       <c r="H464" s="9"/>
@@ -27720,7 +27708,7 @@
       </c>
       <c r="C465" s="9"/>
       <c r="D465" s="9"/>
-      <c r="E465" s="53"/>
+      <c r="E465" s="11"/>
       <c r="F465" s="9"/>
       <c r="G465" s="9"/>
       <c r="H465" s="9"/>
@@ -27747,7 +27735,7 @@
         <v>1681</v>
       </c>
       <c r="D466" s="9"/>
-      <c r="E466" s="53"/>
+      <c r="E466" s="11"/>
       <c r="F466" s="9"/>
       <c r="G466" s="9"/>
       <c r="H466" s="9"/>
@@ -27778,7 +27766,7 @@
         <v>1685</v>
       </c>
       <c r="D467" s="9"/>
-      <c r="E467" s="53"/>
+      <c r="E467" s="11"/>
       <c r="F467" s="9"/>
       <c r="G467" s="9"/>
       <c r="H467" s="9"/>
@@ -27809,7 +27797,7 @@
         <v>1689</v>
       </c>
       <c r="D468" s="9"/>
-      <c r="E468" s="53"/>
+      <c r="E468" s="11"/>
       <c r="F468" s="9"/>
       <c r="G468" s="9"/>
       <c r="H468" s="9"/>
@@ -27840,7 +27828,7 @@
         <v>1693</v>
       </c>
       <c r="D469" s="9"/>
-      <c r="E469" s="53"/>
+      <c r="E469" s="11"/>
       <c r="F469" s="9"/>
       <c r="G469" s="9"/>
       <c r="H469" s="9"/>
@@ -27871,7 +27859,7 @@
         <v>1696</v>
       </c>
       <c r="D470" s="9"/>
-      <c r="E470" s="53"/>
+      <c r="E470" s="11"/>
       <c r="F470" s="9"/>
       <c r="G470" s="9"/>
       <c r="H470" s="9"/>
@@ -27902,7 +27890,7 @@
         <v>1699</v>
       </c>
       <c r="D471" s="9"/>
-      <c r="E471" s="53"/>
+      <c r="E471" s="11"/>
       <c r="F471" s="9"/>
       <c r="G471" s="9"/>
       <c r="H471" s="9"/>
@@ -27933,7 +27921,7 @@
         <v>1702</v>
       </c>
       <c r="D472" s="9"/>
-      <c r="E472" s="53"/>
+      <c r="E472" s="11"/>
       <c r="F472" s="9"/>
       <c r="G472" s="9"/>
       <c r="H472" s="9"/>
@@ -27964,7 +27952,7 @@
         <v>1705</v>
       </c>
       <c r="D473" s="9"/>
-      <c r="E473" s="53"/>
+      <c r="E473" s="11"/>
       <c r="F473" s="9"/>
       <c r="G473" s="9"/>
       <c r="H473" s="9"/>
@@ -27995,7 +27983,7 @@
         <v>1708</v>
       </c>
       <c r="D474" s="9"/>
-      <c r="E474" s="53"/>
+      <c r="E474" s="11"/>
       <c r="F474" s="9"/>
       <c r="G474" s="9"/>
       <c r="H474" s="9"/>
@@ -28026,7 +28014,7 @@
         <v>1711</v>
       </c>
       <c r="D475" s="9"/>
-      <c r="E475" s="53"/>
+      <c r="E475" s="11"/>
       <c r="F475" s="9"/>
       <c r="G475" s="9"/>
       <c r="H475" s="9"/>
@@ -28055,7 +28043,7 @@
       </c>
       <c r="C476" s="9"/>
       <c r="D476" s="9"/>
-      <c r="E476" s="53"/>
+      <c r="E476" s="11"/>
       <c r="F476" s="9"/>
       <c r="G476" s="9"/>
       <c r="H476" s="9"/>
@@ -28082,7 +28070,7 @@
         <v>1717</v>
       </c>
       <c r="D477" s="9"/>
-      <c r="E477" s="53"/>
+      <c r="E477" s="11"/>
       <c r="F477" s="9"/>
       <c r="G477" s="9"/>
       <c r="H477" s="9"/>
@@ -28113,7 +28101,7 @@
         <v>1721</v>
       </c>
       <c r="D478" s="9"/>
-      <c r="E478" s="53"/>
+      <c r="E478" s="11"/>
       <c r="F478" s="9"/>
       <c r="G478" s="9"/>
       <c r="H478" s="9"/>
@@ -28144,7 +28132,7 @@
         <v>1725</v>
       </c>
       <c r="D479" s="9"/>
-      <c r="E479" s="53"/>
+      <c r="E479" s="11"/>
       <c r="F479" s="9"/>
       <c r="G479" s="9"/>
       <c r="H479" s="9"/>
@@ -28175,7 +28163,7 @@
         <v>1728</v>
       </c>
       <c r="D480" s="9"/>
-      <c r="E480" s="53"/>
+      <c r="E480" s="11"/>
       <c r="F480" s="9"/>
       <c r="G480" s="9"/>
       <c r="H480" s="9"/>
@@ -28206,7 +28194,7 @@
         <v>1731</v>
       </c>
       <c r="D481" s="9"/>
-      <c r="E481" s="53"/>
+      <c r="E481" s="11"/>
       <c r="F481" s="9"/>
       <c r="G481" s="9"/>
       <c r="H481" s="9"/>
@@ -28237,7 +28225,7 @@
         <v>1734</v>
       </c>
       <c r="D482" s="9"/>
-      <c r="E482" s="53"/>
+      <c r="E482" s="11"/>
       <c r="F482" s="9"/>
       <c r="G482" s="9"/>
       <c r="H482" s="9"/>
@@ -28268,7 +28256,7 @@
         <v>1738</v>
       </c>
       <c r="D483" s="9"/>
-      <c r="E483" s="53"/>
+      <c r="E483" s="11"/>
       <c r="F483" s="9"/>
       <c r="G483" s="9"/>
       <c r="H483" s="9"/>
@@ -28299,7 +28287,7 @@
         <v>1741</v>
       </c>
       <c r="D484" s="9"/>
-      <c r="E484" s="53"/>
+      <c r="E484" s="11"/>
       <c r="F484" s="9"/>
       <c r="G484" s="9"/>
       <c r="H484" s="9"/>
@@ -28330,7 +28318,7 @@
         <v>1745</v>
       </c>
       <c r="D485" s="9"/>
-      <c r="E485" s="53"/>
+      <c r="E485" s="11"/>
       <c r="F485" s="9"/>
       <c r="G485" s="9"/>
       <c r="H485" s="9"/>
@@ -28361,7 +28349,7 @@
         <v>1748</v>
       </c>
       <c r="D486" s="9"/>
-      <c r="E486" s="53"/>
+      <c r="E486" s="11"/>
       <c r="F486" s="9"/>
       <c r="G486" s="9"/>
       <c r="H486" s="9"/>
@@ -28390,7 +28378,7 @@
       </c>
       <c r="C487" s="9"/>
       <c r="D487" s="9"/>
-      <c r="E487" s="53"/>
+      <c r="E487" s="11"/>
       <c r="F487" s="9"/>
       <c r="G487" s="9"/>
       <c r="H487" s="9"/>
@@ -28417,7 +28405,7 @@
         <v>1100</v>
       </c>
       <c r="D488" s="9"/>
-      <c r="E488" s="53"/>
+      <c r="E488" s="11"/>
       <c r="F488" s="9"/>
       <c r="G488" s="9"/>
       <c r="H488" s="9"/>
@@ -28448,7 +28436,7 @@
         <v>1756</v>
       </c>
       <c r="D489" s="9"/>
-      <c r="E489" s="53"/>
+      <c r="E489" s="11"/>
       <c r="F489" s="9"/>
       <c r="G489" s="9"/>
       <c r="H489" s="9"/>
@@ -28479,7 +28467,7 @@
         <v>1759</v>
       </c>
       <c r="D490" s="9"/>
-      <c r="E490" s="53"/>
+      <c r="E490" s="11"/>
       <c r="F490" s="9"/>
       <c r="G490" s="9"/>
       <c r="H490" s="9"/>
@@ -28510,7 +28498,7 @@
         <v>1762</v>
       </c>
       <c r="D491" s="9"/>
-      <c r="E491" s="53"/>
+      <c r="E491" s="11"/>
       <c r="F491" s="9"/>
       <c r="G491" s="9"/>
       <c r="H491" s="9"/>
@@ -28541,7 +28529,7 @@
         <v>1765</v>
       </c>
       <c r="D492" s="9"/>
-      <c r="E492" s="53"/>
+      <c r="E492" s="11"/>
       <c r="F492" s="9"/>
       <c r="G492" s="9"/>
       <c r="H492" s="9"/>
@@ -28572,7 +28560,7 @@
         <v>1768</v>
       </c>
       <c r="D493" s="9"/>
-      <c r="E493" s="53"/>
+      <c r="E493" s="11"/>
       <c r="F493" s="9"/>
       <c r="G493" s="9"/>
       <c r="H493" s="9"/>
@@ -28603,7 +28591,7 @@
         <v>1748</v>
       </c>
       <c r="D494" s="9"/>
-      <c r="E494" s="53"/>
+      <c r="E494" s="11"/>
       <c r="F494" s="9"/>
       <c r="G494" s="9"/>
       <c r="H494" s="9"/>
@@ -28634,7 +28622,7 @@
         <v>1775</v>
       </c>
       <c r="D495" s="9"/>
-      <c r="E495" s="53"/>
+      <c r="E495" s="11"/>
       <c r="F495" s="9"/>
       <c r="G495" s="9"/>
       <c r="H495" s="9"/>
@@ -28665,7 +28653,7 @@
         <v>1779</v>
       </c>
       <c r="D496" s="9"/>
-      <c r="E496" s="53"/>
+      <c r="E496" s="11"/>
       <c r="F496" s="9"/>
       <c r="G496" s="9"/>
       <c r="H496" s="9"/>
@@ -28696,7 +28684,7 @@
         <v>1783</v>
       </c>
       <c r="D497" s="9"/>
-      <c r="E497" s="53"/>
+      <c r="E497" s="11"/>
       <c r="F497" s="9"/>
       <c r="G497" s="9"/>
       <c r="H497" s="9"/>
@@ -28725,7 +28713,7 @@
       </c>
       <c r="C498" s="9"/>
       <c r="D498" s="9"/>
-      <c r="E498" s="53"/>
+      <c r="E498" s="11"/>
       <c r="F498" s="9"/>
       <c r="G498" s="9"/>
       <c r="H498" s="9"/>
@@ -28752,7 +28740,7 @@
         <v>1789</v>
       </c>
       <c r="D499" s="9"/>
-      <c r="E499" s="53"/>
+      <c r="E499" s="11"/>
       <c r="F499" s="9"/>
       <c r="G499" s="9"/>
       <c r="H499" s="9"/>
@@ -28783,7 +28771,7 @@
         <v>1793</v>
       </c>
       <c r="D500" s="9"/>
-      <c r="E500" s="53"/>
+      <c r="E500" s="11"/>
       <c r="F500" s="9"/>
       <c r="G500" s="9"/>
       <c r="H500" s="9"/>
@@ -28814,7 +28802,7 @@
         <v>1797</v>
       </c>
       <c r="D501" s="9"/>
-      <c r="E501" s="53"/>
+      <c r="E501" s="11"/>
       <c r="F501" s="9"/>
       <c r="G501" s="9"/>
       <c r="H501" s="9"/>
@@ -28845,7 +28833,7 @@
         <v>1801</v>
       </c>
       <c r="D502" s="9"/>
-      <c r="E502" s="53"/>
+      <c r="E502" s="11"/>
       <c r="F502" s="9"/>
       <c r="G502" s="9"/>
       <c r="H502" s="9"/>
@@ -28876,7 +28864,7 @@
         <v>1805</v>
       </c>
       <c r="D503" s="9"/>
-      <c r="E503" s="53"/>
+      <c r="E503" s="11"/>
       <c r="F503" s="9"/>
       <c r="G503" s="9"/>
       <c r="H503" s="9"/>
@@ -28907,7 +28895,7 @@
         <v>1809</v>
       </c>
       <c r="D504" s="9"/>
-      <c r="E504" s="53"/>
+      <c r="E504" s="11"/>
       <c r="F504" s="9"/>
       <c r="G504" s="9"/>
       <c r="H504" s="9"/>
@@ -28938,7 +28926,7 @@
         <v>1813</v>
       </c>
       <c r="D505" s="9"/>
-      <c r="E505" s="53"/>
+      <c r="E505" s="11"/>
       <c r="F505" s="9"/>
       <c r="G505" s="9"/>
       <c r="H505" s="9"/>
@@ -28967,7 +28955,7 @@
       </c>
       <c r="C506" s="9"/>
       <c r="D506" s="9"/>
-      <c r="E506" s="53"/>
+      <c r="E506" s="11"/>
       <c r="F506" s="9"/>
       <c r="G506" s="9"/>
       <c r="H506" s="9"/>
@@ -29044,7 +29032,7 @@
       </c>
       <c r="C509" s="9"/>
       <c r="D509" s="9"/>
-      <c r="E509" s="53"/>
+      <c r="E509" s="11"/>
       <c r="F509" s="9"/>
       <c r="G509" s="9"/>
       <c r="H509" s="9"/>
@@ -29569,7 +29557,7 @@
       </c>
       <c r="C530" s="9"/>
       <c r="D530" s="9"/>
-      <c r="E530" s="53"/>
+      <c r="E530" s="11"/>
       <c r="F530" s="9"/>
       <c r="G530" s="9"/>
       <c r="H530" s="9"/>
@@ -30348,7 +30336,7 @@
       </c>
       <c r="C561" s="9"/>
       <c r="D561" s="9"/>
-      <c r="E561" s="53"/>
+      <c r="E561" s="11"/>
       <c r="F561" s="9"/>
       <c r="G561" s="9"/>
       <c r="H561" s="9"/>
@@ -30398,7 +30386,7 @@
         <v>1467</v>
       </c>
       <c r="D563" s="9"/>
-      <c r="E563" s="53"/>
+      <c r="E563" s="11"/>
       <c r="F563" s="9"/>
       <c r="G563" s="9"/>
       <c r="H563" s="9"/>
@@ -30423,7 +30411,7 @@
       </c>
       <c r="C564" s="9"/>
       <c r="D564" s="9"/>
-      <c r="E564" s="53"/>
+      <c r="E564" s="11"/>
       <c r="F564" s="9"/>
       <c r="G564" s="9"/>
       <c r="H564" s="9"/>
@@ -30448,7 +30436,7 @@
         <v>1936</v>
       </c>
       <c r="D565" s="9"/>
-      <c r="E565" s="53"/>
+      <c r="E565" s="11"/>
       <c r="F565" s="9"/>
       <c r="G565" s="9"/>
       <c r="H565" s="19"/>
@@ -30477,7 +30465,7 @@
       </c>
       <c r="C566" s="9"/>
       <c r="D566" s="9"/>
-      <c r="E566" s="53"/>
+      <c r="E566" s="11"/>
       <c r="F566" s="9"/>
       <c r="G566" s="9"/>
       <c r="H566" s="9"/>
@@ -30500,7 +30488,7 @@
       </c>
       <c r="C567" s="9"/>
       <c r="D567" s="9"/>
-      <c r="E567" s="53"/>
+      <c r="E567" s="11"/>
       <c r="F567" s="9"/>
       <c r="G567" s="9"/>
       <c r="H567" s="9"/>
@@ -30573,7 +30561,7 @@
       </c>
       <c r="C570" s="9"/>
       <c r="D570" s="9"/>
-      <c r="E570" s="53"/>
+      <c r="E570" s="11"/>
       <c r="F570" s="9"/>
       <c r="G570" s="9"/>
       <c r="H570" s="9"/>
@@ -30848,7 +30836,7 @@
       </c>
       <c r="C581" s="9"/>
       <c r="D581" s="9"/>
-      <c r="E581" s="53"/>
+      <c r="E581" s="11"/>
       <c r="F581" s="9"/>
       <c r="G581" s="9"/>
       <c r="H581" s="9"/>
@@ -31123,7 +31111,7 @@
       </c>
       <c r="C592" s="9"/>
       <c r="D592" s="9"/>
-      <c r="E592" s="53"/>
+      <c r="E592" s="11"/>
       <c r="F592" s="9"/>
       <c r="G592" s="9"/>
       <c r="H592" s="9"/>
@@ -31323,7 +31311,7 @@
       </c>
       <c r="C600" s="9"/>
       <c r="D600" s="9"/>
-      <c r="E600" s="53"/>
+      <c r="E600" s="11"/>
       <c r="F600" s="9"/>
       <c r="G600" s="9"/>
       <c r="H600" s="9"/>
@@ -31350,7 +31338,7 @@
         <v>2011</v>
       </c>
       <c r="D601" s="9"/>
-      <c r="E601" s="53"/>
+      <c r="E601" s="11"/>
       <c r="F601" s="9"/>
       <c r="G601" s="9"/>
       <c r="H601" s="19"/>
@@ -31379,7 +31367,7 @@
       </c>
       <c r="C602" s="9"/>
       <c r="D602" s="9"/>
-      <c r="E602" s="53"/>
+      <c r="E602" s="11"/>
       <c r="F602" s="9"/>
       <c r="G602" s="9"/>
       <c r="H602" s="9"/>
@@ -31404,7 +31392,7 @@
       </c>
       <c r="C603" s="9"/>
       <c r="D603" s="9"/>
-      <c r="E603" s="53"/>
+      <c r="E603" s="11"/>
       <c r="F603" s="9"/>
       <c r="G603" s="9"/>
       <c r="H603" s="9"/>
@@ -31433,7 +31421,7 @@
       </c>
       <c r="C604" s="9"/>
       <c r="D604" s="9"/>
-      <c r="E604" s="53"/>
+      <c r="E604" s="11"/>
       <c r="F604" s="9"/>
       <c r="G604" s="9"/>
       <c r="H604" s="9"/>
@@ -31458,7 +31446,7 @@
       </c>
       <c r="C605" s="9"/>
       <c r="D605" s="9"/>
-      <c r="E605" s="53"/>
+      <c r="E605" s="11"/>
       <c r="F605" s="9"/>
       <c r="G605" s="9"/>
       <c r="H605" s="9"/>
@@ -31485,23 +31473,23 @@
         <v>2024</v>
       </c>
       <c r="D606" s="9"/>
-      <c r="E606" s="53"/>
+      <c r="E606" s="11"/>
       <c r="F606" s="9"/>
       <c r="G606" s="9" t="s">
         <v>1316</v>
       </c>
       <c r="H606" s="9"/>
-      <c r="I606" s="55" t="s">
+      <c r="I606" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J606" s="55"/>
-      <c r="K606" s="55"/>
-      <c r="L606" s="55"/>
-      <c r="M606" s="55"/>
-      <c r="N606" s="55"/>
-      <c r="O606" s="55"/>
-      <c r="P606" s="55"/>
-      <c r="Q606" s="55" t="s">
+      <c r="J606" s="50"/>
+      <c r="K606" s="50"/>
+      <c r="L606" s="50"/>
+      <c r="M606" s="50"/>
+      <c r="N606" s="50"/>
+      <c r="O606" s="50"/>
+      <c r="P606" s="50"/>
+      <c r="Q606" s="50" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -31514,7 +31502,7 @@
       </c>
       <c r="C607" s="9"/>
       <c r="D607" s="9"/>
-      <c r="E607" s="53"/>
+      <c r="E607" s="11"/>
       <c r="F607" s="9"/>
       <c r="G607" s="9"/>
       <c r="H607" s="9"/>
@@ -31539,7 +31527,7 @@
       </c>
       <c r="C608" s="9"/>
       <c r="D608" s="9"/>
-      <c r="E608" s="53"/>
+      <c r="E608" s="11"/>
       <c r="F608" s="9"/>
       <c r="G608" s="9"/>
       <c r="H608" s="9"/>
@@ -31564,7 +31552,7 @@
       </c>
       <c r="C609" s="9"/>
       <c r="D609" s="9"/>
-      <c r="E609" s="53"/>
+      <c r="E609" s="11"/>
       <c r="F609" s="9"/>
       <c r="G609" s="9"/>
       <c r="H609" s="9"/>
@@ -31593,7 +31581,7 @@
       <c r="D610" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E610" s="53"/>
+      <c r="E610" s="11"/>
       <c r="F610" s="9"/>
       <c r="G610" s="40"/>
       <c r="H610" s="9"/>
@@ -31620,7 +31608,7 @@
         <v>2036</v>
       </c>
       <c r="D611" s="9"/>
-      <c r="E611" s="53"/>
+      <c r="E611" s="11"/>
       <c r="F611" s="9"/>
       <c r="G611" s="9"/>
       <c r="H611" s="9"/>
@@ -31645,7 +31633,7 @@
       </c>
       <c r="C612" s="9"/>
       <c r="D612" s="9"/>
-      <c r="E612" s="53"/>
+      <c r="E612" s="11"/>
       <c r="F612" s="9"/>
       <c r="G612" s="9"/>
       <c r="H612" s="9"/>
@@ -31670,7 +31658,7 @@
       </c>
       <c r="C613" s="9"/>
       <c r="D613" s="9"/>
-      <c r="E613" s="53"/>
+      <c r="E613" s="11"/>
       <c r="F613" s="9"/>
       <c r="G613" s="9"/>
       <c r="H613" s="9"/>
@@ -31695,7 +31683,7 @@
       </c>
       <c r="C614" s="9"/>
       <c r="D614" s="9"/>
-      <c r="E614" s="53"/>
+      <c r="E614" s="11"/>
       <c r="F614" s="9"/>
       <c r="G614" s="9"/>
       <c r="H614" s="9"/>
@@ -31720,7 +31708,7 @@
       </c>
       <c r="C615" s="9"/>
       <c r="D615" s="9"/>
-      <c r="E615" s="53"/>
+      <c r="E615" s="11"/>
       <c r="F615" s="9"/>
       <c r="G615" s="19"/>
       <c r="H615" s="9"/>
@@ -31747,17 +31735,17 @@
       <c r="F616" s="43"/>
       <c r="G616" s="19"/>
       <c r="H616" s="9"/>
-      <c r="I616" s="45"/>
-      <c r="J616" s="45" t="s">
+      <c r="I616" s="44"/>
+      <c r="J616" s="44" t="s">
         <v>2047</v>
       </c>
-      <c r="K616" s="45"/>
-      <c r="L616" s="45"/>
-      <c r="M616" s="45"/>
-      <c r="N616" s="45"/>
-      <c r="O616" s="45"/>
-      <c r="P616" s="45"/>
-      <c r="Q616" s="45"/>
+      <c r="K616" s="44"/>
+      <c r="L616" s="44"/>
+      <c r="M616" s="44"/>
+      <c r="N616" s="44"/>
+      <c r="O616" s="44"/>
+      <c r="P616" s="44"/>
+      <c r="Q616" s="44"/>
     </row>
     <row r="617" spans="1:17">
       <c r="A617" s="9" t="s">
@@ -31768,7 +31756,7 @@
       </c>
       <c r="C617" s="9"/>
       <c r="D617" s="9"/>
-      <c r="E617" s="53"/>
+      <c r="E617" s="11"/>
       <c r="F617" s="9"/>
       <c r="G617" s="19"/>
       <c r="H617" s="9"/>
@@ -31791,7 +31779,7 @@
       </c>
       <c r="C618" s="9"/>
       <c r="D618" s="9"/>
-      <c r="E618" s="53"/>
+      <c r="E618" s="11"/>
       <c r="F618" s="9"/>
       <c r="G618" s="19"/>
       <c r="H618" s="9"/>
@@ -31814,7 +31802,7 @@
       </c>
       <c r="C619" s="9"/>
       <c r="D619" s="9"/>
-      <c r="E619" s="53"/>
+      <c r="E619" s="11"/>
       <c r="F619" s="9"/>
       <c r="G619" s="19"/>
       <c r="H619" s="9"/>
@@ -31839,7 +31827,7 @@
         <v>2056</v>
       </c>
       <c r="D620" s="9"/>
-      <c r="E620" s="53"/>
+      <c r="E620" s="11"/>
       <c r="F620" s="9"/>
       <c r="G620" s="9"/>
       <c r="H620" s="9"/>
@@ -31866,7 +31854,7 @@
         <v>2059</v>
       </c>
       <c r="D621" s="9"/>
-      <c r="E621" s="53"/>
+      <c r="E621" s="11"/>
       <c r="F621" s="9"/>
       <c r="G621" s="9"/>
       <c r="H621" s="9"/>
@@ -31893,7 +31881,7 @@
         <v>2062</v>
       </c>
       <c r="D622" s="9"/>
-      <c r="E622" s="53"/>
+      <c r="E622" s="11"/>
       <c r="F622" s="9"/>
       <c r="G622" s="9"/>
       <c r="H622" s="9"/>
@@ -31920,7 +31908,7 @@
         <v>2065</v>
       </c>
       <c r="D623" s="9"/>
-      <c r="E623" s="53"/>
+      <c r="E623" s="11"/>
       <c r="F623" s="9"/>
       <c r="G623" s="9"/>
       <c r="H623" s="9"/>
@@ -31945,7 +31933,7 @@
       </c>
       <c r="C624" s="9"/>
       <c r="D624" s="9"/>
-      <c r="E624" s="53"/>
+      <c r="E624" s="11"/>
       <c r="F624" s="9"/>
       <c r="G624" s="9"/>
       <c r="H624" s="9"/>
@@ -31962,31 +31950,31 @@
       <c r="Q624" s="11"/>
     </row>
     <row r="625" spans="1:17">
-      <c r="A625" s="56" t="s">
+      <c r="A625" s="51" t="s">
         <v>2068</v>
       </c>
-      <c r="B625" s="56" t="s">
+      <c r="B625" s="51" t="s">
         <v>2069</v>
       </c>
-      <c r="C625" s="56" t="s">
+      <c r="C625" s="51" t="s">
         <v>2070</v>
       </c>
-      <c r="D625" s="56"/>
-      <c r="E625" s="56"/>
-      <c r="F625" s="56"/>
-      <c r="G625" s="56"/>
-      <c r="H625" s="56"/>
-      <c r="I625" s="56" t="s">
+      <c r="D625" s="51"/>
+      <c r="E625" s="51"/>
+      <c r="F625" s="51"/>
+      <c r="G625" s="51"/>
+      <c r="H625" s="51"/>
+      <c r="I625" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J625" s="58"/>
-      <c r="K625" s="58"/>
-      <c r="L625" s="58"/>
-      <c r="M625" s="58"/>
-      <c r="N625" s="58"/>
-      <c r="O625" s="58"/>
-      <c r="P625" s="58"/>
-      <c r="Q625" s="58"/>
+      <c r="J625" s="52"/>
+      <c r="K625" s="52"/>
+      <c r="L625" s="52"/>
+      <c r="M625" s="52"/>
+      <c r="N625" s="52"/>
+      <c r="O625" s="52"/>
+      <c r="P625" s="52"/>
+      <c r="Q625" s="52"/>
     </row>
     <row r="626" spans="1:17">
       <c r="A626" s="9" t="s">
@@ -31999,7 +31987,7 @@
         <v>2073</v>
       </c>
       <c r="D626" s="9"/>
-      <c r="E626" s="53"/>
+      <c r="E626" s="11"/>
       <c r="F626" s="9"/>
       <c r="G626" s="9"/>
       <c r="H626" s="9"/>
@@ -32026,7 +32014,7 @@
         <v>2076</v>
       </c>
       <c r="D627" s="9"/>
-      <c r="E627" s="53"/>
+      <c r="E627" s="11"/>
       <c r="F627" s="9"/>
       <c r="G627" s="9"/>
       <c r="H627" s="9"/>
@@ -32053,7 +32041,7 @@
         <v>2079</v>
       </c>
       <c r="D628" s="9"/>
-      <c r="E628" s="53"/>
+      <c r="E628" s="11"/>
       <c r="F628" s="9"/>
       <c r="G628" s="9"/>
       <c r="H628" s="9"/>
@@ -32080,7 +32068,7 @@
         <v>2082</v>
       </c>
       <c r="D629" s="9"/>
-      <c r="E629" s="53"/>
+      <c r="E629" s="11"/>
       <c r="F629" s="9"/>
       <c r="G629" s="9"/>
       <c r="H629" s="9"/>
@@ -32107,7 +32095,7 @@
         <v>2085</v>
       </c>
       <c r="D630" s="9"/>
-      <c r="E630" s="53"/>
+      <c r="E630" s="11"/>
       <c r="F630" s="9"/>
       <c r="G630" s="9"/>
       <c r="H630" s="9"/>
@@ -32134,7 +32122,7 @@
         <v>2088</v>
       </c>
       <c r="D631" s="9"/>
-      <c r="E631" s="53"/>
+      <c r="E631" s="11"/>
       <c r="F631" s="9"/>
       <c r="G631" s="9"/>
       <c r="H631" s="9"/>
@@ -32161,7 +32149,7 @@
         <v>2091</v>
       </c>
       <c r="D632" s="9"/>
-      <c r="E632" s="53"/>
+      <c r="E632" s="11"/>
       <c r="F632" s="9"/>
       <c r="G632" s="9"/>
       <c r="H632" s="9"/>
@@ -32188,7 +32176,7 @@
         <v>2094</v>
       </c>
       <c r="D633" s="9"/>
-      <c r="E633" s="53"/>
+      <c r="E633" s="11"/>
       <c r="F633" s="9"/>
       <c r="G633" s="9"/>
       <c r="H633" s="9"/>
@@ -32213,7 +32201,7 @@
       </c>
       <c r="C634" s="9"/>
       <c r="D634" s="9"/>
-      <c r="E634" s="53"/>
+      <c r="E634" s="11"/>
       <c r="F634" s="9"/>
       <c r="G634" s="9"/>
       <c r="H634" s="9"/>
@@ -32236,7 +32224,7 @@
       </c>
       <c r="C635" s="9"/>
       <c r="D635" s="9"/>
-      <c r="E635" s="53"/>
+      <c r="E635" s="11"/>
       <c r="F635" s="9"/>
       <c r="G635" s="9"/>
       <c r="H635" s="9"/>
@@ -32259,7 +32247,7 @@
       </c>
       <c r="C636" s="9"/>
       <c r="D636" s="9"/>
-      <c r="E636" s="53"/>
+      <c r="E636" s="11"/>
       <c r="F636" s="9"/>
       <c r="G636" s="9"/>
       <c r="H636" s="9"/>
@@ -32284,7 +32272,7 @@
         <v>1139</v>
       </c>
       <c r="D637" s="9"/>
-      <c r="E637" s="53"/>
+      <c r="E637" s="11"/>
       <c r="F637" s="9"/>
       <c r="G637" s="9"/>
       <c r="H637" s="9"/>
@@ -32311,7 +32299,7 @@
         <v>2105</v>
       </c>
       <c r="D638" s="9"/>
-      <c r="E638" s="53"/>
+      <c r="E638" s="11"/>
       <c r="F638" s="9"/>
       <c r="G638" s="9"/>
       <c r="H638" s="9"/>
@@ -32338,7 +32326,7 @@
         <v>2108</v>
       </c>
       <c r="D639" s="9"/>
-      <c r="E639" s="53"/>
+      <c r="E639" s="11"/>
       <c r="F639" s="9"/>
       <c r="G639" s="9"/>
       <c r="H639" s="9"/>
@@ -32365,7 +32353,7 @@
         <v>2111</v>
       </c>
       <c r="D640" s="9"/>
-      <c r="E640" s="53"/>
+      <c r="E640" s="11"/>
       <c r="F640" s="9"/>
       <c r="G640" s="9"/>
       <c r="H640" s="9"/>
@@ -32392,7 +32380,7 @@
         <v>2114</v>
       </c>
       <c r="D641" s="9"/>
-      <c r="E641" s="53"/>
+      <c r="E641" s="11"/>
       <c r="F641" s="9"/>
       <c r="G641" s="9"/>
       <c r="H641" s="9"/>
@@ -32419,7 +32407,7 @@
         <v>2117</v>
       </c>
       <c r="D642" s="9"/>
-      <c r="E642" s="53"/>
+      <c r="E642" s="11"/>
       <c r="F642" s="9"/>
       <c r="G642" s="9"/>
       <c r="H642" s="9"/>
@@ -32446,7 +32434,7 @@
         <v>2120</v>
       </c>
       <c r="D643" s="9"/>
-      <c r="E643" s="53"/>
+      <c r="E643" s="11"/>
       <c r="F643" s="9"/>
       <c r="G643" s="9"/>
       <c r="H643" s="9"/>
@@ -32473,7 +32461,7 @@
         <v>2123</v>
       </c>
       <c r="D644" s="9"/>
-      <c r="E644" s="53"/>
+      <c r="E644" s="11"/>
       <c r="F644" s="9"/>
       <c r="G644" s="9"/>
       <c r="H644" s="9"/>
@@ -32500,7 +32488,7 @@
         <v>2126</v>
       </c>
       <c r="D645" s="9"/>
-      <c r="E645" s="53"/>
+      <c r="E645" s="11"/>
       <c r="F645" s="9"/>
       <c r="G645" s="9"/>
       <c r="H645" s="9"/>
@@ -32527,7 +32515,7 @@
         <v>2129</v>
       </c>
       <c r="D646" s="9"/>
-      <c r="E646" s="53"/>
+      <c r="E646" s="11"/>
       <c r="F646" s="9"/>
       <c r="G646" s="9"/>
       <c r="H646" s="9"/>
@@ -32554,7 +32542,7 @@
         <v>2132</v>
       </c>
       <c r="D647" s="9"/>
-      <c r="E647" s="53"/>
+      <c r="E647" s="11"/>
       <c r="F647" s="9"/>
       <c r="G647" s="9"/>
       <c r="H647" s="9"/>
@@ -32581,7 +32569,7 @@
         <v>2135</v>
       </c>
       <c r="D648" s="9"/>
-      <c r="E648" s="53"/>
+      <c r="E648" s="11"/>
       <c r="F648" s="9"/>
       <c r="G648" s="9"/>
       <c r="H648" s="9"/>
@@ -32608,7 +32596,7 @@
         <v>2138</v>
       </c>
       <c r="D649" s="9"/>
-      <c r="E649" s="53"/>
+      <c r="E649" s="11"/>
       <c r="F649" s="9"/>
       <c r="G649" s="9"/>
       <c r="H649" s="9"/>
@@ -32635,7 +32623,7 @@
         <v>2141</v>
       </c>
       <c r="D650" s="9"/>
-      <c r="E650" s="53"/>
+      <c r="E650" s="11"/>
       <c r="F650" s="9"/>
       <c r="G650" s="9"/>
       <c r="H650" s="9"/>
@@ -32662,7 +32650,7 @@
         <v>2144</v>
       </c>
       <c r="D651" s="9"/>
-      <c r="E651" s="53"/>
+      <c r="E651" s="11"/>
       <c r="F651" s="9"/>
       <c r="G651" s="9"/>
       <c r="H651" s="9"/>
@@ -32689,7 +32677,7 @@
         <v>908</v>
       </c>
       <c r="D652" s="9"/>
-      <c r="E652" s="53"/>
+      <c r="E652" s="11"/>
       <c r="F652" s="9"/>
       <c r="G652" s="9"/>
       <c r="H652" s="9"/>
@@ -32716,7 +32704,7 @@
         <v>2148</v>
       </c>
       <c r="D653" s="9"/>
-      <c r="E653" s="53"/>
+      <c r="E653" s="11"/>
       <c r="F653" s="9"/>
       <c r="G653" s="9"/>
       <c r="H653" s="9"/>
@@ -32743,7 +32731,7 @@
         <v>2151</v>
       </c>
       <c r="D654" s="9"/>
-      <c r="E654" s="53"/>
+      <c r="E654" s="11"/>
       <c r="F654" s="9"/>
       <c r="G654" s="9"/>
       <c r="H654" s="9"/>
@@ -32770,7 +32758,7 @@
         <v>2154</v>
       </c>
       <c r="D655" s="9"/>
-      <c r="E655" s="53"/>
+      <c r="E655" s="11"/>
       <c r="F655" s="9"/>
       <c r="G655" s="9"/>
       <c r="H655" s="9"/>
@@ -32797,7 +32785,7 @@
         <v>2157</v>
       </c>
       <c r="D656" s="9"/>
-      <c r="E656" s="53"/>
+      <c r="E656" s="11"/>
       <c r="F656" s="9"/>
       <c r="G656" s="9"/>
       <c r="H656" s="9"/>
@@ -32824,7 +32812,7 @@
         <v>2160</v>
       </c>
       <c r="D657" s="9"/>
-      <c r="E657" s="53"/>
+      <c r="E657" s="11"/>
       <c r="F657" s="9"/>
       <c r="G657" s="9"/>
       <c r="H657" s="9"/>
@@ -32851,7 +32839,7 @@
         <v>2163</v>
       </c>
       <c r="D658" s="9"/>
-      <c r="E658" s="53"/>
+      <c r="E658" s="11"/>
       <c r="F658" s="9"/>
       <c r="G658" s="9"/>
       <c r="H658" s="9"/>
@@ -32878,7 +32866,7 @@
         <v>2166</v>
       </c>
       <c r="D659" s="9"/>
-      <c r="E659" s="53"/>
+      <c r="E659" s="11"/>
       <c r="F659" s="9"/>
       <c r="G659" s="9"/>
       <c r="H659" s="9"/>
@@ -32905,7 +32893,7 @@
         <v>2169</v>
       </c>
       <c r="D660" s="9"/>
-      <c r="E660" s="53"/>
+      <c r="E660" s="11"/>
       <c r="F660" s="9"/>
       <c r="G660" s="9"/>
       <c r="H660" s="9"/>
@@ -32932,7 +32920,7 @@
         <v>2172</v>
       </c>
       <c r="D661" s="9"/>
-      <c r="E661" s="53"/>
+      <c r="E661" s="11"/>
       <c r="F661" s="9"/>
       <c r="G661" s="9"/>
       <c r="H661" s="9"/>
@@ -32959,7 +32947,7 @@
         <v>2175</v>
       </c>
       <c r="D662" s="9"/>
-      <c r="E662" s="53"/>
+      <c r="E662" s="11"/>
       <c r="F662" s="9"/>
       <c r="G662" s="9"/>
       <c r="H662" s="9"/>
@@ -32984,7 +32972,7 @@
       </c>
       <c r="C663" s="9"/>
       <c r="D663" s="9"/>
-      <c r="E663" s="53"/>
+      <c r="E663" s="11"/>
       <c r="F663" s="9"/>
       <c r="G663" s="9"/>
       <c r="H663" s="9"/>
@@ -33009,7 +32997,7 @@
         <v>2180</v>
       </c>
       <c r="D664" s="9"/>
-      <c r="E664" s="53"/>
+      <c r="E664" s="11"/>
       <c r="F664" s="9"/>
       <c r="G664" s="9"/>
       <c r="H664" s="9"/>
@@ -33034,7 +33022,7 @@
       </c>
       <c r="C665" s="9"/>
       <c r="D665" s="9"/>
-      <c r="E665" s="53"/>
+      <c r="E665" s="11"/>
       <c r="F665" s="9"/>
       <c r="G665" s="9"/>
       <c r="H665" s="9"/>
@@ -33061,7 +33049,7 @@
         <v>2185</v>
       </c>
       <c r="D666" s="9"/>
-      <c r="E666" s="53"/>
+      <c r="E666" s="11"/>
       <c r="F666" s="9"/>
       <c r="G666" s="9"/>
       <c r="H666" s="9"/>
@@ -33088,7 +33076,7 @@
         <v>2188</v>
       </c>
       <c r="D667" s="9"/>
-      <c r="E667" s="53"/>
+      <c r="E667" s="11"/>
       <c r="F667" s="9"/>
       <c r="G667" s="9"/>
       <c r="H667" s="9"/>
@@ -33115,7 +33103,7 @@
         <v>2191</v>
       </c>
       <c r="D668" s="9"/>
-      <c r="E668" s="53"/>
+      <c r="E668" s="11"/>
       <c r="F668" s="9"/>
       <c r="G668" s="9"/>
       <c r="H668" s="9"/>
@@ -33142,7 +33130,7 @@
         <v>2194</v>
       </c>
       <c r="D669" s="9"/>
-      <c r="E669" s="53"/>
+      <c r="E669" s="11"/>
       <c r="F669" s="9"/>
       <c r="G669" s="9"/>
       <c r="H669" s="9"/>
@@ -33169,7 +33157,7 @@
         <v>2197</v>
       </c>
       <c r="D670" s="9"/>
-      <c r="E670" s="53"/>
+      <c r="E670" s="11"/>
       <c r="F670" s="9"/>
       <c r="G670" s="9"/>
       <c r="H670" s="9"/>
@@ -33194,7 +33182,7 @@
       </c>
       <c r="C671" s="9"/>
       <c r="D671" s="9"/>
-      <c r="E671" s="53"/>
+      <c r="E671" s="11"/>
       <c r="F671" s="9"/>
       <c r="G671" s="9"/>
       <c r="H671" s="9"/>
@@ -33219,11 +33207,11 @@
         <v>2202</v>
       </c>
       <c r="D672" s="9"/>
-      <c r="E672" s="53"/>
+      <c r="E672" s="11"/>
       <c r="F672" s="9"/>
       <c r="G672" s="9"/>
       <c r="H672" s="9"/>
-      <c r="I672" s="58" t="s">
+      <c r="I672" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J672" s="11"/>
@@ -33246,11 +33234,11 @@
         <v>2205</v>
       </c>
       <c r="D673" s="9"/>
-      <c r="E673" s="53"/>
+      <c r="E673" s="11"/>
       <c r="F673" s="9"/>
       <c r="G673" s="9"/>
       <c r="H673" s="9"/>
-      <c r="I673" s="58" t="s">
+      <c r="I673" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J673" s="11"/>
@@ -33273,11 +33261,11 @@
         <v>2208</v>
       </c>
       <c r="D674" s="9"/>
-      <c r="E674" s="53"/>
+      <c r="E674" s="11"/>
       <c r="F674" s="9"/>
       <c r="G674" s="9"/>
       <c r="H674" s="9"/>
-      <c r="I674" s="58" t="s">
+      <c r="I674" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J674" s="11"/>
@@ -33300,11 +33288,11 @@
         <v>2211</v>
       </c>
       <c r="D675" s="9"/>
-      <c r="E675" s="53"/>
+      <c r="E675" s="11"/>
       <c r="F675" s="9"/>
       <c r="G675" s="9"/>
       <c r="H675" s="9"/>
-      <c r="I675" s="58" t="s">
+      <c r="I675" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J675" s="11"/>
@@ -33327,11 +33315,11 @@
         <v>2214</v>
       </c>
       <c r="D676" s="9"/>
-      <c r="E676" s="53"/>
+      <c r="E676" s="11"/>
       <c r="F676" s="9"/>
       <c r="G676" s="9"/>
       <c r="H676" s="9"/>
-      <c r="I676" s="58" t="s">
+      <c r="I676" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J676" s="11"/>
@@ -33354,11 +33342,11 @@
         <v>2217</v>
       </c>
       <c r="D677" s="9"/>
-      <c r="E677" s="53"/>
+      <c r="E677" s="11"/>
       <c r="F677" s="9"/>
       <c r="G677" s="9"/>
       <c r="H677" s="9"/>
-      <c r="I677" s="58" t="s">
+      <c r="I677" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J677" s="11"/>
@@ -33381,11 +33369,11 @@
         <v>2220</v>
       </c>
       <c r="D678" s="9"/>
-      <c r="E678" s="53"/>
+      <c r="E678" s="11"/>
       <c r="F678" s="9"/>
       <c r="G678" s="9"/>
       <c r="H678" s="9"/>
-      <c r="I678" s="58" t="s">
+      <c r="I678" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J678" s="11"/>
@@ -33408,11 +33396,11 @@
         <v>2223</v>
       </c>
       <c r="D679" s="9"/>
-      <c r="E679" s="53"/>
+      <c r="E679" s="11"/>
       <c r="F679" s="9"/>
       <c r="G679" s="9"/>
       <c r="H679" s="9"/>
-      <c r="I679" s="58" t="s">
+      <c r="I679" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J679" s="11"/>
@@ -33435,11 +33423,11 @@
         <v>2226</v>
       </c>
       <c r="D680" s="9"/>
-      <c r="E680" s="53"/>
+      <c r="E680" s="11"/>
       <c r="F680" s="9"/>
       <c r="G680" s="9"/>
       <c r="H680" s="9"/>
-      <c r="I680" s="58" t="s">
+      <c r="I680" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J680" s="11"/>
@@ -33460,7 +33448,7 @@
       </c>
       <c r="C681" s="9"/>
       <c r="D681" s="9"/>
-      <c r="E681" s="53"/>
+      <c r="E681" s="11"/>
       <c r="F681" s="9"/>
       <c r="G681" s="9"/>
       <c r="H681" s="9"/>
@@ -33485,11 +33473,11 @@
         <v>2231</v>
       </c>
       <c r="D682" s="9"/>
-      <c r="E682" s="53"/>
+      <c r="E682" s="11"/>
       <c r="F682" s="9"/>
       <c r="G682" s="9"/>
       <c r="H682" s="9"/>
-      <c r="I682" s="58" t="s">
+      <c r="I682" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J682" s="11"/>
@@ -33512,11 +33500,11 @@
         <v>2234</v>
       </c>
       <c r="D683" s="9"/>
-      <c r="E683" s="53"/>
+      <c r="E683" s="11"/>
       <c r="F683" s="9"/>
       <c r="G683" s="9"/>
       <c r="H683" s="9"/>
-      <c r="I683" s="58" t="s">
+      <c r="I683" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J683" s="11"/>
@@ -33537,7 +33525,7 @@
       </c>
       <c r="C684" s="9"/>
       <c r="D684" s="9"/>
-      <c r="E684" s="53"/>
+      <c r="E684" s="11"/>
       <c r="F684" s="9"/>
       <c r="G684" s="9"/>
       <c r="H684" s="9"/>
@@ -33564,7 +33552,7 @@
       <c r="D685" s="9" t="s">
         <v>2240</v>
       </c>
-      <c r="E685" s="53"/>
+      <c r="E685" s="11"/>
       <c r="F685" s="9"/>
       <c r="G685" s="9"/>
       <c r="H685" s="9"/>
@@ -33589,11 +33577,11 @@
         <v>2243</v>
       </c>
       <c r="D686" s="9"/>
-      <c r="E686" s="53"/>
+      <c r="E686" s="11"/>
       <c r="F686" s="9"/>
       <c r="G686" s="9"/>
       <c r="H686" s="9"/>
-      <c r="I686" s="58" t="s">
+      <c r="I686" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J686" s="11"/>
@@ -33616,7 +33604,7 @@
         <v>2246</v>
       </c>
       <c r="D687" s="9"/>
-      <c r="E687" s="53"/>
+      <c r="E687" s="11"/>
       <c r="F687" s="9"/>
       <c r="G687" s="9"/>
       <c r="H687" s="9"/>
@@ -33641,11 +33629,11 @@
         <v>2249</v>
       </c>
       <c r="D688" s="9"/>
-      <c r="E688" s="53"/>
+      <c r="E688" s="11"/>
       <c r="F688" s="9"/>
       <c r="G688" s="9"/>
       <c r="H688" s="9"/>
-      <c r="I688" s="58" t="s">
+      <c r="I688" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J688" s="11"/>
@@ -33668,11 +33656,11 @@
         <v>2252</v>
       </c>
       <c r="D689" s="9"/>
-      <c r="E689" s="53"/>
+      <c r="E689" s="11"/>
       <c r="F689" s="9"/>
       <c r="G689" s="9"/>
       <c r="H689" s="9"/>
-      <c r="I689" s="58" t="s">
+      <c r="I689" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J689" s="11"/>
@@ -33695,11 +33683,11 @@
         <v>2255</v>
       </c>
       <c r="D690" s="9"/>
-      <c r="E690" s="53"/>
+      <c r="E690" s="11"/>
       <c r="F690" s="9"/>
       <c r="G690" s="9"/>
       <c r="H690" s="9"/>
-      <c r="I690" s="58" t="s">
+      <c r="I690" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J690" s="11"/>
@@ -33722,11 +33710,11 @@
         <v>2258</v>
       </c>
       <c r="D691" s="9"/>
-      <c r="E691" s="53"/>
+      <c r="E691" s="11"/>
       <c r="F691" s="9"/>
       <c r="G691" s="9"/>
       <c r="H691" s="9"/>
-      <c r="I691" s="58" t="s">
+      <c r="I691" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J691" s="11"/>
@@ -33749,7 +33737,7 @@
         <v>2261</v>
       </c>
       <c r="D692" s="9"/>
-      <c r="E692" s="53"/>
+      <c r="E692" s="11"/>
       <c r="F692" s="9"/>
       <c r="G692" s="9"/>
       <c r="H692" s="9"/>
@@ -33776,7 +33764,7 @@
         <v>2264</v>
       </c>
       <c r="D693" s="9"/>
-      <c r="E693" s="53"/>
+      <c r="E693" s="11"/>
       <c r="F693" s="9"/>
       <c r="G693" s="9"/>
       <c r="H693" s="9"/>
@@ -33803,7 +33791,7 @@
         <v>2267</v>
       </c>
       <c r="D694" s="9"/>
-      <c r="E694" s="53"/>
+      <c r="E694" s="11"/>
       <c r="F694" s="9"/>
       <c r="G694" s="9"/>
       <c r="H694" s="9"/>
@@ -33830,7 +33818,7 @@
         <v>2270</v>
       </c>
       <c r="D695" s="9"/>
-      <c r="E695" s="53"/>
+      <c r="E695" s="11"/>
       <c r="F695" s="9"/>
       <c r="G695" s="9"/>
       <c r="H695" s="9"/>
@@ -33857,7 +33845,7 @@
         <v>2273</v>
       </c>
       <c r="D696" s="9"/>
-      <c r="E696" s="53"/>
+      <c r="E696" s="11"/>
       <c r="F696" s="9"/>
       <c r="G696" s="9"/>
       <c r="H696" s="9"/>
@@ -33884,7 +33872,7 @@
         <v>2276</v>
       </c>
       <c r="D697" s="9"/>
-      <c r="E697" s="53"/>
+      <c r="E697" s="11"/>
       <c r="F697" s="9"/>
       <c r="G697" s="9"/>
       <c r="H697" s="9"/>
@@ -33909,7 +33897,7 @@
       </c>
       <c r="C698" s="9"/>
       <c r="D698" s="9"/>
-      <c r="E698" s="53"/>
+      <c r="E698" s="11"/>
       <c r="F698" s="9"/>
       <c r="G698" s="9"/>
       <c r="H698" s="9"/>
@@ -33934,7 +33922,7 @@
         <v>2281</v>
       </c>
       <c r="D699" s="9"/>
-      <c r="E699" s="53"/>
+      <c r="E699" s="11"/>
       <c r="F699" s="9"/>
       <c r="G699" s="9"/>
       <c r="H699" s="9"/>
@@ -33961,7 +33949,7 @@
         <v>2284</v>
       </c>
       <c r="D700" s="9"/>
-      <c r="E700" s="53"/>
+      <c r="E700" s="11"/>
       <c r="F700" s="9"/>
       <c r="G700" s="9"/>
       <c r="H700" s="9"/>
@@ -33986,7 +33974,7 @@
       </c>
       <c r="C701" s="9"/>
       <c r="D701" s="9"/>
-      <c r="E701" s="53"/>
+      <c r="E701" s="11"/>
       <c r="F701" s="9"/>
       <c r="G701" s="9"/>
       <c r="H701" s="9"/>
@@ -34011,7 +33999,7 @@
         <v>2289</v>
       </c>
       <c r="D702" s="9"/>
-      <c r="E702" s="53"/>
+      <c r="E702" s="11"/>
       <c r="F702" s="9"/>
       <c r="G702" s="9"/>
       <c r="H702" s="9"/>
@@ -34038,7 +34026,7 @@
         <v>2292</v>
       </c>
       <c r="D703" s="9"/>
-      <c r="E703" s="53"/>
+      <c r="E703" s="11"/>
       <c r="F703" s="9"/>
       <c r="G703" s="9"/>
       <c r="H703" s="9"/>
@@ -34065,7 +34053,7 @@
         <v>2295</v>
       </c>
       <c r="D704" s="9"/>
-      <c r="E704" s="53"/>
+      <c r="E704" s="11"/>
       <c r="F704" s="9"/>
       <c r="G704" s="9"/>
       <c r="H704" s="9"/>
@@ -34092,7 +34080,7 @@
         <v>2298</v>
       </c>
       <c r="D705" s="9"/>
-      <c r="E705" s="53"/>
+      <c r="E705" s="11"/>
       <c r="F705" s="9"/>
       <c r="G705" s="9"/>
       <c r="H705" s="9"/>
@@ -34119,7 +34107,7 @@
         <v>2301</v>
       </c>
       <c r="D706" s="9"/>
-      <c r="E706" s="53"/>
+      <c r="E706" s="11"/>
       <c r="F706" s="9"/>
       <c r="G706" s="9"/>
       <c r="H706" s="9"/>
@@ -34144,7 +34132,7 @@
       </c>
       <c r="C707" s="9"/>
       <c r="D707" s="9"/>
-      <c r="E707" s="53"/>
+      <c r="E707" s="11"/>
       <c r="F707" s="9"/>
       <c r="G707" s="9"/>
       <c r="H707" s="9"/>
@@ -34169,7 +34157,7 @@
       </c>
       <c r="C708" s="9"/>
       <c r="D708" s="9"/>
-      <c r="E708" s="53"/>
+      <c r="E708" s="11"/>
       <c r="F708" s="9"/>
       <c r="G708" s="9"/>
       <c r="H708" s="9"/>
@@ -34194,7 +34182,7 @@
         <v>2308</v>
       </c>
       <c r="D709" s="9"/>
-      <c r="E709" s="53"/>
+      <c r="E709" s="11"/>
       <c r="F709" s="9"/>
       <c r="G709" s="9"/>
       <c r="H709" s="9"/>
@@ -34221,7 +34209,7 @@
         <v>2311</v>
       </c>
       <c r="D710" s="9"/>
-      <c r="E710" s="53"/>
+      <c r="E710" s="11"/>
       <c r="F710" s="9"/>
       <c r="G710" s="9"/>
       <c r="H710" s="9"/>
@@ -34248,7 +34236,7 @@
         <v>2314</v>
       </c>
       <c r="D711" s="9"/>
-      <c r="E711" s="53"/>
+      <c r="E711" s="11"/>
       <c r="F711" s="9"/>
       <c r="G711" s="9"/>
       <c r="H711" s="9"/>
@@ -34275,7 +34263,7 @@
         <v>2317</v>
       </c>
       <c r="D712" s="9"/>
-      <c r="E712" s="53"/>
+      <c r="E712" s="11"/>
       <c r="F712" s="9"/>
       <c r="G712" s="9"/>
       <c r="H712" s="9"/>
@@ -34302,7 +34290,7 @@
         <v>1211</v>
       </c>
       <c r="D713" s="9"/>
-      <c r="E713" s="53"/>
+      <c r="E713" s="11"/>
       <c r="F713" s="9"/>
       <c r="G713" s="9"/>
       <c r="H713" s="9"/>
@@ -34327,7 +34315,7 @@
       </c>
       <c r="C714" s="9"/>
       <c r="D714" s="9"/>
-      <c r="E714" s="53"/>
+      <c r="E714" s="11"/>
       <c r="F714" s="9"/>
       <c r="G714" s="9"/>
       <c r="H714" s="9"/>
@@ -34350,7 +34338,7 @@
       </c>
       <c r="C715" s="9"/>
       <c r="D715" s="9"/>
-      <c r="E715" s="53"/>
+      <c r="E715" s="11"/>
       <c r="F715" s="9"/>
       <c r="G715" s="9"/>
       <c r="H715" s="9"/>
@@ -34373,7 +34361,7 @@
       </c>
       <c r="C716" s="9"/>
       <c r="D716" s="9"/>
-      <c r="E716" s="53"/>
+      <c r="E716" s="11"/>
       <c r="F716" s="9"/>
       <c r="G716" s="9"/>
       <c r="H716" s="9"/>
@@ -34396,7 +34384,7 @@
       </c>
       <c r="C717" s="9"/>
       <c r="D717" s="9"/>
-      <c r="E717" s="53"/>
+      <c r="E717" s="11"/>
       <c r="F717" s="9"/>
       <c r="G717" s="9"/>
       <c r="H717" s="9"/>
@@ -34419,7 +34407,7 @@
       </c>
       <c r="C718" s="9"/>
       <c r="D718" s="9"/>
-      <c r="E718" s="53"/>
+      <c r="E718" s="11"/>
       <c r="F718" s="9"/>
       <c r="G718" s="9"/>
       <c r="H718" s="9"/>
@@ -34442,7 +34430,7 @@
       </c>
       <c r="C719" s="9"/>
       <c r="D719" s="9"/>
-      <c r="E719" s="53"/>
+      <c r="E719" s="11"/>
       <c r="F719" s="9"/>
       <c r="G719" s="9"/>
       <c r="H719" s="9"/>
@@ -34465,7 +34453,7 @@
       </c>
       <c r="C720" s="9"/>
       <c r="D720" s="9"/>
-      <c r="E720" s="53"/>
+      <c r="E720" s="11"/>
       <c r="F720" s="9"/>
       <c r="G720" s="9"/>
       <c r="H720" s="9"/>
@@ -34488,7 +34476,7 @@
       </c>
       <c r="C721" s="9"/>
       <c r="D721" s="9"/>
-      <c r="E721" s="53"/>
+      <c r="E721" s="11"/>
       <c r="F721" s="9"/>
       <c r="G721" s="9"/>
       <c r="H721" s="9"/>
@@ -34511,7 +34499,7 @@
       </c>
       <c r="C722" s="9"/>
       <c r="D722" s="9"/>
-      <c r="E722" s="53"/>
+      <c r="E722" s="11"/>
       <c r="F722" s="9"/>
       <c r="G722" s="9"/>
       <c r="H722" s="9"/>
@@ -34534,7 +34522,7 @@
       </c>
       <c r="C723" s="9"/>
       <c r="D723" s="9"/>
-      <c r="E723" s="53"/>
+      <c r="E723" s="11"/>
       <c r="F723" s="9"/>
       <c r="G723" s="9"/>
       <c r="H723" s="9"/>
@@ -34557,7 +34545,7 @@
       </c>
       <c r="C724" s="9"/>
       <c r="D724" s="9"/>
-      <c r="E724" s="53"/>
+      <c r="E724" s="11"/>
       <c r="F724" s="9"/>
       <c r="G724" s="9"/>
       <c r="H724" s="9"/>
@@ -34580,7 +34568,7 @@
       </c>
       <c r="C725" s="9"/>
       <c r="D725" s="9"/>
-      <c r="E725" s="53"/>
+      <c r="E725" s="11"/>
       <c r="F725" s="9"/>
       <c r="G725" s="9"/>
       <c r="H725" s="9"/>
@@ -34603,7 +34591,7 @@
       </c>
       <c r="C726" s="9"/>
       <c r="D726" s="9"/>
-      <c r="E726" s="53"/>
+      <c r="E726" s="11"/>
       <c r="F726" s="9"/>
       <c r="G726" s="9"/>
       <c r="H726" s="9"/>
@@ -34628,7 +34616,7 @@
         <v>2348</v>
       </c>
       <c r="D727" s="9"/>
-      <c r="E727" s="53"/>
+      <c r="E727" s="11"/>
       <c r="F727" s="9"/>
       <c r="G727" s="9"/>
       <c r="H727" s="9"/>
@@ -34655,7 +34643,7 @@
         <v>2351</v>
       </c>
       <c r="D728" s="9"/>
-      <c r="E728" s="53"/>
+      <c r="E728" s="11"/>
       <c r="F728" s="9"/>
       <c r="G728" s="9"/>
       <c r="H728" s="9"/>
@@ -34682,7 +34670,7 @@
         <v>2354</v>
       </c>
       <c r="D729" s="9"/>
-      <c r="E729" s="53"/>
+      <c r="E729" s="11"/>
       <c r="F729" s="9"/>
       <c r="G729" s="9"/>
       <c r="H729" s="9"/>
@@ -34709,7 +34697,7 @@
         <v>2357</v>
       </c>
       <c r="D730" s="9"/>
-      <c r="E730" s="53"/>
+      <c r="E730" s="11"/>
       <c r="F730" s="9"/>
       <c r="G730" s="9"/>
       <c r="H730" s="9"/>
@@ -34736,7 +34724,7 @@
         <v>2360</v>
       </c>
       <c r="D731" s="9"/>
-      <c r="E731" s="53"/>
+      <c r="E731" s="11"/>
       <c r="F731" s="9"/>
       <c r="G731" s="9"/>
       <c r="H731" s="9"/>
@@ -34763,7 +34751,7 @@
         <v>2363</v>
       </c>
       <c r="D732" s="9"/>
-      <c r="E732" s="53"/>
+      <c r="E732" s="11"/>
       <c r="F732" s="9"/>
       <c r="G732" s="9"/>
       <c r="H732" s="9"/>
@@ -34790,7 +34778,7 @@
         <v>2366</v>
       </c>
       <c r="D733" s="9"/>
-      <c r="E733" s="53"/>
+      <c r="E733" s="11"/>
       <c r="F733" s="9"/>
       <c r="G733" s="9"/>
       <c r="H733" s="9"/>
@@ -34817,7 +34805,7 @@
         <v>2369</v>
       </c>
       <c r="D734" s="9"/>
-      <c r="E734" s="53"/>
+      <c r="E734" s="11"/>
       <c r="F734" s="9"/>
       <c r="G734" s="9"/>
       <c r="H734" s="9"/>
@@ -34842,7 +34830,7 @@
       </c>
       <c r="C735" s="9"/>
       <c r="D735" s="9"/>
-      <c r="E735" s="53"/>
+      <c r="E735" s="11"/>
       <c r="F735" s="9"/>
       <c r="G735" s="9"/>
       <c r="H735" s="9"/>
@@ -34867,7 +34855,7 @@
         <v>2374</v>
       </c>
       <c r="D736" s="9"/>
-      <c r="E736" s="53"/>
+      <c r="E736" s="11"/>
       <c r="F736" s="9"/>
       <c r="G736" s="9"/>
       <c r="H736" s="9"/>
@@ -34894,7 +34882,7 @@
         <v>2377</v>
       </c>
       <c r="D737" s="9"/>
-      <c r="E737" s="53"/>
+      <c r="E737" s="11"/>
       <c r="F737" s="9"/>
       <c r="G737" s="9"/>
       <c r="H737" s="9"/>
@@ -34921,7 +34909,7 @@
         <v>2380</v>
       </c>
       <c r="D738" s="9"/>
-      <c r="E738" s="53"/>
+      <c r="E738" s="11"/>
       <c r="F738" s="9"/>
       <c r="G738" s="9"/>
       <c r="H738" s="9"/>
@@ -34948,7 +34936,7 @@
         <v>2383</v>
       </c>
       <c r="D739" s="9"/>
-      <c r="E739" s="53"/>
+      <c r="E739" s="11"/>
       <c r="F739" s="9"/>
       <c r="G739" s="9"/>
       <c r="H739" s="9"/>
@@ -34975,7 +34963,7 @@
         <v>2386</v>
       </c>
       <c r="D740" s="9"/>
-      <c r="E740" s="53"/>
+      <c r="E740" s="11"/>
       <c r="F740" s="9"/>
       <c r="G740" s="9"/>
       <c r="H740" s="9"/>
@@ -35002,7 +34990,7 @@
         <v>2389</v>
       </c>
       <c r="D741" s="9"/>
-      <c r="E741" s="53"/>
+      <c r="E741" s="11"/>
       <c r="F741" s="9"/>
       <c r="G741" s="9"/>
       <c r="H741" s="9"/>
@@ -35029,7 +35017,7 @@
         <v>2392</v>
       </c>
       <c r="D742" s="9"/>
-      <c r="E742" s="53"/>
+      <c r="E742" s="11"/>
       <c r="F742" s="9"/>
       <c r="G742" s="9"/>
       <c r="H742" s="9"/>
@@ -35056,7 +35044,7 @@
         <v>2395</v>
       </c>
       <c r="D743" s="9"/>
-      <c r="E743" s="53"/>
+      <c r="E743" s="11"/>
       <c r="F743" s="9"/>
       <c r="G743" s="9"/>
       <c r="H743" s="9"/>
@@ -35081,7 +35069,7 @@
       </c>
       <c r="C744" s="9"/>
       <c r="D744" s="9"/>
-      <c r="E744" s="53"/>
+      <c r="E744" s="11"/>
       <c r="F744" s="9"/>
       <c r="G744" s="9"/>
       <c r="H744" s="9"/>
@@ -35106,7 +35094,7 @@
         <v>2400</v>
       </c>
       <c r="D745" s="9"/>
-      <c r="E745" s="53"/>
+      <c r="E745" s="11"/>
       <c r="F745" s="9"/>
       <c r="G745" s="9"/>
       <c r="H745" s="9"/>
@@ -35131,7 +35119,7 @@
       </c>
       <c r="C746" s="9"/>
       <c r="D746" s="9"/>
-      <c r="E746" s="53"/>
+      <c r="E746" s="11"/>
       <c r="F746" s="9"/>
       <c r="G746" s="9"/>
       <c r="H746" s="9"/>
@@ -35154,7 +35142,7 @@
       </c>
       <c r="C747" s="9"/>
       <c r="D747" s="9"/>
-      <c r="E747" s="53"/>
+      <c r="E747" s="11"/>
       <c r="F747" s="9"/>
       <c r="G747" s="9"/>
       <c r="H747" s="9"/>
@@ -35179,11 +35167,11 @@
         <v>2407</v>
       </c>
       <c r="D748" s="9"/>
-      <c r="E748" s="53"/>
+      <c r="E748" s="11"/>
       <c r="F748" s="9"/>
       <c r="G748" s="9"/>
       <c r="H748" s="9"/>
-      <c r="I748" s="58" t="s">
+      <c r="I748" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J748" s="11"/>
@@ -35235,11 +35223,11 @@
         <v>2414</v>
       </c>
       <c r="D750" s="9"/>
-      <c r="E750" s="53"/>
+      <c r="E750" s="11"/>
       <c r="F750" s="9"/>
       <c r="G750" s="9"/>
       <c r="H750" s="9"/>
-      <c r="I750" s="58" t="s">
+      <c r="I750" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J750" s="11"/>
@@ -35262,11 +35250,11 @@
         <v>2417</v>
       </c>
       <c r="D751" s="9"/>
-      <c r="E751" s="53"/>
+      <c r="E751" s="11"/>
       <c r="F751" s="9"/>
       <c r="G751" s="9"/>
       <c r="H751" s="9"/>
-      <c r="I751" s="58" t="s">
+      <c r="I751" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J751" s="11"/>
@@ -35289,23 +35277,23 @@
         <v>1315</v>
       </c>
       <c r="D752" s="9"/>
-      <c r="E752" s="53"/>
+      <c r="E752" s="11"/>
       <c r="F752" s="9"/>
       <c r="G752" s="9" t="s">
         <v>1316</v>
       </c>
       <c r="H752" s="9"/>
-      <c r="I752" s="55" t="s">
+      <c r="I752" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J752" s="55"/>
-      <c r="K752" s="55"/>
-      <c r="L752" s="55"/>
-      <c r="M752" s="55"/>
-      <c r="N752" s="55"/>
-      <c r="O752" s="55"/>
-      <c r="P752" s="55"/>
-      <c r="Q752" s="55" t="s">
+      <c r="J752" s="50"/>
+      <c r="K752" s="50"/>
+      <c r="L752" s="50"/>
+      <c r="M752" s="50"/>
+      <c r="N752" s="50"/>
+      <c r="O752" s="50"/>
+      <c r="P752" s="50"/>
+      <c r="Q752" s="50" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -35318,7 +35306,7 @@
       </c>
       <c r="C753" s="9"/>
       <c r="D753" s="9"/>
-      <c r="E753" s="53"/>
+      <c r="E753" s="11"/>
       <c r="F753" s="9"/>
       <c r="G753" s="9"/>
       <c r="H753" s="9"/>
@@ -35341,7 +35329,7 @@
       </c>
       <c r="C754" s="9"/>
       <c r="D754" s="9"/>
-      <c r="E754" s="53"/>
+      <c r="E754" s="11"/>
       <c r="F754" s="9"/>
       <c r="G754" s="9"/>
       <c r="H754" s="9"/>
@@ -42304,10 +42292,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I143" sqref="I143"/>
+      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42961,7 +42949,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="53" t="s">
         <v>3307</v>
       </c>
     </row>
@@ -44772,7 +44760,7 @@
         <v>102</v>
       </c>
       <c r="I164" t="s">
-        <v>800</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -44805,13 +44793,13 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="I166" t="s">
         <v>809</v>
@@ -44826,7 +44814,7 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>376</v>
@@ -44856,7 +44844,7 @@
         <v>686</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="I168" t="s">
         <v>819</v>
@@ -44880,7 +44868,7 @@
         <v>537</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>823</v>
@@ -44895,7 +44883,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>264</v>
@@ -44904,7 +44892,7 @@
         <v>264</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -44916,7 +44904,7 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>24</v>
@@ -44925,7 +44913,7 @@
         <v>690</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>831</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -44979,7 +44967,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>32</v>
@@ -45000,7 +44988,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>345</v>
@@ -45021,7 +45009,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>118</v>
@@ -45063,7 +45051,7 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>113</v>
@@ -45084,7 +45072,7 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>275</v>
@@ -45114,7 +45102,7 @@
         <v>37</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -45126,7 +45114,7 @@
         <v>B3</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="E181" t="s">
         <v>123</v>
@@ -45147,7 +45135,7 @@
         <v>B4</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>380</v>
@@ -45189,7 +45177,7 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>41</v>
@@ -45210,7 +45198,7 @@
         <v>B7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>354</v>
@@ -45240,7 +45228,7 @@
         <v>128</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -45252,7 +45240,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>285</v>
@@ -45273,7 +45261,7 @@
         <v>BA</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>45</v>
@@ -45294,7 +45282,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>394</v>
@@ -45315,7 +45303,7 @@
         <v>BC</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>138</v>
@@ -45399,7 +45387,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>49</v>
@@ -45420,7 +45408,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>142</v>
@@ -45441,7 +45429,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>384</v>
@@ -45462,7 +45450,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>294</v>
@@ -45615,7 +45603,7 @@
         <v>68</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -45810,7 +45798,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>323</v>
@@ -45837,7 +45825,7 @@
         <v>84</v>
       </c>
       <c r="H219" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -45858,7 +45846,7 @@
         <v>327</v>
       </c>
       <c r="H220" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -45870,7 +45858,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>89</v>
@@ -45879,7 +45867,7 @@
         <v>89</v>
       </c>
       <c r="H221" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -45891,7 +45879,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>175</v>
@@ -45912,7 +45900,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>331</v>
@@ -45933,7 +45921,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>93</v>
@@ -45942,7 +45930,7 @@
         <v>93</v>
       </c>
       <c r="H224" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -45954,7 +45942,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>372</v>
@@ -45963,7 +45951,7 @@
         <v>372</v>
       </c>
       <c r="H225" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -45975,7 +45963,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>424</v>
@@ -45984,7 +45972,7 @@
         <v>424</v>
       </c>
       <c r="H226" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -46005,7 +45993,7 @@
         <v>627</v>
       </c>
       <c r="H227" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -46020,13 +46008,13 @@
         <v>2569</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="H228" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -46038,7 +46026,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>479</v>
@@ -46062,10 +46050,10 @@
         <v>2557</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="H230" t="s">
         <v>2552</v>
@@ -46083,10 +46071,10 @@
         <v>2560</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="H231" t="s">
         <v>2552</v>
@@ -46110,7 +46098,7 @@
         <v>549</v>
       </c>
       <c r="H232" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -46125,13 +46113,13 @@
         <v>2547</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="H233" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -46146,10 +46134,10 @@
         <v>2532</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="H234" t="s">
         <v>2530</v>
@@ -46299,7 +46287,7 @@
         <v>709</v>
       </c>
       <c r="H241" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -46320,7 +46308,7 @@
         <v>563</v>
       </c>
       <c r="H242" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -46341,7 +46329,7 @@
         <v>635</v>
       </c>
       <c r="H243" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>3414</v>
@@ -46356,7 +46344,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>488</v>
@@ -46365,7 +46353,7 @@
         <v>488</v>
       </c>
       <c r="H244" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>3414</v>
@@ -46380,7 +46368,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>567</v>
@@ -46389,7 +46377,7 @@
         <v>567</v>
       </c>
       <c r="H245" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>3414</v>
@@ -46413,7 +46401,7 @@
         <v>717</v>
       </c>
       <c r="H246" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>3414</v>
@@ -46437,7 +46425,7 @@
         <v>571</v>
       </c>
       <c r="H247" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>3414</v>
@@ -46461,7 +46449,7 @@
         <v>639</v>
       </c>
       <c r="H248" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>3414</v>
@@ -46485,7 +46473,7 @@
         <v>492</v>
       </c>
       <c r="H249" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>3414</v>
@@ -46509,7 +46497,7 @@
         <v>702</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>3414</v>
@@ -46533,7 +46521,7 @@
         <v>575</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>3414</v>
@@ -46548,7 +46536,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>652</v>
@@ -46557,7 +46545,7 @@
         <v>652</v>
       </c>
       <c r="H252" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>3414</v>
@@ -46572,7 +46560,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>504</v>
@@ -46581,7 +46569,7 @@
         <v>504</v>
       </c>
       <c r="H253" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>3414</v>
@@ -46592,10 +46580,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>721</v>
@@ -46604,7 +46592,7 @@
         <v>721</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>3414</v>
@@ -46619,7 +46607,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>648</v>
@@ -46628,10 +46616,10 @@
         <v>648</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -46652,10 +46640,10 @@
         <v>500</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -46667,13 +46655,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779">
   <si>
     <t>编号</t>
   </si>
@@ -8248,6 +8248,9 @@
   </si>
   <si>
     <t>技术人员</t>
+  </si>
+  <si>
+    <t>陈博士</t>
   </si>
   <si>
     <t>全歼敌军</t>
@@ -8361,10 +8364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -8410,6 +8413,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8441,6 +8458,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8463,91 +8549,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8574,7 +8577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8586,7 +8607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8598,7 +8625,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8610,13 +8667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8640,37 +8697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8688,7 +8727,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8706,55 +8757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8796,26 +8805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8831,45 +8831,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8893,6 +8854,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8901,10 +8910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8913,137 +8922,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9152,6 +9161,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -9222,6 +9234,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -11116,15 +11137,15 @@
   <sheetPr/>
   <dimension ref="A1:Q754"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="E700" sqref="E700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="37" customWidth="1"/>
     <col min="2" max="2" width="64.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.625" style="6" customWidth="1"/>
@@ -11144,55 +11165,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>178</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -11225,7 +11246,7 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <v>179</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -11256,7 +11277,7 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="39">
+      <c r="A4" s="40">
         <v>391</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -11295,7 +11316,7 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="39">
+      <c r="A5" s="40">
         <v>392</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -11332,7 +11353,7 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="39">
+      <c r="A6" s="40">
         <v>393</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -11367,7 +11388,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="39">
+      <c r="A7" s="40">
         <v>394</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -11404,7 +11425,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="39">
+      <c r="A8" s="40">
         <v>395</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -11439,7 +11460,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="39">
+      <c r="A9" s="40">
         <v>396</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -11476,7 +11497,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="39">
+      <c r="A10" s="40">
         <v>397</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -11513,7 +11534,7 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="39">
+      <c r="A11" s="40">
         <v>398</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -11550,7 +11571,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="39">
+      <c r="A12" s="40">
         <v>399</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -11585,7 +11606,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="39">
+      <c r="A13" s="40">
         <v>400</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -11620,7 +11641,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39">
+      <c r="A14" s="40">
         <v>401</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -11655,7 +11676,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="39">
+      <c r="A15" s="40">
         <v>402</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -11690,7 +11711,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="39">
+      <c r="A16" s="40">
         <v>403</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -11725,7 +11746,7 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="39">
+      <c r="A17" s="40">
         <v>404</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -11760,7 +11781,7 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" s="29" customFormat="1" spans="1:17">
-      <c r="A18" s="39">
+      <c r="A18" s="40">
         <v>405</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -11795,7 +11816,7 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" s="29" customFormat="1" spans="1:17">
-      <c r="A19" s="39">
+      <c r="A19" s="40">
         <v>406</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -11830,7 +11851,7 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="39">
+      <c r="A20" s="40">
         <v>407</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -11863,7 +11884,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="39">
+      <c r="A21" s="40">
         <v>427</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -11898,7 +11919,7 @@
       <c r="Q21" s="14"/>
     </row>
     <row r="22" s="29" customFormat="1" spans="1:17">
-      <c r="A22" s="39">
+      <c r="A22" s="40">
         <v>457</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -11933,7 +11954,7 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" s="29" customFormat="1" spans="1:17">
-      <c r="A23" s="39">
+      <c r="A23" s="40">
         <v>458</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -11966,7 +11987,7 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="39">
+      <c r="A24" s="40">
         <v>459</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -11999,7 +12020,7 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" s="29" customFormat="1" spans="1:17">
-      <c r="A25" s="39">
+      <c r="A25" s="40">
         <v>460</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -12032,7 +12053,7 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" s="29" customFormat="1" spans="1:17">
-      <c r="A26" s="39">
+      <c r="A26" s="40">
         <v>461</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -12065,7 +12086,7 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" s="29" customFormat="1" spans="1:17">
-      <c r="A27" s="39">
+      <c r="A27" s="40">
         <v>462</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -12098,7 +12119,7 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" s="29" customFormat="1" spans="1:17">
-      <c r="A28" s="39">
+      <c r="A28" s="40">
         <v>463</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -12131,7 +12152,7 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="39">
+      <c r="A29" s="40">
         <v>464</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -12164,7 +12185,7 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="39">
+      <c r="A30" s="40">
         <v>465</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -12197,7 +12218,7 @@
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="39">
+      <c r="A31" s="40">
         <v>467</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -12230,7 +12251,7 @@
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="39">
+      <c r="A32" s="40">
         <v>468</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -12263,7 +12284,7 @@
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="39">
+      <c r="A33" s="40">
         <v>469</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -12296,7 +12317,7 @@
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="39">
+      <c r="A34" s="40">
         <v>470</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -12329,7 +12350,7 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" s="29" customFormat="1" spans="1:17">
-      <c r="A35" s="39">
+      <c r="A35" s="40">
         <v>471</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -12362,7 +12383,7 @@
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="39">
+      <c r="A36" s="40">
         <v>472</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -12395,7 +12416,7 @@
       <c r="Q36" s="14"/>
     </row>
     <row r="37" s="29" customFormat="1" spans="1:17">
-      <c r="A37" s="39">
+      <c r="A37" s="40">
         <v>473</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -12428,7 +12449,7 @@
       <c r="Q37" s="14"/>
     </row>
     <row r="38" s="29" customFormat="1" spans="1:17">
-      <c r="A38" s="39">
+      <c r="A38" s="40">
         <v>474</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -12461,7 +12482,7 @@
       <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="39">
+      <c r="A39" s="40">
         <v>475</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -12490,7 +12511,7 @@
       <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="39">
+      <c r="A40" s="40">
         <v>476</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -12523,7 +12544,7 @@
       <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="39">
+      <c r="A41" s="40">
         <v>500</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -12554,7 +12575,7 @@
       <c r="Q41" s="14"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="39">
+      <c r="A42" s="40">
         <v>501</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -12585,7 +12606,7 @@
       <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="39">
+      <c r="A43" s="40">
         <v>502</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -12616,7 +12637,7 @@
       <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="39">
+      <c r="A44" s="40">
         <v>503</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -12647,7 +12668,7 @@
       <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="39">
+      <c r="A45" s="40">
         <v>504</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -12678,7 +12699,7 @@
       <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="40">
+      <c r="A46" s="41">
         <v>506</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -12709,7 +12730,7 @@
       <c r="Q46" s="21"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="40">
+      <c r="A47" s="41">
         <v>507</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -12740,7 +12761,7 @@
       <c r="Q47" s="21"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="40">
+      <c r="A48" s="41">
         <v>508</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -12771,7 +12792,7 @@
       <c r="Q48" s="21"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="40">
+      <c r="A49" s="41">
         <v>509</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -12802,7 +12823,7 @@
       <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="40">
+      <c r="A50" s="41">
         <v>510</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -12833,7 +12854,7 @@
       <c r="Q50" s="21"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="40">
+      <c r="A51" s="41">
         <v>511</v>
       </c>
       <c r="B51" s="22" t="s">
@@ -12864,7 +12885,7 @@
       <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="40">
+      <c r="A52" s="41">
         <v>512</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -12895,7 +12916,7 @@
       <c r="Q52" s="21"/>
     </row>
     <row r="53" s="29" customFormat="1" spans="1:17">
-      <c r="A53" s="41">
+      <c r="A53" s="42">
         <v>513</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -12930,7 +12951,7 @@
       <c r="Q53" s="15"/>
     </row>
     <row r="54" s="29" customFormat="1" spans="1:17">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>514</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -12965,7 +12986,7 @@
       <c r="Q54" s="15"/>
     </row>
     <row r="55" s="29" customFormat="1" spans="1:17">
-      <c r="A55" s="41">
+      <c r="A55" s="42">
         <v>515</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -13000,7 +13021,7 @@
       <c r="Q55" s="15"/>
     </row>
     <row r="56" s="29" customFormat="1" spans="1:17">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>516</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -13031,7 +13052,7 @@
       <c r="Q56" s="15"/>
     </row>
     <row r="57" s="29" customFormat="1" spans="1:17">
-      <c r="A57" s="41">
+      <c r="A57" s="42">
         <v>517</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -13066,7 +13087,7 @@
       <c r="Q57" s="15"/>
     </row>
     <row r="58" s="29" customFormat="1" spans="1:17">
-      <c r="A58" s="42">
+      <c r="A58" s="43">
         <v>518</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -13082,7 +13103,7 @@
       <c r="F58" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H58" s="24" t="s">
@@ -13092,16 +13113,16 @@
         <v>25</v>
       </c>
       <c r="J58" s="24"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
     </row>
     <row r="59" s="29" customFormat="1" spans="1:17">
-      <c r="A59" s="42">
+      <c r="A59" s="43">
         <v>519</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -13117,7 +13138,7 @@
       <c r="F59" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="43"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="24" t="s">
         <v>214</v>
       </c>
@@ -13125,16 +13146,16 @@
         <v>25</v>
       </c>
       <c r="J59" s="24"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
     </row>
     <row r="60" s="29" customFormat="1" spans="1:17">
-      <c r="A60" s="42">
+      <c r="A60" s="43">
         <v>520</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -13150,7 +13171,7 @@
       <c r="F60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="43"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="24" t="s">
         <v>218</v>
       </c>
@@ -13158,16 +13179,16 @@
         <v>25</v>
       </c>
       <c r="J60" s="24"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
     </row>
     <row r="61" s="29" customFormat="1" spans="1:17">
-      <c r="A61" s="42">
+      <c r="A61" s="43">
         <v>521</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -13183,7 +13204,7 @@
       <c r="F61" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="43"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="24" t="s">
         <v>222</v>
       </c>
@@ -13191,16 +13212,16 @@
         <v>25</v>
       </c>
       <c r="J61" s="24"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
     </row>
     <row r="62" s="29" customFormat="1" spans="1:17">
-      <c r="A62" s="42">
+      <c r="A62" s="43">
         <v>522</v>
       </c>
       <c r="B62" s="24" t="s">
@@ -13216,7 +13237,7 @@
       <c r="F62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="43"/>
+      <c r="G62" s="44"/>
       <c r="H62" s="24" t="s">
         <v>226</v>
       </c>
@@ -13224,16 +13245,16 @@
         <v>25</v>
       </c>
       <c r="J62" s="24"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
     </row>
     <row r="63" s="29" customFormat="1" spans="1:17">
-      <c r="A63" s="42">
+      <c r="A63" s="43">
         <v>523</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -13249,7 +13270,7 @@
       <c r="F63" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="43"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="24" t="s">
         <v>43</v>
       </c>
@@ -13257,16 +13278,16 @@
         <v>25</v>
       </c>
       <c r="J63" s="24"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
     </row>
     <row r="64" s="29" customFormat="1" spans="1:17">
-      <c r="A64" s="42">
+      <c r="A64" s="43">
         <v>524</v>
       </c>
       <c r="B64" s="24" t="s">
@@ -13282,7 +13303,7 @@
       <c r="F64" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="43"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="24" t="s">
         <v>47</v>
       </c>
@@ -13290,16 +13311,16 @@
         <v>25</v>
       </c>
       <c r="J64" s="24"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
     </row>
     <row r="65" s="30" customFormat="1" spans="1:17">
-      <c r="A65" s="42">
+      <c r="A65" s="43">
         <v>525</v>
       </c>
       <c r="B65" s="24" t="s">
@@ -13315,7 +13336,7 @@
       <c r="F65" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="24" t="s">
         <v>51</v>
       </c>
@@ -13323,16 +13344,16 @@
         <v>25</v>
       </c>
       <c r="J65" s="24"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="42">
+      <c r="A66" s="43">
         <v>526</v>
       </c>
       <c r="B66" s="24" t="s">
@@ -13348,7 +13369,7 @@
       <c r="F66" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="43"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="24" t="s">
         <v>239</v>
       </c>
@@ -13356,16 +13377,16 @@
         <v>25</v>
       </c>
       <c r="J66" s="24"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="45"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
     </row>
     <row r="67" s="29" customFormat="1" spans="1:17">
-      <c r="A67" s="42">
+      <c r="A67" s="43">
         <v>527</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -13381,7 +13402,7 @@
       <c r="F67" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="43"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="24" t="s">
         <v>123</v>
       </c>
@@ -13389,16 +13410,16 @@
         <v>25</v>
       </c>
       <c r="J67" s="24"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
     </row>
     <row r="68" s="29" customFormat="1" spans="1:17">
-      <c r="A68" s="42">
+      <c r="A68" s="43">
         <v>528</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -13414,22 +13435,22 @@
       <c r="F68" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="43"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J68" s="24"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="45"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="42">
+      <c r="A69" s="43">
         <v>529</v>
       </c>
       <c r="B69" s="24" t="s">
@@ -13445,22 +13466,22 @@
       <c r="F69" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="43"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J69" s="24"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="42">
+      <c r="A70" s="43">
         <v>530</v>
       </c>
       <c r="B70" s="24" t="s">
@@ -13476,7 +13497,7 @@
       <c r="F70" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="43"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="24" t="s">
         <v>135</v>
       </c>
@@ -13484,16 +13505,16 @@
         <v>25</v>
       </c>
       <c r="J70" s="24"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="42">
+      <c r="A71" s="43">
         <v>531</v>
       </c>
       <c r="B71" s="24" t="s">
@@ -13509,7 +13530,7 @@
       <c r="F71" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="43"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="24" t="s">
         <v>137</v>
       </c>
@@ -13517,16 +13538,16 @@
         <v>25</v>
       </c>
       <c r="J71" s="24"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="45"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
     </row>
     <row r="72" s="29" customFormat="1" spans="1:17">
-      <c r="A72" s="42">
+      <c r="A72" s="43">
         <v>532</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -13542,22 +13563,22 @@
       <c r="F72" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="43"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J72" s="24"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="42">
+      <c r="A73" s="43">
         <v>533</v>
       </c>
       <c r="B73" s="24" t="s">
@@ -13573,9 +13594,9 @@
       <c r="F73" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="43"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="24"/>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="46" t="s">
         <v>16</v>
       </c>
       <c r="J73" s="24" t="s">
@@ -13584,15 +13605,15 @@
       <c r="K73" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="39">
+      <c r="A74" s="40">
         <v>552</v>
       </c>
       <c r="B74" s="19" t="s">
@@ -13608,7 +13629,7 @@
       <c r="F74" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="43"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="19" t="s">
         <v>80</v>
       </c>
@@ -13625,7 +13646,7 @@
       <c r="Q74" s="14"/>
     </row>
     <row r="75" s="29" customFormat="1" spans="1:17">
-      <c r="A75" s="39">
+      <c r="A75" s="40">
         <v>553</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -13658,7 +13679,7 @@
       <c r="Q75" s="14"/>
     </row>
     <row r="76" s="29" customFormat="1" spans="1:17">
-      <c r="A76" s="39">
+      <c r="A76" s="40">
         <v>554</v>
       </c>
       <c r="B76" s="19" t="s">
@@ -13695,7 +13716,7 @@
       <c r="Q76" s="14"/>
     </row>
     <row r="77" s="29" customFormat="1" spans="1:17">
-      <c r="A77" s="39">
+      <c r="A77" s="40">
         <v>555</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -13728,7 +13749,7 @@
       <c r="Q77" s="14"/>
     </row>
     <row r="78" s="29" customFormat="1" spans="1:17">
-      <c r="A78" s="39">
+      <c r="A78" s="40">
         <v>556</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -13765,7 +13786,7 @@
       <c r="Q78" s="14"/>
     </row>
     <row r="79" s="29" customFormat="1" spans="1:17">
-      <c r="A79" s="39">
+      <c r="A79" s="40">
         <v>557</v>
       </c>
       <c r="B79" s="19" t="s">
@@ -13798,7 +13819,7 @@
       <c r="Q79" s="14"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="39">
+      <c r="A80" s="40">
         <v>558</v>
       </c>
       <c r="B80" s="19" t="s">
@@ -13831,7 +13852,7 @@
       <c r="Q80" s="14"/>
     </row>
     <row r="81" s="29" customFormat="1" spans="1:17">
-      <c r="A81" s="39">
+      <c r="A81" s="40">
         <v>559</v>
       </c>
       <c r="B81" s="19" t="s">
@@ -13868,7 +13889,7 @@
       <c r="Q81" s="14"/>
     </row>
     <row r="82" s="29" customFormat="1" spans="1:17">
-      <c r="A82" s="39">
+      <c r="A82" s="40">
         <v>560</v>
       </c>
       <c r="B82" s="19" t="s">
@@ -13899,7 +13920,7 @@
       <c r="Q82" s="14"/>
     </row>
     <row r="83" s="29" customFormat="1" spans="1:17">
-      <c r="A83" s="39">
+      <c r="A83" s="40">
         <v>565</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -13932,7 +13953,7 @@
       <c r="Q83" s="14"/>
     </row>
     <row r="84" s="29" customFormat="1" spans="1:17">
-      <c r="A84" s="39">
+      <c r="A84" s="40">
         <v>566</v>
       </c>
       <c r="B84" s="19" t="s">
@@ -13965,7 +13986,7 @@
       <c r="Q84" s="14"/>
     </row>
     <row r="85" s="29" customFormat="1" spans="1:17">
-      <c r="A85" s="39">
+      <c r="A85" s="40">
         <v>567</v>
       </c>
       <c r="B85" s="19" t="s">
@@ -13996,7 +14017,7 @@
       <c r="Q85" s="14"/>
     </row>
     <row r="86" s="29" customFormat="1" spans="1:17">
-      <c r="A86" s="39">
+      <c r="A86" s="40">
         <v>568</v>
       </c>
       <c r="B86" s="19" t="s">
@@ -14029,7 +14050,7 @@
       <c r="Q86" s="14"/>
     </row>
     <row r="87" s="29" customFormat="1" spans="1:17">
-      <c r="A87" s="39">
+      <c r="A87" s="40">
         <v>569</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -14056,7 +14077,7 @@
       <c r="Q87" s="14"/>
     </row>
     <row r="88" s="29" customFormat="1" spans="1:17">
-      <c r="A88" s="39">
+      <c r="A88" s="40">
         <v>570</v>
       </c>
       <c r="B88" s="19" t="s">
@@ -14093,7 +14114,7 @@
       <c r="Q88" s="14"/>
     </row>
     <row r="89" s="29" customFormat="1" spans="1:17">
-      <c r="A89" s="39">
+      <c r="A89" s="40">
         <v>576</v>
       </c>
       <c r="B89" s="19" t="s">
@@ -14124,7 +14145,7 @@
       <c r="Q89" s="14"/>
     </row>
     <row r="90" s="29" customFormat="1" spans="1:17">
-      <c r="A90" s="39">
+      <c r="A90" s="40">
         <v>580</v>
       </c>
       <c r="B90" s="19" t="s">
@@ -14157,7 +14178,7 @@
       <c r="Q90" s="14"/>
     </row>
     <row r="91" s="29" customFormat="1" spans="1:17">
-      <c r="A91" s="39">
+      <c r="A91" s="40">
         <v>581</v>
       </c>
       <c r="B91" s="19" t="s">
@@ -14188,7 +14209,7 @@
       <c r="Q91" s="14"/>
     </row>
     <row r="92" s="29" customFormat="1" spans="1:17">
-      <c r="A92" s="39">
+      <c r="A92" s="40">
         <v>582</v>
       </c>
       <c r="B92" s="19" t="s">
@@ -14219,7 +14240,7 @@
       <c r="Q92" s="14"/>
     </row>
     <row r="93" s="29" customFormat="1" spans="1:17">
-      <c r="A93" s="39">
+      <c r="A93" s="40">
         <v>583</v>
       </c>
       <c r="B93" s="19" t="s">
@@ -14250,7 +14271,7 @@
       <c r="Q93" s="14"/>
     </row>
     <row r="94" s="29" customFormat="1" spans="1:17">
-      <c r="A94" s="39">
+      <c r="A94" s="40">
         <v>584</v>
       </c>
       <c r="B94" s="19" t="s">
@@ -14281,7 +14302,7 @@
       <c r="Q94" s="14"/>
     </row>
     <row r="95" s="29" customFormat="1" spans="1:17">
-      <c r="A95" s="46">
+      <c r="A95" s="47">
         <v>585</v>
       </c>
       <c r="B95" s="25" t="s">
@@ -14299,20 +14320,20 @@
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="47" t="s">
+      <c r="I95" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
     </row>
     <row r="96" s="29" customFormat="1" spans="1:17">
-      <c r="A96" s="39">
+      <c r="A96" s="40">
         <v>587</v>
       </c>
       <c r="B96" s="19" t="s">
@@ -14343,7 +14364,7 @@
       <c r="Q96" s="14"/>
     </row>
     <row r="97" s="29" customFormat="1" spans="1:17">
-      <c r="A97" s="46">
+      <c r="A97" s="47">
         <v>588</v>
       </c>
       <c r="B97" s="25" t="s">
@@ -14361,20 +14382,20 @@
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="47" t="s">
+      <c r="I97" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
     </row>
     <row r="98" s="29" customFormat="1" spans="1:17">
-      <c r="A98" s="39">
+      <c r="A98" s="40">
         <v>590</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -14405,7 +14426,7 @@
       <c r="Q98" s="14"/>
     </row>
     <row r="99" s="29" customFormat="1" spans="1:17">
-      <c r="A99" s="39">
+      <c r="A99" s="40">
         <v>591</v>
       </c>
       <c r="B99" s="19" t="s">
@@ -14436,7 +14457,7 @@
       <c r="Q99" s="14"/>
     </row>
     <row r="100" s="29" customFormat="1" spans="1:17">
-      <c r="A100" s="39">
+      <c r="A100" s="40">
         <v>660</v>
       </c>
       <c r="B100" s="19" t="s">
@@ -14467,7 +14488,7 @@
       <c r="Q100" s="14"/>
     </row>
     <row r="101" s="29" customFormat="1" spans="1:17">
-      <c r="A101" s="39">
+      <c r="A101" s="40">
         <v>661</v>
       </c>
       <c r="B101" s="19" t="s">
@@ -14498,7 +14519,7 @@
       <c r="Q101" s="14"/>
     </row>
     <row r="102" s="29" customFormat="1" spans="1:17">
-      <c r="A102" s="39">
+      <c r="A102" s="40">
         <v>662</v>
       </c>
       <c r="B102" s="19" t="s">
@@ -14529,7 +14550,7 @@
       <c r="Q102" s="14"/>
     </row>
     <row r="103" s="29" customFormat="1" spans="1:17">
-      <c r="A103" s="39">
+      <c r="A103" s="40">
         <v>742</v>
       </c>
       <c r="B103" s="19" t="s">
@@ -14560,7 +14581,7 @@
       <c r="Q103" s="14"/>
     </row>
     <row r="104" s="29" customFormat="1" spans="1:17">
-      <c r="A104" s="39">
+      <c r="A104" s="40">
         <v>743</v>
       </c>
       <c r="B104" s="19" t="s">
@@ -14591,7 +14612,7 @@
       <c r="Q104" s="14"/>
     </row>
     <row r="105" s="29" customFormat="1" spans="1:17">
-      <c r="A105" s="39">
+      <c r="A105" s="40">
         <v>744</v>
       </c>
       <c r="B105" s="19" t="s">
@@ -14622,7 +14643,7 @@
       <c r="Q105" s="14"/>
     </row>
     <row r="106" s="29" customFormat="1" spans="1:17">
-      <c r="A106" s="39">
+      <c r="A106" s="40">
         <v>745</v>
       </c>
       <c r="B106" s="19" t="s">
@@ -14653,7 +14674,7 @@
       <c r="Q106" s="14"/>
     </row>
     <row r="107" s="29" customFormat="1" spans="1:17">
-      <c r="A107" s="39">
+      <c r="A107" s="40">
         <v>746</v>
       </c>
       <c r="B107" s="19" t="s">
@@ -14684,7 +14705,7 @@
       <c r="Q107" s="14"/>
     </row>
     <row r="108" s="29" customFormat="1" spans="1:17">
-      <c r="A108" s="39">
+      <c r="A108" s="40">
         <v>747</v>
       </c>
       <c r="B108" s="19" t="s">
@@ -14715,7 +14736,7 @@
       <c r="Q108" s="14"/>
     </row>
     <row r="109" s="29" customFormat="1" spans="1:17">
-      <c r="A109" s="39">
+      <c r="A109" s="40">
         <v>748</v>
       </c>
       <c r="B109" s="19" t="s">
@@ -14746,7 +14767,7 @@
       <c r="Q109" s="14"/>
     </row>
     <row r="110" s="29" customFormat="1" spans="1:17">
-      <c r="A110" s="41">
+      <c r="A110" s="42">
         <v>409</v>
       </c>
       <c r="B110" s="23" t="s">
@@ -14777,7 +14798,7 @@
       <c r="Q110" s="15"/>
     </row>
     <row r="111" s="29" customFormat="1" spans="1:17">
-      <c r="A111" s="41">
+      <c r="A111" s="42">
         <v>410</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -14808,7 +14829,7 @@
       <c r="Q111" s="15"/>
     </row>
     <row r="112" s="29" customFormat="1" spans="1:17">
-      <c r="A112" s="41">
+      <c r="A112" s="42">
         <v>411</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -14839,7 +14860,7 @@
       <c r="Q112" s="15"/>
     </row>
     <row r="113" s="29" customFormat="1" spans="1:17">
-      <c r="A113" s="41">
+      <c r="A113" s="42">
         <v>412</v>
       </c>
       <c r="B113" s="23" t="s">
@@ -14870,7 +14891,7 @@
       <c r="Q113" s="15"/>
     </row>
     <row r="114" s="29" customFormat="1" spans="1:17">
-      <c r="A114" s="41">
+      <c r="A114" s="42">
         <v>413</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -14901,7 +14922,7 @@
       <c r="Q114" s="15"/>
     </row>
     <row r="115" s="29" customFormat="1" spans="1:17">
-      <c r="A115" s="41">
+      <c r="A115" s="42">
         <v>414</v>
       </c>
       <c r="B115" s="23" t="s">
@@ -14932,7 +14953,7 @@
       <c r="Q115" s="15"/>
     </row>
     <row r="116" s="29" customFormat="1" spans="1:17">
-      <c r="A116" s="41">
+      <c r="A116" s="42">
         <v>415</v>
       </c>
       <c r="B116" s="23" t="s">
@@ -14963,7 +14984,7 @@
       <c r="Q116" s="15"/>
     </row>
     <row r="117" s="29" customFormat="1" spans="1:17">
-      <c r="A117" s="41">
+      <c r="A117" s="42">
         <v>416</v>
       </c>
       <c r="B117" s="23" t="s">
@@ -14994,7 +15015,7 @@
       <c r="Q117" s="15"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="A118" s="41">
+      <c r="A118" s="42">
         <v>417</v>
       </c>
       <c r="B118" s="23" t="s">
@@ -15025,7 +15046,7 @@
       <c r="Q118" s="15"/>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119" s="41">
+      <c r="A119" s="42">
         <v>418</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -15056,7 +15077,7 @@
       <c r="Q119" s="15"/>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" s="41">
+      <c r="A120" s="42">
         <v>419</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -15087,7 +15108,7 @@
       <c r="Q120" s="15"/>
     </row>
     <row r="121" spans="1:17">
-      <c r="A121" s="41">
+      <c r="A121" s="42">
         <v>420</v>
       </c>
       <c r="B121" s="23" t="s">
@@ -15118,7 +15139,7 @@
       <c r="Q121" s="15"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="A122" s="41">
+      <c r="A122" s="42">
         <v>421</v>
       </c>
       <c r="B122" s="23" t="s">
@@ -15149,7 +15170,7 @@
       <c r="Q122" s="15"/>
     </row>
     <row r="123" spans="1:17">
-      <c r="A123" s="41">
+      <c r="A123" s="42">
         <v>422</v>
       </c>
       <c r="B123" s="23" t="s">
@@ -15180,7 +15201,7 @@
       <c r="Q123" s="15"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="A124" s="41">
+      <c r="A124" s="42">
         <v>423</v>
       </c>
       <c r="B124" s="23" t="s">
@@ -15211,7 +15232,7 @@
       <c r="Q124" s="15"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="41">
+      <c r="A125" s="42">
         <v>424</v>
       </c>
       <c r="B125" s="23" t="s">
@@ -15242,7 +15263,7 @@
       <c r="Q125" s="15"/>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" s="41">
+      <c r="A126" s="42">
         <v>425</v>
       </c>
       <c r="B126" s="23" t="s">
@@ -15273,7 +15294,7 @@
       <c r="Q126" s="15"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="41">
+      <c r="A127" s="42">
         <v>426</v>
       </c>
       <c r="B127" s="23" t="s">
@@ -15304,7 +15325,7 @@
       <c r="Q127" s="15"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="A128" s="41">
+      <c r="A128" s="42">
         <v>478</v>
       </c>
       <c r="B128" s="23" t="s">
@@ -15339,7 +15360,7 @@
       <c r="Q128" s="15"/>
     </row>
     <row r="129" spans="1:17">
-      <c r="A129" s="41">
+      <c r="A129" s="42">
         <v>479</v>
       </c>
       <c r="B129" s="23" t="s">
@@ -15370,7 +15391,7 @@
       <c r="Q129" s="15"/>
     </row>
     <row r="130" spans="1:17">
-      <c r="A130" s="41">
+      <c r="A130" s="42">
         <v>480</v>
       </c>
       <c r="B130" s="23" t="s">
@@ -15401,7 +15422,7 @@
       <c r="Q130" s="15"/>
     </row>
     <row r="131" spans="1:17">
-      <c r="A131" s="41">
+      <c r="A131" s="42">
         <v>481</v>
       </c>
       <c r="B131" s="23" t="s">
@@ -15432,7 +15453,7 @@
       <c r="Q131" s="15"/>
     </row>
     <row r="132" spans="1:17">
-      <c r="A132" s="41">
+      <c r="A132" s="42">
         <v>482</v>
       </c>
       <c r="B132" s="23" t="s">
@@ -15463,7 +15484,7 @@
       <c r="Q132" s="15"/>
     </row>
     <row r="133" spans="1:17">
-      <c r="A133" s="41">
+      <c r="A133" s="42">
         <v>483</v>
       </c>
       <c r="B133" s="23" t="s">
@@ -15494,7 +15515,7 @@
       <c r="Q133" s="15"/>
     </row>
     <row r="134" spans="1:17">
-      <c r="A134" s="41">
+      <c r="A134" s="42">
         <v>484</v>
       </c>
       <c r="B134" s="23" t="s">
@@ -15525,7 +15546,7 @@
       <c r="Q134" s="15"/>
     </row>
     <row r="135" spans="1:17">
-      <c r="A135" s="41">
+      <c r="A135" s="42">
         <v>485</v>
       </c>
       <c r="B135" s="23" t="s">
@@ -15556,7 +15577,7 @@
       <c r="Q135" s="15"/>
     </row>
     <row r="136" spans="1:17">
-      <c r="A136" s="41">
+      <c r="A136" s="42">
         <v>486</v>
       </c>
       <c r="B136" s="23" t="s">
@@ -15587,7 +15608,7 @@
       <c r="Q136" s="15"/>
     </row>
     <row r="137" spans="1:17">
-      <c r="A137" s="41">
+      <c r="A137" s="42">
         <v>487</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -15618,7 +15639,7 @@
       <c r="Q137" s="15"/>
     </row>
     <row r="138" spans="1:17">
-      <c r="A138" s="41">
+      <c r="A138" s="42">
         <v>488</v>
       </c>
       <c r="B138" s="23" t="s">
@@ -15649,7 +15670,7 @@
       <c r="Q138" s="15"/>
     </row>
     <row r="139" spans="1:17">
-      <c r="A139" s="41">
+      <c r="A139" s="42">
         <v>489</v>
       </c>
       <c r="B139" s="23" t="s">
@@ -15680,7 +15701,7 @@
       <c r="Q139" s="15"/>
     </row>
     <row r="140" spans="1:17">
-      <c r="A140" s="41">
+      <c r="A140" s="42">
         <v>490</v>
       </c>
       <c r="B140" s="23" t="s">
@@ -15715,7 +15736,7 @@
       <c r="Q140" s="15"/>
     </row>
     <row r="141" spans="1:17">
-      <c r="A141" s="41">
+      <c r="A141" s="42">
         <v>491</v>
       </c>
       <c r="B141" s="23" t="s">
@@ -15746,7 +15767,7 @@
       <c r="Q141" s="15"/>
     </row>
     <row r="142" spans="1:17">
-      <c r="A142" s="41">
+      <c r="A142" s="42">
         <v>492</v>
       </c>
       <c r="B142" s="23" t="s">
@@ -15777,7 +15798,7 @@
       <c r="Q142" s="15"/>
     </row>
     <row r="143" spans="1:17">
-      <c r="A143" s="41">
+      <c r="A143" s="42">
         <v>493</v>
       </c>
       <c r="B143" s="23" t="s">
@@ -15808,7 +15829,7 @@
       <c r="Q143" s="15"/>
     </row>
     <row r="144" spans="1:17">
-      <c r="A144" s="41">
+      <c r="A144" s="42">
         <v>494</v>
       </c>
       <c r="B144" s="23" t="s">
@@ -15839,7 +15860,7 @@
       <c r="Q144" s="15"/>
     </row>
     <row r="145" spans="1:17">
-      <c r="A145" s="41">
+      <c r="A145" s="42">
         <v>495</v>
       </c>
       <c r="B145" s="23" t="s">
@@ -15870,7 +15891,7 @@
       <c r="Q145" s="15"/>
     </row>
     <row r="146" spans="1:17">
-      <c r="A146" s="41">
+      <c r="A146" s="42">
         <v>496</v>
       </c>
       <c r="B146" s="23" t="s">
@@ -15901,7 +15922,7 @@
       <c r="Q146" s="15"/>
     </row>
     <row r="147" spans="1:17">
-      <c r="A147" s="41">
+      <c r="A147" s="42">
         <v>497</v>
       </c>
       <c r="B147" s="23" t="s">
@@ -15932,7 +15953,7 @@
       <c r="Q147" s="15"/>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" s="41">
+      <c r="A148" s="42">
         <v>498</v>
       </c>
       <c r="B148" s="23" t="s">
@@ -15963,7 +15984,7 @@
       <c r="Q148" s="15"/>
     </row>
     <row r="149" spans="1:17">
-      <c r="A149" s="41">
+      <c r="A149" s="42">
         <v>499</v>
       </c>
       <c r="B149" s="23" t="s">
@@ -15994,7 +16015,7 @@
       <c r="Q149" s="15"/>
     </row>
     <row r="150" spans="1:17">
-      <c r="A150" s="41">
+      <c r="A150" s="42">
         <v>535</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -16010,7 +16031,7 @@
       <c r="F150" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G150" s="43"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="23"/>
       <c r="I150" s="23" t="s">
         <v>25</v>
@@ -16025,7 +16046,7 @@
       <c r="Q150" s="15"/>
     </row>
     <row r="151" spans="1:17">
-      <c r="A151" s="41">
+      <c r="A151" s="42">
         <v>536</v>
       </c>
       <c r="B151" s="23" t="s">
@@ -16041,7 +16062,7 @@
       <c r="F151" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G151" s="43"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="23"/>
       <c r="I151" s="23" t="s">
         <v>25</v>
@@ -16056,7 +16077,7 @@
       <c r="Q151" s="15"/>
     </row>
     <row r="152" spans="1:17">
-      <c r="A152" s="41">
+      <c r="A152" s="42">
         <v>537</v>
       </c>
       <c r="B152" s="23" t="s">
@@ -16072,7 +16093,7 @@
       <c r="F152" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G152" s="43"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="23"/>
       <c r="I152" s="23" t="s">
         <v>25</v>
@@ -16087,7 +16108,7 @@
       <c r="Q152" s="15"/>
     </row>
     <row r="153" spans="1:17">
-      <c r="A153" s="41">
+      <c r="A153" s="42">
         <v>538</v>
       </c>
       <c r="B153" s="23" t="s">
@@ -16103,7 +16124,7 @@
       <c r="F153" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G153" s="43"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="23"/>
       <c r="I153" s="23" t="s">
         <v>25</v>
@@ -16118,7 +16139,7 @@
       <c r="Q153" s="15"/>
     </row>
     <row r="154" s="29" customFormat="1" spans="1:17">
-      <c r="A154" s="41">
+      <c r="A154" s="42">
         <v>539</v>
       </c>
       <c r="B154" s="23" t="s">
@@ -16134,7 +16155,7 @@
       <c r="F154" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G154" s="43"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="23"/>
       <c r="I154" s="23" t="s">
         <v>25</v>
@@ -16153,7 +16174,7 @@
       <c r="Q154" s="15"/>
     </row>
     <row r="155" s="29" customFormat="1" spans="1:17">
-      <c r="A155" s="41">
+      <c r="A155" s="42">
         <v>540</v>
       </c>
       <c r="B155" s="23" t="s">
@@ -16169,7 +16190,7 @@
       <c r="F155" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G155" s="43"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="23"/>
       <c r="I155" s="23" t="s">
         <v>25</v>
@@ -16184,7 +16205,7 @@
       <c r="Q155" s="15"/>
     </row>
     <row r="156" s="29" customFormat="1" spans="1:17">
-      <c r="A156" s="41">
+      <c r="A156" s="42">
         <v>541</v>
       </c>
       <c r="B156" s="23" t="s">
@@ -16200,7 +16221,7 @@
       <c r="F156" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G156" s="43"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="23"/>
       <c r="I156" s="23" t="s">
         <v>25</v>
@@ -16215,7 +16236,7 @@
       <c r="Q156" s="15"/>
     </row>
     <row r="157" s="29" customFormat="1" spans="1:17">
-      <c r="A157" s="41">
+      <c r="A157" s="42">
         <v>542</v>
       </c>
       <c r="B157" s="23" t="s">
@@ -16231,7 +16252,7 @@
       <c r="F157" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G157" s="43"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="23"/>
       <c r="I157" s="23" t="s">
         <v>25</v>
@@ -16246,7 +16267,7 @@
       <c r="Q157" s="15"/>
     </row>
     <row r="158" s="29" customFormat="1" spans="1:17">
-      <c r="A158" s="41">
+      <c r="A158" s="42">
         <v>543</v>
       </c>
       <c r="B158" s="23" t="s">
@@ -16262,7 +16283,7 @@
       <c r="F158" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G158" s="43"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="23"/>
       <c r="I158" s="23" t="s">
         <v>25</v>
@@ -16277,7 +16298,7 @@
       <c r="Q158" s="15"/>
     </row>
     <row r="159" s="29" customFormat="1" spans="1:17">
-      <c r="A159" s="41">
+      <c r="A159" s="42">
         <v>544</v>
       </c>
       <c r="B159" s="23" t="s">
@@ -16293,7 +16314,7 @@
       <c r="F159" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G159" s="43"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="23"/>
       <c r="I159" s="15" t="s">
         <v>16</v>
@@ -16312,7 +16333,7 @@
       <c r="Q159" s="15"/>
     </row>
     <row r="160" s="29" customFormat="1" spans="1:17">
-      <c r="A160" s="41">
+      <c r="A160" s="42">
         <v>545</v>
       </c>
       <c r="B160" s="23" t="s">
@@ -16328,7 +16349,7 @@
       <c r="F160" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G160" s="43"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="23"/>
       <c r="I160" s="15" t="s">
         <v>16</v>
@@ -16347,7 +16368,7 @@
       <c r="Q160" s="15"/>
     </row>
     <row r="161" s="29" customFormat="1" spans="1:17">
-      <c r="A161" s="41">
+      <c r="A161" s="42">
         <v>546</v>
       </c>
       <c r="B161" s="23" t="s">
@@ -16363,7 +16384,7 @@
       <c r="F161" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G161" s="43"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="23"/>
       <c r="I161" s="23" t="s">
         <v>25</v>
@@ -16378,7 +16399,7 @@
       <c r="Q161" s="15"/>
     </row>
     <row r="162" s="29" customFormat="1" spans="1:17">
-      <c r="A162" s="41">
+      <c r="A162" s="42">
         <v>547</v>
       </c>
       <c r="B162" s="23" t="s">
@@ -16394,7 +16415,7 @@
       <c r="F162" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G162" s="43"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="23"/>
       <c r="I162" s="23" t="s">
         <v>25</v>
@@ -16409,7 +16430,7 @@
       <c r="Q162" s="15"/>
     </row>
     <row r="163" spans="1:17">
-      <c r="A163" s="41">
+      <c r="A163" s="42">
         <v>548</v>
       </c>
       <c r="B163" s="23" t="s">
@@ -16425,7 +16446,7 @@
       <c r="F163" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G163" s="43"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="23"/>
       <c r="I163" s="23" t="s">
         <v>25</v>
@@ -16440,7 +16461,7 @@
       <c r="Q163" s="15"/>
     </row>
     <row r="164" spans="1:17">
-      <c r="A164" s="41">
+      <c r="A164" s="42">
         <v>549</v>
       </c>
       <c r="B164" s="23" t="s">
@@ -16456,7 +16477,7 @@
       <c r="F164" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G164" s="43"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="23"/>
       <c r="I164" s="23" t="s">
         <v>25</v>
@@ -16471,7 +16492,7 @@
       <c r="Q164" s="15"/>
     </row>
     <row r="165" spans="1:17">
-      <c r="A165" s="41">
+      <c r="A165" s="42">
         <v>550</v>
       </c>
       <c r="B165" s="23" t="s">
@@ -16487,7 +16508,7 @@
       <c r="F165" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G165" s="43"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="23"/>
       <c r="I165" s="23" t="s">
         <v>25</v>
@@ -16502,7 +16523,7 @@
       <c r="Q165" s="15"/>
     </row>
     <row r="166" s="29" customFormat="1" spans="1:17">
-      <c r="A166" s="41">
+      <c r="A166" s="42">
         <v>551</v>
       </c>
       <c r="B166" s="23" t="s">
@@ -16518,7 +16539,7 @@
       <c r="F166" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G166" s="43"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="23"/>
       <c r="I166" s="23" t="s">
         <v>25</v>
@@ -16533,7 +16554,7 @@
       <c r="Q166" s="15"/>
     </row>
     <row r="167" s="29" customFormat="1" spans="1:17">
-      <c r="A167" s="41">
+      <c r="A167" s="42">
         <v>562</v>
       </c>
       <c r="B167" s="23" t="s">
@@ -16568,7 +16589,7 @@
       <c r="Q167" s="15"/>
     </row>
     <row r="168" s="29" customFormat="1" spans="1:17">
-      <c r="A168" s="41">
+      <c r="A168" s="42">
         <v>563</v>
       </c>
       <c r="B168" s="23" t="s">
@@ -16599,7 +16620,7 @@
       <c r="Q168" s="15"/>
     </row>
     <row r="169" s="29" customFormat="1" spans="1:17">
-      <c r="A169" s="41">
+      <c r="A169" s="42">
         <v>564</v>
       </c>
       <c r="B169" s="23" t="s">
@@ -16634,7 +16655,7 @@
       <c r="Q169" s="15"/>
     </row>
     <row r="170" s="29" customFormat="1" spans="1:17">
-      <c r="A170" s="41">
+      <c r="A170" s="42">
         <v>571</v>
       </c>
       <c r="B170" s="23" t="s">
@@ -16665,7 +16686,7 @@
       <c r="Q170" s="15"/>
     </row>
     <row r="171" s="29" customFormat="1" spans="1:17">
-      <c r="A171" s="41">
+      <c r="A171" s="42">
         <v>572</v>
       </c>
       <c r="B171" s="23" t="s">
@@ -16696,7 +16717,7 @@
       <c r="Q171" s="15"/>
     </row>
     <row r="172" s="29" customFormat="1" spans="1:17">
-      <c r="A172" s="41">
+      <c r="A172" s="42">
         <v>573</v>
       </c>
       <c r="B172" s="23" t="s">
@@ -16727,7 +16748,7 @@
       <c r="Q172" s="15"/>
     </row>
     <row r="173" s="29" customFormat="1" spans="1:17">
-      <c r="A173" s="41">
+      <c r="A173" s="42">
         <v>574</v>
       </c>
       <c r="B173" s="23" t="s">
@@ -16762,7 +16783,7 @@
       <c r="Q173" s="15"/>
     </row>
     <row r="174" s="29" customFormat="1" spans="1:17">
-      <c r="A174" s="41">
+      <c r="A174" s="42">
         <v>575</v>
       </c>
       <c r="B174" s="23" t="s">
@@ -16793,7 +16814,7 @@
       <c r="Q174" s="15"/>
     </row>
     <row r="175" s="29" customFormat="1" spans="1:17">
-      <c r="A175" s="41">
+      <c r="A175" s="42">
         <v>675</v>
       </c>
       <c r="B175" s="23" t="s">
@@ -16826,7 +16847,7 @@
       <c r="Q175" s="15"/>
     </row>
     <row r="176" s="29" customFormat="1" spans="1:17">
-      <c r="A176" s="39">
+      <c r="A176" s="40">
         <v>28</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -16860,7 +16881,7 @@
       <c r="Q176" s="14"/>
     </row>
     <row r="177" s="29" customFormat="1" spans="1:17">
-      <c r="A177" s="39">
+      <c r="A177" s="40">
         <v>35</v>
       </c>
       <c r="B177" s="19" t="s">
@@ -16894,7 +16915,7 @@
       <c r="Q177" s="14"/>
     </row>
     <row r="178" s="29" customFormat="1" spans="1:17">
-      <c r="A178" s="39">
+      <c r="A178" s="40">
         <v>38</v>
       </c>
       <c r="B178" s="19" t="s">
@@ -16928,7 +16949,7 @@
       <c r="Q178" s="14"/>
     </row>
     <row r="179" s="29" customFormat="1" spans="1:17">
-      <c r="A179" s="39">
+      <c r="A179" s="40">
         <v>81</v>
       </c>
       <c r="B179" s="19" t="s">
@@ -16962,7 +16983,7 @@
       <c r="Q179" s="14"/>
     </row>
     <row r="180" spans="1:17">
-      <c r="A180" s="39">
+      <c r="A180" s="40">
         <v>82</v>
       </c>
       <c r="B180" s="19" t="s">
@@ -16996,7 +17017,7 @@
       <c r="Q180" s="14"/>
     </row>
     <row r="181" s="29" customFormat="1" spans="1:17">
-      <c r="A181" s="39">
+      <c r="A181" s="40">
         <v>83</v>
       </c>
       <c r="B181" s="19" t="s">
@@ -17030,7 +17051,7 @@
       <c r="Q181" s="14"/>
     </row>
     <row r="182" s="29" customFormat="1" spans="1:17">
-      <c r="A182" s="39">
+      <c r="A182" s="40">
         <v>84</v>
       </c>
       <c r="B182" s="19" t="s">
@@ -17064,7 +17085,7 @@
       <c r="Q182" s="14"/>
     </row>
     <row r="183" spans="1:17">
-      <c r="A183" s="39">
+      <c r="A183" s="40">
         <v>85</v>
       </c>
       <c r="B183" s="19" t="s">
@@ -17098,7 +17119,7 @@
       <c r="Q183" s="14"/>
     </row>
     <row r="184" spans="1:17">
-      <c r="A184" s="39">
+      <c r="A184" s="40">
         <v>86</v>
       </c>
       <c r="B184" s="19" t="s">
@@ -17132,7 +17153,7 @@
       <c r="Q184" s="14"/>
     </row>
     <row r="185" s="29" customFormat="1" spans="1:17">
-      <c r="A185" s="39">
+      <c r="A185" s="40">
         <v>87</v>
       </c>
       <c r="B185" s="19" t="s">
@@ -17166,7 +17187,7 @@
       <c r="Q185" s="14"/>
     </row>
     <row r="186" s="29" customFormat="1" spans="1:17">
-      <c r="A186" s="39">
+      <c r="A186" s="40">
         <v>88</v>
       </c>
       <c r="B186" s="19" t="s">
@@ -17200,7 +17221,7 @@
       <c r="Q186" s="14"/>
     </row>
     <row r="187" s="29" customFormat="1" spans="1:17">
-      <c r="A187" s="39">
+      <c r="A187" s="40">
         <v>89</v>
       </c>
       <c r="B187" s="19" t="s">
@@ -17238,7 +17259,7 @@
       <c r="Q187" s="14"/>
     </row>
     <row r="188" s="29" customFormat="1" spans="1:17">
-      <c r="A188" s="39">
+      <c r="A188" s="40">
         <v>90</v>
       </c>
       <c r="B188" s="19" t="s">
@@ -17280,7 +17301,7 @@
       <c r="Q188" s="14"/>
     </row>
     <row r="189" s="29" customFormat="1" spans="1:17">
-      <c r="A189" s="39">
+      <c r="A189" s="40">
         <v>91</v>
       </c>
       <c r="B189" s="19" t="s">
@@ -17314,7 +17335,7 @@
       <c r="Q189" s="14"/>
     </row>
     <row r="190" s="29" customFormat="1" spans="1:17">
-      <c r="A190" s="39">
+      <c r="A190" s="40">
         <v>92</v>
       </c>
       <c r="B190" s="19" t="s">
@@ -17356,7 +17377,7 @@
       <c r="Q190" s="14"/>
     </row>
     <row r="191" spans="1:17">
-      <c r="A191" s="39">
+      <c r="A191" s="40">
         <v>93</v>
       </c>
       <c r="B191" s="19" t="s">
@@ -17398,7 +17419,7 @@
       <c r="Q191" s="14"/>
     </row>
     <row r="192" spans="1:17">
-      <c r="A192" s="39">
+      <c r="A192" s="40">
         <v>94</v>
       </c>
       <c r="B192" s="19" t="s">
@@ -17444,7 +17465,7 @@
       </c>
     </row>
     <row r="193" spans="1:17">
-      <c r="A193" s="39">
+      <c r="A193" s="40">
         <v>95</v>
       </c>
       <c r="B193" s="19" t="s">
@@ -17482,7 +17503,7 @@
       <c r="Q193" s="14"/>
     </row>
     <row r="194" spans="1:17">
-      <c r="A194" s="39">
+      <c r="A194" s="40">
         <v>96</v>
       </c>
       <c r="B194" s="19" t="s">
@@ -17520,7 +17541,7 @@
       <c r="Q194" s="14"/>
     </row>
     <row r="195" spans="1:17">
-      <c r="A195" s="39">
+      <c r="A195" s="40">
         <v>97</v>
       </c>
       <c r="B195" s="19" t="s">
@@ -17558,7 +17579,7 @@
       <c r="Q195" s="14"/>
     </row>
     <row r="196" spans="1:17">
-      <c r="A196" s="39">
+      <c r="A196" s="40">
         <v>98</v>
       </c>
       <c r="B196" s="19" t="s">
@@ -17596,7 +17617,7 @@
       <c r="Q196" s="14"/>
     </row>
     <row r="197" spans="1:17">
-      <c r="A197" s="39">
+      <c r="A197" s="40">
         <v>99</v>
       </c>
       <c r="B197" s="19" t="s">
@@ -17638,7 +17659,7 @@
       <c r="Q197" s="14"/>
     </row>
     <row r="198" spans="1:17">
-      <c r="A198" s="48">
+      <c r="A198" s="49">
         <v>100</v>
       </c>
       <c r="B198" s="19" t="s">
@@ -17680,7 +17701,7 @@
       <c r="Q198" s="14"/>
     </row>
     <row r="199" spans="1:17">
-      <c r="A199" s="48">
+      <c r="A199" s="49">
         <v>101</v>
       </c>
       <c r="B199" s="19" t="s">
@@ -17714,7 +17735,7 @@
       <c r="Q199" s="14"/>
     </row>
     <row r="200" spans="1:17">
-      <c r="A200" s="48">
+      <c r="A200" s="49">
         <v>102</v>
       </c>
       <c r="B200" s="19" t="s">
@@ -17756,7 +17777,7 @@
       <c r="Q200" s="14"/>
     </row>
     <row r="201" spans="1:17">
-      <c r="A201" s="48">
+      <c r="A201" s="49">
         <v>103</v>
       </c>
       <c r="B201" s="19" t="s">
@@ -17794,7 +17815,7 @@
       <c r="Q201" s="14"/>
     </row>
     <row r="202" spans="1:17">
-      <c r="A202" s="48">
+      <c r="A202" s="49">
         <v>104</v>
       </c>
       <c r="B202" s="19" t="s">
@@ -17832,7 +17853,7 @@
       <c r="Q202" s="14"/>
     </row>
     <row r="203" spans="1:17">
-      <c r="A203" s="48">
+      <c r="A203" s="49">
         <v>105</v>
       </c>
       <c r="B203" s="19" t="s">
@@ -17874,7 +17895,7 @@
       <c r="Q203" s="14"/>
     </row>
     <row r="204" spans="1:17">
-      <c r="A204" s="48">
+      <c r="A204" s="49">
         <v>106</v>
       </c>
       <c r="B204" s="19" t="s">
@@ -17908,7 +17929,7 @@
       <c r="Q204" s="14"/>
     </row>
     <row r="205" spans="1:17">
-      <c r="A205" s="48">
+      <c r="A205" s="49">
         <v>107</v>
       </c>
       <c r="B205" s="19" t="s">
@@ -17942,7 +17963,7 @@
       <c r="Q205" s="14"/>
     </row>
     <row r="206" spans="1:17">
-      <c r="A206" s="48">
+      <c r="A206" s="49">
         <v>108</v>
       </c>
       <c r="B206" s="19" t="s">
@@ -17980,7 +18001,7 @@
       <c r="Q206" s="14"/>
     </row>
     <row r="207" spans="1:17">
-      <c r="A207" s="48">
+      <c r="A207" s="49">
         <v>109</v>
       </c>
       <c r="B207" s="19" t="s">
@@ -18018,7 +18039,7 @@
       <c r="Q207" s="14"/>
     </row>
     <row r="208" spans="1:17">
-      <c r="A208" s="48">
+      <c r="A208" s="49">
         <v>110</v>
       </c>
       <c r="B208" s="19" t="s">
@@ -18060,7 +18081,7 @@
       <c r="Q208" s="14"/>
     </row>
     <row r="209" spans="1:17">
-      <c r="A209" s="48">
+      <c r="A209" s="49">
         <v>111</v>
       </c>
       <c r="B209" s="19" t="s">
@@ -18094,7 +18115,7 @@
       <c r="Q209" s="14"/>
     </row>
     <row r="210" s="29" customFormat="1" spans="1:17">
-      <c r="A210" s="48">
+      <c r="A210" s="49">
         <v>112</v>
       </c>
       <c r="B210" s="19" t="s">
@@ -18128,7 +18149,7 @@
       <c r="Q210" s="14"/>
     </row>
     <row r="211" spans="1:17">
-      <c r="A211" s="48">
+      <c r="A211" s="49">
         <v>113</v>
       </c>
       <c r="B211" s="19" t="s">
@@ -18166,7 +18187,7 @@
       <c r="Q211" s="14"/>
     </row>
     <row r="212" spans="1:17">
-      <c r="A212" s="48">
+      <c r="A212" s="49">
         <v>114</v>
       </c>
       <c r="B212" s="19" t="s">
@@ -18204,7 +18225,7 @@
       <c r="Q212" s="14"/>
     </row>
     <row r="213" spans="1:17">
-      <c r="A213" s="48">
+      <c r="A213" s="49">
         <v>115</v>
       </c>
       <c r="B213" s="19" t="s">
@@ -18242,7 +18263,7 @@
       <c r="Q213" s="14"/>
     </row>
     <row r="214" s="29" customFormat="1" spans="1:17">
-      <c r="A214" s="48">
+      <c r="A214" s="49">
         <v>116</v>
       </c>
       <c r="B214" s="19" t="s">
@@ -18284,7 +18305,7 @@
       <c r="Q214" s="14"/>
     </row>
     <row r="215" spans="1:17">
-      <c r="A215" s="48">
+      <c r="A215" s="49">
         <v>117</v>
       </c>
       <c r="B215" s="19" t="s">
@@ -18326,7 +18347,7 @@
       <c r="Q215" s="14"/>
     </row>
     <row r="216" s="29" customFormat="1" spans="1:17">
-      <c r="A216" s="48">
+      <c r="A216" s="49">
         <v>154</v>
       </c>
       <c r="B216" s="19" t="s">
@@ -18364,7 +18385,7 @@
       <c r="Q216" s="14"/>
     </row>
     <row r="217" s="29" customFormat="1" spans="1:17">
-      <c r="A217" s="48">
+      <c r="A217" s="49">
         <v>155</v>
       </c>
       <c r="B217" s="19" t="s">
@@ -18402,7 +18423,7 @@
       <c r="Q217" s="14"/>
     </row>
     <row r="218" spans="1:17">
-      <c r="A218" s="48">
+      <c r="A218" s="49">
         <v>156</v>
       </c>
       <c r="B218" s="19" t="s">
@@ -18436,7 +18457,7 @@
       <c r="Q218" s="14"/>
     </row>
     <row r="219" spans="1:17">
-      <c r="A219" s="48">
+      <c r="A219" s="49">
         <v>157</v>
       </c>
       <c r="B219" s="19" t="s">
@@ -18478,7 +18499,7 @@
       <c r="Q219" s="14"/>
     </row>
     <row r="220" spans="1:17">
-      <c r="A220" s="48">
+      <c r="A220" s="49">
         <v>158</v>
       </c>
       <c r="B220" s="19" t="s">
@@ -18520,7 +18541,7 @@
       <c r="Q220" s="14"/>
     </row>
     <row r="221" spans="1:17">
-      <c r="A221" s="48">
+      <c r="A221" s="49">
         <v>159</v>
       </c>
       <c r="B221" s="19" t="s">
@@ -18554,7 +18575,7 @@
       <c r="Q221" s="14"/>
     </row>
     <row r="222" spans="1:17">
-      <c r="A222" s="48">
+      <c r="A222" s="49">
         <v>160</v>
       </c>
       <c r="B222" s="19" t="s">
@@ -18588,7 +18609,7 @@
       <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17">
-      <c r="A223" s="48">
+      <c r="A223" s="49">
         <v>161</v>
       </c>
       <c r="B223" s="19" t="s">
@@ -18622,7 +18643,7 @@
       <c r="Q223" s="14"/>
     </row>
     <row r="224" spans="1:17">
-      <c r="A224" s="48">
+      <c r="A224" s="49">
         <v>162</v>
       </c>
       <c r="B224" s="19" t="s">
@@ -18656,7 +18677,7 @@
       <c r="Q224" s="14"/>
     </row>
     <row r="225" spans="1:17">
-      <c r="A225" s="48">
+      <c r="A225" s="49">
         <v>166</v>
       </c>
       <c r="B225" s="19" t="s">
@@ -18690,7 +18711,7 @@
       <c r="Q225" s="14"/>
     </row>
     <row r="226" spans="1:17">
-      <c r="A226" s="48">
+      <c r="A226" s="49">
         <v>167</v>
       </c>
       <c r="B226" s="19" t="s">
@@ -18724,7 +18745,7 @@
       <c r="Q226" s="14"/>
     </row>
     <row r="227" s="29" customFormat="1" spans="1:17">
-      <c r="A227" s="48">
+      <c r="A227" s="49">
         <v>168</v>
       </c>
       <c r="B227" s="19" t="s">
@@ -18758,7 +18779,7 @@
       <c r="Q227" s="14"/>
     </row>
     <row r="228" spans="1:17">
-      <c r="A228" s="48">
+      <c r="A228" s="49">
         <v>169</v>
       </c>
       <c r="B228" s="19" t="s">
@@ -18792,7 +18813,7 @@
       <c r="Q228" s="14"/>
     </row>
     <row r="229" s="29" customFormat="1" spans="1:17">
-      <c r="A229" s="48">
+      <c r="A229" s="49">
         <v>170</v>
       </c>
       <c r="B229" s="19" t="s">
@@ -18830,7 +18851,7 @@
       <c r="Q229" s="14"/>
     </row>
     <row r="230" s="29" customFormat="1" spans="1:17">
-      <c r="A230" s="48">
+      <c r="A230" s="49">
         <v>171</v>
       </c>
       <c r="B230" s="19" t="s">
@@ -18872,7 +18893,7 @@
       <c r="Q230" s="14"/>
     </row>
     <row r="231" s="29" customFormat="1" spans="1:17">
-      <c r="A231" s="48">
+      <c r="A231" s="49">
         <v>172</v>
       </c>
       <c r="B231" s="19" t="s">
@@ -18906,7 +18927,7 @@
       <c r="Q231" s="14"/>
     </row>
     <row r="232" s="29" customFormat="1" spans="1:17">
-      <c r="A232" s="48">
+      <c r="A232" s="49">
         <v>173</v>
       </c>
       <c r="B232" s="19" t="s">
@@ -18944,7 +18965,7 @@
       <c r="Q232" s="14"/>
     </row>
     <row r="233" s="29" customFormat="1" spans="1:17">
-      <c r="A233" s="48">
+      <c r="A233" s="49">
         <v>174</v>
       </c>
       <c r="B233" s="19" t="s">
@@ -18982,7 +19003,7 @@
       <c r="Q233" s="14"/>
     </row>
     <row r="234" s="29" customFormat="1" spans="1:17">
-      <c r="A234" s="48">
+      <c r="A234" s="49">
         <v>175</v>
       </c>
       <c r="B234" s="19" t="s">
@@ -19016,7 +19037,7 @@
       <c r="Q234" s="14"/>
     </row>
     <row r="235" s="29" customFormat="1" spans="1:17">
-      <c r="A235" s="48">
+      <c r="A235" s="49">
         <v>176</v>
       </c>
       <c r="B235" s="19" t="s">
@@ -19054,7 +19075,7 @@
       <c r="Q235" s="14"/>
     </row>
     <row r="236" s="29" customFormat="1" spans="1:17">
-      <c r="A236" s="39">
+      <c r="A236" s="40">
         <v>177</v>
       </c>
       <c r="B236" s="19" t="s">
@@ -19088,7 +19109,7 @@
       <c r="Q236" s="14"/>
     </row>
     <row r="237" s="29" customFormat="1" spans="1:17">
-      <c r="A237" s="39">
+      <c r="A237" s="40">
         <v>181</v>
       </c>
       <c r="B237" s="19" t="s">
@@ -19126,7 +19147,7 @@
       <c r="Q237" s="14"/>
     </row>
     <row r="238" spans="1:17">
-      <c r="A238" s="39">
+      <c r="A238" s="40">
         <v>227</v>
       </c>
       <c r="B238" s="19" t="s">
@@ -19160,7 +19181,7 @@
       <c r="Q238" s="14"/>
     </row>
     <row r="239" spans="1:17">
-      <c r="A239" s="39">
+      <c r="A239" s="40">
         <v>231</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -19194,7 +19215,7 @@
       <c r="Q239" s="14"/>
     </row>
     <row r="240" spans="1:17">
-      <c r="A240" s="39">
+      <c r="A240" s="40">
         <v>232</v>
       </c>
       <c r="B240" s="19" t="s">
@@ -19232,7 +19253,7 @@
       <c r="Q240" s="14"/>
     </row>
     <row r="241" spans="1:17">
-      <c r="A241" s="39">
+      <c r="A241" s="40">
         <v>233</v>
       </c>
       <c r="B241" s="19" t="s">
@@ -19266,7 +19287,7 @@
       <c r="Q241" s="14"/>
     </row>
     <row r="242" spans="1:17">
-      <c r="A242" s="39">
+      <c r="A242" s="40">
         <v>234</v>
       </c>
       <c r="B242" s="19" t="s">
@@ -19300,7 +19321,7 @@
       <c r="Q242" s="14"/>
     </row>
     <row r="243" spans="1:17">
-      <c r="A243" s="39">
+      <c r="A243" s="40">
         <v>235</v>
       </c>
       <c r="B243" s="19" t="s">
@@ -19334,7 +19355,7 @@
       <c r="Q243" s="14"/>
     </row>
     <row r="244" spans="1:17">
-      <c r="A244" s="39">
+      <c r="A244" s="40">
         <v>236</v>
       </c>
       <c r="B244" s="19" t="s">
@@ -19368,7 +19389,7 @@
       <c r="Q244" s="14"/>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="39">
+      <c r="A245" s="40">
         <v>237</v>
       </c>
       <c r="B245" s="19" t="s">
@@ -19402,7 +19423,7 @@
       <c r="Q245" s="14"/>
     </row>
     <row r="246" s="29" customFormat="1" spans="1:17">
-      <c r="A246" s="39">
+      <c r="A246" s="40">
         <v>599</v>
       </c>
       <c r="B246" s="19" t="s">
@@ -19436,7 +19457,7 @@
       <c r="Q246" s="14"/>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="39">
+      <c r="A247" s="40">
         <v>635</v>
       </c>
       <c r="B247" s="19" t="s">
@@ -19452,7 +19473,7 @@
         <f>VLOOKUP(MID(D247,1,2),字库代码!B:I,8,TRUE)</f>
         <v>孢子树</v>
       </c>
-      <c r="F247" s="49" t="s">
+      <c r="F247" s="50" t="s">
         <v>561</v>
       </c>
       <c r="G247" s="19"/>
@@ -19474,39 +19495,39 @@
       <c r="Q247" s="14"/>
     </row>
     <row r="248" s="29" customFormat="1" spans="1:17">
-      <c r="A248" s="50">
+      <c r="A248" s="51">
         <v>643</v>
       </c>
-      <c r="B248" s="49" t="s">
+      <c r="B248" s="50" t="s">
         <v>768</v>
       </c>
-      <c r="C248" s="51" t="s">
+      <c r="C248" s="52" t="s">
         <v>769</v>
       </c>
-      <c r="D248" s="49" t="s">
+      <c r="D248" s="50" t="s">
         <v>229</v>
       </c>
       <c r="E248" s="14" t="str">
         <f>VLOOKUP(MID(D248,1,2),字库代码!B:I,8,TRUE)</f>
         <v>尼科通巴</v>
       </c>
-      <c r="F248" s="49" t="s">
+      <c r="F248" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="G248" s="49"/>
-      <c r="H248" s="49"/>
-      <c r="I248" s="51"/>
-      <c r="J248" s="51"/>
-      <c r="K248" s="51"/>
-      <c r="L248" s="51"/>
-      <c r="M248" s="51"/>
-      <c r="N248" s="51"/>
-      <c r="O248" s="51"/>
-      <c r="P248" s="51"/>
-      <c r="Q248" s="51"/>
+      <c r="G248" s="50"/>
+      <c r="H248" s="50"/>
+      <c r="I248" s="52"/>
+      <c r="J248" s="52"/>
+      <c r="K248" s="52"/>
+      <c r="L248" s="52"/>
+      <c r="M248" s="52"/>
+      <c r="N248" s="52"/>
+      <c r="O248" s="52"/>
+      <c r="P248" s="52"/>
+      <c r="Q248" s="52"/>
     </row>
     <row r="249" s="29" customFormat="1" spans="1:17">
-      <c r="A249" s="39">
+      <c r="A249" s="40">
         <v>649</v>
       </c>
       <c r="B249" s="19" t="s">
@@ -19544,7 +19565,7 @@
       <c r="Q249" s="14"/>
     </row>
     <row r="250" s="31" customFormat="1" spans="1:17">
-      <c r="A250" s="39">
+      <c r="A250" s="40">
         <v>650</v>
       </c>
       <c r="B250" s="19" t="s">
@@ -19578,7 +19599,7 @@
       <c r="Q250" s="14"/>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="39">
+      <c r="A251" s="40">
         <v>651</v>
       </c>
       <c r="B251" s="19" t="s">
@@ -19594,7 +19615,7 @@
         <f>VLOOKUP(MID(D251,1,2),字库代码!B:I,8,TRUE)</f>
         <v>器官兽</v>
       </c>
-      <c r="F251" s="49" t="s">
+      <c r="F251" s="50" t="s">
         <v>561</v>
       </c>
       <c r="G251" s="19"/>
@@ -19612,7 +19633,7 @@
       <c r="Q251" s="14"/>
     </row>
     <row r="252" s="29" customFormat="1" spans="1:17">
-      <c r="A252" s="39">
+      <c r="A252" s="40">
         <v>655</v>
       </c>
       <c r="B252" s="19" t="s">
@@ -19646,13 +19667,13 @@
       <c r="Q252" s="14"/>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="39">
+      <c r="A253" s="40">
         <v>682</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>779</v>
       </c>
-      <c r="C253" s="52" t="s">
+      <c r="C253" s="53" t="s">
         <v>780</v>
       </c>
       <c r="D253" s="7" t="s">
@@ -19680,13 +19701,13 @@
       <c r="Q253" s="14"/>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="39">
+      <c r="A254" s="40">
         <v>683</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>782</v>
       </c>
-      <c r="C254" s="52" t="s">
+      <c r="C254" s="53" t="s">
         <v>783</v>
       </c>
       <c r="D254" s="7" t="s">
@@ -19714,7 +19735,7 @@
       <c r="Q254" s="14"/>
     </row>
     <row r="255" s="29" customFormat="1" spans="1:17">
-      <c r="A255" s="39">
+      <c r="A255" s="40">
         <v>698</v>
       </c>
       <c r="B255" s="19" t="s">
@@ -19748,7 +19769,7 @@
       <c r="Q255" s="14"/>
     </row>
     <row r="256" s="29" customFormat="1" spans="1:17">
-      <c r="A256" s="39">
+      <c r="A256" s="40">
         <v>751</v>
       </c>
       <c r="B256" s="19" t="s">
@@ -19782,7 +19803,7 @@
       <c r="Q256" s="14"/>
     </row>
     <row r="257" spans="1:17">
-      <c r="A257" s="39">
+      <c r="A257" s="40">
         <v>18</v>
       </c>
       <c r="B257" s="19" t="s">
@@ -19816,7 +19837,7 @@
       <c r="Q257" s="14"/>
     </row>
     <row r="258" s="29" customFormat="1" spans="1:17">
-      <c r="A258" s="39">
+      <c r="A258" s="40">
         <v>19</v>
       </c>
       <c r="B258" s="19" t="s">
@@ -19850,7 +19871,7 @@
       <c r="Q258" s="14"/>
     </row>
     <row r="259" s="29" customFormat="1" spans="1:17">
-      <c r="A259" s="39">
+      <c r="A259" s="40">
         <v>25</v>
       </c>
       <c r="B259" s="19" t="s">
@@ -19884,7 +19905,7 @@
       <c r="Q259" s="14"/>
     </row>
     <row r="260" s="29" customFormat="1" spans="1:17">
-      <c r="A260" s="39">
+      <c r="A260" s="40">
         <v>26</v>
       </c>
       <c r="B260" s="19" t="s">
@@ -19922,7 +19943,7 @@
       <c r="Q260" s="14"/>
     </row>
     <row r="261" s="29" customFormat="1" spans="1:17">
-      <c r="A261" s="39">
+      <c r="A261" s="40">
         <v>27</v>
       </c>
       <c r="B261" s="19" t="s">
@@ -19956,7 +19977,7 @@
       <c r="Q261" s="14"/>
     </row>
     <row r="262" s="29" customFormat="1" spans="1:17">
-      <c r="A262" s="39">
+      <c r="A262" s="40">
         <v>37</v>
       </c>
       <c r="B262" s="19" t="s">
@@ -19988,7 +20009,7 @@
       <c r="Q262" s="14"/>
     </row>
     <row r="263" s="31" customFormat="1" spans="1:17">
-      <c r="A263" s="39">
+      <c r="A263" s="40">
         <v>53</v>
       </c>
       <c r="B263" s="19" t="s">
@@ -20026,7 +20047,7 @@
       <c r="Q263" s="14"/>
     </row>
     <row r="264" spans="1:17">
-      <c r="A264" s="39">
+      <c r="A264" s="40">
         <v>54</v>
       </c>
       <c r="B264" s="19" t="s">
@@ -20064,7 +20085,7 @@
       <c r="Q264" s="14"/>
     </row>
     <row r="265" spans="1:17">
-      <c r="A265" s="39">
+      <c r="A265" s="40">
         <v>55</v>
       </c>
       <c r="B265" s="19" t="s">
@@ -20102,7 +20123,7 @@
       <c r="Q265" s="14"/>
     </row>
     <row r="266" spans="1:17">
-      <c r="A266" s="39">
+      <c r="A266" s="40">
         <v>56</v>
       </c>
       <c r="B266" s="19" t="s">
@@ -20138,7 +20159,7 @@
       <c r="Q266" s="14"/>
     </row>
     <row r="267" spans="1:17">
-      <c r="A267" s="39">
+      <c r="A267" s="40">
         <v>57</v>
       </c>
       <c r="B267" s="19" t="s">
@@ -20172,7 +20193,7 @@
       <c r="Q267" s="14"/>
     </row>
     <row r="268" spans="1:17">
-      <c r="A268" s="39">
+      <c r="A268" s="40">
         <v>58</v>
       </c>
       <c r="B268" s="19" t="s">
@@ -20206,7 +20227,7 @@
       <c r="Q268" s="14"/>
     </row>
     <row r="269" spans="1:17">
-      <c r="A269" s="39">
+      <c r="A269" s="40">
         <v>59</v>
       </c>
       <c r="B269" s="19" t="s">
@@ -20244,7 +20265,7 @@
       <c r="Q269" s="14"/>
     </row>
     <row r="270" spans="1:17">
-      <c r="A270" s="39">
+      <c r="A270" s="40">
         <v>60</v>
       </c>
       <c r="B270" s="19" t="s">
@@ -20282,7 +20303,7 @@
       <c r="Q270" s="14"/>
     </row>
     <row r="271" spans="1:17">
-      <c r="A271" s="39">
+      <c r="A271" s="40">
         <v>61</v>
       </c>
       <c r="B271" s="19" t="s">
@@ -20320,7 +20341,7 @@
       <c r="Q271" s="14"/>
     </row>
     <row r="272" s="29" customFormat="1" spans="1:17">
-      <c r="A272" s="39">
+      <c r="A272" s="40">
         <v>62</v>
       </c>
       <c r="B272" s="19" t="s">
@@ -20358,7 +20379,7 @@
       <c r="Q272" s="14"/>
     </row>
     <row r="273" spans="1:17">
-      <c r="A273" s="39">
+      <c r="A273" s="40">
         <v>63</v>
       </c>
       <c r="B273" s="19" t="s">
@@ -20396,7 +20417,7 @@
       <c r="Q273" s="14"/>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="39">
+      <c r="A274" s="40">
         <v>64</v>
       </c>
       <c r="B274" s="19" t="s">
@@ -20434,16 +20455,16 @@
       <c r="Q274" s="14"/>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="53">
+      <c r="A275" s="54">
         <v>65</v>
       </c>
-      <c r="B275" s="54" t="s">
+      <c r="B275" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="55" t="s">
         <v>848</v>
       </c>
-      <c r="D275" s="54" t="s">
+      <c r="D275" s="55" t="s">
         <v>849</v>
       </c>
       <c r="E275" s="14" t="str">
@@ -20453,10 +20474,10 @@
       <c r="F275" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="G275" s="54" t="s">
+      <c r="G275" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="H275" s="54"/>
+      <c r="H275" s="55"/>
       <c r="I275" s="14" t="s">
         <v>16</v>
       </c>
@@ -20474,7 +20495,7 @@
       <c r="Q275" s="14"/>
     </row>
     <row r="276" spans="1:17">
-      <c r="A276" s="39">
+      <c r="A276" s="40">
         <v>67</v>
       </c>
       <c r="B276" s="19" t="s">
@@ -20508,7 +20529,7 @@
       <c r="Q276" s="14"/>
     </row>
     <row r="277" spans="1:17">
-      <c r="A277" s="39">
+      <c r="A277" s="40">
         <v>68</v>
       </c>
       <c r="B277" s="19" t="s">
@@ -20542,7 +20563,7 @@
       <c r="Q277" s="14"/>
     </row>
     <row r="278" spans="1:17">
-      <c r="A278" s="39">
+      <c r="A278" s="40">
         <v>72</v>
       </c>
       <c r="B278" s="19" t="s">
@@ -20576,7 +20597,7 @@
       <c r="Q278" s="14"/>
     </row>
     <row r="279" spans="1:17">
-      <c r="A279" s="39">
+      <c r="A279" s="40">
         <v>75</v>
       </c>
       <c r="B279" s="19" t="s">
@@ -20610,7 +20631,7 @@
       <c r="Q279" s="14"/>
     </row>
     <row r="280" s="29" customFormat="1" spans="1:17">
-      <c r="A280" s="39">
+      <c r="A280" s="40">
         <v>76</v>
       </c>
       <c r="B280" s="19" t="s">
@@ -20644,7 +20665,7 @@
       <c r="Q280" s="14"/>
     </row>
     <row r="281" spans="1:17">
-      <c r="A281" s="39">
+      <c r="A281" s="40">
         <v>77</v>
       </c>
       <c r="B281" s="19" t="s">
@@ -20678,7 +20699,7 @@
       <c r="Q281" s="14"/>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="39">
+      <c r="A282" s="40">
         <v>78</v>
       </c>
       <c r="B282" s="19" t="s">
@@ -20712,7 +20733,7 @@
       <c r="Q282" s="14"/>
     </row>
     <row r="283" s="29" customFormat="1" spans="1:17">
-      <c r="A283" s="39">
+      <c r="A283" s="40">
         <v>79</v>
       </c>
       <c r="B283" s="19" t="s">
@@ -20746,7 +20767,7 @@
       <c r="Q283" s="14"/>
     </row>
     <row r="284" s="29" customFormat="1" spans="1:17">
-      <c r="A284" s="39">
+      <c r="A284" s="40">
         <v>182</v>
       </c>
       <c r="B284" s="19" t="s">
@@ -20784,7 +20805,7 @@
       <c r="Q284" s="14"/>
     </row>
     <row r="285" s="29" customFormat="1" spans="1:17">
-      <c r="A285" s="39">
+      <c r="A285" s="40">
         <v>185</v>
       </c>
       <c r="B285" s="19" t="s">
@@ -20820,7 +20841,7 @@
       <c r="Q285" s="14"/>
     </row>
     <row r="286" s="29" customFormat="1" spans="1:17">
-      <c r="A286" s="39">
+      <c r="A286" s="40">
         <v>186</v>
       </c>
       <c r="B286" s="19" t="s">
@@ -20856,7 +20877,7 @@
       <c r="Q286" s="14"/>
     </row>
     <row r="287" s="29" customFormat="1" spans="1:17">
-      <c r="A287" s="39">
+      <c r="A287" s="40">
         <v>187</v>
       </c>
       <c r="B287" s="19" t="s">
@@ -20892,7 +20913,7 @@
       <c r="Q287" s="14"/>
     </row>
     <row r="288" s="29" customFormat="1" spans="1:17">
-      <c r="A288" s="39">
+      <c r="A288" s="40">
         <v>188</v>
       </c>
       <c r="B288" s="19" t="s">
@@ -20928,7 +20949,7 @@
       <c r="Q288" s="14"/>
     </row>
     <row r="289" s="29" customFormat="1" spans="1:17">
-      <c r="A289" s="39">
+      <c r="A289" s="40">
         <v>189</v>
       </c>
       <c r="B289" s="19" t="s">
@@ -20964,7 +20985,7 @@
       <c r="Q289" s="14"/>
     </row>
     <row r="290" spans="1:17">
-      <c r="A290" s="39">
+      <c r="A290" s="40">
         <v>190</v>
       </c>
       <c r="B290" s="19" t="s">
@@ -21000,7 +21021,7 @@
       <c r="Q290" s="14"/>
     </row>
     <row r="291" spans="1:17">
-      <c r="A291" s="39">
+      <c r="A291" s="40">
         <v>210</v>
       </c>
       <c r="B291" s="19" t="s">
@@ -21034,7 +21055,7 @@
       <c r="Q291" s="14"/>
     </row>
     <row r="292" spans="1:17">
-      <c r="A292" s="39">
+      <c r="A292" s="40">
         <v>214</v>
       </c>
       <c r="B292" s="19" t="s">
@@ -21072,7 +21093,7 @@
       <c r="Q292" s="14"/>
     </row>
     <row r="293" spans="1:17">
-      <c r="A293" s="39">
+      <c r="A293" s="40">
         <v>216</v>
       </c>
       <c r="B293" s="19" t="s">
@@ -21110,7 +21131,7 @@
       <c r="Q293" s="14"/>
     </row>
     <row r="294" spans="1:17">
-      <c r="A294" s="39">
+      <c r="A294" s="40">
         <v>217</v>
       </c>
       <c r="B294" s="19" t="s">
@@ -21144,7 +21165,7 @@
       <c r="Q294" s="14"/>
     </row>
     <row r="295" spans="1:17">
-      <c r="A295" s="39">
+      <c r="A295" s="40">
         <v>229</v>
       </c>
       <c r="B295" s="19" t="s">
@@ -21182,7 +21203,7 @@
       <c r="Q295" s="14"/>
     </row>
     <row r="296" spans="1:17">
-      <c r="A296" s="39">
+      <c r="A296" s="40">
         <v>230</v>
       </c>
       <c r="B296" s="19" t="s">
@@ -21220,7 +21241,7 @@
       <c r="Q296" s="14"/>
     </row>
     <row r="297" spans="1:17">
-      <c r="A297" s="39">
+      <c r="A297" s="40">
         <v>246</v>
       </c>
       <c r="B297" s="19" t="s">
@@ -21258,7 +21279,7 @@
       <c r="Q297" s="14"/>
     </row>
     <row r="298" spans="1:17">
-      <c r="A298" s="39">
+      <c r="A298" s="40">
         <v>248</v>
       </c>
       <c r="B298" s="19" t="s">
@@ -21296,7 +21317,7 @@
       <c r="Q298" s="14"/>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="39">
+      <c r="A299" s="40">
         <v>249</v>
       </c>
       <c r="B299" s="19" t="s">
@@ -21334,7 +21355,7 @@
       <c r="Q299" s="14"/>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="55">
+      <c r="A300" s="56">
         <v>251</v>
       </c>
       <c r="B300" s="5" t="s">
@@ -21365,7 +21386,7 @@
       <c r="Q300" s="17"/>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="39">
+      <c r="A301" s="40">
         <v>252</v>
       </c>
       <c r="B301" s="19" t="s">
@@ -21401,7 +21422,7 @@
       <c r="Q301" s="14"/>
     </row>
     <row r="302" spans="1:17">
-      <c r="A302" s="39">
+      <c r="A302" s="40">
         <v>255</v>
       </c>
       <c r="B302" s="19" t="s">
@@ -21437,7 +21458,7 @@
       <c r="Q302" s="14"/>
     </row>
     <row r="303" spans="1:17">
-      <c r="A303" s="39">
+      <c r="A303" s="40">
         <v>256</v>
       </c>
       <c r="B303" s="19" t="s">
@@ -21473,7 +21494,7 @@
       <c r="Q303" s="14"/>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="39">
+      <c r="A304" s="40">
         <v>258</v>
       </c>
       <c r="B304" s="19" t="s">
@@ -21509,7 +21530,7 @@
       <c r="Q304" s="14"/>
     </row>
     <row r="305" spans="1:17">
-      <c r="A305" s="39">
+      <c r="A305" s="40">
         <v>259</v>
       </c>
       <c r="B305" s="19" t="s">
@@ -21543,7 +21564,7 @@
       <c r="Q305" s="14"/>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="39">
+      <c r="A306" s="40">
         <v>260</v>
       </c>
       <c r="B306" s="19" t="s">
@@ -21577,7 +21598,7 @@
       <c r="Q306" s="14"/>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="39">
+      <c r="A307" s="40">
         <v>261</v>
       </c>
       <c r="B307" s="19" t="s">
@@ -21611,7 +21632,7 @@
       <c r="Q307" s="14"/>
     </row>
     <row r="308" spans="1:17">
-      <c r="A308" s="39">
+      <c r="A308" s="40">
         <v>262</v>
       </c>
       <c r="B308" s="19" t="s">
@@ -21647,7 +21668,7 @@
       <c r="Q308" s="14"/>
     </row>
     <row r="309" spans="1:17">
-      <c r="A309" s="39">
+      <c r="A309" s="40">
         <v>272</v>
       </c>
       <c r="B309" s="19" t="s">
@@ -21683,7 +21704,7 @@
       <c r="Q309" s="14"/>
     </row>
     <row r="310" spans="1:17">
-      <c r="A310" s="39">
+      <c r="A310" s="40">
         <v>280</v>
       </c>
       <c r="B310" s="19" t="s">
@@ -21717,7 +21738,7 @@
       <c r="Q310" s="14"/>
     </row>
     <row r="311" spans="1:17">
-      <c r="A311" s="39">
+      <c r="A311" s="40">
         <v>289</v>
       </c>
       <c r="B311" s="19" t="s">
@@ -21751,7 +21772,7 @@
       <c r="Q311" s="14"/>
     </row>
     <row r="312" spans="1:17">
-      <c r="A312" s="55">
+      <c r="A312" s="56">
         <v>291</v>
       </c>
       <c r="B312" s="5" t="s">
@@ -21782,7 +21803,7 @@
       <c r="Q312" s="17"/>
     </row>
     <row r="313" spans="1:17">
-      <c r="A313" s="39">
+      <c r="A313" s="40">
         <v>636</v>
       </c>
       <c r="B313" s="19" t="s">
@@ -21816,7 +21837,7 @@
       <c r="Q313" s="14"/>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="55">
+      <c r="A314" s="56">
         <v>638</v>
       </c>
       <c r="B314" s="5" t="s">
@@ -21849,7 +21870,7 @@
       <c r="Q314" s="17"/>
     </row>
     <row r="315" spans="1:17">
-      <c r="A315" s="55">
+      <c r="A315" s="56">
         <v>639</v>
       </c>
       <c r="B315" s="5" t="s">
@@ -21882,7 +21903,7 @@
       <c r="Q315" s="17"/>
     </row>
     <row r="316" spans="1:17">
-      <c r="A316" s="39">
+      <c r="A316" s="40">
         <v>642</v>
       </c>
       <c r="B316" s="19" t="s">
@@ -21916,7 +21937,7 @@
       <c r="Q316" s="14"/>
     </row>
     <row r="317" spans="1:17">
-      <c r="A317" s="39">
+      <c r="A317" s="40">
         <v>644</v>
       </c>
       <c r="B317" s="19" t="s">
@@ -21948,7 +21969,7 @@
       <c r="Q317" s="14"/>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="39">
+      <c r="A318" s="40">
         <v>646</v>
       </c>
       <c r="B318" s="19" t="s">
@@ -21982,7 +22003,7 @@
       <c r="Q318" s="14"/>
     </row>
     <row r="319" spans="1:17">
-      <c r="A319" s="39">
+      <c r="A319" s="40">
         <v>648</v>
       </c>
       <c r="B319" s="19" t="s">
@@ -22016,7 +22037,7 @@
       <c r="Q319" s="14"/>
     </row>
     <row r="320" spans="1:17">
-      <c r="A320" s="55">
+      <c r="A320" s="56">
         <v>656</v>
       </c>
       <c r="B320" s="5" t="s">
@@ -22049,7 +22070,7 @@
       <c r="Q320" s="17"/>
     </row>
     <row r="321" spans="1:17">
-      <c r="A321" s="55">
+      <c r="A321" s="56">
         <v>659</v>
       </c>
       <c r="B321" s="5" t="s">
@@ -22080,7 +22101,7 @@
       <c r="Q321" s="17"/>
     </row>
     <row r="322" spans="1:17">
-      <c r="A322" s="39">
+      <c r="A322" s="40">
         <v>699</v>
       </c>
       <c r="B322" s="19" t="s">
@@ -22114,7 +22135,7 @@
       <c r="Q322" s="14"/>
     </row>
     <row r="323" spans="1:17">
-      <c r="A323" s="39">
+      <c r="A323" s="40">
         <v>705</v>
       </c>
       <c r="B323" s="19" t="s">
@@ -22148,7 +22169,7 @@
       <c r="Q323" s="14"/>
     </row>
     <row r="324" spans="1:17">
-      <c r="A324" s="39">
+      <c r="A324" s="40">
         <v>706</v>
       </c>
       <c r="B324" s="19" t="s">
@@ -22182,7 +22203,7 @@
       <c r="Q324" s="14"/>
     </row>
     <row r="325" spans="1:17">
-      <c r="A325" s="39">
+      <c r="A325" s="40">
         <v>707</v>
       </c>
       <c r="B325" s="19" t="s">
@@ -22216,7 +22237,7 @@
       <c r="Q325" s="14"/>
     </row>
     <row r="326" spans="1:17">
-      <c r="A326" s="39">
+      <c r="A326" s="40">
         <v>711</v>
       </c>
       <c r="B326" s="19" t="s">
@@ -22250,7 +22271,7 @@
       <c r="Q326" s="14"/>
     </row>
     <row r="327" spans="1:17">
-      <c r="A327" s="39">
+      <c r="A327" s="40">
         <v>729</v>
       </c>
       <c r="B327" s="19" t="s">
@@ -22286,7 +22307,7 @@
       <c r="Q327" s="14"/>
     </row>
     <row r="328" spans="1:17">
-      <c r="A328" s="55">
+      <c r="A328" s="56">
         <v>730</v>
       </c>
       <c r="B328" s="5" t="s">
@@ -22319,7 +22340,7 @@
       <c r="Q328" s="17"/>
     </row>
     <row r="329" spans="1:17">
-      <c r="A329" s="39">
+      <c r="A329" s="40">
         <v>732</v>
       </c>
       <c r="B329" s="19" t="s">
@@ -22353,7 +22374,7 @@
       <c r="Q329" s="14"/>
     </row>
     <row r="330" spans="1:17">
-      <c r="A330" s="39">
+      <c r="A330" s="40">
         <v>22</v>
       </c>
       <c r="B330" s="19" t="s">
@@ -22384,7 +22405,7 @@
       <c r="Q330" s="14"/>
     </row>
     <row r="331" spans="1:17">
-      <c r="A331" s="39">
+      <c r="A331" s="40">
         <v>23</v>
       </c>
       <c r="B331" s="19" t="s">
@@ -22415,7 +22436,7 @@
       <c r="Q331" s="14"/>
     </row>
     <row r="332" spans="1:17">
-      <c r="A332" s="39">
+      <c r="A332" s="40">
         <v>647</v>
       </c>
       <c r="B332" s="19" t="s">
@@ -22448,7 +22469,7 @@
       <c r="Q332" s="14"/>
     </row>
     <row r="333" spans="1:17">
-      <c r="A333" s="39">
+      <c r="A333" s="40">
         <v>741</v>
       </c>
       <c r="B333" s="19" t="s">
@@ -22479,7 +22500,7 @@
       <c r="Q333" s="14"/>
     </row>
     <row r="334" spans="1:17">
-      <c r="A334" s="39">
+      <c r="A334" s="40">
         <v>505</v>
       </c>
       <c r="B334" s="19" t="s">
@@ -22506,7 +22527,7 @@
       <c r="Q334" s="14"/>
     </row>
     <row r="335" spans="1:17">
-      <c r="A335" s="55">
+      <c r="A335" s="56">
         <v>2</v>
       </c>
       <c r="B335" s="5" t="s">
@@ -22533,7 +22554,7 @@
       <c r="Q335" s="17"/>
     </row>
     <row r="336" spans="1:17">
-      <c r="A336" s="55">
+      <c r="A336" s="56">
         <v>3</v>
       </c>
       <c r="B336" s="5" t="s">
@@ -22560,7 +22581,7 @@
       <c r="Q336" s="17"/>
     </row>
     <row r="337" spans="1:17">
-      <c r="A337" s="55">
+      <c r="A337" s="56">
         <v>4</v>
       </c>
       <c r="B337" s="5" t="s">
@@ -22587,7 +22608,7 @@
       <c r="Q337" s="17"/>
     </row>
     <row r="338" s="29" customFormat="1" spans="1:17">
-      <c r="A338" s="55">
+      <c r="A338" s="56">
         <v>5</v>
       </c>
       <c r="B338" s="5" t="s">
@@ -22603,22 +22624,22 @@
         <v>1030</v>
       </c>
       <c r="H338" s="5"/>
-      <c r="I338" s="57" t="s">
+      <c r="I338" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J338" s="57"/>
-      <c r="K338" s="57"/>
-      <c r="L338" s="57"/>
-      <c r="M338" s="57"/>
-      <c r="N338" s="57"/>
-      <c r="O338" s="57"/>
-      <c r="P338" s="57"/>
-      <c r="Q338" s="57" t="s">
+      <c r="J338" s="58"/>
+      <c r="K338" s="58"/>
+      <c r="L338" s="58"/>
+      <c r="M338" s="58"/>
+      <c r="N338" s="58"/>
+      <c r="O338" s="58"/>
+      <c r="P338" s="58"/>
+      <c r="Q338" s="58" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="339" s="29" customFormat="1" spans="1:17">
-      <c r="A339" s="55">
+      <c r="A339" s="56">
         <v>6</v>
       </c>
       <c r="B339" s="5" t="s">
@@ -22643,7 +22664,7 @@
       <c r="Q339" s="17"/>
     </row>
     <row r="340" s="29" customFormat="1" spans="1:17">
-      <c r="A340" s="55">
+      <c r="A340" s="56">
         <v>7</v>
       </c>
       <c r="B340" s="5" t="s">
@@ -22668,7 +22689,7 @@
       <c r="Q340" s="17"/>
     </row>
     <row r="341" s="29" customFormat="1" spans="1:17">
-      <c r="A341" s="55">
+      <c r="A341" s="56">
         <v>8</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -22684,22 +22705,22 @@
         <v>1030</v>
       </c>
       <c r="H341" s="5"/>
-      <c r="I341" s="57" t="s">
+      <c r="I341" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J341" s="57"/>
-      <c r="K341" s="57"/>
-      <c r="L341" s="57"/>
-      <c r="M341" s="57"/>
-      <c r="N341" s="57"/>
-      <c r="O341" s="57"/>
-      <c r="P341" s="57"/>
-      <c r="Q341" s="57" t="s">
+      <c r="J341" s="58"/>
+      <c r="K341" s="58"/>
+      <c r="L341" s="58"/>
+      <c r="M341" s="58"/>
+      <c r="N341" s="58"/>
+      <c r="O341" s="58"/>
+      <c r="P341" s="58"/>
+      <c r="Q341" s="58" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="342" s="29" customFormat="1" spans="1:17">
-      <c r="A342" s="55">
+      <c r="A342" s="56">
         <v>9</v>
       </c>
       <c r="B342" s="5" t="s">
@@ -22724,7 +22745,7 @@
       <c r="Q342" s="17"/>
     </row>
     <row r="343" s="29" customFormat="1" spans="1:17">
-      <c r="A343" s="55">
+      <c r="A343" s="56">
         <v>10</v>
       </c>
       <c r="B343" s="5" t="s">
@@ -22740,22 +22761,22 @@
         <v>1030</v>
       </c>
       <c r="H343" s="5"/>
-      <c r="I343" s="57" t="s">
+      <c r="I343" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J343" s="57"/>
-      <c r="K343" s="57"/>
-      <c r="L343" s="57"/>
-      <c r="M343" s="57"/>
-      <c r="N343" s="57"/>
-      <c r="O343" s="57"/>
-      <c r="P343" s="57"/>
-      <c r="Q343" s="57" t="s">
+      <c r="J343" s="58"/>
+      <c r="K343" s="58"/>
+      <c r="L343" s="58"/>
+      <c r="M343" s="58"/>
+      <c r="N343" s="58"/>
+      <c r="O343" s="58"/>
+      <c r="P343" s="58"/>
+      <c r="Q343" s="58" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="344" s="29" customFormat="1" spans="1:17">
-      <c r="A344" s="55">
+      <c r="A344" s="56">
         <v>11</v>
       </c>
       <c r="B344" s="5" t="s">
@@ -22780,7 +22801,7 @@
       <c r="Q344" s="17"/>
     </row>
     <row r="345" s="29" customFormat="1" spans="1:17">
-      <c r="A345" s="55">
+      <c r="A345" s="56">
         <v>12</v>
       </c>
       <c r="B345" s="5" t="s">
@@ -22805,7 +22826,7 @@
       <c r="Q345" s="17"/>
     </row>
     <row r="346" s="29" customFormat="1" spans="1:17">
-      <c r="A346" s="55">
+      <c r="A346" s="56">
         <v>13</v>
       </c>
       <c r="B346" s="5" t="s">
@@ -22830,7 +22851,7 @@
       <c r="Q346" s="17"/>
     </row>
     <row r="347" s="29" customFormat="1" spans="1:17">
-      <c r="A347" s="55">
+      <c r="A347" s="56">
         <v>14</v>
       </c>
       <c r="B347" s="5" t="s">
@@ -22855,7 +22876,7 @@
       <c r="Q347" s="17"/>
     </row>
     <row r="348" s="29" customFormat="1" spans="1:17">
-      <c r="A348" s="55">
+      <c r="A348" s="56">
         <v>15</v>
       </c>
       <c r="B348" s="5" t="s">
@@ -22880,7 +22901,7 @@
       <c r="Q348" s="17"/>
     </row>
     <row r="349" s="29" customFormat="1" spans="1:17">
-      <c r="A349" s="55">
+      <c r="A349" s="56">
         <v>16</v>
       </c>
       <c r="B349" s="5" t="s">
@@ -22905,7 +22926,7 @@
       <c r="Q349" s="17"/>
     </row>
     <row r="350" s="29" customFormat="1" spans="1:17">
-      <c r="A350" s="55">
+      <c r="A350" s="56">
         <v>17</v>
       </c>
       <c r="B350" s="5" t="s">
@@ -22930,7 +22951,7 @@
       <c r="Q350" s="17"/>
     </row>
     <row r="351" s="29" customFormat="1" spans="1:17">
-      <c r="A351" s="55">
+      <c r="A351" s="56">
         <v>20</v>
       </c>
       <c r="B351" s="5" t="s">
@@ -22955,7 +22976,7 @@
       <c r="Q351" s="17"/>
     </row>
     <row r="352" s="29" customFormat="1" spans="1:17">
-      <c r="A352" s="55">
+      <c r="A352" s="56">
         <v>21</v>
       </c>
       <c r="B352" s="5" t="s">
@@ -22980,7 +23001,7 @@
       <c r="Q352" s="17"/>
     </row>
     <row r="353" s="29" customFormat="1" spans="1:17">
-      <c r="A353" s="55">
+      <c r="A353" s="56">
         <v>24</v>
       </c>
       <c r="B353" s="5" t="s">
@@ -23005,7 +23026,7 @@
       <c r="Q353" s="17"/>
     </row>
     <row r="354" s="29" customFormat="1" spans="1:17">
-      <c r="A354" s="55">
+      <c r="A354" s="56">
         <v>29</v>
       </c>
       <c r="B354" s="5" t="s">
@@ -23030,7 +23051,7 @@
       <c r="Q354" s="17"/>
     </row>
     <row r="355" s="29" customFormat="1" spans="1:17">
-      <c r="A355" s="55">
+      <c r="A355" s="56">
         <v>30</v>
       </c>
       <c r="B355" s="5" t="s">
@@ -23055,7 +23076,7 @@
       <c r="Q355" s="17"/>
     </row>
     <row r="356" s="29" customFormat="1" spans="1:17">
-      <c r="A356" s="55">
+      <c r="A356" s="56">
         <v>31</v>
       </c>
       <c r="B356" s="5" t="s">
@@ -23080,7 +23101,7 @@
       <c r="Q356" s="17"/>
     </row>
     <row r="357" s="29" customFormat="1" spans="1:17">
-      <c r="A357" s="55">
+      <c r="A357" s="56">
         <v>32</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -23105,7 +23126,7 @@
       <c r="Q357" s="17"/>
     </row>
     <row r="358" s="29" customFormat="1" spans="1:17">
-      <c r="A358" s="55">
+      <c r="A358" s="56">
         <v>33</v>
       </c>
       <c r="B358" s="5" t="s">
@@ -23130,7 +23151,7 @@
       <c r="Q358" s="17"/>
     </row>
     <row r="359" s="29" customFormat="1" spans="1:17">
-      <c r="A359" s="55">
+      <c r="A359" s="56">
         <v>34</v>
       </c>
       <c r="B359" s="5" t="s">
@@ -23155,7 +23176,7 @@
       <c r="Q359" s="17"/>
     </row>
     <row r="360" s="29" customFormat="1" spans="1:17">
-      <c r="A360" s="55">
+      <c r="A360" s="56">
         <v>36</v>
       </c>
       <c r="B360" s="5" t="s">
@@ -23180,7 +23201,7 @@
       <c r="Q360" s="17"/>
     </row>
     <row r="361" s="29" customFormat="1" spans="1:17">
-      <c r="A361" s="55">
+      <c r="A361" s="56">
         <v>39</v>
       </c>
       <c r="B361" s="5" t="s">
@@ -23203,7 +23224,7 @@
       <c r="Q361" s="17"/>
     </row>
     <row r="362" s="29" customFormat="1" spans="1:17">
-      <c r="A362" s="55">
+      <c r="A362" s="56">
         <v>40</v>
       </c>
       <c r="B362" s="5" t="s">
@@ -23226,7 +23247,7 @@
       <c r="Q362" s="17"/>
     </row>
     <row r="363" s="29" customFormat="1" spans="1:17">
-      <c r="A363" s="55">
+      <c r="A363" s="56">
         <v>41</v>
       </c>
       <c r="B363" s="5" t="s">
@@ -23249,7 +23270,7 @@
       <c r="Q363" s="17"/>
     </row>
     <row r="364" s="29" customFormat="1" spans="1:17">
-      <c r="A364" s="55">
+      <c r="A364" s="56">
         <v>42</v>
       </c>
       <c r="B364" s="5" t="s">
@@ -23272,7 +23293,7 @@
       <c r="Q364" s="17"/>
     </row>
     <row r="365" s="29" customFormat="1" spans="1:17">
-      <c r="A365" s="55">
+      <c r="A365" s="56">
         <v>43</v>
       </c>
       <c r="B365" s="5" t="s">
@@ -23297,7 +23318,7 @@
       <c r="Q365" s="17"/>
     </row>
     <row r="366" s="29" customFormat="1" spans="1:17">
-      <c r="A366" s="55">
+      <c r="A366" s="56">
         <v>44</v>
       </c>
       <c r="B366" s="5" t="s">
@@ -23322,7 +23343,7 @@
       <c r="Q366" s="17"/>
     </row>
     <row r="367" s="29" customFormat="1" spans="1:17">
-      <c r="A367" s="55">
+      <c r="A367" s="56">
         <v>45</v>
       </c>
       <c r="B367" s="5" t="s">
@@ -23347,7 +23368,7 @@
       <c r="Q367" s="17"/>
     </row>
     <row r="368" s="29" customFormat="1" spans="1:17">
-      <c r="A368" s="55">
+      <c r="A368" s="56">
         <v>46</v>
       </c>
       <c r="B368" s="5" t="s">
@@ -23372,7 +23393,7 @@
       <c r="Q368" s="17"/>
     </row>
     <row r="369" s="29" customFormat="1" spans="1:17">
-      <c r="A369" s="55">
+      <c r="A369" s="56">
         <v>47</v>
       </c>
       <c r="B369" s="5" t="s">
@@ -23397,7 +23418,7 @@
       <c r="Q369" s="17"/>
     </row>
     <row r="370" s="29" customFormat="1" spans="1:17">
-      <c r="A370" s="55">
+      <c r="A370" s="56">
         <v>48</v>
       </c>
       <c r="B370" s="5" t="s">
@@ -23422,7 +23443,7 @@
       <c r="Q370" s="17"/>
     </row>
     <row r="371" s="29" customFormat="1" spans="1:17">
-      <c r="A371" s="55">
+      <c r="A371" s="56">
         <v>49</v>
       </c>
       <c r="B371" s="5" t="s">
@@ -23447,7 +23468,7 @@
       <c r="Q371" s="17"/>
     </row>
     <row r="372" s="29" customFormat="1" spans="1:17">
-      <c r="A372" s="55">
+      <c r="A372" s="56">
         <v>50</v>
       </c>
       <c r="B372" s="5" t="s">
@@ -23472,7 +23493,7 @@
       <c r="Q372" s="17"/>
     </row>
     <row r="373" s="29" customFormat="1" spans="1:17">
-      <c r="A373" s="55">
+      <c r="A373" s="56">
         <v>51</v>
       </c>
       <c r="B373" s="5" t="s">
@@ -23497,7 +23518,7 @@
       <c r="Q373" s="17"/>
     </row>
     <row r="374" s="29" customFormat="1" spans="1:17">
-      <c r="A374" s="55">
+      <c r="A374" s="56">
         <v>52</v>
       </c>
       <c r="B374" s="5" t="s">
@@ -23522,7 +23543,7 @@
       <c r="Q374" s="17"/>
     </row>
     <row r="375" s="29" customFormat="1" spans="1:17">
-      <c r="A375" s="55">
+      <c r="A375" s="56">
         <v>66</v>
       </c>
       <c r="B375" s="5" t="s">
@@ -23545,7 +23566,7 @@
       <c r="Q375" s="17"/>
     </row>
     <row r="376" s="29" customFormat="1" spans="1:17">
-      <c r="A376" s="55">
+      <c r="A376" s="56">
         <v>69</v>
       </c>
       <c r="B376" s="5" t="s">
@@ -23568,7 +23589,7 @@
       <c r="Q376" s="17"/>
     </row>
     <row r="377" s="29" customFormat="1" spans="1:17">
-      <c r="A377" s="55">
+      <c r="A377" s="56">
         <v>70</v>
       </c>
       <c r="B377" s="5" t="s">
@@ -23591,7 +23612,7 @@
       <c r="Q377" s="17"/>
     </row>
     <row r="378" s="29" customFormat="1" spans="1:17">
-      <c r="A378" s="55">
+      <c r="A378" s="56">
         <v>71</v>
       </c>
       <c r="B378" s="5" t="s">
@@ -23614,7 +23635,7 @@
       <c r="Q378" s="17"/>
     </row>
     <row r="379" s="29" customFormat="1" spans="1:17">
-      <c r="A379" s="55">
+      <c r="A379" s="56">
         <v>73</v>
       </c>
       <c r="B379" s="5" t="s">
@@ -23637,7 +23658,7 @@
       <c r="Q379" s="17"/>
     </row>
     <row r="380" s="29" customFormat="1" spans="1:17">
-      <c r="A380" s="55">
+      <c r="A380" s="56">
         <v>74</v>
       </c>
       <c r="B380" s="5" t="s">
@@ -23660,7 +23681,7 @@
       <c r="Q380" s="17"/>
     </row>
     <row r="381" s="29" customFormat="1" spans="1:17">
-      <c r="A381" s="55">
+      <c r="A381" s="56">
         <v>80</v>
       </c>
       <c r="B381" s="5" t="s">
@@ -23683,7 +23704,7 @@
       <c r="Q381" s="17"/>
     </row>
     <row r="382" s="29" customFormat="1" spans="1:17">
-      <c r="A382" s="56">
+      <c r="A382" s="57">
         <v>118</v>
       </c>
       <c r="B382" s="5" t="s">
@@ -23710,7 +23731,7 @@
       <c r="Q382" s="17"/>
     </row>
     <row r="383" s="29" customFormat="1" spans="1:17">
-      <c r="A383" s="56">
+      <c r="A383" s="57">
         <v>119</v>
       </c>
       <c r="B383" s="5" t="s">
@@ -23737,7 +23758,7 @@
       <c r="Q383" s="17"/>
     </row>
     <row r="384" s="29" customFormat="1" spans="1:17">
-      <c r="A384" s="56">
+      <c r="A384" s="57">
         <v>120</v>
       </c>
       <c r="B384" s="5" t="s">
@@ -23764,7 +23785,7 @@
       <c r="Q384" s="17"/>
     </row>
     <row r="385" s="29" customFormat="1" spans="1:17">
-      <c r="A385" s="56">
+      <c r="A385" s="57">
         <v>121</v>
       </c>
       <c r="B385" s="5" t="s">
@@ -23791,7 +23812,7 @@
       <c r="Q385" s="17"/>
     </row>
     <row r="386" s="29" customFormat="1" spans="1:17">
-      <c r="A386" s="56">
+      <c r="A386" s="57">
         <v>122</v>
       </c>
       <c r="B386" s="5" t="s">
@@ -23818,7 +23839,7 @@
       <c r="Q386" s="17"/>
     </row>
     <row r="387" s="29" customFormat="1" spans="1:17">
-      <c r="A387" s="56">
+      <c r="A387" s="57">
         <v>123</v>
       </c>
       <c r="B387" s="5" t="s">
@@ -23845,7 +23866,7 @@
       <c r="Q387" s="17"/>
     </row>
     <row r="388" s="29" customFormat="1" spans="1:17">
-      <c r="A388" s="56">
+      <c r="A388" s="57">
         <v>124</v>
       </c>
       <c r="B388" s="5" t="s">
@@ -23872,7 +23893,7 @@
       <c r="Q388" s="17"/>
     </row>
     <row r="389" s="29" customFormat="1" spans="1:17">
-      <c r="A389" s="56">
+      <c r="A389" s="57">
         <v>125</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -23899,7 +23920,7 @@
       <c r="Q389" s="17"/>
     </row>
     <row r="390" s="29" customFormat="1" spans="1:17">
-      <c r="A390" s="56">
+      <c r="A390" s="57">
         <v>126</v>
       </c>
       <c r="B390" s="5" t="s">
@@ -23926,7 +23947,7 @@
       <c r="Q390" s="17"/>
     </row>
     <row r="391" s="29" customFormat="1" spans="1:17">
-      <c r="A391" s="56">
+      <c r="A391" s="57">
         <v>127</v>
       </c>
       <c r="B391" s="5" t="s">
@@ -23953,7 +23974,7 @@
       <c r="Q391" s="17"/>
     </row>
     <row r="392" s="29" customFormat="1" spans="1:17">
-      <c r="A392" s="56">
+      <c r="A392" s="57">
         <v>128</v>
       </c>
       <c r="B392" s="5" t="s">
@@ -23980,7 +24001,7 @@
       <c r="Q392" s="17"/>
     </row>
     <row r="393" s="29" customFormat="1" spans="1:17">
-      <c r="A393" s="56">
+      <c r="A393" s="57">
         <v>129</v>
       </c>
       <c r="B393" s="5" t="s">
@@ -24007,7 +24028,7 @@
       <c r="Q393" s="17"/>
     </row>
     <row r="394" s="29" customFormat="1" spans="1:17">
-      <c r="A394" s="56">
+      <c r="A394" s="57">
         <v>130</v>
       </c>
       <c r="B394" s="5" t="s">
@@ -24034,7 +24055,7 @@
       <c r="Q394" s="17"/>
     </row>
     <row r="395" s="29" customFormat="1" spans="1:17">
-      <c r="A395" s="56">
+      <c r="A395" s="57">
         <v>131</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -24061,7 +24082,7 @@
       <c r="Q395" s="17"/>
     </row>
     <row r="396" s="29" customFormat="1" spans="1:17">
-      <c r="A396" s="56">
+      <c r="A396" s="57">
         <v>132</v>
       </c>
       <c r="B396" s="5" t="s">
@@ -24088,7 +24109,7 @@
       <c r="Q396" s="17"/>
     </row>
     <row r="397" s="29" customFormat="1" spans="1:17">
-      <c r="A397" s="56">
+      <c r="A397" s="57">
         <v>133</v>
       </c>
       <c r="B397" s="5" t="s">
@@ -24115,7 +24136,7 @@
       <c r="Q397" s="17"/>
     </row>
     <row r="398" s="29" customFormat="1" spans="1:17">
-      <c r="A398" s="56">
+      <c r="A398" s="57">
         <v>134</v>
       </c>
       <c r="B398" s="5" t="s">
@@ -24142,7 +24163,7 @@
       <c r="Q398" s="17"/>
     </row>
     <row r="399" s="29" customFormat="1" spans="1:17">
-      <c r="A399" s="56">
+      <c r="A399" s="57">
         <v>135</v>
       </c>
       <c r="B399" s="5" t="s">
@@ -24169,7 +24190,7 @@
       <c r="Q399" s="17"/>
     </row>
     <row r="400" s="29" customFormat="1" spans="1:17">
-      <c r="A400" s="56">
+      <c r="A400" s="57">
         <v>136</v>
       </c>
       <c r="B400" s="5" t="s">
@@ -24196,7 +24217,7 @@
       <c r="Q400" s="17"/>
     </row>
     <row r="401" s="29" customFormat="1" spans="1:17">
-      <c r="A401" s="56">
+      <c r="A401" s="57">
         <v>137</v>
       </c>
       <c r="B401" s="5" t="s">
@@ -24223,7 +24244,7 @@
       <c r="Q401" s="17"/>
     </row>
     <row r="402" s="29" customFormat="1" spans="1:17">
-      <c r="A402" s="56">
+      <c r="A402" s="57">
         <v>138</v>
       </c>
       <c r="B402" s="5" t="s">
@@ -24250,7 +24271,7 @@
       <c r="Q402" s="17"/>
     </row>
     <row r="403" s="29" customFormat="1" spans="1:17">
-      <c r="A403" s="56">
+      <c r="A403" s="57">
         <v>139</v>
       </c>
       <c r="B403" s="5" t="s">
@@ -24277,7 +24298,7 @@
       <c r="Q403" s="17"/>
     </row>
     <row r="404" s="29" customFormat="1" spans="1:17">
-      <c r="A404" s="56">
+      <c r="A404" s="57">
         <v>140</v>
       </c>
       <c r="B404" s="5" t="s">
@@ -24304,7 +24325,7 @@
       <c r="Q404" s="17"/>
     </row>
     <row r="405" s="29" customFormat="1" spans="1:17">
-      <c r="A405" s="56">
+      <c r="A405" s="57">
         <v>141</v>
       </c>
       <c r="B405" s="5" t="s">
@@ -24331,7 +24352,7 @@
       <c r="Q405" s="17"/>
     </row>
     <row r="406" s="29" customFormat="1" spans="1:17">
-      <c r="A406" s="56">
+      <c r="A406" s="57">
         <v>142</v>
       </c>
       <c r="B406" s="5" t="s">
@@ -24358,7 +24379,7 @@
       <c r="Q406" s="17"/>
     </row>
     <row r="407" s="29" customFormat="1" spans="1:17">
-      <c r="A407" s="56">
+      <c r="A407" s="57">
         <v>143</v>
       </c>
       <c r="B407" s="5" t="s">
@@ -24385,7 +24406,7 @@
       <c r="Q407" s="17"/>
     </row>
     <row r="408" spans="1:17">
-      <c r="A408" s="56">
+      <c r="A408" s="57">
         <v>144</v>
       </c>
       <c r="B408" s="5" t="s">
@@ -24412,7 +24433,7 @@
       <c r="Q408" s="17"/>
     </row>
     <row r="409" s="9" customFormat="1" spans="1:17">
-      <c r="A409" s="56">
+      <c r="A409" s="57">
         <v>145</v>
       </c>
       <c r="B409" s="5" t="s">
@@ -24439,7 +24460,7 @@
       <c r="Q409" s="17"/>
     </row>
     <row r="410" s="9" customFormat="1" spans="1:17">
-      <c r="A410" s="56">
+      <c r="A410" s="57">
         <v>146</v>
       </c>
       <c r="B410" s="5" t="s">
@@ -24466,7 +24487,7 @@
       <c r="Q410" s="17"/>
     </row>
     <row r="411" s="9" customFormat="1" spans="1:17">
-      <c r="A411" s="56">
+      <c r="A411" s="57">
         <v>147</v>
       </c>
       <c r="B411" s="5" t="s">
@@ -24493,7 +24514,7 @@
       <c r="Q411" s="17"/>
     </row>
     <row r="412" s="9" customFormat="1" spans="1:17">
-      <c r="A412" s="56">
+      <c r="A412" s="57">
         <v>148</v>
       </c>
       <c r="B412" s="5" t="s">
@@ -24520,7 +24541,7 @@
       <c r="Q412" s="17"/>
     </row>
     <row r="413" s="9" customFormat="1" spans="1:17">
-      <c r="A413" s="56">
+      <c r="A413" s="57">
         <v>149</v>
       </c>
       <c r="B413" s="5" t="s">
@@ -24547,7 +24568,7 @@
       <c r="Q413" s="17"/>
     </row>
     <row r="414" s="9" customFormat="1" spans="1:17">
-      <c r="A414" s="56">
+      <c r="A414" s="57">
         <v>150</v>
       </c>
       <c r="B414" s="5" t="s">
@@ -24574,7 +24595,7 @@
       <c r="Q414" s="17"/>
     </row>
     <row r="415" s="9" customFormat="1" spans="1:17">
-      <c r="A415" s="56">
+      <c r="A415" s="57">
         <v>151</v>
       </c>
       <c r="B415" s="5" t="s">
@@ -24601,7 +24622,7 @@
       <c r="Q415" s="17"/>
     </row>
     <row r="416" s="9" customFormat="1" spans="1:17">
-      <c r="A416" s="56">
+      <c r="A416" s="57">
         <v>152</v>
       </c>
       <c r="B416" s="5" t="s">
@@ -24628,7 +24649,7 @@
       <c r="Q416" s="17"/>
     </row>
     <row r="417" s="9" customFormat="1" spans="1:17">
-      <c r="A417" s="56">
+      <c r="A417" s="57">
         <v>153</v>
       </c>
       <c r="B417" s="5" t="s">
@@ -24655,7 +24676,7 @@
       <c r="Q417" s="17"/>
     </row>
     <row r="418" s="9" customFormat="1" spans="1:17">
-      <c r="A418" s="56">
+      <c r="A418" s="57">
         <v>163</v>
       </c>
       <c r="B418" s="5" t="s">
@@ -24686,7 +24707,7 @@
       <c r="Q418" s="17"/>
     </row>
     <row r="419" s="9" customFormat="1" spans="1:17">
-      <c r="A419" s="56">
+      <c r="A419" s="57">
         <v>164</v>
       </c>
       <c r="B419" s="5" t="s">
@@ -24713,7 +24734,7 @@
       <c r="Q419" s="17"/>
     </row>
     <row r="420" s="9" customFormat="1" spans="1:17">
-      <c r="A420" s="56">
+      <c r="A420" s="57">
         <v>165</v>
       </c>
       <c r="B420" s="5" t="s">
@@ -24740,7 +24761,7 @@
       <c r="Q420" s="17"/>
     </row>
     <row r="421" s="9" customFormat="1" spans="1:17">
-      <c r="A421" s="55">
+      <c r="A421" s="56">
         <v>180</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -24767,7 +24788,7 @@
       <c r="Q421" s="17"/>
     </row>
     <row r="422" s="9" customFormat="1" spans="1:17">
-      <c r="A422" s="55">
+      <c r="A422" s="56">
         <v>183</v>
       </c>
       <c r="B422" s="5" t="s">
@@ -24794,7 +24815,7 @@
       <c r="Q422" s="17"/>
     </row>
     <row r="423" s="9" customFormat="1" spans="1:17">
-      <c r="A423" s="55">
+      <c r="A423" s="56">
         <v>184</v>
       </c>
       <c r="B423" s="5" t="s">
@@ -24821,7 +24842,7 @@
       <c r="Q423" s="17"/>
     </row>
     <row r="424" s="9" customFormat="1" spans="1:17">
-      <c r="A424" s="55">
+      <c r="A424" s="56">
         <v>191</v>
       </c>
       <c r="B424" s="5" t="s">
@@ -24844,7 +24865,7 @@
       <c r="Q424" s="17"/>
     </row>
     <row r="425" s="9" customFormat="1" spans="1:17">
-      <c r="A425" s="55">
+      <c r="A425" s="56">
         <v>192</v>
       </c>
       <c r="B425" s="5" t="s">
@@ -24867,7 +24888,7 @@
       <c r="Q425" s="17"/>
     </row>
     <row r="426" s="9" customFormat="1" spans="1:17">
-      <c r="A426" s="55">
+      <c r="A426" s="56">
         <v>193</v>
       </c>
       <c r="B426" s="5" t="s">
@@ -24890,7 +24911,7 @@
       <c r="Q426" s="17"/>
     </row>
     <row r="427" s="29" customFormat="1" spans="1:17">
-      <c r="A427" s="55">
+      <c r="A427" s="56">
         <v>194</v>
       </c>
       <c r="B427" s="5" t="s">
@@ -24913,7 +24934,7 @@
       <c r="Q427" s="17"/>
     </row>
     <row r="428" s="29" customFormat="1" spans="1:17">
-      <c r="A428" s="55">
+      <c r="A428" s="56">
         <v>195</v>
       </c>
       <c r="B428" s="5" t="s">
@@ -24936,7 +24957,7 @@
       <c r="Q428" s="17"/>
     </row>
     <row r="429" s="29" customFormat="1" spans="1:17">
-      <c r="A429" s="55">
+      <c r="A429" s="56">
         <v>196</v>
       </c>
       <c r="B429" s="5" t="s">
@@ -24959,7 +24980,7 @@
       <c r="Q429" s="17"/>
     </row>
     <row r="430" s="29" customFormat="1" spans="1:17">
-      <c r="A430" s="55">
+      <c r="A430" s="56">
         <v>197</v>
       </c>
       <c r="B430" s="5" t="s">
@@ -24982,7 +25003,7 @@
       <c r="Q430" s="17"/>
     </row>
     <row r="431" s="29" customFormat="1" spans="1:17">
-      <c r="A431" s="55">
+      <c r="A431" s="56">
         <v>198</v>
       </c>
       <c r="B431" s="5" t="s">
@@ -25005,7 +25026,7 @@
       <c r="Q431" s="17"/>
     </row>
     <row r="432" s="29" customFormat="1" spans="1:17">
-      <c r="A432" s="55">
+      <c r="A432" s="56">
         <v>199</v>
       </c>
       <c r="B432" s="5" t="s">
@@ -25028,7 +25049,7 @@
       <c r="Q432" s="17"/>
     </row>
     <row r="433" s="29" customFormat="1" spans="1:17">
-      <c r="A433" s="55">
+      <c r="A433" s="56">
         <v>200</v>
       </c>
       <c r="B433" s="5" t="s">
@@ -25051,7 +25072,7 @@
       <c r="Q433" s="17"/>
     </row>
     <row r="434" s="29" customFormat="1" spans="1:17">
-      <c r="A434" s="55">
+      <c r="A434" s="56">
         <v>201</v>
       </c>
       <c r="B434" s="5" t="s">
@@ -25074,7 +25095,7 @@
       <c r="Q434" s="17"/>
     </row>
     <row r="435" s="29" customFormat="1" spans="1:17">
-      <c r="A435" s="55">
+      <c r="A435" s="56">
         <v>202</v>
       </c>
       <c r="B435" s="5" t="s">
@@ -25097,7 +25118,7 @@
       <c r="Q435" s="17"/>
     </row>
     <row r="436" s="29" customFormat="1" spans="1:17">
-      <c r="A436" s="55">
+      <c r="A436" s="56">
         <v>203</v>
       </c>
       <c r="B436" s="5" t="s">
@@ -25120,7 +25141,7 @@
       <c r="Q436" s="17"/>
     </row>
     <row r="437" s="29" customFormat="1" spans="1:17">
-      <c r="A437" s="55">
+      <c r="A437" s="56">
         <v>204</v>
       </c>
       <c r="B437" s="5" t="s">
@@ -25143,7 +25164,7 @@
       <c r="Q437" s="17"/>
     </row>
     <row r="438" s="29" customFormat="1" spans="1:17">
-      <c r="A438" s="55">
+      <c r="A438" s="56">
         <v>205</v>
       </c>
       <c r="B438" s="5" t="s">
@@ -25168,7 +25189,7 @@
       <c r="Q438" s="17"/>
     </row>
     <row r="439" s="29" customFormat="1" spans="1:17">
-      <c r="A439" s="55">
+      <c r="A439" s="56">
         <v>206</v>
       </c>
       <c r="B439" s="5" t="s">
@@ -25193,7 +25214,7 @@
       <c r="Q439" s="17"/>
     </row>
     <row r="440" s="29" customFormat="1" spans="1:17">
-      <c r="A440" s="55">
+      <c r="A440" s="56">
         <v>207</v>
       </c>
       <c r="B440" s="5" t="s">
@@ -25216,7 +25237,7 @@
       <c r="Q440" s="17"/>
     </row>
     <row r="441" s="29" customFormat="1" spans="1:17">
-      <c r="A441" s="55">
+      <c r="A441" s="56">
         <v>208</v>
       </c>
       <c r="B441" s="5" t="s">
@@ -25239,7 +25260,7 @@
       <c r="Q441" s="17"/>
     </row>
     <row r="442" s="29" customFormat="1" spans="1:17">
-      <c r="A442" s="55">
+      <c r="A442" s="56">
         <v>209</v>
       </c>
       <c r="B442" s="5" t="s">
@@ -25262,7 +25283,7 @@
       <c r="Q442" s="17"/>
     </row>
     <row r="443" s="29" customFormat="1" spans="1:17">
-      <c r="A443" s="55">
+      <c r="A443" s="56">
         <v>211</v>
       </c>
       <c r="B443" s="5" t="s">
@@ -25287,7 +25308,7 @@
       <c r="Q443" s="17"/>
     </row>
     <row r="444" s="29" customFormat="1" spans="1:17">
-      <c r="A444" s="55">
+      <c r="A444" s="56">
         <v>212</v>
       </c>
       <c r="B444" s="5" t="s">
@@ -25312,7 +25333,7 @@
       <c r="Q444" s="17"/>
     </row>
     <row r="445" s="29" customFormat="1" spans="1:17">
-      <c r="A445" s="55">
+      <c r="A445" s="56">
         <v>213</v>
       </c>
       <c r="B445" s="5" t="s">
@@ -25337,7 +25358,7 @@
       <c r="Q445" s="17"/>
     </row>
     <row r="446" s="29" customFormat="1" spans="1:17">
-      <c r="A446" s="55">
+      <c r="A446" s="56">
         <v>215</v>
       </c>
       <c r="B446" s="5" t="s">
@@ -25362,7 +25383,7 @@
       <c r="Q446" s="17"/>
     </row>
     <row r="447" s="29" customFormat="1" spans="1:17">
-      <c r="A447" s="55">
+      <c r="A447" s="56">
         <v>218</v>
       </c>
       <c r="B447" s="5" t="s">
@@ -25385,7 +25406,7 @@
       <c r="Q447" s="17"/>
     </row>
     <row r="448" s="29" customFormat="1" spans="1:17">
-      <c r="A448" s="55">
+      <c r="A448" s="56">
         <v>219</v>
       </c>
       <c r="B448" s="5" t="s">
@@ -25408,7 +25429,7 @@
       <c r="Q448" s="17"/>
     </row>
     <row r="449" s="29" customFormat="1" spans="1:17">
-      <c r="A449" s="55">
+      <c r="A449" s="56">
         <v>220</v>
       </c>
       <c r="B449" s="5" t="s">
@@ -25431,7 +25452,7 @@
       <c r="Q449" s="17"/>
     </row>
     <row r="450" s="29" customFormat="1" spans="1:17">
-      <c r="A450" s="55">
+      <c r="A450" s="56">
         <v>221</v>
       </c>
       <c r="B450" s="5" t="s">
@@ -25454,7 +25475,7 @@
       <c r="Q450" s="17"/>
     </row>
     <row r="451" s="29" customFormat="1" spans="1:17">
-      <c r="A451" s="55">
+      <c r="A451" s="56">
         <v>222</v>
       </c>
       <c r="B451" s="5" t="s">
@@ -25477,7 +25498,7 @@
       <c r="Q451" s="17"/>
     </row>
     <row r="452" s="29" customFormat="1" spans="1:17">
-      <c r="A452" s="55">
+      <c r="A452" s="56">
         <v>223</v>
       </c>
       <c r="B452" s="5" t="s">
@@ -25500,7 +25521,7 @@
       <c r="Q452" s="17"/>
     </row>
     <row r="453" s="29" customFormat="1" spans="1:17">
-      <c r="A453" s="55">
+      <c r="A453" s="56">
         <v>224</v>
       </c>
       <c r="B453" s="5" t="s">
@@ -25523,7 +25544,7 @@
       <c r="Q453" s="17"/>
     </row>
     <row r="454" s="29" customFormat="1" spans="1:17">
-      <c r="A454" s="55">
+      <c r="A454" s="56">
         <v>225</v>
       </c>
       <c r="B454" s="5" t="s">
@@ -25546,7 +25567,7 @@
       <c r="Q454" s="17"/>
     </row>
     <row r="455" s="29" customFormat="1" spans="1:17">
-      <c r="A455" s="55">
+      <c r="A455" s="56">
         <v>226</v>
       </c>
       <c r="B455" s="5" t="s">
@@ -25569,7 +25590,7 @@
       <c r="Q455" s="17"/>
     </row>
     <row r="456" s="29" customFormat="1" spans="1:17">
-      <c r="A456" s="55">
+      <c r="A456" s="56">
         <v>228</v>
       </c>
       <c r="B456" s="5" t="s">
@@ -25594,7 +25615,7 @@
       <c r="Q456" s="17"/>
     </row>
     <row r="457" s="29" customFormat="1" spans="1:17">
-      <c r="A457" s="55">
+      <c r="A457" s="56">
         <v>238</v>
       </c>
       <c r="B457" s="5" t="s">
@@ -25621,7 +25642,7 @@
       <c r="Q457" s="17"/>
     </row>
     <row r="458" s="29" customFormat="1" spans="1:17">
-      <c r="A458" s="55">
+      <c r="A458" s="56">
         <v>239</v>
       </c>
       <c r="B458" s="5" t="s">
@@ -25648,7 +25669,7 @@
       <c r="Q458" s="17"/>
     </row>
     <row r="459" s="29" customFormat="1" spans="1:17">
-      <c r="A459" s="55">
+      <c r="A459" s="56">
         <v>240</v>
       </c>
       <c r="B459" s="5" t="s">
@@ -25675,7 +25696,7 @@
       <c r="Q459" s="17"/>
     </row>
     <row r="460" s="29" customFormat="1" spans="1:17">
-      <c r="A460" s="55">
+      <c r="A460" s="56">
         <v>241</v>
       </c>
       <c r="B460" s="5" t="s">
@@ -25698,7 +25719,7 @@
       <c r="Q460" s="17"/>
     </row>
     <row r="461" s="29" customFormat="1" spans="1:17">
-      <c r="A461" s="55">
+      <c r="A461" s="56">
         <v>242</v>
       </c>
       <c r="B461" s="5" t="s">
@@ -25721,7 +25742,7 @@
       <c r="Q461" s="17"/>
     </row>
     <row r="462" s="29" customFormat="1" spans="1:17">
-      <c r="A462" s="55">
+      <c r="A462" s="56">
         <v>243</v>
       </c>
       <c r="B462" s="5" t="s">
@@ -25748,7 +25769,7 @@
       <c r="Q462" s="17"/>
     </row>
     <row r="463" s="29" customFormat="1" spans="1:17">
-      <c r="A463" s="55">
+      <c r="A463" s="56">
         <v>244</v>
       </c>
       <c r="B463" s="5" t="s">
@@ -25775,7 +25796,7 @@
       <c r="Q463" s="17"/>
     </row>
     <row r="464" s="29" customFormat="1" spans="1:17">
-      <c r="A464" s="55">
+      <c r="A464" s="56">
         <v>245</v>
       </c>
       <c r="B464" s="5" t="s">
@@ -25802,7 +25823,7 @@
       <c r="Q464" s="17"/>
     </row>
     <row r="465" s="29" customFormat="1" spans="1:17">
-      <c r="A465" s="55">
+      <c r="A465" s="56">
         <v>247</v>
       </c>
       <c r="B465" s="5" t="s">
@@ -25829,7 +25850,7 @@
       <c r="Q465" s="17"/>
     </row>
     <row r="466" spans="1:17">
-      <c r="A466" s="58">
+      <c r="A466" s="59">
         <v>250</v>
       </c>
       <c r="B466" s="28" t="s">
@@ -25843,22 +25864,22 @@
       <c r="F466" s="28"/>
       <c r="G466" s="28"/>
       <c r="H466" s="28"/>
-      <c r="I466" s="59"/>
-      <c r="J466" s="59" t="s">
+      <c r="I466" s="60"/>
+      <c r="J466" s="60" t="s">
         <v>1206</v>
       </c>
-      <c r="K466" s="59" t="s">
+      <c r="K466" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="L466" s="59"/>
-      <c r="M466" s="59"/>
-      <c r="N466" s="59"/>
-      <c r="O466" s="59"/>
-      <c r="P466" s="59"/>
-      <c r="Q466" s="59"/>
+      <c r="L466" s="60"/>
+      <c r="M466" s="60"/>
+      <c r="N466" s="60"/>
+      <c r="O466" s="60"/>
+      <c r="P466" s="60"/>
+      <c r="Q466" s="60"/>
     </row>
     <row r="467" s="29" customFormat="1" spans="1:17">
-      <c r="A467" s="55">
+      <c r="A467" s="56">
         <v>253</v>
       </c>
       <c r="B467" s="5" t="s">
@@ -25885,7 +25906,7 @@
       <c r="Q467" s="17"/>
     </row>
     <row r="468" s="29" customFormat="1" spans="1:17">
-      <c r="A468" s="55">
+      <c r="A468" s="56">
         <v>254</v>
       </c>
       <c r="B468" s="5" t="s">
@@ -25912,7 +25933,7 @@
       <c r="Q468" s="17"/>
     </row>
     <row r="469" s="29" customFormat="1" spans="1:17">
-      <c r="A469" s="55">
+      <c r="A469" s="56">
         <v>257</v>
       </c>
       <c r="B469" s="5" t="s">
@@ -25939,7 +25960,7 @@
       <c r="Q469" s="17"/>
     </row>
     <row r="470" s="29" customFormat="1" spans="1:17">
-      <c r="A470" s="58">
+      <c r="A470" s="59">
         <v>263</v>
       </c>
       <c r="B470" s="28" t="s">
@@ -25951,22 +25972,22 @@
       <c r="F470" s="28"/>
       <c r="G470" s="28"/>
       <c r="H470" s="28"/>
-      <c r="I470" s="59"/>
-      <c r="J470" s="59" t="s">
+      <c r="I470" s="60"/>
+      <c r="J470" s="60" t="s">
         <v>1214</v>
       </c>
-      <c r="K470" s="59" t="s">
+      <c r="K470" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="L470" s="59"/>
-      <c r="M470" s="59"/>
-      <c r="N470" s="59"/>
-      <c r="O470" s="59"/>
-      <c r="P470" s="59"/>
-      <c r="Q470" s="59"/>
+      <c r="L470" s="60"/>
+      <c r="M470" s="60"/>
+      <c r="N470" s="60"/>
+      <c r="O470" s="60"/>
+      <c r="P470" s="60"/>
+      <c r="Q470" s="60"/>
     </row>
     <row r="471" s="29" customFormat="1" spans="1:17">
-      <c r="A471" s="55">
+      <c r="A471" s="56">
         <v>264</v>
       </c>
       <c r="B471" s="5" t="s">
@@ -25993,7 +26014,7 @@
       <c r="Q471" s="17"/>
     </row>
     <row r="472" s="29" customFormat="1" spans="1:17">
-      <c r="A472" s="55">
+      <c r="A472" s="56">
         <v>265</v>
       </c>
       <c r="B472" s="5" t="s">
@@ -26022,7 +26043,7 @@
       <c r="Q472" s="17"/>
     </row>
     <row r="473" s="29" customFormat="1" spans="1:17">
-      <c r="A473" s="55">
+      <c r="A473" s="56">
         <v>266</v>
       </c>
       <c r="B473" s="5" t="s">
@@ -26049,7 +26070,7 @@
       <c r="Q473" s="17"/>
     </row>
     <row r="474" s="29" customFormat="1" spans="1:17">
-      <c r="A474" s="55">
+      <c r="A474" s="56">
         <v>267</v>
       </c>
       <c r="B474" s="5" t="s">
@@ -26076,7 +26097,7 @@
       <c r="Q474" s="17"/>
     </row>
     <row r="475" s="29" customFormat="1" spans="1:17">
-      <c r="A475" s="55">
+      <c r="A475" s="56">
         <v>268</v>
       </c>
       <c r="B475" s="5" t="s">
@@ -26103,7 +26124,7 @@
       <c r="Q475" s="17"/>
     </row>
     <row r="476" s="29" customFormat="1" spans="1:17">
-      <c r="A476" s="55">
+      <c r="A476" s="56">
         <v>269</v>
       </c>
       <c r="B476" s="5" t="s">
@@ -26130,7 +26151,7 @@
       <c r="Q476" s="17"/>
     </row>
     <row r="477" spans="1:17">
-      <c r="A477" s="55">
+      <c r="A477" s="56">
         <v>270</v>
       </c>
       <c r="B477" s="5" t="s">
@@ -26157,7 +26178,7 @@
       <c r="Q477" s="17"/>
     </row>
     <row r="478" s="9" customFormat="1" spans="1:17">
-      <c r="A478" s="55">
+      <c r="A478" s="56">
         <v>271</v>
       </c>
       <c r="B478" s="5" t="s">
@@ -26184,7 +26205,7 @@
       <c r="Q478" s="17"/>
     </row>
     <row r="479" s="9" customFormat="1" spans="1:17">
-      <c r="A479" s="55">
+      <c r="A479" s="56">
         <v>273</v>
       </c>
       <c r="B479" s="5" t="s">
@@ -26211,7 +26232,7 @@
       <c r="Q479" s="17"/>
     </row>
     <row r="480" s="9" customFormat="1" spans="1:17">
-      <c r="A480" s="55">
+      <c r="A480" s="56">
         <v>274</v>
       </c>
       <c r="B480" s="5" t="s">
@@ -26238,7 +26259,7 @@
       <c r="Q480" s="17"/>
     </row>
     <row r="481" s="9" customFormat="1" spans="1:17">
-      <c r="A481" s="55">
+      <c r="A481" s="56">
         <v>275</v>
       </c>
       <c r="B481" s="5" t="s">
@@ -26265,7 +26286,7 @@
       <c r="Q481" s="17"/>
     </row>
     <row r="482" s="9" customFormat="1" spans="1:17">
-      <c r="A482" s="55">
+      <c r="A482" s="56">
         <v>276</v>
       </c>
       <c r="B482" s="5" t="s">
@@ -26292,7 +26313,7 @@
       <c r="Q482" s="17"/>
     </row>
     <row r="483" s="9" customFormat="1" spans="1:17">
-      <c r="A483" s="55">
+      <c r="A483" s="56">
         <v>277</v>
       </c>
       <c r="B483" s="5" t="s">
@@ -26319,7 +26340,7 @@
       <c r="Q483" s="17"/>
     </row>
     <row r="484" s="9" customFormat="1" spans="1:17">
-      <c r="A484" s="55">
+      <c r="A484" s="56">
         <v>278</v>
       </c>
       <c r="B484" s="5" t="s">
@@ -26346,7 +26367,7 @@
       <c r="Q484" s="17"/>
     </row>
     <row r="485" s="9" customFormat="1" spans="1:17">
-      <c r="A485" s="55">
+      <c r="A485" s="56">
         <v>279</v>
       </c>
       <c r="B485" s="5" t="s">
@@ -26373,7 +26394,7 @@
       <c r="Q485" s="17"/>
     </row>
     <row r="486" s="9" customFormat="1" spans="1:17">
-      <c r="A486" s="55">
+      <c r="A486" s="56">
         <v>281</v>
       </c>
       <c r="B486" s="5" t="s">
@@ -26400,7 +26421,7 @@
       <c r="Q486" s="17"/>
     </row>
     <row r="487" s="9" customFormat="1" spans="1:17">
-      <c r="A487" s="55">
+      <c r="A487" s="56">
         <v>282</v>
       </c>
       <c r="B487" s="5" t="s">
@@ -26427,7 +26448,7 @@
       <c r="Q487" s="17"/>
     </row>
     <row r="488" s="9" customFormat="1" spans="1:17">
-      <c r="A488" s="39">
+      <c r="A488" s="40">
         <v>283</v>
       </c>
       <c r="B488" s="19" t="s">
@@ -26456,7 +26477,7 @@
       <c r="Q488" s="14"/>
     </row>
     <row r="489" s="9" customFormat="1" spans="1:17">
-      <c r="A489" s="39">
+      <c r="A489" s="40">
         <v>284</v>
       </c>
       <c r="B489" s="19" t="s">
@@ -26485,7 +26506,7 @@
       <c r="Q489" s="14"/>
     </row>
     <row r="490" s="9" customFormat="1" spans="1:17">
-      <c r="A490" s="39">
+      <c r="A490" s="40">
         <v>285</v>
       </c>
       <c r="B490" s="19" t="s">
@@ -26514,7 +26535,7 @@
       <c r="Q490" s="14"/>
     </row>
     <row r="491" s="9" customFormat="1" spans="1:17">
-      <c r="A491" s="39">
+      <c r="A491" s="40">
         <v>286</v>
       </c>
       <c r="B491" s="19" t="s">
@@ -26543,7 +26564,7 @@
       <c r="Q491" s="14"/>
     </row>
     <row r="492" s="9" customFormat="1" spans="1:17">
-      <c r="A492" s="39">
+      <c r="A492" s="40">
         <v>287</v>
       </c>
       <c r="B492" s="19" t="s">
@@ -26574,7 +26595,7 @@
       <c r="Q492" s="14"/>
     </row>
     <row r="493" s="9" customFormat="1" spans="1:17">
-      <c r="A493" s="39">
+      <c r="A493" s="40">
         <v>288</v>
       </c>
       <c r="B493" s="19" t="s">
@@ -26605,7 +26626,7 @@
       <c r="Q493" s="14"/>
     </row>
     <row r="494" s="9" customFormat="1" spans="1:17">
-      <c r="A494" s="55">
+      <c r="A494" s="56">
         <v>290</v>
       </c>
       <c r="B494" s="5" t="s">
@@ -26632,7 +26653,7 @@
       <c r="Q494" s="17"/>
     </row>
     <row r="495" s="9" customFormat="1" spans="1:17">
-      <c r="A495" s="55">
+      <c r="A495" s="56">
         <v>292</v>
       </c>
       <c r="B495" s="5" t="s">
@@ -26659,7 +26680,7 @@
       <c r="Q495" s="17"/>
     </row>
     <row r="496" s="9" customFormat="1" spans="1:17">
-      <c r="A496" s="55">
+      <c r="A496" s="56">
         <v>293</v>
       </c>
       <c r="B496" s="5" t="s">
@@ -26686,7 +26707,7 @@
       <c r="Q496" s="17"/>
     </row>
     <row r="497" s="9" customFormat="1" spans="1:17">
-      <c r="A497" s="55">
+      <c r="A497" s="56">
         <v>294</v>
       </c>
       <c r="B497" s="5" t="s">
@@ -26713,7 +26734,7 @@
       <c r="Q497" s="17"/>
     </row>
     <row r="498" s="9" customFormat="1" spans="1:17">
-      <c r="A498" s="55">
+      <c r="A498" s="56">
         <v>295</v>
       </c>
       <c r="B498" s="5" t="s">
@@ -26740,7 +26761,7 @@
       <c r="Q498" s="17"/>
     </row>
     <row r="499" s="9" customFormat="1" spans="1:17">
-      <c r="A499" s="55">
+      <c r="A499" s="56">
         <v>296</v>
       </c>
       <c r="B499" s="5" t="s">
@@ -26767,7 +26788,7 @@
       <c r="Q499" s="17"/>
     </row>
     <row r="500" s="29" customFormat="1" spans="1:17">
-      <c r="A500" s="55">
+      <c r="A500" s="56">
         <v>297</v>
       </c>
       <c r="B500" s="5" t="s">
@@ -26794,7 +26815,7 @@
       <c r="Q500" s="17"/>
     </row>
     <row r="501" s="29" customFormat="1" spans="1:17">
-      <c r="A501" s="55">
+      <c r="A501" s="56">
         <v>298</v>
       </c>
       <c r="B501" s="5" t="s">
@@ -26821,7 +26842,7 @@
       <c r="Q501" s="17"/>
     </row>
     <row r="502" s="29" customFormat="1" spans="1:17">
-      <c r="A502" s="55">
+      <c r="A502" s="56">
         <v>299</v>
       </c>
       <c r="B502" s="5" t="s">
@@ -26848,7 +26869,7 @@
       <c r="Q502" s="17"/>
     </row>
     <row r="503" s="29" customFormat="1" spans="1:17">
-      <c r="A503" s="55">
+      <c r="A503" s="56">
         <v>300</v>
       </c>
       <c r="B503" s="5" t="s">
@@ -26879,7 +26900,7 @@
       <c r="Q503" s="17"/>
     </row>
     <row r="504" s="29" customFormat="1" spans="1:17">
-      <c r="A504" s="55">
+      <c r="A504" s="56">
         <v>301</v>
       </c>
       <c r="B504" s="5" t="s">
@@ -26910,7 +26931,7 @@
       <c r="Q504" s="17"/>
     </row>
     <row r="505" s="29" customFormat="1" spans="1:17">
-      <c r="A505" s="55">
+      <c r="A505" s="56">
         <v>302</v>
       </c>
       <c r="B505" s="5" t="s">
@@ -26941,7 +26962,7 @@
       <c r="Q505" s="17"/>
     </row>
     <row r="506" s="32" customFormat="1" spans="1:17">
-      <c r="A506" s="55">
+      <c r="A506" s="56">
         <v>303</v>
       </c>
       <c r="B506" s="5" t="s">
@@ -26972,7 +26993,7 @@
       <c r="Q506" s="17"/>
     </row>
     <row r="507" s="32" customFormat="1" spans="1:17">
-      <c r="A507" s="55">
+      <c r="A507" s="56">
         <v>304</v>
       </c>
       <c r="B507" s="5" t="s">
@@ -27003,7 +27024,7 @@
       <c r="Q507" s="17"/>
     </row>
     <row r="508" s="32" customFormat="1" spans="1:17">
-      <c r="A508" s="55">
+      <c r="A508" s="56">
         <v>305</v>
       </c>
       <c r="B508" s="5" t="s">
@@ -27034,7 +27055,7 @@
       <c r="Q508" s="17"/>
     </row>
     <row r="509" s="32" customFormat="1" spans="1:17">
-      <c r="A509" s="55">
+      <c r="A509" s="56">
         <v>306</v>
       </c>
       <c r="B509" s="5" t="s">
@@ -27065,7 +27086,7 @@
       <c r="Q509" s="17"/>
     </row>
     <row r="510" s="32" customFormat="1" spans="1:17">
-      <c r="A510" s="55">
+      <c r="A510" s="56">
         <v>307</v>
       </c>
       <c r="B510" s="5" t="s">
@@ -27096,7 +27117,7 @@
       <c r="Q510" s="17"/>
     </row>
     <row r="511" s="32" customFormat="1" spans="1:17">
-      <c r="A511" s="55">
+      <c r="A511" s="56">
         <v>308</v>
       </c>
       <c r="B511" s="5" t="s">
@@ -27127,7 +27148,7 @@
       <c r="Q511" s="17"/>
     </row>
     <row r="512" s="32" customFormat="1" spans="1:17">
-      <c r="A512" s="55">
+      <c r="A512" s="56">
         <v>309</v>
       </c>
       <c r="B512" s="5" t="s">
@@ -27158,7 +27179,7 @@
       <c r="Q512" s="17"/>
     </row>
     <row r="513" s="9" customFormat="1" spans="1:17">
-      <c r="A513" s="55">
+      <c r="A513" s="56">
         <v>310</v>
       </c>
       <c r="B513" s="5" t="s">
@@ -27189,7 +27210,7 @@
       <c r="Q513" s="17"/>
     </row>
     <row r="514" s="9" customFormat="1" spans="1:17">
-      <c r="A514" s="55">
+      <c r="A514" s="56">
         <v>311</v>
       </c>
       <c r="B514" s="5" t="s">
@@ -27220,7 +27241,7 @@
       <c r="Q514" s="17"/>
     </row>
     <row r="515" s="9" customFormat="1" spans="1:17">
-      <c r="A515" s="55">
+      <c r="A515" s="56">
         <v>312</v>
       </c>
       <c r="B515" s="5" t="s">
@@ -27251,7 +27272,7 @@
       <c r="Q515" s="17"/>
     </row>
     <row r="516" s="9" customFormat="1" spans="1:17">
-      <c r="A516" s="55">
+      <c r="A516" s="56">
         <v>313</v>
       </c>
       <c r="B516" s="5" t="s">
@@ -27282,7 +27303,7 @@
       <c r="Q516" s="17"/>
     </row>
     <row r="517" s="9" customFormat="1" spans="1:17">
-      <c r="A517" s="55">
+      <c r="A517" s="56">
         <v>314</v>
       </c>
       <c r="B517" s="5" t="s">
@@ -27313,7 +27334,7 @@
       <c r="Q517" s="17"/>
     </row>
     <row r="518" s="33" customFormat="1" spans="1:17">
-      <c r="A518" s="55">
+      <c r="A518" s="56">
         <v>315</v>
       </c>
       <c r="B518" s="5" t="s">
@@ -27344,7 +27365,7 @@
       <c r="Q518" s="17"/>
     </row>
     <row r="519" s="33" customFormat="1" spans="1:17">
-      <c r="A519" s="55">
+      <c r="A519" s="56">
         <v>316</v>
       </c>
       <c r="B519" s="5" t="s">
@@ -27375,7 +27396,7 @@
       <c r="Q519" s="17"/>
     </row>
     <row r="520" s="33" customFormat="1" spans="1:17">
-      <c r="A520" s="55">
+      <c r="A520" s="56">
         <v>317</v>
       </c>
       <c r="B520" s="5" t="s">
@@ -27406,7 +27427,7 @@
       <c r="Q520" s="17"/>
     </row>
     <row r="521" s="33" customFormat="1" spans="1:17">
-      <c r="A521" s="55">
+      <c r="A521" s="56">
         <v>318</v>
       </c>
       <c r="B521" s="5" t="s">
@@ -27437,7 +27458,7 @@
       <c r="Q521" s="17"/>
     </row>
     <row r="522" s="33" customFormat="1" spans="1:17">
-      <c r="A522" s="55">
+      <c r="A522" s="56">
         <v>319</v>
       </c>
       <c r="B522" s="5" t="s">
@@ -27468,7 +27489,7 @@
       <c r="Q522" s="17"/>
     </row>
     <row r="523" s="33" customFormat="1" spans="1:17">
-      <c r="A523" s="55">
+      <c r="A523" s="56">
         <v>320</v>
       </c>
       <c r="B523" s="5" t="s">
@@ -27499,7 +27520,7 @@
       <c r="Q523" s="17"/>
     </row>
     <row r="524" s="33" customFormat="1" spans="1:17">
-      <c r="A524" s="55">
+      <c r="A524" s="56">
         <v>321</v>
       </c>
       <c r="B524" s="5" t="s">
@@ -27530,7 +27551,7 @@
       <c r="Q524" s="17"/>
     </row>
     <row r="525" s="33" customFormat="1" spans="1:17">
-      <c r="A525" s="55">
+      <c r="A525" s="56">
         <v>322</v>
       </c>
       <c r="B525" s="5" t="s">
@@ -27561,7 +27582,7 @@
       <c r="Q525" s="17"/>
     </row>
     <row r="526" s="33" customFormat="1" spans="1:17">
-      <c r="A526" s="55">
+      <c r="A526" s="56">
         <v>323</v>
       </c>
       <c r="B526" s="5" t="s">
@@ -27592,7 +27613,7 @@
       <c r="Q526" s="17"/>
     </row>
     <row r="527" s="33" customFormat="1" spans="1:17">
-      <c r="A527" s="55">
+      <c r="A527" s="56">
         <v>324</v>
       </c>
       <c r="B527" s="5" t="s">
@@ -27623,7 +27644,7 @@
       <c r="Q527" s="17"/>
     </row>
     <row r="528" s="33" customFormat="1" spans="1:17">
-      <c r="A528" s="55">
+      <c r="A528" s="56">
         <v>325</v>
       </c>
       <c r="B528" s="5" t="s">
@@ -27654,7 +27675,7 @@
       <c r="Q528" s="17"/>
     </row>
     <row r="529" s="33" customFormat="1" spans="1:17">
-      <c r="A529" s="55">
+      <c r="A529" s="56">
         <v>326</v>
       </c>
       <c r="B529" s="5" t="s">
@@ -27685,7 +27706,7 @@
       <c r="Q529" s="17"/>
     </row>
     <row r="530" s="33" customFormat="1" spans="1:17">
-      <c r="A530" s="55">
+      <c r="A530" s="56">
         <v>327</v>
       </c>
       <c r="B530" s="5" t="s">
@@ -27716,7 +27737,7 @@
       <c r="Q530" s="17"/>
     </row>
     <row r="531" s="33" customFormat="1" spans="1:17">
-      <c r="A531" s="55">
+      <c r="A531" s="56">
         <v>328</v>
       </c>
       <c r="B531" s="5" t="s">
@@ -27747,7 +27768,7 @@
       <c r="Q531" s="17"/>
     </row>
     <row r="532" s="33" customFormat="1" spans="1:17">
-      <c r="A532" s="55">
+      <c r="A532" s="56">
         <v>329</v>
       </c>
       <c r="B532" s="5" t="s">
@@ -27778,7 +27799,7 @@
       <c r="Q532" s="17"/>
     </row>
     <row r="533" s="33" customFormat="1" spans="1:17">
-      <c r="A533" s="55">
+      <c r="A533" s="56">
         <v>330</v>
       </c>
       <c r="B533" s="5" t="s">
@@ -27809,7 +27830,7 @@
       <c r="Q533" s="17"/>
     </row>
     <row r="534" spans="1:17">
-      <c r="A534" s="55">
+      <c r="A534" s="56">
         <v>331</v>
       </c>
       <c r="B534" s="5" t="s">
@@ -27840,7 +27861,7 @@
       <c r="Q534" s="17"/>
     </row>
     <row r="535" s="9" customFormat="1" spans="1:17">
-      <c r="A535" s="55">
+      <c r="A535" s="56">
         <v>332</v>
       </c>
       <c r="B535" s="5" t="s">
@@ -27871,7 +27892,7 @@
       <c r="Q535" s="17"/>
     </row>
     <row r="536" s="9" customFormat="1" spans="1:17">
-      <c r="A536" s="55">
+      <c r="A536" s="56">
         <v>333</v>
       </c>
       <c r="B536" s="5" t="s">
@@ -27902,7 +27923,7 @@
       <c r="Q536" s="17"/>
     </row>
     <row r="537" s="9" customFormat="1" spans="1:17">
-      <c r="A537" s="55">
+      <c r="A537" s="56">
         <v>334</v>
       </c>
       <c r="B537" s="5" t="s">
@@ -27933,7 +27954,7 @@
       <c r="Q537" s="17"/>
     </row>
     <row r="538" s="9" customFormat="1" spans="1:17">
-      <c r="A538" s="55">
+      <c r="A538" s="56">
         <v>335</v>
       </c>
       <c r="B538" s="5" t="s">
@@ -27964,7 +27985,7 @@
       <c r="Q538" s="17"/>
     </row>
     <row r="539" s="9" customFormat="1" spans="1:17">
-      <c r="A539" s="55">
+      <c r="A539" s="56">
         <v>336</v>
       </c>
       <c r="B539" s="5" t="s">
@@ -27995,7 +28016,7 @@
       <c r="Q539" s="17"/>
     </row>
     <row r="540" s="9" customFormat="1" spans="1:17">
-      <c r="A540" s="55">
+      <c r="A540" s="56">
         <v>337</v>
       </c>
       <c r="B540" s="5" t="s">
@@ -28018,7 +28039,7 @@
       <c r="Q540" s="17"/>
     </row>
     <row r="541" s="9" customFormat="1" spans="1:17">
-      <c r="A541" s="39">
+      <c r="A541" s="40">
         <v>338</v>
       </c>
       <c r="B541" s="19" t="s">
@@ -28045,7 +28066,7 @@
       <c r="Q541" s="14"/>
     </row>
     <row r="542" s="9" customFormat="1" spans="1:17">
-      <c r="A542" s="39">
+      <c r="A542" s="40">
         <v>339</v>
       </c>
       <c r="B542" s="19" t="s">
@@ -28072,7 +28093,7 @@
       <c r="Q542" s="14"/>
     </row>
     <row r="543" s="9" customFormat="1" spans="1:17">
-      <c r="A543" s="39">
+      <c r="A543" s="40">
         <v>340</v>
       </c>
       <c r="B543" s="19" t="s">
@@ -28097,7 +28118,7 @@
       <c r="Q543" s="14"/>
     </row>
     <row r="544" s="9" customFormat="1" spans="1:17">
-      <c r="A544" s="39">
+      <c r="A544" s="40">
         <v>341</v>
       </c>
       <c r="B544" s="19" t="s">
@@ -28122,7 +28143,7 @@
       <c r="Q544" s="14"/>
     </row>
     <row r="545" s="9" customFormat="1" spans="1:17">
-      <c r="A545" s="39">
+      <c r="A545" s="40">
         <v>342</v>
       </c>
       <c r="B545" s="19" t="s">
@@ -28147,7 +28168,7 @@
       <c r="Q545" s="14"/>
     </row>
     <row r="546" s="9" customFormat="1" spans="1:17">
-      <c r="A546" s="39">
+      <c r="A546" s="40">
         <v>343</v>
       </c>
       <c r="B546" s="19" t="s">
@@ -28172,7 +28193,7 @@
       <c r="Q546" s="14"/>
     </row>
     <row r="547" s="9" customFormat="1" spans="1:17">
-      <c r="A547" s="39">
+      <c r="A547" s="40">
         <v>344</v>
       </c>
       <c r="B547" s="19" t="s">
@@ -28197,7 +28218,7 @@
       <c r="Q547" s="14"/>
     </row>
     <row r="548" s="9" customFormat="1" spans="1:17">
-      <c r="A548" s="39">
+      <c r="A548" s="40">
         <v>345</v>
       </c>
       <c r="B548" s="19" t="s">
@@ -28222,7 +28243,7 @@
       <c r="Q548" s="14"/>
     </row>
     <row r="549" s="9" customFormat="1" spans="1:17">
-      <c r="A549" s="39">
+      <c r="A549" s="40">
         <v>346</v>
       </c>
       <c r="B549" s="19" t="s">
@@ -28247,7 +28268,7 @@
       <c r="Q549" s="14"/>
     </row>
     <row r="550" s="9" customFormat="1" spans="1:17">
-      <c r="A550" s="39">
+      <c r="A550" s="40">
         <v>347</v>
       </c>
       <c r="B550" s="19" t="s">
@@ -28272,7 +28293,7 @@
       <c r="Q550" s="14"/>
     </row>
     <row r="551" s="9" customFormat="1" spans="1:17">
-      <c r="A551" s="39">
+      <c r="A551" s="40">
         <v>348</v>
       </c>
       <c r="B551" s="19" t="s">
@@ -28297,7 +28318,7 @@
       <c r="Q551" s="14"/>
     </row>
     <row r="552" s="29" customFormat="1" spans="1:17">
-      <c r="A552" s="39">
+      <c r="A552" s="40">
         <v>349</v>
       </c>
       <c r="B552" s="19" t="s">
@@ -28322,7 +28343,7 @@
       <c r="Q552" s="14"/>
     </row>
     <row r="553" s="29" customFormat="1" spans="1:17">
-      <c r="A553" s="39">
+      <c r="A553" s="40">
         <v>350</v>
       </c>
       <c r="B553" s="19" t="s">
@@ -28347,7 +28368,7 @@
       <c r="Q553" s="14"/>
     </row>
     <row r="554" s="29" customFormat="1" spans="1:17">
-      <c r="A554" s="39">
+      <c r="A554" s="40">
         <v>351</v>
       </c>
       <c r="B554" s="19" t="s">
@@ -28372,7 +28393,7 @@
       <c r="Q554" s="14"/>
     </row>
     <row r="555" s="29" customFormat="1" spans="1:17">
-      <c r="A555" s="39">
+      <c r="A555" s="40">
         <v>352</v>
       </c>
       <c r="B555" s="19" t="s">
@@ -28397,7 +28418,7 @@
       <c r="Q555" s="14"/>
     </row>
     <row r="556" s="29" customFormat="1" spans="1:17">
-      <c r="A556" s="39">
+      <c r="A556" s="40">
         <v>353</v>
       </c>
       <c r="B556" s="19" t="s">
@@ -28422,7 +28443,7 @@
       <c r="Q556" s="14"/>
     </row>
     <row r="557" s="29" customFormat="1" spans="1:17">
-      <c r="A557" s="39">
+      <c r="A557" s="40">
         <v>354</v>
       </c>
       <c r="B557" s="19" t="s">
@@ -28447,7 +28468,7 @@
       <c r="Q557" s="14"/>
     </row>
     <row r="558" s="29" customFormat="1" spans="1:17">
-      <c r="A558" s="39">
+      <c r="A558" s="40">
         <v>355</v>
       </c>
       <c r="B558" s="19" t="s">
@@ -28472,7 +28493,7 @@
       <c r="Q558" s="14"/>
     </row>
     <row r="559" s="29" customFormat="1" spans="1:17">
-      <c r="A559" s="39">
+      <c r="A559" s="40">
         <v>356</v>
       </c>
       <c r="B559" s="19" t="s">
@@ -28497,7 +28518,7 @@
       <c r="Q559" s="14"/>
     </row>
     <row r="560" s="29" customFormat="1" spans="1:17">
-      <c r="A560" s="39">
+      <c r="A560" s="40">
         <v>357</v>
       </c>
       <c r="B560" s="19" t="s">
@@ -28522,7 +28543,7 @@
       <c r="Q560" s="14"/>
     </row>
     <row r="561" spans="1:17">
-      <c r="A561" s="39">
+      <c r="A561" s="40">
         <v>358</v>
       </c>
       <c r="B561" s="19" t="s">
@@ -28547,7 +28568,7 @@
       <c r="Q561" s="14"/>
     </row>
     <row r="562" s="9" customFormat="1" spans="1:17">
-      <c r="A562" s="39">
+      <c r="A562" s="40">
         <v>359</v>
       </c>
       <c r="B562" s="19" t="s">
@@ -28572,7 +28593,7 @@
       <c r="Q562" s="14"/>
     </row>
     <row r="563" s="9" customFormat="1" spans="1:17">
-      <c r="A563" s="39">
+      <c r="A563" s="40">
         <v>360</v>
       </c>
       <c r="B563" s="19" t="s">
@@ -28597,7 +28618,7 @@
       <c r="Q563" s="14"/>
     </row>
     <row r="564" s="9" customFormat="1" spans="1:17">
-      <c r="A564" s="39">
+      <c r="A564" s="40">
         <v>361</v>
       </c>
       <c r="B564" s="19" t="s">
@@ -28622,7 +28643,7 @@
       <c r="Q564" s="14"/>
     </row>
     <row r="565" s="29" customFormat="1" spans="1:17">
-      <c r="A565" s="39">
+      <c r="A565" s="40">
         <v>362</v>
       </c>
       <c r="B565" s="19" t="s">
@@ -28647,7 +28668,7 @@
       <c r="Q565" s="14"/>
     </row>
     <row r="566" s="29" customFormat="1" spans="1:17">
-      <c r="A566" s="39">
+      <c r="A566" s="40">
         <v>363</v>
       </c>
       <c r="B566" s="19" t="s">
@@ -28672,7 +28693,7 @@
       <c r="Q566" s="14"/>
     </row>
     <row r="567" s="29" customFormat="1" spans="1:17">
-      <c r="A567" s="39">
+      <c r="A567" s="40">
         <v>364</v>
       </c>
       <c r="B567" s="19" t="s">
@@ -28697,7 +28718,7 @@
       <c r="Q567" s="14"/>
     </row>
     <row r="568" s="29" customFormat="1" spans="1:17">
-      <c r="A568" s="39">
+      <c r="A568" s="40">
         <v>365</v>
       </c>
       <c r="B568" s="19" t="s">
@@ -28722,7 +28743,7 @@
       <c r="Q568" s="14"/>
     </row>
     <row r="569" s="29" customFormat="1" spans="1:17">
-      <c r="A569" s="39">
+      <c r="A569" s="40">
         <v>366</v>
       </c>
       <c r="B569" s="19" t="s">
@@ -28747,7 +28768,7 @@
       <c r="Q569" s="14"/>
     </row>
     <row r="570" s="29" customFormat="1" spans="1:17">
-      <c r="A570" s="39">
+      <c r="A570" s="40">
         <v>367</v>
       </c>
       <c r="B570" s="19" t="s">
@@ -28772,7 +28793,7 @@
       <c r="Q570" s="14"/>
     </row>
     <row r="571" s="9" customFormat="1" spans="1:17">
-      <c r="A571" s="39">
+      <c r="A571" s="40">
         <v>368</v>
       </c>
       <c r="B571" s="19" t="s">
@@ -28797,7 +28818,7 @@
       <c r="Q571" s="14"/>
     </row>
     <row r="572" s="9" customFormat="1" spans="1:17">
-      <c r="A572" s="39">
+      <c r="A572" s="40">
         <v>369</v>
       </c>
       <c r="B572" s="19" t="s">
@@ -28822,7 +28843,7 @@
       <c r="Q572" s="14"/>
     </row>
     <row r="573" s="9" customFormat="1" spans="1:17">
-      <c r="A573" s="39">
+      <c r="A573" s="40">
         <v>370</v>
       </c>
       <c r="B573" s="19" t="s">
@@ -28847,7 +28868,7 @@
       <c r="Q573" s="14"/>
     </row>
     <row r="574" s="9" customFormat="1" spans="1:17">
-      <c r="A574" s="39">
+      <c r="A574" s="40">
         <v>371</v>
       </c>
       <c r="B574" s="19" t="s">
@@ -28872,7 +28893,7 @@
       <c r="Q574" s="14"/>
     </row>
     <row r="575" s="9" customFormat="1" spans="1:17">
-      <c r="A575" s="39">
+      <c r="A575" s="40">
         <v>372</v>
       </c>
       <c r="B575" s="19" t="s">
@@ -28897,7 +28918,7 @@
       <c r="Q575" s="14"/>
     </row>
     <row r="576" s="29" customFormat="1" spans="1:17">
-      <c r="A576" s="39">
+      <c r="A576" s="40">
         <v>373</v>
       </c>
       <c r="B576" s="19" t="s">
@@ -28922,7 +28943,7 @@
       <c r="Q576" s="14"/>
     </row>
     <row r="577" spans="1:17">
-      <c r="A577" s="39">
+      <c r="A577" s="40">
         <v>374</v>
       </c>
       <c r="B577" s="19" t="s">
@@ -28949,7 +28970,7 @@
       <c r="Q577" s="14"/>
     </row>
     <row r="578" spans="1:17">
-      <c r="A578" s="39">
+      <c r="A578" s="40">
         <v>375</v>
       </c>
       <c r="B578" s="19" t="s">
@@ -28976,7 +28997,7 @@
       <c r="Q578" s="14"/>
     </row>
     <row r="579" spans="1:17">
-      <c r="A579" s="39">
+      <c r="A579" s="40">
         <v>376</v>
       </c>
       <c r="B579" s="19" t="s">
@@ -29001,7 +29022,7 @@
       <c r="Q579" s="14"/>
     </row>
     <row r="580" s="29" customFormat="1" spans="1:17">
-      <c r="A580" s="39">
+      <c r="A580" s="40">
         <v>377</v>
       </c>
       <c r="B580" s="19" t="s">
@@ -29026,7 +29047,7 @@
       <c r="Q580" s="14"/>
     </row>
     <row r="581" s="29" customFormat="1" spans="1:17">
-      <c r="A581" s="39">
+      <c r="A581" s="40">
         <v>378</v>
       </c>
       <c r="B581" s="19" t="s">
@@ -29051,7 +29072,7 @@
       <c r="Q581" s="14"/>
     </row>
     <row r="582" s="29" customFormat="1" spans="1:17">
-      <c r="A582" s="39">
+      <c r="A582" s="40">
         <v>379</v>
       </c>
       <c r="B582" s="19" t="s">
@@ -29076,7 +29097,7 @@
       <c r="Q582" s="14"/>
     </row>
     <row r="583" s="29" customFormat="1" spans="1:17">
-      <c r="A583" s="39">
+      <c r="A583" s="40">
         <v>380</v>
       </c>
       <c r="B583" s="19" t="s">
@@ -29101,7 +29122,7 @@
       <c r="Q583" s="14"/>
     </row>
     <row r="584" s="29" customFormat="1" spans="1:17">
-      <c r="A584" s="39">
+      <c r="A584" s="40">
         <v>381</v>
       </c>
       <c r="B584" s="19" t="s">
@@ -29126,7 +29147,7 @@
       <c r="Q584" s="14"/>
     </row>
     <row r="585" s="34" customFormat="1" spans="1:17">
-      <c r="A585" s="39">
+      <c r="A585" s="40">
         <v>382</v>
       </c>
       <c r="B585" s="19" t="s">
@@ -29151,7 +29172,7 @@
       <c r="Q585" s="14"/>
     </row>
     <row r="586" spans="1:17">
-      <c r="A586" s="39">
+      <c r="A586" s="40">
         <v>383</v>
       </c>
       <c r="B586" s="19" t="s">
@@ -29176,7 +29197,7 @@
       <c r="Q586" s="14"/>
     </row>
     <row r="587" s="29" customFormat="1" spans="1:17">
-      <c r="A587" s="39">
+      <c r="A587" s="40">
         <v>384</v>
       </c>
       <c r="B587" s="19" t="s">
@@ -29201,7 +29222,7 @@
       <c r="Q587" s="14"/>
     </row>
     <row r="588" s="34" customFormat="1" spans="1:17">
-      <c r="A588" s="39">
+      <c r="A588" s="40">
         <v>385</v>
       </c>
       <c r="B588" s="19" t="s">
@@ -29226,7 +29247,7 @@
       <c r="Q588" s="14"/>
     </row>
     <row r="589" s="34" customFormat="1" spans="1:17">
-      <c r="A589" s="39">
+      <c r="A589" s="40">
         <v>386</v>
       </c>
       <c r="B589" s="19" t="s">
@@ -29251,7 +29272,7 @@
       <c r="Q589" s="14"/>
     </row>
     <row r="590" s="29" customFormat="1" spans="1:17">
-      <c r="A590" s="39">
+      <c r="A590" s="40">
         <v>387</v>
       </c>
       <c r="B590" s="19" t="s">
@@ -29276,7 +29297,7 @@
       <c r="Q590" s="14"/>
     </row>
     <row r="591" s="29" customFormat="1" spans="1:17">
-      <c r="A591" s="39">
+      <c r="A591" s="40">
         <v>388</v>
       </c>
       <c r="B591" s="19" t="s">
@@ -29301,7 +29322,7 @@
       <c r="Q591" s="14"/>
     </row>
     <row r="592" spans="1:17">
-      <c r="A592" s="39">
+      <c r="A592" s="40">
         <v>389</v>
       </c>
       <c r="B592" s="19" t="s">
@@ -29326,7 +29347,7 @@
       <c r="Q592" s="14"/>
     </row>
     <row r="593" spans="1:17">
-      <c r="A593" s="39">
+      <c r="A593" s="40">
         <v>390</v>
       </c>
       <c r="B593" s="19" t="s">
@@ -29351,7 +29372,7 @@
       <c r="Q593" s="14"/>
     </row>
     <row r="594" spans="1:17">
-      <c r="A594" s="55">
+      <c r="A594" s="56">
         <v>408</v>
       </c>
       <c r="B594" s="5" t="s">
@@ -29382,7 +29403,7 @@
       <c r="Q594" s="17"/>
     </row>
     <row r="595" spans="1:17">
-      <c r="A595" s="39">
+      <c r="A595" s="40">
         <v>428</v>
       </c>
       <c r="B595" s="19" t="s">
@@ -29407,7 +29428,7 @@
       <c r="Q595" s="14"/>
     </row>
     <row r="596" spans="1:17">
-      <c r="A596" s="39">
+      <c r="A596" s="40">
         <v>429</v>
       </c>
       <c r="B596" s="19" t="s">
@@ -29432,7 +29453,7 @@
       <c r="Q596" s="14"/>
     </row>
     <row r="597" spans="1:17">
-      <c r="A597" s="39">
+      <c r="A597" s="40">
         <v>430</v>
       </c>
       <c r="B597" s="19" t="s">
@@ -29457,7 +29478,7 @@
       <c r="Q597" s="14"/>
     </row>
     <row r="598" spans="1:17">
-      <c r="A598" s="39">
+      <c r="A598" s="40">
         <v>431</v>
       </c>
       <c r="B598" s="19" t="s">
@@ -29482,7 +29503,7 @@
       <c r="Q598" s="14"/>
     </row>
     <row r="599" s="29" customFormat="1" spans="1:17">
-      <c r="A599" s="39">
+      <c r="A599" s="40">
         <v>432</v>
       </c>
       <c r="B599" s="19" t="s">
@@ -29507,7 +29528,7 @@
       <c r="Q599" s="14"/>
     </row>
     <row r="600" s="31" customFormat="1" spans="1:17">
-      <c r="A600" s="39">
+      <c r="A600" s="40">
         <v>433</v>
       </c>
       <c r="B600" s="19" t="s">
@@ -29532,7 +29553,7 @@
       <c r="Q600" s="14"/>
     </row>
     <row r="601" spans="1:17">
-      <c r="A601" s="39">
+      <c r="A601" s="40">
         <v>434</v>
       </c>
       <c r="B601" s="19" t="s">
@@ -29557,7 +29578,7 @@
       <c r="Q601" s="14"/>
     </row>
     <row r="602" spans="1:17">
-      <c r="A602" s="39">
+      <c r="A602" s="40">
         <v>435</v>
       </c>
       <c r="B602" s="19" t="s">
@@ -29582,7 +29603,7 @@
       <c r="Q602" s="14"/>
     </row>
     <row r="603" spans="1:17">
-      <c r="A603" s="39">
+      <c r="A603" s="40">
         <v>436</v>
       </c>
       <c r="B603" s="19" t="s">
@@ -29607,7 +29628,7 @@
       <c r="Q603" s="14"/>
     </row>
     <row r="604" spans="1:17">
-      <c r="A604" s="39">
+      <c r="A604" s="40">
         <v>437</v>
       </c>
       <c r="B604" s="19" t="s">
@@ -29632,7 +29653,7 @@
       <c r="Q604" s="14"/>
     </row>
     <row r="605" spans="1:17">
-      <c r="A605" s="39">
+      <c r="A605" s="40">
         <v>438</v>
       </c>
       <c r="B605" s="19" t="s">
@@ -29657,7 +29678,7 @@
       <c r="Q605" s="14"/>
     </row>
     <row r="606" spans="1:17">
-      <c r="A606" s="39">
+      <c r="A606" s="40">
         <v>439</v>
       </c>
       <c r="B606" s="19" t="s">
@@ -29682,7 +29703,7 @@
       <c r="Q606" s="14"/>
     </row>
     <row r="607" spans="1:17">
-      <c r="A607" s="39">
+      <c r="A607" s="40">
         <v>440</v>
       </c>
       <c r="B607" s="19" t="s">
@@ -29707,7 +29728,7 @@
       <c r="Q607" s="14"/>
     </row>
     <row r="608" spans="1:17">
-      <c r="A608" s="39">
+      <c r="A608" s="40">
         <v>441</v>
       </c>
       <c r="B608" s="19" t="s">
@@ -29732,7 +29753,7 @@
       <c r="Q608" s="14"/>
     </row>
     <row r="609" spans="1:17">
-      <c r="A609" s="39">
+      <c r="A609" s="40">
         <v>442</v>
       </c>
       <c r="B609" s="19" t="s">
@@ -29757,7 +29778,7 @@
       <c r="Q609" s="14"/>
     </row>
     <row r="610" spans="1:17">
-      <c r="A610" s="39">
+      <c r="A610" s="40">
         <v>443</v>
       </c>
       <c r="B610" s="19" t="s">
@@ -29782,7 +29803,7 @@
       <c r="Q610" s="14"/>
     </row>
     <row r="611" spans="1:17">
-      <c r="A611" s="39">
+      <c r="A611" s="40">
         <v>444</v>
       </c>
       <c r="B611" s="19" t="s">
@@ -29807,7 +29828,7 @@
       <c r="Q611" s="14"/>
     </row>
     <row r="612" spans="1:17">
-      <c r="A612" s="39">
+      <c r="A612" s="40">
         <v>445</v>
       </c>
       <c r="B612" s="19" t="s">
@@ -29832,7 +29853,7 @@
       <c r="Q612" s="14"/>
     </row>
     <row r="613" spans="1:17">
-      <c r="A613" s="39">
+      <c r="A613" s="40">
         <v>446</v>
       </c>
       <c r="B613" s="19" t="s">
@@ -29857,7 +29878,7 @@
       <c r="Q613" s="14"/>
     </row>
     <row r="614" spans="1:17">
-      <c r="A614" s="39">
+      <c r="A614" s="40">
         <v>447</v>
       </c>
       <c r="B614" s="19" t="s">
@@ -29882,7 +29903,7 @@
       <c r="Q614" s="14"/>
     </row>
     <row r="615" spans="1:17">
-      <c r="A615" s="39">
+      <c r="A615" s="40">
         <v>448</v>
       </c>
       <c r="B615" s="19" t="s">
@@ -29907,7 +29928,7 @@
       <c r="Q615" s="14"/>
     </row>
     <row r="616" spans="1:17">
-      <c r="A616" s="39">
+      <c r="A616" s="40">
         <v>449</v>
       </c>
       <c r="B616" s="19" t="s">
@@ -29932,7 +29953,7 @@
       <c r="Q616" s="14"/>
     </row>
     <row r="617" spans="1:17">
-      <c r="A617" s="39">
+      <c r="A617" s="40">
         <v>450</v>
       </c>
       <c r="B617" s="19" t="s">
@@ -29957,7 +29978,7 @@
       <c r="Q617" s="14"/>
     </row>
     <row r="618" spans="1:17">
-      <c r="A618" s="39">
+      <c r="A618" s="40">
         <v>451</v>
       </c>
       <c r="B618" s="19" t="s">
@@ -29982,7 +30003,7 @@
       <c r="Q618" s="14"/>
     </row>
     <row r="619" spans="1:17">
-      <c r="A619" s="39">
+      <c r="A619" s="40">
         <v>452</v>
       </c>
       <c r="B619" s="19" t="s">
@@ -30007,7 +30028,7 @@
       <c r="Q619" s="14"/>
     </row>
     <row r="620" spans="1:17">
-      <c r="A620" s="39">
+      <c r="A620" s="40">
         <v>453</v>
       </c>
       <c r="B620" s="19" t="s">
@@ -30032,7 +30053,7 @@
       <c r="Q620" s="14"/>
     </row>
     <row r="621" spans="1:17">
-      <c r="A621" s="39">
+      <c r="A621" s="40">
         <v>454</v>
       </c>
       <c r="B621" s="19" t="s">
@@ -30057,7 +30078,7 @@
       <c r="Q621" s="14"/>
     </row>
     <row r="622" spans="1:17">
-      <c r="A622" s="39">
+      <c r="A622" s="40">
         <v>455</v>
       </c>
       <c r="B622" s="19" t="s">
@@ -30082,7 +30103,7 @@
       <c r="Q622" s="14"/>
     </row>
     <row r="623" spans="1:17">
-      <c r="A623" s="39">
+      <c r="A623" s="40">
         <v>456</v>
       </c>
       <c r="B623" s="19" t="s">
@@ -30107,7 +30128,7 @@
       <c r="Q623" s="14"/>
     </row>
     <row r="624" spans="1:17">
-      <c r="A624" s="55">
+      <c r="A624" s="56">
         <v>466</v>
       </c>
       <c r="B624" s="5" t="s">
@@ -30138,7 +30159,7 @@
       <c r="Q624" s="17"/>
     </row>
     <row r="625" spans="1:17">
-      <c r="A625" s="55">
+      <c r="A625" s="56">
         <v>477</v>
       </c>
       <c r="B625" s="5" t="s">
@@ -30167,7 +30188,7 @@
       <c r="Q625" s="17"/>
     </row>
     <row r="626" spans="1:17">
-      <c r="A626" s="55">
+      <c r="A626" s="56">
         <v>534</v>
       </c>
       <c r="B626" s="5" t="s">
@@ -30181,7 +30202,7 @@
       </c>
       <c r="E626" s="17"/>
       <c r="F626" s="5"/>
-      <c r="G626" s="43"/>
+      <c r="G626" s="44"/>
       <c r="H626" s="5"/>
       <c r="I626" s="5" t="s">
         <v>25</v>
@@ -30196,7 +30217,7 @@
       <c r="Q626" s="17"/>
     </row>
     <row r="627" spans="1:17">
-      <c r="A627" s="55">
+      <c r="A627" s="56">
         <v>561</v>
       </c>
       <c r="B627" s="5" t="s">
@@ -30223,7 +30244,7 @@
       <c r="Q627" s="17"/>
     </row>
     <row r="628" spans="1:17">
-      <c r="A628" s="55">
+      <c r="A628" s="56">
         <v>577</v>
       </c>
       <c r="B628" s="5" t="s">
@@ -30248,7 +30269,7 @@
       <c r="Q628" s="17"/>
     </row>
     <row r="629" spans="1:17">
-      <c r="A629" s="55">
+      <c r="A629" s="56">
         <v>578</v>
       </c>
       <c r="B629" s="5" t="s">
@@ -30273,7 +30294,7 @@
       <c r="Q629" s="17"/>
     </row>
     <row r="630" spans="1:17">
-      <c r="A630" s="55">
+      <c r="A630" s="56">
         <v>579</v>
       </c>
       <c r="B630" s="5" t="s">
@@ -30298,7 +30319,7 @@
       <c r="Q630" s="17"/>
     </row>
     <row r="631" spans="1:17">
-      <c r="A631" s="55">
+      <c r="A631" s="56">
         <v>586</v>
       </c>
       <c r="B631" s="5" t="s">
@@ -30321,7 +30342,7 @@
       <c r="Q631" s="17"/>
     </row>
     <row r="632" spans="1:17">
-      <c r="A632" s="46">
+      <c r="A632" s="47">
         <v>589</v>
       </c>
       <c r="B632" s="25" t="s">
@@ -30333,20 +30354,20 @@
       <c r="F632" s="25"/>
       <c r="G632" s="13"/>
       <c r="H632" s="5"/>
-      <c r="I632" s="47"/>
-      <c r="J632" s="47" t="s">
+      <c r="I632" s="48"/>
+      <c r="J632" s="48" t="s">
         <v>1484</v>
       </c>
-      <c r="K632" s="47"/>
-      <c r="L632" s="47"/>
-      <c r="M632" s="47"/>
-      <c r="N632" s="47"/>
-      <c r="O632" s="47"/>
-      <c r="P632" s="47"/>
-      <c r="Q632" s="47"/>
+      <c r="K632" s="48"/>
+      <c r="L632" s="48"/>
+      <c r="M632" s="48"/>
+      <c r="N632" s="48"/>
+      <c r="O632" s="48"/>
+      <c r="P632" s="48"/>
+      <c r="Q632" s="48"/>
     </row>
     <row r="633" spans="1:17">
-      <c r="A633" s="55">
+      <c r="A633" s="56">
         <v>592</v>
       </c>
       <c r="B633" s="5" t="s">
@@ -30369,7 +30390,7 @@
       <c r="Q633" s="17"/>
     </row>
     <row r="634" spans="1:17">
-      <c r="A634" s="55">
+      <c r="A634" s="56">
         <v>593</v>
       </c>
       <c r="B634" s="5" t="s">
@@ -30392,7 +30413,7 @@
       <c r="Q634" s="17"/>
     </row>
     <row r="635" s="29" customFormat="1" spans="1:17">
-      <c r="A635" s="55">
+      <c r="A635" s="56">
         <v>594</v>
       </c>
       <c r="B635" s="5" t="s">
@@ -30415,7 +30436,7 @@
       <c r="Q635" s="17"/>
     </row>
     <row r="636" s="29" customFormat="1" spans="1:17">
-      <c r="A636" s="55">
+      <c r="A636" s="56">
         <v>595</v>
       </c>
       <c r="B636" s="5" t="s">
@@ -30442,7 +30463,7 @@
       <c r="Q636" s="17"/>
     </row>
     <row r="637" spans="1:17">
-      <c r="A637" s="55">
+      <c r="A637" s="56">
         <v>596</v>
       </c>
       <c r="B637" s="5" t="s">
@@ -30469,7 +30490,7 @@
       <c r="Q637" s="17"/>
     </row>
     <row r="638" spans="1:17">
-      <c r="A638" s="55">
+      <c r="A638" s="56">
         <v>597</v>
       </c>
       <c r="B638" s="5" t="s">
@@ -30496,7 +30517,7 @@
       <c r="Q638" s="17"/>
     </row>
     <row r="639" spans="1:17">
-      <c r="A639" s="55">
+      <c r="A639" s="56">
         <v>598</v>
       </c>
       <c r="B639" s="5" t="s">
@@ -30523,7 +30544,7 @@
       <c r="Q639" s="17"/>
     </row>
     <row r="640" spans="1:17">
-      <c r="A640" s="58">
+      <c r="A640" s="59">
         <v>600</v>
       </c>
       <c r="B640" s="28" t="s">
@@ -30540,17 +30561,17 @@
       <c r="I640" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J640" s="59"/>
-      <c r="K640" s="59"/>
-      <c r="L640" s="59"/>
-      <c r="M640" s="59"/>
-      <c r="N640" s="59"/>
-      <c r="O640" s="59"/>
-      <c r="P640" s="59"/>
-      <c r="Q640" s="59"/>
+      <c r="J640" s="60"/>
+      <c r="K640" s="60"/>
+      <c r="L640" s="60"/>
+      <c r="M640" s="60"/>
+      <c r="N640" s="60"/>
+      <c r="O640" s="60"/>
+      <c r="P640" s="60"/>
+      <c r="Q640" s="60"/>
     </row>
     <row r="641" spans="1:17">
-      <c r="A641" s="55">
+      <c r="A641" s="56">
         <v>601</v>
       </c>
       <c r="B641" s="5" t="s">
@@ -30577,7 +30598,7 @@
       <c r="Q641" s="17"/>
     </row>
     <row r="642" s="29" customFormat="1" spans="1:17">
-      <c r="A642" s="55">
+      <c r="A642" s="56">
         <v>602</v>
       </c>
       <c r="B642" s="5" t="s">
@@ -30604,7 +30625,7 @@
       <c r="Q642" s="17"/>
     </row>
     <row r="643" s="35" customFormat="1" spans="1:17">
-      <c r="A643" s="55">
+      <c r="A643" s="56">
         <v>603</v>
       </c>
       <c r="B643" s="5" t="s">
@@ -30631,7 +30652,7 @@
       <c r="Q643" s="17"/>
     </row>
     <row r="644" s="29" customFormat="1" spans="1:17">
-      <c r="A644" s="55">
+      <c r="A644" s="56">
         <v>604</v>
       </c>
       <c r="B644" s="5" t="s">
@@ -30658,7 +30679,7 @@
       <c r="Q644" s="17"/>
     </row>
     <row r="645" spans="1:17">
-      <c r="A645" s="55">
+      <c r="A645" s="56">
         <v>605</v>
       </c>
       <c r="B645" s="5" t="s">
@@ -30685,7 +30706,7 @@
       <c r="Q645" s="17"/>
     </row>
     <row r="646" s="29" customFormat="1" spans="1:17">
-      <c r="A646" s="55">
+      <c r="A646" s="56">
         <v>606</v>
       </c>
       <c r="B646" s="5" t="s">
@@ -30712,7 +30733,7 @@
       <c r="Q646" s="17"/>
     </row>
     <row r="647" s="29" customFormat="1" spans="1:17">
-      <c r="A647" s="55">
+      <c r="A647" s="56">
         <v>607</v>
       </c>
       <c r="B647" s="5" t="s">
@@ -30739,7 +30760,7 @@
       <c r="Q647" s="17"/>
     </row>
     <row r="648" s="29" customFormat="1" spans="1:17">
-      <c r="A648" s="55">
+      <c r="A648" s="56">
         <v>608</v>
       </c>
       <c r="B648" s="5" t="s">
@@ -30766,7 +30787,7 @@
       <c r="Q648" s="17"/>
     </row>
     <row r="649" s="29" customFormat="1" spans="1:17">
-      <c r="A649" s="55">
+      <c r="A649" s="56">
         <v>609</v>
       </c>
       <c r="B649" s="5" t="s">
@@ -30789,7 +30810,7 @@
       <c r="Q649" s="17"/>
     </row>
     <row r="650" s="29" customFormat="1" spans="1:17">
-      <c r="A650" s="55">
+      <c r="A650" s="56">
         <v>610</v>
       </c>
       <c r="B650" s="5" t="s">
@@ -30812,7 +30833,7 @@
       <c r="Q650" s="17"/>
     </row>
     <row r="651" s="29" customFormat="1" spans="1:17">
-      <c r="A651" s="55">
+      <c r="A651" s="56">
         <v>611</v>
       </c>
       <c r="B651" s="5" t="s">
@@ -30835,7 +30856,7 @@
       <c r="Q651" s="17"/>
     </row>
     <row r="652" spans="1:17">
-      <c r="A652" s="55">
+      <c r="A652" s="56">
         <v>612</v>
       </c>
       <c r="B652" s="5" t="s">
@@ -30862,7 +30883,7 @@
       <c r="Q652" s="17"/>
     </row>
     <row r="653" spans="1:17">
-      <c r="A653" s="55">
+      <c r="A653" s="56">
         <v>613</v>
       </c>
       <c r="B653" s="5" t="s">
@@ -30889,7 +30910,7 @@
       <c r="Q653" s="17"/>
     </row>
     <row r="654" spans="1:17">
-      <c r="A654" s="55">
+      <c r="A654" s="56">
         <v>614</v>
       </c>
       <c r="B654" s="5" t="s">
@@ -30916,7 +30937,7 @@
       <c r="Q654" s="17"/>
     </row>
     <row r="655" s="29" customFormat="1" spans="1:17">
-      <c r="A655" s="55">
+      <c r="A655" s="56">
         <v>615</v>
       </c>
       <c r="B655" s="5" t="s">
@@ -30943,7 +30964,7 @@
       <c r="Q655" s="17"/>
     </row>
     <row r="656" spans="1:17">
-      <c r="A656" s="55">
+      <c r="A656" s="56">
         <v>616</v>
       </c>
       <c r="B656" s="5" t="s">
@@ -30970,7 +30991,7 @@
       <c r="Q656" s="17"/>
     </row>
     <row r="657" spans="1:17">
-      <c r="A657" s="55">
+      <c r="A657" s="56">
         <v>617</v>
       </c>
       <c r="B657" s="5" t="s">
@@ -30997,7 +31018,7 @@
       <c r="Q657" s="17"/>
     </row>
     <row r="658" spans="1:17">
-      <c r="A658" s="55">
+      <c r="A658" s="56">
         <v>618</v>
       </c>
       <c r="B658" s="5" t="s">
@@ -31024,7 +31045,7 @@
       <c r="Q658" s="17"/>
     </row>
     <row r="659" spans="1:17">
-      <c r="A659" s="55">
+      <c r="A659" s="56">
         <v>619</v>
       </c>
       <c r="B659" s="5" t="s">
@@ -31051,7 +31072,7 @@
       <c r="Q659" s="17"/>
     </row>
     <row r="660" s="29" customFormat="1" spans="1:17">
-      <c r="A660" s="55">
+      <c r="A660" s="56">
         <v>620</v>
       </c>
       <c r="B660" s="5" t="s">
@@ -31078,7 +31099,7 @@
       <c r="Q660" s="17"/>
     </row>
     <row r="661" s="29" customFormat="1" spans="1:17">
-      <c r="A661" s="55">
+      <c r="A661" s="56">
         <v>621</v>
       </c>
       <c r="B661" s="5" t="s">
@@ -31105,7 +31126,7 @@
       <c r="Q661" s="17"/>
     </row>
     <row r="662" s="29" customFormat="1" spans="1:17">
-      <c r="A662" s="55">
+      <c r="A662" s="56">
         <v>622</v>
       </c>
       <c r="B662" s="5" t="s">
@@ -31132,7 +31153,7 @@
       <c r="Q662" s="17"/>
     </row>
     <row r="663" spans="1:17">
-      <c r="A663" s="55">
+      <c r="A663" s="56">
         <v>623</v>
       </c>
       <c r="B663" s="5" t="s">
@@ -31159,7 +31180,7 @@
       <c r="Q663" s="17"/>
     </row>
     <row r="664" spans="1:17">
-      <c r="A664" s="55">
+      <c r="A664" s="56">
         <v>624</v>
       </c>
       <c r="B664" s="5" t="s">
@@ -31186,7 +31207,7 @@
       <c r="Q664" s="17"/>
     </row>
     <row r="665" spans="1:17">
-      <c r="A665" s="55">
+      <c r="A665" s="56">
         <v>625</v>
       </c>
       <c r="B665" s="5" t="s">
@@ -31213,7 +31234,7 @@
       <c r="Q665" s="17"/>
     </row>
     <row r="666" spans="1:17">
-      <c r="A666" s="55">
+      <c r="A666" s="56">
         <v>626</v>
       </c>
       <c r="B666" s="5" t="s">
@@ -31240,7 +31261,7 @@
       <c r="Q666" s="17"/>
     </row>
     <row r="667" spans="1:17">
-      <c r="A667" s="55">
+      <c r="A667" s="56">
         <v>627</v>
       </c>
       <c r="B667" s="5" t="s">
@@ -31267,7 +31288,7 @@
       <c r="Q667" s="17"/>
     </row>
     <row r="668" spans="1:17">
-      <c r="A668" s="55">
+      <c r="A668" s="56">
         <v>628</v>
       </c>
       <c r="B668" s="5" t="s">
@@ -31294,7 +31315,7 @@
       <c r="Q668" s="17"/>
     </row>
     <row r="669" spans="1:17">
-      <c r="A669" s="55">
+      <c r="A669" s="56">
         <v>629</v>
       </c>
       <c r="B669" s="5" t="s">
@@ -31321,7 +31342,7 @@
       <c r="Q669" s="17"/>
     </row>
     <row r="670" spans="1:17">
-      <c r="A670" s="55">
+      <c r="A670" s="56">
         <v>630</v>
       </c>
       <c r="B670" s="5" t="s">
@@ -31348,7 +31369,7 @@
       <c r="Q670" s="17"/>
     </row>
     <row r="671" spans="1:17">
-      <c r="A671" s="55">
+      <c r="A671" s="56">
         <v>631</v>
       </c>
       <c r="B671" s="5" t="s">
@@ -31375,7 +31396,7 @@
       <c r="Q671" s="17"/>
     </row>
     <row r="672" spans="1:17">
-      <c r="A672" s="55">
+      <c r="A672" s="56">
         <v>632</v>
       </c>
       <c r="B672" s="5" t="s">
@@ -31402,7 +31423,7 @@
       <c r="Q672" s="17"/>
     </row>
     <row r="673" spans="1:17">
-      <c r="A673" s="55">
+      <c r="A673" s="56">
         <v>633</v>
       </c>
       <c r="B673" s="5" t="s">
@@ -31429,7 +31450,7 @@
       <c r="Q673" s="17"/>
     </row>
     <row r="674" spans="1:17">
-      <c r="A674" s="55">
+      <c r="A674" s="56">
         <v>634</v>
       </c>
       <c r="B674" s="5" t="s">
@@ -31456,7 +31477,7 @@
       <c r="Q674" s="17"/>
     </row>
     <row r="675" s="9" customFormat="1" spans="1:17">
-      <c r="A675" s="55">
+      <c r="A675" s="56">
         <v>637</v>
       </c>
       <c r="B675" s="5" t="s">
@@ -31483,7 +31504,7 @@
       <c r="Q675" s="17"/>
     </row>
     <row r="676" spans="1:17">
-      <c r="A676" s="55">
+      <c r="A676" s="56">
         <v>640</v>
       </c>
       <c r="B676" s="5" t="s">
@@ -31510,7 +31531,7 @@
       <c r="Q676" s="17"/>
     </row>
     <row r="677" spans="1:17">
-      <c r="A677" s="55">
+      <c r="A677" s="56">
         <v>641</v>
       </c>
       <c r="B677" s="5" t="s">
@@ -31537,7 +31558,7 @@
       <c r="Q677" s="17"/>
     </row>
     <row r="678" spans="1:17">
-      <c r="A678" s="55">
+      <c r="A678" s="56">
         <v>645</v>
       </c>
       <c r="B678" s="5" t="s">
@@ -31560,7 +31581,7 @@
       <c r="Q678" s="17"/>
     </row>
     <row r="679" spans="1:17">
-      <c r="A679" s="55">
+      <c r="A679" s="56">
         <v>652</v>
       </c>
       <c r="B679" s="5" t="s">
@@ -31587,7 +31608,7 @@
       <c r="Q679" s="17"/>
     </row>
     <row r="680" spans="1:17">
-      <c r="A680" s="55">
+      <c r="A680" s="56">
         <v>653</v>
       </c>
       <c r="B680" s="5" t="s">
@@ -31614,7 +31635,7 @@
       <c r="Q680" s="17"/>
     </row>
     <row r="681" spans="1:17">
-      <c r="A681" s="55">
+      <c r="A681" s="56">
         <v>654</v>
       </c>
       <c r="B681" s="5" t="s">
@@ -31641,7 +31662,7 @@
       <c r="Q681" s="17"/>
     </row>
     <row r="682" s="29" customFormat="1" spans="1:17">
-      <c r="A682" s="55">
+      <c r="A682" s="56">
         <v>657</v>
       </c>
       <c r="B682" s="5" t="s">
@@ -31668,7 +31689,7 @@
       <c r="Q682" s="17"/>
     </row>
     <row r="683" s="29" customFormat="1" spans="1:17">
-      <c r="A683" s="55">
+      <c r="A683" s="56">
         <v>658</v>
       </c>
       <c r="B683" s="5" t="s">
@@ -31695,7 +31716,7 @@
       <c r="Q683" s="17"/>
     </row>
     <row r="684" spans="1:17">
-      <c r="A684" s="55">
+      <c r="A684" s="56">
         <v>663</v>
       </c>
       <c r="B684" s="5" t="s">
@@ -31709,7 +31730,7 @@
       <c r="F684" s="5"/>
       <c r="G684" s="5"/>
       <c r="H684" s="5"/>
-      <c r="I684" s="59" t="s">
+      <c r="I684" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J684" s="17"/>
@@ -31722,7 +31743,7 @@
       <c r="Q684" s="17"/>
     </row>
     <row r="685" spans="1:17">
-      <c r="A685" s="55">
+      <c r="A685" s="56">
         <v>664</v>
       </c>
       <c r="B685" s="5" t="s">
@@ -31736,7 +31757,7 @@
       <c r="F685" s="5"/>
       <c r="G685" s="5"/>
       <c r="H685" s="5"/>
-      <c r="I685" s="59" t="s">
+      <c r="I685" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J685" s="17"/>
@@ -31749,7 +31770,7 @@
       <c r="Q685" s="17"/>
     </row>
     <row r="686" spans="1:17">
-      <c r="A686" s="55">
+      <c r="A686" s="56">
         <v>665</v>
       </c>
       <c r="B686" s="5" t="s">
@@ -31763,7 +31784,7 @@
       <c r="F686" s="5"/>
       <c r="G686" s="5"/>
       <c r="H686" s="5"/>
-      <c r="I686" s="59" t="s">
+      <c r="I686" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J686" s="17"/>
@@ -31776,7 +31797,7 @@
       <c r="Q686" s="17"/>
     </row>
     <row r="687" spans="1:17">
-      <c r="A687" s="55">
+      <c r="A687" s="56">
         <v>666</v>
       </c>
       <c r="B687" s="5" t="s">
@@ -31790,7 +31811,7 @@
       <c r="F687" s="5"/>
       <c r="G687" s="5"/>
       <c r="H687" s="5"/>
-      <c r="I687" s="59" t="s">
+      <c r="I687" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J687" s="17"/>
@@ -31803,7 +31824,7 @@
       <c r="Q687" s="17"/>
     </row>
     <row r="688" spans="1:17">
-      <c r="A688" s="55">
+      <c r="A688" s="56">
         <v>667</v>
       </c>
       <c r="B688" s="5" t="s">
@@ -31817,7 +31838,7 @@
       <c r="F688" s="5"/>
       <c r="G688" s="5"/>
       <c r="H688" s="5"/>
-      <c r="I688" s="59" t="s">
+      <c r="I688" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J688" s="17"/>
@@ -31830,7 +31851,7 @@
       <c r="Q688" s="17"/>
     </row>
     <row r="689" spans="1:17">
-      <c r="A689" s="55">
+      <c r="A689" s="56">
         <v>668</v>
       </c>
       <c r="B689" s="5" t="s">
@@ -31844,7 +31865,7 @@
       <c r="F689" s="5"/>
       <c r="G689" s="5"/>
       <c r="H689" s="5"/>
-      <c r="I689" s="59" t="s">
+      <c r="I689" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J689" s="17"/>
@@ -31857,7 +31878,7 @@
       <c r="Q689" s="17"/>
     </row>
     <row r="690" spans="1:17">
-      <c r="A690" s="55">
+      <c r="A690" s="56">
         <v>669</v>
       </c>
       <c r="B690" s="5" t="s">
@@ -31871,7 +31892,7 @@
       <c r="F690" s="5"/>
       <c r="G690" s="5"/>
       <c r="H690" s="5"/>
-      <c r="I690" s="59" t="s">
+      <c r="I690" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J690" s="17"/>
@@ -31884,7 +31905,7 @@
       <c r="Q690" s="17"/>
     </row>
     <row r="691" spans="1:17">
-      <c r="A691" s="55">
+      <c r="A691" s="56">
         <v>670</v>
       </c>
       <c r="B691" s="5" t="s">
@@ -31898,7 +31919,7 @@
       <c r="F691" s="5"/>
       <c r="G691" s="5"/>
       <c r="H691" s="5"/>
-      <c r="I691" s="59" t="s">
+      <c r="I691" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J691" s="17"/>
@@ -31911,7 +31932,7 @@
       <c r="Q691" s="17"/>
     </row>
     <row r="692" spans="1:17">
-      <c r="A692" s="55">
+      <c r="A692" s="56">
         <v>671</v>
       </c>
       <c r="B692" s="5" t="s">
@@ -31925,7 +31946,7 @@
       <c r="F692" s="5"/>
       <c r="G692" s="5"/>
       <c r="H692" s="5"/>
-      <c r="I692" s="59" t="s">
+      <c r="I692" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J692" s="17"/>
@@ -31937,31 +31958,38 @@
       <c r="P692" s="17"/>
       <c r="Q692" s="17"/>
     </row>
-    <row r="693" spans="1:17">
-      <c r="A693" s="55">
+    <row r="693" s="36" customFormat="1" spans="1:17">
+      <c r="A693" s="61">
         <v>672</v>
       </c>
-      <c r="B693" s="5" t="s">
+      <c r="B693" s="62" t="s">
         <v>1595</v>
       </c>
-      <c r="C693" s="5"/>
-      <c r="D693" s="5"/>
-      <c r="E693" s="17"/>
-      <c r="F693" s="5"/>
-      <c r="G693" s="5"/>
-      <c r="H693" s="5"/>
-      <c r="I693" s="17"/>
-      <c r="J693" s="17"/>
-      <c r="K693" s="17"/>
-      <c r="L693" s="17"/>
-      <c r="M693" s="17"/>
-      <c r="N693" s="17"/>
-      <c r="O693" s="17"/>
-      <c r="P693" s="17"/>
-      <c r="Q693" s="17"/>
+      <c r="C693" s="62"/>
+      <c r="D693" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="E693" s="63" t="str">
+        <f>VLOOKUP(MID(D693,1,2),字库代码!B:I,8,TRUE)</f>
+        <v>陈博士</v>
+      </c>
+      <c r="F693" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="G693" s="62"/>
+      <c r="H693" s="62"/>
+      <c r="I693" s="63"/>
+      <c r="J693" s="63"/>
+      <c r="K693" s="63"/>
+      <c r="L693" s="63"/>
+      <c r="M693" s="63"/>
+      <c r="N693" s="63"/>
+      <c r="O693" s="63"/>
+      <c r="P693" s="63"/>
+      <c r="Q693" s="63"/>
     </row>
     <row r="694" spans="1:17">
-      <c r="A694" s="55">
+      <c r="A694" s="56">
         <v>673</v>
       </c>
       <c r="B694" s="5" t="s">
@@ -31975,7 +32003,7 @@
       <c r="F694" s="5"/>
       <c r="G694" s="5"/>
       <c r="H694" s="5"/>
-      <c r="I694" s="59" t="s">
+      <c r="I694" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J694" s="17"/>
@@ -31988,7 +32016,7 @@
       <c r="Q694" s="17"/>
     </row>
     <row r="695" spans="1:17">
-      <c r="A695" s="55">
+      <c r="A695" s="56">
         <v>674</v>
       </c>
       <c r="B695" s="5" t="s">
@@ -32002,7 +32030,7 @@
       <c r="F695" s="5"/>
       <c r="G695" s="5"/>
       <c r="H695" s="5"/>
-      <c r="I695" s="59" t="s">
+      <c r="I695" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J695" s="17"/>
@@ -32015,7 +32043,7 @@
       <c r="Q695" s="17"/>
     </row>
     <row r="696" spans="1:17">
-      <c r="A696" s="55">
+      <c r="A696" s="56">
         <v>676</v>
       </c>
       <c r="B696" s="5" t="s">
@@ -32038,7 +32066,7 @@
       <c r="Q696" s="17"/>
     </row>
     <row r="697" spans="1:17">
-      <c r="A697" s="55">
+      <c r="A697" s="56">
         <v>677</v>
       </c>
       <c r="B697" s="5" t="s">
@@ -32065,7 +32093,7 @@
       <c r="Q697" s="17"/>
     </row>
     <row r="698" s="29" customFormat="1" spans="1:17">
-      <c r="A698" s="55">
+      <c r="A698" s="56">
         <v>678</v>
       </c>
       <c r="B698" s="5" t="s">
@@ -32079,7 +32107,7 @@
       <c r="F698" s="5"/>
       <c r="G698" s="5"/>
       <c r="H698" s="5"/>
-      <c r="I698" s="59" t="s">
+      <c r="I698" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J698" s="17"/>
@@ -32092,7 +32120,7 @@
       <c r="Q698" s="17"/>
     </row>
     <row r="699" s="29" customFormat="1" spans="1:17">
-      <c r="A699" s="55">
+      <c r="A699" s="56">
         <v>679</v>
       </c>
       <c r="B699" s="5" t="s">
@@ -32117,7 +32145,7 @@
       <c r="Q699" s="17"/>
     </row>
     <row r="700" spans="1:17">
-      <c r="A700" s="55">
+      <c r="A700" s="56">
         <v>680</v>
       </c>
       <c r="B700" s="5" t="s">
@@ -32131,7 +32159,7 @@
       <c r="F700" s="5"/>
       <c r="G700" s="5"/>
       <c r="H700" s="5"/>
-      <c r="I700" s="59" t="s">
+      <c r="I700" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J700" s="17"/>
@@ -32144,7 +32172,7 @@
       <c r="Q700" s="17"/>
     </row>
     <row r="701" spans="1:17">
-      <c r="A701" s="55">
+      <c r="A701" s="56">
         <v>681</v>
       </c>
       <c r="B701" s="5" t="s">
@@ -32158,7 +32186,7 @@
       <c r="F701" s="5"/>
       <c r="G701" s="5"/>
       <c r="H701" s="5"/>
-      <c r="I701" s="59" t="s">
+      <c r="I701" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J701" s="17"/>
@@ -32171,7 +32199,7 @@
       <c r="Q701" s="17"/>
     </row>
     <row r="702" spans="1:17">
-      <c r="A702" s="55">
+      <c r="A702" s="56">
         <v>684</v>
       </c>
       <c r="B702" s="5" t="s">
@@ -32198,7 +32226,7 @@
       <c r="Q702" s="17"/>
     </row>
     <row r="703" spans="1:17">
-      <c r="A703" s="55">
+      <c r="A703" s="56">
         <v>685</v>
       </c>
       <c r="B703" s="5" t="s">
@@ -32225,7 +32253,7 @@
       <c r="Q703" s="17"/>
     </row>
     <row r="704" spans="1:17">
-      <c r="A704" s="55">
+      <c r="A704" s="56">
         <v>686</v>
       </c>
       <c r="B704" s="5" t="s">
@@ -32252,7 +32280,7 @@
       <c r="Q704" s="17"/>
     </row>
     <row r="705" s="29" customFormat="1" spans="1:17">
-      <c r="A705" s="55">
+      <c r="A705" s="56">
         <v>687</v>
       </c>
       <c r="B705" s="5" t="s">
@@ -32279,7 +32307,7 @@
       <c r="Q705" s="17"/>
     </row>
     <row r="706" s="29" customFormat="1" spans="1:17">
-      <c r="A706" s="55">
+      <c r="A706" s="56">
         <v>688</v>
       </c>
       <c r="B706" s="5" t="s">
@@ -32306,7 +32334,7 @@
       <c r="Q706" s="17"/>
     </row>
     <row r="707" s="29" customFormat="1" spans="1:17">
-      <c r="A707" s="55">
+      <c r="A707" s="56">
         <v>689</v>
       </c>
       <c r="B707" s="5" t="s">
@@ -32333,7 +32361,7 @@
       <c r="Q707" s="17"/>
     </row>
     <row r="708" spans="1:17">
-      <c r="A708" s="55">
+      <c r="A708" s="56">
         <v>690</v>
       </c>
       <c r="B708" s="5" t="s">
@@ -32360,7 +32388,7 @@
       <c r="Q708" s="17"/>
     </row>
     <row r="709" spans="1:17">
-      <c r="A709" s="55">
+      <c r="A709" s="56">
         <v>691</v>
       </c>
       <c r="B709" s="5" t="s">
@@ -32387,7 +32415,7 @@
       <c r="Q709" s="17"/>
     </row>
     <row r="710" spans="1:17">
-      <c r="A710" s="55">
+      <c r="A710" s="56">
         <v>692</v>
       </c>
       <c r="B710" s="5" t="s">
@@ -32410,7 +32438,7 @@
       <c r="Q710" s="17"/>
     </row>
     <row r="711" s="29" customFormat="1" spans="1:17">
-      <c r="A711" s="55">
+      <c r="A711" s="56">
         <v>693</v>
       </c>
       <c r="B711" s="5" t="s">
@@ -32437,7 +32465,7 @@
       <c r="Q711" s="17"/>
     </row>
     <row r="712" spans="1:17">
-      <c r="A712" s="55">
+      <c r="A712" s="56">
         <v>694</v>
       </c>
       <c r="B712" s="5" t="s">
@@ -32464,7 +32492,7 @@
       <c r="Q712" s="17"/>
     </row>
     <row r="713" spans="1:17">
-      <c r="A713" s="55">
+      <c r="A713" s="56">
         <v>695</v>
       </c>
       <c r="B713" s="5" t="s">
@@ -32491,7 +32519,7 @@
       <c r="Q713" s="17"/>
     </row>
     <row r="714" spans="1:17">
-      <c r="A714" s="55">
+      <c r="A714" s="56">
         <v>696</v>
       </c>
       <c r="B714" s="5" t="s">
@@ -32518,7 +32546,7 @@
       <c r="Q714" s="17"/>
     </row>
     <row r="715" spans="1:17">
-      <c r="A715" s="55">
+      <c r="A715" s="56">
         <v>697</v>
       </c>
       <c r="B715" s="5" t="s">
@@ -32545,7 +32573,7 @@
       <c r="Q715" s="17"/>
     </row>
     <row r="716" spans="1:17">
-      <c r="A716" s="55">
+      <c r="A716" s="56">
         <v>700</v>
       </c>
       <c r="B716" s="5" t="s">
@@ -32572,7 +32600,7 @@
       <c r="Q716" s="17"/>
     </row>
     <row r="717" spans="1:17">
-      <c r="A717" s="55">
+      <c r="A717" s="56">
         <v>701</v>
       </c>
       <c r="B717" s="5" t="s">
@@ -32599,7 +32627,7 @@
       <c r="Q717" s="17"/>
     </row>
     <row r="718" spans="1:17">
-      <c r="A718" s="55">
+      <c r="A718" s="56">
         <v>702</v>
       </c>
       <c r="B718" s="5" t="s">
@@ -32626,7 +32654,7 @@
       <c r="Q718" s="17"/>
     </row>
     <row r="719" spans="1:17">
-      <c r="A719" s="55">
+      <c r="A719" s="56">
         <v>703</v>
       </c>
       <c r="B719" s="5" t="s">
@@ -32653,7 +32681,7 @@
       <c r="Q719" s="17"/>
     </row>
     <row r="720" spans="1:17">
-      <c r="A720" s="55">
+      <c r="A720" s="56">
         <v>704</v>
       </c>
       <c r="B720" s="5" t="s">
@@ -32680,7 +32708,7 @@
       <c r="Q720" s="17"/>
     </row>
     <row r="721" spans="1:17">
-      <c r="A721" s="55">
+      <c r="A721" s="56">
         <v>708</v>
       </c>
       <c r="B721" s="5" t="s">
@@ -32703,7 +32731,7 @@
       <c r="Q721" s="17"/>
     </row>
     <row r="722" spans="1:17">
-      <c r="A722" s="55">
+      <c r="A722" s="56">
         <v>709</v>
       </c>
       <c r="B722" s="5" t="s">
@@ -32726,7 +32754,7 @@
       <c r="Q722" s="17"/>
     </row>
     <row r="723" spans="1:17">
-      <c r="A723" s="55">
+      <c r="A723" s="56">
         <v>710</v>
       </c>
       <c r="B723" s="5" t="s">
@@ -32749,7 +32777,7 @@
       <c r="Q723" s="17"/>
     </row>
     <row r="724" spans="1:17">
-      <c r="A724" s="55">
+      <c r="A724" s="56">
         <v>712</v>
       </c>
       <c r="B724" s="5" t="s">
@@ -32772,7 +32800,7 @@
       <c r="Q724" s="17"/>
     </row>
     <row r="725" spans="1:17">
-      <c r="A725" s="55">
+      <c r="A725" s="56">
         <v>713</v>
       </c>
       <c r="B725" s="5" t="s">
@@ -32795,7 +32823,7 @@
       <c r="Q725" s="17"/>
     </row>
     <row r="726" spans="1:17">
-      <c r="A726" s="55">
+      <c r="A726" s="56">
         <v>714</v>
       </c>
       <c r="B726" s="5" t="s">
@@ -32818,7 +32846,7 @@
       <c r="Q726" s="17"/>
     </row>
     <row r="727" spans="1:17">
-      <c r="A727" s="55">
+      <c r="A727" s="56">
         <v>715</v>
       </c>
       <c r="B727" s="5" t="s">
@@ -32841,7 +32869,7 @@
       <c r="Q727" s="17"/>
     </row>
     <row r="728" spans="1:17">
-      <c r="A728" s="55">
+      <c r="A728" s="56">
         <v>716</v>
       </c>
       <c r="B728" s="5" t="s">
@@ -32864,7 +32892,7 @@
       <c r="Q728" s="17"/>
     </row>
     <row r="729" s="29" customFormat="1" spans="1:17">
-      <c r="A729" s="55">
+      <c r="A729" s="56">
         <v>717</v>
       </c>
       <c r="B729" s="5" t="s">
@@ -32887,7 +32915,7 @@
       <c r="Q729" s="17"/>
     </row>
     <row r="730" spans="1:17">
-      <c r="A730" s="55">
+      <c r="A730" s="56">
         <v>718</v>
       </c>
       <c r="B730" s="5" t="s">
@@ -32910,7 +32938,7 @@
       <c r="Q730" s="17"/>
     </row>
     <row r="731" spans="1:17">
-      <c r="A731" s="55">
+      <c r="A731" s="56">
         <v>719</v>
       </c>
       <c r="B731" s="5" t="s">
@@ -32933,7 +32961,7 @@
       <c r="Q731" s="17"/>
     </row>
     <row r="732" s="29" customFormat="1" spans="1:17">
-      <c r="A732" s="55">
+      <c r="A732" s="56">
         <v>720</v>
       </c>
       <c r="B732" s="5" t="s">
@@ -32956,7 +32984,7 @@
       <c r="Q732" s="17"/>
     </row>
     <row r="733" spans="1:17">
-      <c r="A733" s="55">
+      <c r="A733" s="56">
         <v>721</v>
       </c>
       <c r="B733" s="5" t="s">
@@ -32983,7 +33011,7 @@
       <c r="Q733" s="17"/>
     </row>
     <row r="734" spans="1:17">
-      <c r="A734" s="55">
+      <c r="A734" s="56">
         <v>722</v>
       </c>
       <c r="B734" s="5" t="s">
@@ -33010,7 +33038,7 @@
       <c r="Q734" s="17"/>
     </row>
     <row r="735" spans="1:17">
-      <c r="A735" s="55">
+      <c r="A735" s="56">
         <v>723</v>
       </c>
       <c r="B735" s="5" t="s">
@@ -33037,7 +33065,7 @@
       <c r="Q735" s="17"/>
     </row>
     <row r="736" spans="1:17">
-      <c r="A736" s="55">
+      <c r="A736" s="56">
         <v>724</v>
       </c>
       <c r="B736" s="5" t="s">
@@ -33064,7 +33092,7 @@
       <c r="Q736" s="17"/>
     </row>
     <row r="737" spans="1:17">
-      <c r="A737" s="55">
+      <c r="A737" s="56">
         <v>725</v>
       </c>
       <c r="B737" s="5" t="s">
@@ -33091,7 +33119,7 @@
       <c r="Q737" s="17"/>
     </row>
     <row r="738" spans="1:17">
-      <c r="A738" s="55">
+      <c r="A738" s="56">
         <v>726</v>
       </c>
       <c r="B738" s="5" t="s">
@@ -33118,7 +33146,7 @@
       <c r="Q738" s="17"/>
     </row>
     <row r="739" spans="1:17">
-      <c r="A739" s="55">
+      <c r="A739" s="56">
         <v>727</v>
       </c>
       <c r="B739" s="5" t="s">
@@ -33145,7 +33173,7 @@
       <c r="Q739" s="17"/>
     </row>
     <row r="740" spans="1:17">
-      <c r="A740" s="55">
+      <c r="A740" s="56">
         <v>728</v>
       </c>
       <c r="B740" s="5" t="s">
@@ -33172,7 +33200,7 @@
       <c r="Q740" s="17"/>
     </row>
     <row r="741" s="29" customFormat="1" spans="1:17">
-      <c r="A741" s="55">
+      <c r="A741" s="56">
         <v>731</v>
       </c>
       <c r="B741" s="5" t="s">
@@ -33199,7 +33227,7 @@
       <c r="Q741" s="17"/>
     </row>
     <row r="742" s="29" customFormat="1" spans="1:17">
-      <c r="A742" s="55">
+      <c r="A742" s="56">
         <v>733</v>
       </c>
       <c r="B742" s="5" t="s">
@@ -33226,7 +33254,7 @@
       <c r="Q742" s="17"/>
     </row>
     <row r="743" s="29" customFormat="1" spans="1:17">
-      <c r="A743" s="55">
+      <c r="A743" s="56">
         <v>734</v>
       </c>
       <c r="B743" s="5" t="s">
@@ -33253,7 +33281,7 @@
       <c r="Q743" s="17"/>
     </row>
     <row r="744" s="29" customFormat="1" spans="1:17">
-      <c r="A744" s="55">
+      <c r="A744" s="56">
         <v>735</v>
       </c>
       <c r="B744" s="5" t="s">
@@ -33280,7 +33308,7 @@
       <c r="Q744" s="17"/>
     </row>
     <row r="745" s="29" customFormat="1" spans="1:17">
-      <c r="A745" s="55">
+      <c r="A745" s="56">
         <v>736</v>
       </c>
       <c r="B745" s="5" t="s">
@@ -33307,7 +33335,7 @@
       <c r="Q745" s="17"/>
     </row>
     <row r="746" s="29" customFormat="1" spans="1:17">
-      <c r="A746" s="55">
+      <c r="A746" s="56">
         <v>737</v>
       </c>
       <c r="B746" s="5" t="s">
@@ -33334,7 +33362,7 @@
       <c r="Q746" s="17"/>
     </row>
     <row r="747" s="29" customFormat="1" spans="1:17">
-      <c r="A747" s="55">
+      <c r="A747" s="56">
         <v>738</v>
       </c>
       <c r="B747" s="5" t="s">
@@ -33361,7 +33389,7 @@
       <c r="Q747" s="17"/>
     </row>
     <row r="748" s="29" customFormat="1" spans="1:17">
-      <c r="A748" s="55">
+      <c r="A748" s="56">
         <v>739</v>
       </c>
       <c r="B748" s="5" t="s">
@@ -33388,7 +33416,7 @@
       <c r="Q748" s="17"/>
     </row>
     <row r="749" spans="1:17">
-      <c r="A749" s="55">
+      <c r="A749" s="56">
         <v>740</v>
       </c>
       <c r="B749" s="5" t="s">
@@ -33415,7 +33443,7 @@
       <c r="Q749" s="17"/>
     </row>
     <row r="750" spans="1:17">
-      <c r="A750" s="55">
+      <c r="A750" s="56">
         <v>749</v>
       </c>
       <c r="B750" s="5" t="s">
@@ -33438,7 +33466,7 @@
       <c r="Q750" s="17"/>
     </row>
     <row r="751" s="29" customFormat="1" spans="1:17">
-      <c r="A751" s="55">
+      <c r="A751" s="56">
         <v>750</v>
       </c>
       <c r="B751" s="5" t="s">
@@ -33461,7 +33489,7 @@
       <c r="Q751" s="17"/>
     </row>
     <row r="752" s="29" customFormat="1" spans="1:17">
-      <c r="A752" s="39">
+      <c r="A752" s="40">
         <v>752</v>
       </c>
       <c r="B752" s="19" t="s">
@@ -33490,7 +33518,7 @@
       <c r="Q752" s="14"/>
     </row>
     <row r="753" spans="1:17">
-      <c r="A753" s="55">
+      <c r="A753" s="56">
         <v>753</v>
       </c>
       <c r="B753" s="5" t="s">
@@ -33504,7 +33532,7 @@
       <c r="F753" s="5"/>
       <c r="G753" s="5"/>
       <c r="H753" s="5"/>
-      <c r="I753" s="59" t="s">
+      <c r="I753" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J753" s="17"/>
@@ -33517,7 +33545,7 @@
       <c r="Q753" s="17"/>
     </row>
     <row r="754" spans="1:17">
-      <c r="A754" s="55">
+      <c r="A754" s="56">
         <v>754</v>
       </c>
       <c r="B754" s="5" t="s">
@@ -33531,7 +33559,7 @@
       <c r="F754" s="5"/>
       <c r="G754" s="5"/>
       <c r="H754" s="5"/>
-      <c r="I754" s="59" t="s">
+      <c r="I754" s="60" t="s">
         <v>25</v>
       </c>
       <c r="J754" s="17"/>
@@ -34009,10 +34037,10 @@
   <sheetPr/>
   <dimension ref="A1:K754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34041,7 +34069,6 @@
       <c r="C1" s="17" t="s">
         <v>1704</v>
       </c>
-      <c r="D1"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
@@ -42093,9 +42120,9 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42744,10 +42771,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="64" t="s">
         <v>2593</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="64" t="s">
         <v>2593</v>
       </c>
     </row>
@@ -45778,7 +45805,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:9">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -45792,6 +45819,9 @@
       <c r="F212" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="I212" s="2" t="s">
+        <v>2743</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
@@ -45877,7 +45907,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>253</v>
@@ -45904,7 +45934,7 @@
         <v>68</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -45925,7 +45955,7 @@
         <v>256</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -45937,7 +45967,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>72</v>
@@ -45946,7 +45976,7 @@
         <v>72</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -45958,7 +45988,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>139</v>
@@ -45979,7 +46009,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>259</v>
@@ -46000,7 +46030,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>75</v>
@@ -46009,7 +46039,7 @@
         <v>75</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -46021,7 +46051,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>291</v>
@@ -46030,7 +46060,7 @@
         <v>291</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -46042,7 +46072,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>330</v>
@@ -46051,7 +46081,7 @@
         <v>330</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -46072,7 +46102,7 @@
         <v>478</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -46087,13 +46117,13 @@
         <v>1850</v>
       </c>
       <c r="E228" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>2753</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>2753</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>2752</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -46105,7 +46135,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>370</v>
@@ -46129,10 +46159,10 @@
         <v>1838</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>1833</v>
@@ -46150,10 +46180,10 @@
         <v>1841</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>1833</v>
@@ -46177,7 +46207,7 @@
         <v>422</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -46192,13 +46222,13 @@
         <v>1828</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>2758</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>2758</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -46213,10 +46243,10 @@
         <v>1813</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>1811</v>
@@ -46366,7 +46396,7 @@
         <v>540</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -46387,7 +46417,7 @@
         <v>433</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -46408,7 +46438,7 @@
         <v>484</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>2710</v>
@@ -46423,7 +46453,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>377</v>
@@ -46432,7 +46462,7 @@
         <v>377</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>2710</v>
@@ -46447,7 +46477,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>436</v>
@@ -46456,7 +46486,7 @@
         <v>436</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>2710</v>
@@ -46480,7 +46510,7 @@
         <v>546</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>2710</v>
@@ -46504,7 +46534,7 @@
         <v>439</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>2710</v>
@@ -46528,7 +46558,7 @@
         <v>487</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>2710</v>
@@ -46552,7 +46582,7 @@
         <v>380</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>2710</v>
@@ -46576,7 +46606,7 @@
         <v>535</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>2710</v>
@@ -46600,7 +46630,7 @@
         <v>442</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>2710</v>
@@ -46615,7 +46645,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>497</v>
@@ -46624,7 +46654,7 @@
         <v>497</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>2710</v>
@@ -46639,7 +46669,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>389</v>
@@ -46648,7 +46678,7 @@
         <v>389</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>2710</v>
@@ -46659,10 +46689,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>549</v>
@@ -46671,7 +46701,7 @@
         <v>549</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>2710</v>
@@ -46686,7 +46716,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>494</v>
@@ -46695,10 +46725,10 @@
         <v>494</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -46719,10 +46749,10 @@
         <v>386</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -46734,13 +46764,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="2780">
   <si>
     <t>编号</t>
   </si>
@@ -5712,7 +5712,7 @@
     <t>1=In order for the Brotherhood to gain a foothold, we must begin by</t>
   </si>
   <si>
-    <t>附近村庄的领导人尼科通巴和我们立场不同,我</t>
+    <t>附近村庄的领导人尼库巴和我们立场不同,我</t>
   </si>
   <si>
     <t>1=为了让兄弟会获得立足点，我们必须从</t>
@@ -8233,6 +8233,9 @@
   </si>
   <si>
     <t>生长</t>
+  </si>
+  <si>
+    <t>尼库巴</t>
   </si>
   <si>
     <t>只有自己</t>
@@ -8364,11 +8367,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -8406,30 +8409,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8443,6 +8440,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -8451,8 +8499,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8467,84 +8540,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8583,37 +8586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8625,103 +8616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8739,7 +8640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8751,7 +8676,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8763,7 +8766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8806,6 +8809,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8816,6 +8834,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8855,39 +8891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8910,10 +8913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8922,133 +8925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11133,11 +11136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E700" sqref="E700"/>
@@ -19509,7 +19512,7 @@
       </c>
       <c r="E248" s="14" t="str">
         <f>VLOOKUP(MID(D248,1,2),字库代码!B:I,8,TRUE)</f>
-        <v>尼科通巴</v>
+        <v>尼库巴</v>
       </c>
       <c r="F248" s="50" t="s">
         <v>561</v>
@@ -34033,14 +34036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42115,14 +42118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -45466,7 +45469,7 @@
         <v>228</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>769</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -45478,7 +45481,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>41</v>
@@ -45499,7 +45502,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>114</v>
@@ -45520,7 +45523,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>300</v>
@@ -45541,7 +45544,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>231</v>
@@ -45694,7 +45697,7 @@
         <v>56</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -45820,7 +45823,7 @@
         <v>284</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -45907,7 +45910,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>253</v>
@@ -45934,7 +45937,7 @@
         <v>68</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -45955,7 +45958,7 @@
         <v>256</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -45967,7 +45970,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>72</v>
@@ -45976,7 +45979,7 @@
         <v>72</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -45988,7 +45991,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>139</v>
@@ -46009,7 +46012,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>259</v>
@@ -46030,7 +46033,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>75</v>
@@ -46039,7 +46042,7 @@
         <v>75</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -46051,7 +46054,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>291</v>
@@ -46060,7 +46063,7 @@
         <v>291</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -46072,7 +46075,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>330</v>
@@ -46081,7 +46084,7 @@
         <v>330</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -46102,7 +46105,7 @@
         <v>478</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -46117,13 +46120,13 @@
         <v>1850</v>
       </c>
       <c r="E228" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>2754</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>2754</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -46135,7 +46138,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>370</v>
@@ -46159,10 +46162,10 @@
         <v>1838</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>1833</v>
@@ -46180,10 +46183,10 @@
         <v>1841</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>1833</v>
@@ -46207,7 +46210,7 @@
         <v>422</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -46222,13 +46225,13 @@
         <v>1828</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>2759</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>2759</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -46243,10 +46246,10 @@
         <v>1813</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>1811</v>
@@ -46396,7 +46399,7 @@
         <v>540</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -46417,7 +46420,7 @@
         <v>433</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -46438,7 +46441,7 @@
         <v>484</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>2710</v>
@@ -46453,7 +46456,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>377</v>
@@ -46462,7 +46465,7 @@
         <v>377</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>2710</v>
@@ -46477,7 +46480,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>436</v>
@@ -46486,7 +46489,7 @@
         <v>436</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>2710</v>
@@ -46510,7 +46513,7 @@
         <v>546</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>2710</v>
@@ -46534,7 +46537,7 @@
         <v>439</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>2710</v>
@@ -46558,7 +46561,7 @@
         <v>487</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>2710</v>
@@ -46582,7 +46585,7 @@
         <v>380</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>2710</v>
@@ -46606,7 +46609,7 @@
         <v>535</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>2710</v>
@@ -46630,7 +46633,7 @@
         <v>442</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>2710</v>
@@ -46645,7 +46648,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>497</v>
@@ -46654,7 +46657,7 @@
         <v>497</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>2710</v>
@@ -46669,7 +46672,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>389</v>
@@ -46678,7 +46681,7 @@
         <v>389</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>2710</v>
@@ -46689,10 +46692,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>549</v>
@@ -46701,7 +46704,7 @@
         <v>549</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>2710</v>
@@ -46716,7 +46719,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>494</v>
@@ -46725,10 +46728,10 @@
         <v>494</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -46749,10 +46752,10 @@
         <v>386</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -46764,13 +46767,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="2780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780">
   <si>
     <t>编号</t>
   </si>
@@ -8367,11 +8367,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -8409,24 +8409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8441,26 +8425,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8476,11 +8492,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8491,9 +8514,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8508,46 +8546,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8586,25 +8586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8616,7 +8610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8628,7 +8622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8646,13 +8658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8664,7 +8670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8676,19 +8694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8706,49 +8718,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8760,13 +8748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8808,17 +8808,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8841,6 +8841,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -8851,7 +8875,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8881,30 +8905,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8913,10 +8913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8925,133 +8925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11136,7 +11136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q754"/>
   <sheetViews>
@@ -34036,14 +34036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K754"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42118,11 +42118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>

--- a/ccchi/cnc1字符串表.xlsx
+++ b/ccchi/cnc1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="14295" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782">
   <si>
     <t>编号</t>
   </si>
@@ -7746,6 +7746,9 @@
     <t>8fatchi.fnt悬停文字</t>
   </si>
   <si>
+    <t>6point.fnt</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -8251,6 +8254,9 @@
   </si>
   <si>
     <t>技术人员</t>
+  </si>
+  <si>
+    <t>右下角版权（000d8327</t>
   </si>
   <si>
     <t>陈博士</t>
@@ -8367,11 +8373,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -8416,61 +8422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8484,11 +8437,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8508,30 +8468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8546,8 +8483,77 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8586,85 +8592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8682,7 +8610,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8694,7 +8658,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8706,13 +8712,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8724,49 +8754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8808,21 +8814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8834,15 +8825,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8864,6 +8846,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -8875,7 +8868,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8897,11 +8890,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8913,10 +8919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8925,133 +8931,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34040,7 +34046,7 @@
   <sheetPr/>
   <dimension ref="A1:K754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
@@ -42122,10 +42128,10 @@
   <sheetPr/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -42144,7 +42150,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -42168,6 +42174,9 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>2574</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2575</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -42175,13 +42184,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -42209,7 +42218,7 @@
         <v>446</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>445</v>
@@ -42243,7 +42252,7 @@
         <v>501</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>500</v>
@@ -42260,7 +42269,7 @@
         <v>393</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>392</v>
@@ -42311,7 +42320,7 @@
         <v>396</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>395</v>
@@ -42325,13 +42334,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -42339,13 +42348,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -42353,13 +42362,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -42367,13 +42376,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -42381,13 +42390,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -42667,13 +42676,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -42685,10 +42694,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -42700,10 +42709,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -42715,10 +42724,10 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -42730,10 +42739,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -42745,10 +42754,10 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -42760,10 +42769,10 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -42775,10 +42784,10 @@
         <v>27</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -42790,10 +42799,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -42805,10 +42814,10 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -42820,10 +42829,10 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -42835,10 +42844,10 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -42850,10 +42859,10 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -42865,10 +42874,10 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -42880,10 +42889,10 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -42895,10 +42904,10 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -42910,10 +42919,10 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -42925,10 +42934,10 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -42940,10 +42949,10 @@
         <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -42955,10 +42964,10 @@
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -42970,10 +42979,10 @@
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -42985,10 +42994,10 @@
         <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -43000,10 +43009,10 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -43015,10 +43024,10 @@
         <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -43030,10 +43039,10 @@
         <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -43045,10 +43054,10 @@
         <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -43060,10 +43069,10 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -43075,10 +43084,10 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -43105,10 +43114,10 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -43150,10 +43159,10 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -43165,10 +43174,10 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -43180,10 +43189,10 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -43195,10 +43204,10 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -43210,10 +43219,10 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -43225,10 +43234,10 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -43240,10 +43249,10 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -43255,10 +43264,10 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -43270,10 +43279,10 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -43285,10 +43294,10 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -43300,10 +43309,10 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -43315,10 +43324,10 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -43330,10 +43339,10 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -43345,10 +43354,10 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -43360,10 +43369,10 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -43375,10 +43384,10 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -43390,10 +43399,10 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -43405,10 +43414,10 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -43420,10 +43429,10 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -43435,10 +43444,10 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -43450,10 +43459,10 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -43465,10 +43474,10 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -43480,10 +43489,10 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -43495,10 +43504,10 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -43510,10 +43519,10 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -43525,10 +43534,10 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -43540,10 +43549,10 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -43555,10 +43564,10 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -43570,10 +43579,10 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -43585,10 +43594,10 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -43615,10 +43624,10 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -43630,10 +43639,10 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -43645,10 +43654,10 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -43660,10 +43669,10 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -43675,10 +43684,10 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -43690,10 +43699,10 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -43705,10 +43714,10 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -43720,10 +43729,10 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -43735,10 +43744,10 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -43750,10 +43759,10 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -43765,10 +43774,10 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -43780,10 +43789,10 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -43795,10 +43804,10 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -43810,10 +43819,10 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -43825,10 +43834,10 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -43840,10 +43849,10 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -43855,10 +43864,10 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -43870,10 +43879,10 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -43885,10 +43894,10 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -43900,10 +43909,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -43915,10 +43924,10 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -43930,10 +43939,10 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -43945,10 +43954,10 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -43975,10 +43984,10 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -43990,10 +43999,10 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -44005,10 +44014,10 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -44020,10 +44029,10 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -44035,10 +44044,10 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -44050,10 +44059,10 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -44065,10 +44074,10 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -44080,10 +44089,10 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -44095,13 +44104,13 @@
         <v>7F</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -44113,7 +44122,7 @@
         <v>80</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>342</v>
@@ -44134,13 +44143,13 @@
         <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>568</v>
@@ -44161,7 +44170,7 @@
         <v>348</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>570</v>
@@ -44176,7 +44185,7 @@
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>164</v>
@@ -44185,7 +44194,7 @@
         <v>164</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>572</v>
@@ -44203,13 +44212,13 @@
         <v>820</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>574</v>
@@ -44227,13 +44236,13 @@
         <v>823</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>576</v>
@@ -44248,16 +44257,16 @@
         <v>86</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>578</v>
@@ -44284,7 +44293,7 @@
         <v>18</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>580</v>
@@ -44320,13 +44329,13 @@
         <v>89</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>586</v>
@@ -44341,7 +44350,7 @@
         <v>8A</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>327</v>
@@ -44362,7 +44371,7 @@
         <v>8B</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>333</v>
@@ -44386,13 +44395,13 @@
         <v>907</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -44407,10 +44416,10 @@
         <v>910</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>604</v>
@@ -44425,7 +44434,7 @@
         <v>8E</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>351</v>
@@ -44434,7 +44443,7 @@
         <v>351</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -44446,16 +44455,16 @@
         <v>8F</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -44539,7 +44548,7 @@
         <v>366</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -44554,10 +44563,10 @@
         <v>860</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>627</v>
@@ -44575,10 +44584,10 @@
         <v>883</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>629</v>
@@ -44623,7 +44632,7 @@
         <v>161</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -44659,10 +44668,10 @@
         <v>800</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>643</v>
@@ -44677,7 +44686,7 @@
         <v>9A</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>170</v>
@@ -44698,7 +44707,7 @@
         <v>9B</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>173</v>
@@ -44740,7 +44749,7 @@
         <v>9D</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>179</v>
@@ -44761,7 +44770,7 @@
         <v>9E</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>182</v>
@@ -44854,7 +44863,7 @@
         <v>82</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -44887,13 +44896,13 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>680</v>
@@ -44908,7 +44917,7 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>294</v>
@@ -44938,7 +44947,7 @@
         <v>523</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>688</v>
@@ -44962,7 +44971,7 @@
         <v>413</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>691</v>
@@ -44977,7 +44986,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>207</v>
@@ -44986,7 +44995,7 @@
         <v>207</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -44998,7 +45007,7 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>21</v>
@@ -45007,7 +45016,7 @@
         <v>526</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -45061,7 +45070,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>28</v>
@@ -45082,7 +45091,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>270</v>
@@ -45103,7 +45112,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>95</v>
@@ -45145,7 +45154,7 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>91</v>
@@ -45166,7 +45175,7 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>216</v>
@@ -45196,7 +45205,7 @@
         <v>32</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -45208,7 +45217,7 @@
         <v>B3</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>99</v>
@@ -45229,7 +45238,7 @@
         <v>B4</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>297</v>
@@ -45271,7 +45280,7 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>35</v>
@@ -45292,7 +45301,7 @@
         <v>B7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>277</v>
@@ -45322,7 +45331,7 @@
         <v>103</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -45334,7 +45343,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>224</v>
@@ -45355,7 +45364,7 @@
         <v>BA</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>38</v>
@@ -45376,7 +45385,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>307</v>
@@ -45397,7 +45406,7 @@
         <v>BC</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>111</v>
@@ -45469,7 +45478,7 @@
         <v>228</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -45481,7 +45490,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>41</v>
@@ -45502,7 +45511,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>114</v>
@@ -45523,7 +45532,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>300</v>
@@ -45544,7 +45553,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>231</v>
@@ -45697,7 +45706,7 @@
         <v>56</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -45718,7 +45727,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -45735,6 +45744,9 @@
       <c r="I207" s="2" t="s">
         <v>787</v>
       </c>
+      <c r="J207" s="2" t="s">
+        <v>2745</v>
+      </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2">
@@ -45823,7 +45835,7 @@
         <v>284</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -45910,7 +45922,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>253</v>
@@ -45937,7 +45949,7 @@
         <v>68</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -45958,7 +45970,7 @@
         <v>256</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -45970,7 +45982,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>72</v>
@@ -45979,7 +45991,7 @@
         <v>72</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -45991,7 +46003,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>139</v>
@@ -46012,7 +46024,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>259</v>
@@ -46033,7 +46045,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>75</v>
@@ -46042,7 +46054,7 @@
         <v>75</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -46054,7 +46066,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>291</v>
@@ -46063,7 +46075,7 @@
         <v>291</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -46075,7 +46087,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>330</v>
@@ -46084,7 +46096,7 @@
         <v>330</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -46105,7 +46117,7 @@
         <v>478</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -46120,13 +46132,13 @@
         <v>1850</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -46138,7 +46150,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>370</v>
@@ -46162,10 +46174,10 @@
         <v>1838</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>1833</v>
@@ -46183,10 +46195,10 @@
         <v>1841</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>1833</v>
@@ -46210,7 +46222,7 @@
         <v>422</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -46225,13 +46237,13 @@
         <v>1828</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -46246,10 +46258,10 @@
         <v>1813</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>1811</v>
@@ -46399,7 +46411,7 @@
         <v>540</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -46420,7 +46432,7 @@
         <v>433</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -46441,10 +46453,10 @@
         <v>484</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -46456,7 +46468,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>377</v>
@@ -46465,10 +46477,10 @@
         <v>377</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -46480,7 +46492,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>436</v>
@@ -46489,10 +46501,10 @@
         <v>436</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -46513,10 +46525,10 @@
         <v>546</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -46537,10 +46549,10 @@
         <v>439</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -46561,10 +46573,10 @@
         <v>487</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -46585,10 +46597,10 @@
         <v>380</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -46609,10 +46621,10 @@
         <v>535</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -46633,10 +46645,10 @@
         <v>442</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -46648,7 +46660,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>497</v>
@@ -46657,10 +46669,10 @@
         <v>497</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -46672,7 +46684,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>389</v>
@@ -46681,10 +46693,10 @@
         <v>389</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -46692,10 +46704,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>549</v>
@@ -46704,10 +46716,10 @@
         <v>549</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -46719,7 +46731,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>494</v>
@@ -46728,10 +46740,10 @@
         <v>494</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -46752,10 +46764,10 @@
         <v>386</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -46767,13 +46779,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="260" spans="4:4">
